--- a/app/config/tables/MIF/forms/MIF/MIF.xlsx
+++ b/app/config/tables/MIF/forms/MIF/MIF.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CF18869-6EA2-42FC-AD62-16B8FB36E8B1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B406694-8B9D-4D57-A406-C2DC4FEB167E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="648" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="648" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -3730,7 +3730,7 @@
     <t>date</t>
   </si>
   <si>
-    <t>NAME</t>
+    <t>NOME</t>
   </si>
 </sst>
 </file>
@@ -6768,9 +6768,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FCD3AC6-97A9-4343-AD51-53B42E3E4B29}">
   <dimension ref="A1:C308"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B43" sqref="B43"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10183,7 +10183,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F97EDFF-72E2-4781-A226-FCA8C7C63015}">
   <dimension ref="A1:R137"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
     </sheetView>

--- a/app/config/tables/MIF/forms/MIF/MIF.xlsx
+++ b/app/config/tables/MIF/forms/MIF/MIF.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B406694-8B9D-4D57-A406-C2DC4FEB167E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DDF417B-F2B2-4DF4-96AC-F1CB39B7EBDF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="648" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="648" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -2948,9 +2948,6 @@
     <t>data('ONDECOD1') =='3'</t>
   </si>
   <si>
-    <t>ondecod2</t>
-  </si>
-  <si>
     <t>Which Hospital?</t>
   </si>
   <si>
@@ -3731,6 +3728,9 @@
   </si>
   <si>
     <t>NOME</t>
+  </si>
+  <si>
+    <t>ONDECOD2</t>
   </si>
 </sst>
 </file>
@@ -5090,10 +5090,10 @@
         <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="D45" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -5105,10 +5105,10 @@
         <v>25</v>
       </c>
       <c r="C46" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="D46" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -5120,10 +5120,10 @@
         <v>17</v>
       </c>
       <c r="C47" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="D47" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -5135,10 +5135,10 @@
         <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="D48" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -5150,10 +5150,10 @@
         <v>12</v>
       </c>
       <c r="C49" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="D49" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -5165,10 +5165,10 @@
         <v>1</v>
       </c>
       <c r="C50" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="D50" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -5180,10 +5180,10 @@
         <v>24</v>
       </c>
       <c r="C51" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="D51" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -5195,10 +5195,10 @@
         <v>7</v>
       </c>
       <c r="C52" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="D52" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -5210,10 +5210,10 @@
         <v>13</v>
       </c>
       <c r="C53" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="D53" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -5225,10 +5225,10 @@
         <v>6</v>
       </c>
       <c r="C54" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="D54" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -5240,10 +5240,10 @@
         <v>18</v>
       </c>
       <c r="C55" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="D55" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -5255,10 +5255,10 @@
         <v>26</v>
       </c>
       <c r="C56" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="D56" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -5270,10 +5270,10 @@
         <v>27</v>
       </c>
       <c r="C57" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="D57" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -5285,10 +5285,10 @@
         <v>15</v>
       </c>
       <c r="C58" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="D58" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -5300,10 +5300,10 @@
         <v>23</v>
       </c>
       <c r="C59" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="D59" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -5315,10 +5315,10 @@
         <v>22</v>
       </c>
       <c r="C60" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="D60" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -5330,10 +5330,10 @@
         <v>14</v>
       </c>
       <c r="C61" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="D61" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -5345,10 +5345,10 @@
         <v>10</v>
       </c>
       <c r="C62" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="D62" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -5360,10 +5360,10 @@
         <v>11</v>
       </c>
       <c r="C63" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="D63" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -5375,10 +5375,10 @@
         <v>19</v>
       </c>
       <c r="C64" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="D64" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -5390,10 +5390,10 @@
         <v>2</v>
       </c>
       <c r="C65" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="D65" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -5405,10 +5405,10 @@
         <v>5</v>
       </c>
       <c r="C66" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="D66" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -5420,10 +5420,10 @@
         <v>16</v>
       </c>
       <c r="C67" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="D67" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -5435,10 +5435,10 @@
         <v>3</v>
       </c>
       <c r="C68" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="D68" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -5450,10 +5450,10 @@
         <v>4</v>
       </c>
       <c r="C69" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="D69" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -5465,10 +5465,10 @@
         <v>20</v>
       </c>
       <c r="C70" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="D70" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -5480,10 +5480,10 @@
         <v>21</v>
       </c>
       <c r="C71" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="D71" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -5495,10 +5495,10 @@
         <v>79</v>
       </c>
       <c r="C72" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="D72" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -5570,10 +5570,10 @@
         <v>1</v>
       </c>
       <c r="C77" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D77" t="s">
         <v>1059</v>
-      </c>
-      <c r="D77" t="s">
-        <v>1060</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -5585,10 +5585,10 @@
         <v>2</v>
       </c>
       <c r="C78" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D78" t="s">
         <v>1061</v>
-      </c>
-      <c r="D78" t="s">
-        <v>1062</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -5600,10 +5600,10 @@
         <v>3</v>
       </c>
       <c r="C79" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D79" t="s">
         <v>1063</v>
-      </c>
-      <c r="D79" t="s">
-        <v>1064</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -5615,10 +5615,10 @@
         <v>4</v>
       </c>
       <c r="C80" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D80" t="s">
         <v>1065</v>
-      </c>
-      <c r="D80" t="s">
-        <v>1066</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -5630,10 +5630,10 @@
         <v>5</v>
       </c>
       <c r="C81" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D81" t="s">
         <v>1067</v>
-      </c>
-      <c r="D81" t="s">
-        <v>1068</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -5645,10 +5645,10 @@
         <v>7</v>
       </c>
       <c r="C82" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D82" t="s">
         <v>1069</v>
-      </c>
-      <c r="D82" t="s">
-        <v>1070</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -5660,10 +5660,10 @@
         <v>1</v>
       </c>
       <c r="C83" t="s">
+        <v>1070</v>
+      </c>
+      <c r="D83" t="s">
         <v>1071</v>
-      </c>
-      <c r="D83" t="s">
-        <v>1072</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -5675,10 +5675,10 @@
         <v>2</v>
       </c>
       <c r="C84" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D84" t="s">
         <v>1073</v>
-      </c>
-      <c r="D84" t="s">
-        <v>1074</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -5690,10 +5690,10 @@
         <v>1</v>
       </c>
       <c r="C85" t="s">
+        <v>1074</v>
+      </c>
+      <c r="D85" t="s">
         <v>1075</v>
-      </c>
-      <c r="D85" t="s">
-        <v>1076</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -5705,10 +5705,10 @@
         <v>2</v>
       </c>
       <c r="C86" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D86" t="s">
         <v>1077</v>
-      </c>
-      <c r="D86" t="s">
-        <v>1078</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -5720,7 +5720,7 @@
         <v>3</v>
       </c>
       <c r="C87" s="15" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="D87" t="s">
         <v>32</v>
@@ -5735,10 +5735,10 @@
         <v>1</v>
       </c>
       <c r="C88" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D88" t="s">
         <v>1080</v>
-      </c>
-      <c r="D88" t="s">
-        <v>1081</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -5750,10 +5750,10 @@
         <v>2</v>
       </c>
       <c r="C89" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D89" t="s">
         <v>1082</v>
-      </c>
-      <c r="D89" t="s">
-        <v>1083</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -5765,10 +5765,10 @@
         <v>3</v>
       </c>
       <c r="C90" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D90" t="s">
         <v>1084</v>
-      </c>
-      <c r="D90" t="s">
-        <v>1085</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -5810,10 +5810,10 @@
         <v>1</v>
       </c>
       <c r="C93" t="s">
+        <v>1085</v>
+      </c>
+      <c r="D93" t="s">
         <v>1086</v>
-      </c>
-      <c r="D93" t="s">
-        <v>1087</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -5825,10 +5825,10 @@
         <v>2</v>
       </c>
       <c r="C94" t="s">
+        <v>1087</v>
+      </c>
+      <c r="D94" t="s">
         <v>1088</v>
-      </c>
-      <c r="D94" t="s">
-        <v>1089</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -5840,10 +5840,10 @@
         <v>3</v>
       </c>
       <c r="C95" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D95" t="s">
         <v>1090</v>
-      </c>
-      <c r="D95" t="s">
-        <v>1091</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -5851,13 +5851,13 @@
         <v>366</v>
       </c>
       <c r="B96" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C96" t="s">
         <v>1092</v>
       </c>
-      <c r="C96" t="s">
+      <c r="D96" t="s">
         <v>1093</v>
-      </c>
-      <c r="D96" t="s">
-        <v>1094</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -5865,13 +5865,13 @@
         <v>366</v>
       </c>
       <c r="B97" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C97" t="s">
         <v>1095</v>
       </c>
-      <c r="C97" t="s">
+      <c r="D97" t="s">
         <v>1096</v>
-      </c>
-      <c r="D97" t="s">
-        <v>1097</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -5879,13 +5879,13 @@
         <v>366</v>
       </c>
       <c r="B98" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C98" t="s">
         <v>1098</v>
       </c>
-      <c r="C98" t="s">
+      <c r="D98" t="s">
         <v>1099</v>
-      </c>
-      <c r="D98" t="s">
-        <v>1100</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
@@ -5893,13 +5893,13 @@
         <v>366</v>
       </c>
       <c r="B99" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C99" t="s">
         <v>1101</v>
       </c>
-      <c r="C99" t="s">
+      <c r="D99" t="s">
         <v>1102</v>
-      </c>
-      <c r="D99" t="s">
-        <v>1103</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
@@ -5907,13 +5907,13 @@
         <v>366</v>
       </c>
       <c r="B100" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C100" t="s">
         <v>1104</v>
       </c>
-      <c r="C100" t="s">
-        <v>1105</v>
-      </c>
       <c r="D100" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -5921,13 +5921,13 @@
         <v>366</v>
       </c>
       <c r="B101" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C101" t="s">
         <v>1106</v>
       </c>
-      <c r="C101" t="s">
-        <v>1107</v>
-      </c>
       <c r="D101" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -5935,13 +5935,13 @@
         <v>366</v>
       </c>
       <c r="B102" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C102" t="s">
         <v>1108</v>
       </c>
-      <c r="C102" t="s">
+      <c r="D102" t="s">
         <v>1109</v>
-      </c>
-      <c r="D102" t="s">
-        <v>1110</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
@@ -5949,13 +5949,13 @@
         <v>366</v>
       </c>
       <c r="B103" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C103" t="s">
         <v>1111</v>
       </c>
-      <c r="C103" t="s">
+      <c r="D103" t="s">
         <v>1112</v>
-      </c>
-      <c r="D103" t="s">
-        <v>1113</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
@@ -5963,13 +5963,13 @@
         <v>366</v>
       </c>
       <c r="B104" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C104" t="s">
         <v>1114</v>
       </c>
-      <c r="C104" t="s">
+      <c r="D104" t="s">
         <v>1115</v>
-      </c>
-      <c r="D104" t="s">
-        <v>1116</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
@@ -5977,13 +5977,13 @@
         <v>366</v>
       </c>
       <c r="B105" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C105" t="s">
         <v>1117</v>
       </c>
-      <c r="C105" t="s">
+      <c r="D105" t="s">
         <v>1118</v>
-      </c>
-      <c r="D105" t="s">
-        <v>1119</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
@@ -5991,7 +5991,7 @@
         <v>366</v>
       </c>
       <c r="B106" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="C106" t="s">
         <v>35</v>
@@ -6023,10 +6023,10 @@
         <v>1</v>
       </c>
       <c r="C108" t="s">
+        <v>1120</v>
+      </c>
+      <c r="D108" t="s">
         <v>1121</v>
-      </c>
-      <c r="D108" t="s">
-        <v>1122</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
@@ -6038,10 +6038,10 @@
         <v>1</v>
       </c>
       <c r="C109" t="s">
+        <v>1122</v>
+      </c>
+      <c r="D109" t="s">
         <v>1123</v>
-      </c>
-      <c r="D109" t="s">
-        <v>1124</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
@@ -6053,10 +6053,10 @@
         <v>2</v>
       </c>
       <c r="C110" t="s">
+        <v>1124</v>
+      </c>
+      <c r="D110" t="s">
         <v>1125</v>
-      </c>
-      <c r="D110" t="s">
-        <v>1126</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
@@ -6068,10 +6068,10 @@
         <v>1</v>
       </c>
       <c r="C111" t="s">
+        <v>1126</v>
+      </c>
+      <c r="D111" t="s">
         <v>1127</v>
-      </c>
-      <c r="D111" t="s">
-        <v>1128</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
@@ -6083,10 +6083,10 @@
         <v>2</v>
       </c>
       <c r="C112" t="s">
+        <v>1128</v>
+      </c>
+      <c r="D112" t="s">
         <v>1129</v>
-      </c>
-      <c r="D112" t="s">
-        <v>1130</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
@@ -6113,10 +6113,10 @@
         <v>1</v>
       </c>
       <c r="C114" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="D114" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
@@ -6128,10 +6128,10 @@
         <v>2</v>
       </c>
       <c r="C115" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="D115" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
@@ -6143,7 +6143,7 @@
         <v>3</v>
       </c>
       <c r="C116" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="D116" t="s">
         <v>32</v>
@@ -6226,7 +6226,7 @@
         <v>1</v>
       </c>
       <c r="C121" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="D121" t="s">
         <v>195</v>
@@ -6241,10 +6241,10 @@
         <v>2</v>
       </c>
       <c r="C122" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="D122" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
@@ -6256,10 +6256,10 @@
         <v>3</v>
       </c>
       <c r="C123" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="D123" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
@@ -6274,7 +6274,7 @@
         <v>35</v>
       </c>
       <c r="D124" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
@@ -6286,10 +6286,10 @@
         <v>1</v>
       </c>
       <c r="C125" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="D125" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
@@ -6316,10 +6316,10 @@
         <v>3</v>
       </c>
       <c r="C127" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="D127" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
@@ -6331,10 +6331,10 @@
         <v>4</v>
       </c>
       <c r="C128" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="D128" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
@@ -6346,10 +6346,10 @@
         <v>5</v>
       </c>
       <c r="C129" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="D129" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
@@ -6361,225 +6361,225 @@
         <v>6</v>
       </c>
       <c r="C130" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="D130" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="B131" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C131" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="D131" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="B132" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C132" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="D132" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="B133" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C133" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="D133" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="B134" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
       <c r="C134" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="D134" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="B135" t="str">
         <f>"5"</f>
         <v>5</v>
       </c>
       <c r="C135" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="D135" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="B136" t="str">
         <f>"6"</f>
         <v>6</v>
       </c>
       <c r="C136" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="D136" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="B137" t="str">
         <f>"7"</f>
         <v>7</v>
       </c>
       <c r="C137" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="D137" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="B138" t="str">
         <f>"8"</f>
         <v>8</v>
       </c>
       <c r="C138" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="D138" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="B139" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C139" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="D139" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="B140" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C140" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="D140" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="B141" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C141" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="D141" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="B142" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
       <c r="C142" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="D142" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="B143" t="str">
         <f>"5"</f>
         <v>5</v>
       </c>
       <c r="C143" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="D143" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="B144" t="str">
         <f>"6"</f>
         <v>6</v>
       </c>
       <c r="C144" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="D144" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="B145" t="str">
         <f>"7"</f>
@@ -6594,82 +6594,82 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="B146" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C146" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="D146" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="B147" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C147" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="D147" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="B148" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C148" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="D148" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="B149" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
       <c r="C149" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="D149" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="B150" t="str">
         <f>"5"</f>
         <v>5</v>
       </c>
       <c r="C150" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="D150" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="B151" t="str">
         <f>"6"</f>
@@ -6691,10 +6691,10 @@
         <v>1</v>
       </c>
       <c r="C152" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="D152" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
@@ -6706,10 +6706,10 @@
         <v>2</v>
       </c>
       <c r="C153" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="D153" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
@@ -6721,10 +6721,10 @@
         <v>3</v>
       </c>
       <c r="C154" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="D154" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
@@ -6736,10 +6736,10 @@
         <v>4</v>
       </c>
       <c r="C155" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="D155" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
@@ -6768,9 +6768,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FCD3AC6-97A9-4343-AD51-53B42E3E4B29}">
   <dimension ref="A1:C308"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A35" sqref="A35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A280" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A291" sqref="A291"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6837,7 +6837,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="B6" t="s">
         <v>124</v>
@@ -6848,7 +6848,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -6859,7 +6859,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="B8" t="s">
         <v>236</v>
@@ -7156,7 +7156,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="B35" t="s">
         <v>114</v>
@@ -7585,7 +7585,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="B76" s="12" t="s">
         <v>24</v>
@@ -9656,7 +9656,7 @@
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="B268" t="s">
         <v>243</v>
@@ -9667,7 +9667,7 @@
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="B269" t="s">
         <v>114</v>
@@ -9678,7 +9678,7 @@
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="B271" t="s">
         <v>124</v>
@@ -9689,7 +9689,7 @@
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="B272" t="s">
         <v>114</v>
@@ -9700,7 +9700,7 @@
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="B273" t="s">
         <v>124</v>
@@ -9711,7 +9711,7 @@
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="B274" t="s">
         <v>124</v>
@@ -9733,7 +9733,7 @@
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="B276" t="s">
         <v>124</v>
@@ -9744,7 +9744,7 @@
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="B277" t="s">
         <v>114</v>
@@ -9755,7 +9755,7 @@
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="B278" t="s">
         <v>124</v>
@@ -9766,7 +9766,7 @@
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="B279" t="s">
         <v>124</v>
@@ -9777,7 +9777,7 @@
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="B280" t="s">
         <v>114</v>
@@ -9788,7 +9788,7 @@
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="B281" t="s">
         <v>124</v>
@@ -9799,7 +9799,7 @@
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="B282" t="s">
         <v>114</v>
@@ -9810,7 +9810,7 @@
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="B283" t="s">
         <v>124</v>
@@ -9821,7 +9821,7 @@
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="B284" t="s">
         <v>124</v>
@@ -9832,7 +9832,7 @@
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="B285" t="s">
         <v>124</v>
@@ -9843,7 +9843,7 @@
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="B286" t="s">
         <v>114</v>
@@ -9898,7 +9898,7 @@
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>933</v>
+        <v>1186</v>
       </c>
       <c r="B291" s="19" t="s">
         <v>114</v>
@@ -9920,7 +9920,7 @@
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="B293" t="s">
         <v>124</v>
@@ -9931,7 +9931,7 @@
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="B294" t="s">
         <v>124</v>
@@ -9942,7 +9942,7 @@
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="B295" t="s">
         <v>124</v>
@@ -9953,7 +9953,7 @@
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B296" t="s">
         <v>124</v>
@@ -9975,7 +9975,7 @@
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="B298" t="s">
         <v>124</v>
@@ -9997,7 +9997,7 @@
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="B300" t="s">
         <v>124</v>
@@ -10008,7 +10008,7 @@
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="B301" t="s">
         <v>24</v>
@@ -10019,7 +10019,7 @@
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="B302" t="s">
         <v>24</v>
@@ -10030,7 +10030,7 @@
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="B303" t="s">
         <v>124</v>
@@ -10041,7 +10041,7 @@
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="B304" t="s">
         <v>114</v>
@@ -10052,7 +10052,7 @@
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="B305" t="s">
         <v>114</v>
@@ -10063,7 +10063,7 @@
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="B307" t="s">
         <v>270</v>
@@ -10074,7 +10074,7 @@
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B308" t="s">
         <v>270</v>
@@ -10151,22 +10151,22 @@
         <v>133</v>
       </c>
       <c r="C2" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -10183,7 +10183,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F97EDFF-72E2-4781-A226-FCA8C7C63015}">
   <dimension ref="A1:R137"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
     </sheetView>
@@ -10374,7 +10374,7 @@
         <v>114</v>
       </c>
       <c r="F14" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="G14" t="s">
         <v>115</v>
@@ -10764,7 +10764,7 @@
         <v>29</v>
       </c>
       <c r="F56" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>247</v>
@@ -10788,7 +10788,7 @@
         <v>24</v>
       </c>
       <c r="F58" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>249</v>
@@ -10805,7 +10805,7 @@
         <v>237</v>
       </c>
       <c r="F59" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="60" spans="2:18" x14ac:dyDescent="0.25">
@@ -11715,7 +11715,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -12330,7 +12330,7 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
@@ -12377,7 +12377,7 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
@@ -19298,8 +19298,8 @@
   <dimension ref="A1:M96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F43" sqref="F43"/>
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19563,13 +19563,13 @@
         <v>114</v>
       </c>
       <c r="F20" t="s">
+        <v>1186</v>
+      </c>
+      <c r="G20" t="s">
         <v>933</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>934</v>
-      </c>
-      <c r="H20" t="s">
-        <v>935</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -19599,13 +19599,13 @@
         <v>29</v>
       </c>
       <c r="F24" t="s">
+        <v>935</v>
+      </c>
+      <c r="G24" t="s">
         <v>936</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>937</v>
-      </c>
-      <c r="H24" t="s">
-        <v>938</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -19620,7 +19620,7 @@
         <v>133</v>
       </c>
       <c r="C26" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -19635,13 +19635,13 @@
         <v>114</v>
       </c>
       <c r="F28" t="s">
+        <v>939</v>
+      </c>
+      <c r="G28" t="s">
         <v>940</v>
       </c>
-      <c r="G28" t="s">
+      <c r="H28" t="s">
         <v>941</v>
-      </c>
-      <c r="H28" t="s">
-        <v>942</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -19662,16 +19662,16 @@
         <v>124</v>
       </c>
       <c r="E31" t="s">
+        <v>942</v>
+      </c>
+      <c r="F31" t="s">
         <v>943</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>944</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
         <v>945</v>
-      </c>
-      <c r="H31" t="s">
-        <v>946</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -19692,16 +19692,16 @@
         <v>124</v>
       </c>
       <c r="E34" t="s">
+        <v>946</v>
+      </c>
+      <c r="F34" t="s">
         <v>947</v>
       </c>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
         <v>948</v>
       </c>
-      <c r="G34" t="s">
+      <c r="H34" t="s">
         <v>949</v>
-      </c>
-      <c r="H34" t="s">
-        <v>950</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -19722,16 +19722,16 @@
         <v>124</v>
       </c>
       <c r="E37" t="s">
+        <v>950</v>
+      </c>
+      <c r="F37" t="s">
         <v>951</v>
       </c>
-      <c r="F37" t="s">
+      <c r="G37" t="s">
         <v>952</v>
       </c>
-      <c r="G37" t="s">
+      <c r="H37" t="s">
         <v>953</v>
-      </c>
-      <c r="H37" t="s">
-        <v>954</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -19755,13 +19755,13 @@
         <v>349</v>
       </c>
       <c r="F40" t="s">
+        <v>954</v>
+      </c>
+      <c r="G40" t="s">
         <v>955</v>
       </c>
-      <c r="G40" t="s">
+      <c r="H40" t="s">
         <v>956</v>
-      </c>
-      <c r="H40" t="s">
-        <v>957</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -19785,13 +19785,13 @@
         <v>29</v>
       </c>
       <c r="F43" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="G43" t="s">
+        <v>957</v>
+      </c>
+      <c r="H43" t="s">
         <v>958</v>
-      </c>
-      <c r="H43" t="s">
-        <v>959</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -19812,10 +19812,10 @@
         <v>184</v>
       </c>
       <c r="G46" s="19" t="s">
+        <v>959</v>
+      </c>
+      <c r="H46" s="19" t="s">
         <v>960</v>
-      </c>
-      <c r="H46" s="19" t="s">
-        <v>961</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -19824,13 +19824,13 @@
         <v>24</v>
       </c>
       <c r="F47" t="s">
+        <v>961</v>
+      </c>
+      <c r="G47" s="19" t="s">
         <v>962</v>
       </c>
-      <c r="G47" s="19" t="s">
+      <c r="H47" s="19" t="s">
         <v>963</v>
-      </c>
-      <c r="H47" s="19" t="s">
-        <v>964</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -19839,13 +19839,13 @@
         <v>24</v>
       </c>
       <c r="F48" t="s">
+        <v>964</v>
+      </c>
+      <c r="G48" s="19" t="s">
         <v>965</v>
       </c>
-      <c r="G48" s="19" t="s">
+      <c r="H48" s="19" t="s">
         <v>966</v>
-      </c>
-      <c r="H48" s="19" t="s">
-        <v>967</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -19875,13 +19875,13 @@
         <v>29</v>
       </c>
       <c r="F52" t="s">
+        <v>967</v>
+      </c>
+      <c r="G52" t="s">
         <v>968</v>
       </c>
-      <c r="G52" t="s">
+      <c r="H52" t="s">
         <v>969</v>
-      </c>
-      <c r="H52" t="s">
-        <v>970</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
@@ -19890,7 +19890,7 @@
         <v>133</v>
       </c>
       <c r="C53" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
@@ -19899,13 +19899,13 @@
         <v>114</v>
       </c>
       <c r="F54" t="s">
+        <v>971</v>
+      </c>
+      <c r="G54" t="s">
         <v>972</v>
       </c>
-      <c r="G54" t="s">
+      <c r="H54" t="s">
         <v>973</v>
-      </c>
-      <c r="H54" t="s">
-        <v>974</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
@@ -19935,13 +19935,13 @@
         <v>29</v>
       </c>
       <c r="F58" t="s">
+        <v>974</v>
+      </c>
+      <c r="G58" t="s">
         <v>975</v>
       </c>
-      <c r="G58" t="s">
+      <c r="H58" t="s">
         <v>976</v>
-      </c>
-      <c r="H58" t="s">
-        <v>977</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
@@ -19950,7 +19950,7 @@
         <v>133</v>
       </c>
       <c r="C59" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -19959,13 +19959,13 @@
         <v>114</v>
       </c>
       <c r="F60" t="s">
+        <v>978</v>
+      </c>
+      <c r="G60" t="s">
         <v>979</v>
       </c>
-      <c r="G60" t="s">
+      <c r="H60" t="s">
         <v>980</v>
-      </c>
-      <c r="H60" t="s">
-        <v>981</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
@@ -19986,7 +19986,7 @@
         <v>133</v>
       </c>
       <c r="C63" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
@@ -20001,13 +20001,13 @@
         <v>114</v>
       </c>
       <c r="F65" t="s">
+        <v>982</v>
+      </c>
+      <c r="G65" t="s">
         <v>983</v>
       </c>
-      <c r="G65" t="s">
+      <c r="H65" t="s">
         <v>984</v>
-      </c>
-      <c r="H65" t="s">
-        <v>985</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
@@ -20028,10 +20028,10 @@
         <v>184</v>
       </c>
       <c r="G68" t="s">
+        <v>985</v>
+      </c>
+      <c r="H68" t="s">
         <v>986</v>
-      </c>
-      <c r="H68" t="s">
-        <v>987</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
@@ -20043,13 +20043,13 @@
         <v>29</v>
       </c>
       <c r="F69" t="s">
+        <v>987</v>
+      </c>
+      <c r="G69" t="s">
         <v>988</v>
       </c>
-      <c r="G69" t="s">
+      <c r="H69" t="s">
         <v>989</v>
-      </c>
-      <c r="H69" t="s">
-        <v>990</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
@@ -20061,13 +20061,13 @@
         <v>29</v>
       </c>
       <c r="F70" t="s">
+        <v>990</v>
+      </c>
+      <c r="G70" t="s">
         <v>991</v>
       </c>
-      <c r="G70" t="s">
+      <c r="H70" t="s">
         <v>992</v>
-      </c>
-      <c r="H70" t="s">
-        <v>993</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
@@ -20091,13 +20091,13 @@
         <v>29</v>
       </c>
       <c r="F73" t="s">
+        <v>993</v>
+      </c>
+      <c r="G73" t="s">
         <v>994</v>
       </c>
-      <c r="G73" t="s">
+      <c r="H73" t="s">
         <v>995</v>
-      </c>
-      <c r="H73" t="s">
-        <v>996</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
@@ -20109,13 +20109,13 @@
         <v>29</v>
       </c>
       <c r="F74" t="s">
+        <v>996</v>
+      </c>
+      <c r="G74" t="s">
         <v>997</v>
       </c>
-      <c r="G74" t="s">
+      <c r="H74" t="s">
         <v>998</v>
-      </c>
-      <c r="H74" t="s">
-        <v>999</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
@@ -20139,13 +20139,13 @@
         <v>29</v>
       </c>
       <c r="F77" t="s">
+        <v>999</v>
+      </c>
+      <c r="G77" t="s">
         <v>1000</v>
       </c>
-      <c r="G77" t="s">
+      <c r="H77" t="s">
         <v>1001</v>
-      </c>
-      <c r="H77" t="s">
-        <v>1002</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
@@ -20157,13 +20157,13 @@
         <v>29</v>
       </c>
       <c r="F78" t="s">
+        <v>1002</v>
+      </c>
+      <c r="G78" t="s">
         <v>1003</v>
       </c>
-      <c r="G78" t="s">
-        <v>1004</v>
-      </c>
       <c r="H78" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
@@ -20178,7 +20178,7 @@
         <v>12</v>
       </c>
       <c r="C80" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
@@ -20190,13 +20190,13 @@
         <v>29</v>
       </c>
       <c r="F81" t="s">
+        <v>1005</v>
+      </c>
+      <c r="G81" t="s">
         <v>1006</v>
       </c>
-      <c r="G81" t="s">
+      <c r="H81" t="s">
         <v>1007</v>
-      </c>
-      <c r="H81" t="s">
-        <v>1008</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
@@ -20205,7 +20205,7 @@
         <v>133</v>
       </c>
       <c r="C82" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
@@ -20214,13 +20214,13 @@
         <v>114</v>
       </c>
       <c r="F83" t="s">
+        <v>1009</v>
+      </c>
+      <c r="G83" s="45" t="s">
         <v>1010</v>
       </c>
-      <c r="G83" s="45" t="s">
-        <v>1011</v>
-      </c>
       <c r="H83" s="45" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
@@ -20238,13 +20238,13 @@
         <v>29</v>
       </c>
       <c r="F85" t="s">
+        <v>1011</v>
+      </c>
+      <c r="G85" t="s">
         <v>1012</v>
       </c>
-      <c r="G85" t="s">
+      <c r="H85" t="s">
         <v>1013</v>
-      </c>
-      <c r="H85" t="s">
-        <v>1014</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
@@ -20253,7 +20253,7 @@
         <v>133</v>
       </c>
       <c r="C86" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
@@ -20262,13 +20262,13 @@
         <v>114</v>
       </c>
       <c r="F87" t="s">
+        <v>1015</v>
+      </c>
+      <c r="G87" s="45" t="s">
         <v>1016</v>
       </c>
-      <c r="G87" s="45" t="s">
-        <v>1017</v>
-      </c>
       <c r="H87" s="45" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
@@ -20304,13 +20304,13 @@
         <v>29</v>
       </c>
       <c r="F92" t="s">
+        <v>1017</v>
+      </c>
+      <c r="G92" t="s">
         <v>1018</v>
       </c>
-      <c r="G92" t="s">
+      <c r="H92" t="s">
         <v>1019</v>
-      </c>
-      <c r="H92" t="s">
-        <v>1020</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
@@ -20319,7 +20319,7 @@
         <v>133</v>
       </c>
       <c r="C93" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
@@ -20328,13 +20328,13 @@
         <v>114</v>
       </c>
       <c r="F94" t="s">
+        <v>1021</v>
+      </c>
+      <c r="G94" t="s">
         <v>1022</v>
       </c>
-      <c r="G94" t="s">
-        <v>1023</v>
-      </c>
       <c r="H94" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
@@ -20385,25 +20385,25 @@
         <v>221</v>
       </c>
       <c r="C1" s="47" t="s">
+        <v>1165</v>
+      </c>
+      <c r="D1" s="47" t="s">
         <v>1166</v>
       </c>
-      <c r="D1" s="47" t="s">
+      <c r="E1" s="47" t="s">
         <v>1167</v>
       </c>
-      <c r="E1" s="47" t="s">
+      <c r="F1" s="47" t="s">
         <v>1168</v>
       </c>
-      <c r="F1" s="47" t="s">
+      <c r="G1" s="47" t="s">
         <v>1169</v>
       </c>
-      <c r="G1" s="47" t="s">
+      <c r="H1" s="13" t="s">
         <v>1170</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="I1" s="48" t="s">
         <v>1171</v>
-      </c>
-      <c r="I1" s="48" t="s">
-        <v>1172</v>
       </c>
       <c r="J1" s="14" t="s">
         <v>222</v>
@@ -20420,22 +20420,22 @@
         <v>316</v>
       </c>
       <c r="C2" s="18" t="s">
+        <v>1172</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>1172</v>
+      </c>
+      <c r="E2" s="18" t="s">
         <v>1173</v>
       </c>
-      <c r="D2" s="18" t="s">
-        <v>1173</v>
-      </c>
-      <c r="E2" s="18" t="s">
+      <c r="F2" s="18" t="s">
         <v>1174</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="G2" s="18" t="s">
         <v>1175</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="H2" s="51" t="s">
         <v>1176</v>
-      </c>
-      <c r="H2" s="51" t="s">
-        <v>1177</v>
       </c>
       <c r="I2" s="18"/>
       <c r="J2" s="18"/>
@@ -20487,7 +20487,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="B9" t="s">
         <v>316</v>
@@ -20499,16 +20499,16 @@
         <v>26</v>
       </c>
       <c r="E9" t="s">
+        <v>1173</v>
+      </c>
+      <c r="F9" t="s">
         <v>1174</v>
       </c>
-      <c r="F9" t="s">
-        <v>1175</v>
-      </c>
       <c r="G9" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="H9" s="49" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="I9" t="s">
         <v>266</v>
@@ -20528,16 +20528,16 @@
         <v>26</v>
       </c>
       <c r="E10" t="s">
+        <v>1173</v>
+      </c>
+      <c r="F10" t="s">
         <v>1174</v>
       </c>
-      <c r="F10" t="s">
-        <v>1175</v>
-      </c>
       <c r="G10" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="H10" s="52" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="I10" t="s">
         <v>412</v>
@@ -20557,16 +20557,16 @@
         <v>26</v>
       </c>
       <c r="E11" t="s">
+        <v>1173</v>
+      </c>
+      <c r="F11" t="s">
         <v>1174</v>
       </c>
-      <c r="F11" t="s">
-        <v>1175</v>
-      </c>
       <c r="G11" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="H11" s="52" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="I11" t="s">
         <v>418</v>
@@ -20586,16 +20586,16 @@
         <v>26</v>
       </c>
       <c r="E12" t="s">
+        <v>1173</v>
+      </c>
+      <c r="F12" t="s">
         <v>1174</v>
       </c>
-      <c r="F12" t="s">
-        <v>1175</v>
-      </c>
       <c r="G12" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="H12" s="52" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="I12" t="s">
         <v>416</v>
@@ -20615,16 +20615,16 @@
         <v>26</v>
       </c>
       <c r="E13" t="s">
+        <v>1173</v>
+      </c>
+      <c r="F13" t="s">
         <v>1174</v>
       </c>
-      <c r="F13" t="s">
-        <v>1175</v>
-      </c>
       <c r="G13" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="H13" s="52" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="I13" t="s">
         <v>443</v>
@@ -20644,16 +20644,16 @@
         <v>26</v>
       </c>
       <c r="E14" t="s">
+        <v>1173</v>
+      </c>
+      <c r="F14" t="s">
         <v>1174</v>
       </c>
-      <c r="F14" t="s">
-        <v>1175</v>
-      </c>
       <c r="G14" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="H14" s="52" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="I14" t="s">
         <v>445</v>
@@ -20673,16 +20673,16 @@
         <v>26</v>
       </c>
       <c r="E15" t="s">
+        <v>1173</v>
+      </c>
+      <c r="F15" t="s">
         <v>1174</v>
       </c>
-      <c r="F15" t="s">
-        <v>1175</v>
-      </c>
       <c r="G15" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="H15" s="52" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="I15" t="s">
         <v>444</v>
@@ -20702,16 +20702,16 @@
         <v>26</v>
       </c>
       <c r="E16" t="s">
+        <v>1173</v>
+      </c>
+      <c r="F16" t="s">
         <v>1174</v>
       </c>
-      <c r="F16" t="s">
-        <v>1175</v>
-      </c>
       <c r="G16" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="H16" s="52" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="I16" t="s">
         <v>465</v>
@@ -20731,16 +20731,16 @@
         <v>26</v>
       </c>
       <c r="E17" t="s">
+        <v>1173</v>
+      </c>
+      <c r="F17" t="s">
         <v>1174</v>
       </c>
-      <c r="F17" t="s">
-        <v>1175</v>
-      </c>
       <c r="G17" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="H17" s="52" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="I17" t="s">
         <v>467</v>
@@ -20760,16 +20760,16 @@
         <v>26</v>
       </c>
       <c r="E18" t="s">
+        <v>1173</v>
+      </c>
+      <c r="F18" t="s">
         <v>1174</v>
       </c>
-      <c r="F18" t="s">
-        <v>1175</v>
-      </c>
       <c r="G18" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="H18" s="52" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="I18" t="s">
         <v>466</v>
@@ -20789,16 +20789,16 @@
         <v>26</v>
       </c>
       <c r="E19" t="s">
+        <v>1173</v>
+      </c>
+      <c r="F19" t="s">
         <v>1174</v>
       </c>
-      <c r="F19" t="s">
-        <v>1175</v>
-      </c>
       <c r="G19" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="H19" s="52" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="I19" t="s">
         <v>487</v>
@@ -20818,16 +20818,16 @@
         <v>26</v>
       </c>
       <c r="E20" t="s">
+        <v>1173</v>
+      </c>
+      <c r="F20" t="s">
         <v>1174</v>
       </c>
-      <c r="F20" t="s">
-        <v>1175</v>
-      </c>
       <c r="G20" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="H20" s="52" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="I20" t="s">
         <v>489</v>
@@ -20847,16 +20847,16 @@
         <v>26</v>
       </c>
       <c r="E21" t="s">
+        <v>1173</v>
+      </c>
+      <c r="F21" t="s">
         <v>1174</v>
       </c>
-      <c r="F21" t="s">
-        <v>1175</v>
-      </c>
       <c r="G21" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="H21" s="52" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="I21" t="s">
         <v>488</v>
@@ -20876,16 +20876,16 @@
         <v>26</v>
       </c>
       <c r="E22" t="s">
+        <v>1173</v>
+      </c>
+      <c r="F22" t="s">
         <v>1174</v>
       </c>
-      <c r="F22" t="s">
-        <v>1175</v>
-      </c>
       <c r="G22" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="H22" s="52" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="I22" t="s">
         <v>509</v>
@@ -20905,16 +20905,16 @@
         <v>26</v>
       </c>
       <c r="E23" t="s">
+        <v>1173</v>
+      </c>
+      <c r="F23" t="s">
         <v>1174</v>
       </c>
-      <c r="F23" t="s">
-        <v>1175</v>
-      </c>
       <c r="G23" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="H23" s="52" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="I23" t="s">
         <v>511</v>
@@ -20934,16 +20934,16 @@
         <v>26</v>
       </c>
       <c r="E24" t="s">
+        <v>1173</v>
+      </c>
+      <c r="F24" t="s">
         <v>1174</v>
       </c>
-      <c r="F24" t="s">
-        <v>1175</v>
-      </c>
       <c r="G24" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="H24" s="52" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="I24" t="s">
         <v>510</v>
@@ -20963,16 +20963,16 @@
         <v>26</v>
       </c>
       <c r="E25" t="s">
+        <v>1173</v>
+      </c>
+      <c r="F25" t="s">
         <v>1174</v>
       </c>
-      <c r="F25" t="s">
-        <v>1175</v>
-      </c>
       <c r="G25" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="H25" s="52" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="I25" t="s">
         <v>531</v>
@@ -20992,16 +20992,16 @@
         <v>26</v>
       </c>
       <c r="E26" t="s">
+        <v>1173</v>
+      </c>
+      <c r="F26" t="s">
         <v>1174</v>
       </c>
-      <c r="F26" t="s">
-        <v>1175</v>
-      </c>
       <c r="G26" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="H26" s="52" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="I26" t="s">
         <v>533</v>
@@ -21021,16 +21021,16 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>1173</v>
+      </c>
+      <c r="F27" t="s">
         <v>1174</v>
       </c>
-      <c r="F27" t="s">
-        <v>1175</v>
-      </c>
       <c r="G27" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="H27" s="52" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="I27" t="s">
         <v>532</v>
@@ -21050,16 +21050,16 @@
         <v>26</v>
       </c>
       <c r="E28" t="s">
+        <v>1173</v>
+      </c>
+      <c r="F28" t="s">
         <v>1174</v>
       </c>
-      <c r="F28" t="s">
-        <v>1175</v>
-      </c>
       <c r="G28" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="H28" s="52" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="I28" t="s">
         <v>553</v>
@@ -21079,16 +21079,16 @@
         <v>26</v>
       </c>
       <c r="E29" t="s">
+        <v>1173</v>
+      </c>
+      <c r="F29" t="s">
         <v>1174</v>
       </c>
-      <c r="F29" t="s">
-        <v>1175</v>
-      </c>
       <c r="G29" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="H29" s="52" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="I29" t="s">
         <v>555</v>
@@ -21108,16 +21108,16 @@
         <v>26</v>
       </c>
       <c r="E30" t="s">
+        <v>1173</v>
+      </c>
+      <c r="F30" t="s">
         <v>1174</v>
       </c>
-      <c r="F30" t="s">
-        <v>1175</v>
-      </c>
       <c r="G30" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="H30" s="52" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="I30" t="s">
         <v>554</v>
@@ -21137,16 +21137,16 @@
         <v>26</v>
       </c>
       <c r="E31" t="s">
+        <v>1173</v>
+      </c>
+      <c r="F31" t="s">
         <v>1174</v>
       </c>
-      <c r="F31" t="s">
-        <v>1175</v>
-      </c>
       <c r="G31" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="H31" s="52" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="I31" t="s">
         <v>575</v>
@@ -21166,16 +21166,16 @@
         <v>26</v>
       </c>
       <c r="E32" t="s">
+        <v>1173</v>
+      </c>
+      <c r="F32" t="s">
         <v>1174</v>
       </c>
-      <c r="F32" t="s">
-        <v>1175</v>
-      </c>
       <c r="G32" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="H32" s="52" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="I32" t="s">
         <v>577</v>
@@ -21195,16 +21195,16 @@
         <v>26</v>
       </c>
       <c r="E33" t="s">
+        <v>1173</v>
+      </c>
+      <c r="F33" t="s">
         <v>1174</v>
       </c>
-      <c r="F33" t="s">
-        <v>1175</v>
-      </c>
       <c r="G33" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="H33" s="52" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="I33" t="s">
         <v>576</v>
@@ -21224,16 +21224,16 @@
         <v>26</v>
       </c>
       <c r="E34" t="s">
+        <v>1173</v>
+      </c>
+      <c r="F34" t="s">
         <v>1174</v>
       </c>
-      <c r="F34" t="s">
-        <v>1175</v>
-      </c>
       <c r="G34" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="H34" s="52" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="I34" t="s">
         <v>597</v>
@@ -21253,16 +21253,16 @@
         <v>26</v>
       </c>
       <c r="E35" t="s">
+        <v>1173</v>
+      </c>
+      <c r="F35" t="s">
         <v>1174</v>
       </c>
-      <c r="F35" t="s">
-        <v>1175</v>
-      </c>
       <c r="G35" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="H35" s="52" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="I35" t="s">
         <v>599</v>
@@ -21282,16 +21282,16 @@
         <v>26</v>
       </c>
       <c r="E36" t="s">
+        <v>1173</v>
+      </c>
+      <c r="F36" t="s">
         <v>1174</v>
       </c>
-      <c r="F36" t="s">
-        <v>1175</v>
-      </c>
       <c r="G36" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="H36" s="52" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="I36" t="s">
         <v>598</v>
@@ -21311,16 +21311,16 @@
         <v>26</v>
       </c>
       <c r="E37" t="s">
+        <v>1173</v>
+      </c>
+      <c r="F37" t="s">
         <v>1174</v>
       </c>
-      <c r="F37" t="s">
-        <v>1175</v>
-      </c>
       <c r="G37" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="H37" s="52" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="I37" t="s">
         <v>619</v>
@@ -21340,16 +21340,16 @@
         <v>26</v>
       </c>
       <c r="E38" t="s">
+        <v>1173</v>
+      </c>
+      <c r="F38" t="s">
         <v>1174</v>
       </c>
-      <c r="F38" t="s">
-        <v>1175</v>
-      </c>
       <c r="G38" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="H38" s="52" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="I38" t="s">
         <v>621</v>
@@ -21369,16 +21369,16 @@
         <v>26</v>
       </c>
       <c r="E39" t="s">
+        <v>1173</v>
+      </c>
+      <c r="F39" t="s">
         <v>1174</v>
       </c>
-      <c r="F39" t="s">
-        <v>1175</v>
-      </c>
       <c r="G39" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="H39" s="52" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="I39" t="s">
         <v>620</v>
@@ -21398,16 +21398,16 @@
         <v>26</v>
       </c>
       <c r="E40" t="s">
+        <v>1173</v>
+      </c>
+      <c r="F40" t="s">
         <v>1174</v>
       </c>
-      <c r="F40" t="s">
-        <v>1175</v>
-      </c>
       <c r="G40" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="H40" s="52" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="I40" t="s">
         <v>641</v>
@@ -21427,16 +21427,16 @@
         <v>26</v>
       </c>
       <c r="E41" t="s">
+        <v>1173</v>
+      </c>
+      <c r="F41" t="s">
         <v>1174</v>
       </c>
-      <c r="F41" t="s">
-        <v>1175</v>
-      </c>
       <c r="G41" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="H41" s="52" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="I41" t="s">
         <v>643</v>
@@ -21456,16 +21456,16 @@
         <v>26</v>
       </c>
       <c r="E42" t="s">
+        <v>1173</v>
+      </c>
+      <c r="F42" t="s">
         <v>1174</v>
       </c>
-      <c r="F42" t="s">
-        <v>1175</v>
-      </c>
       <c r="G42" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="H42" s="52" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="I42" t="s">
         <v>642</v>
@@ -21485,16 +21485,16 @@
         <v>26</v>
       </c>
       <c r="E43" t="s">
+        <v>1173</v>
+      </c>
+      <c r="F43" t="s">
         <v>1174</v>
       </c>
-      <c r="F43" t="s">
-        <v>1175</v>
-      </c>
       <c r="G43" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="H43" s="52" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="I43" t="s">
         <v>663</v>
@@ -21514,16 +21514,16 @@
         <v>26</v>
       </c>
       <c r="E44" t="s">
+        <v>1173</v>
+      </c>
+      <c r="F44" t="s">
         <v>1174</v>
       </c>
-      <c r="F44" t="s">
-        <v>1175</v>
-      </c>
       <c r="G44" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="H44" s="52" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="I44" t="s">
         <v>665</v>
@@ -21543,16 +21543,16 @@
         <v>26</v>
       </c>
       <c r="E45" t="s">
+        <v>1173</v>
+      </c>
+      <c r="F45" t="s">
         <v>1174</v>
       </c>
-      <c r="F45" t="s">
-        <v>1175</v>
-      </c>
       <c r="G45" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="H45" s="52" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="I45" t="s">
         <v>664</v>
@@ -21572,16 +21572,16 @@
         <v>26</v>
       </c>
       <c r="E46" t="s">
+        <v>1173</v>
+      </c>
+      <c r="F46" t="s">
         <v>1174</v>
       </c>
-      <c r="F46" t="s">
-        <v>1175</v>
-      </c>
       <c r="G46" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="H46" s="52" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="I46" t="s">
         <v>685</v>
@@ -21601,16 +21601,16 @@
         <v>26</v>
       </c>
       <c r="E47" t="s">
+        <v>1173</v>
+      </c>
+      <c r="F47" t="s">
         <v>1174</v>
       </c>
-      <c r="F47" t="s">
-        <v>1175</v>
-      </c>
       <c r="G47" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="H47" s="52" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="I47" t="s">
         <v>687</v>
@@ -21630,16 +21630,16 @@
         <v>26</v>
       </c>
       <c r="E48" t="s">
+        <v>1173</v>
+      </c>
+      <c r="F48" t="s">
         <v>1174</v>
       </c>
-      <c r="F48" t="s">
-        <v>1175</v>
-      </c>
       <c r="G48" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="H48" s="52" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="I48" t="s">
         <v>686</v>
@@ -21659,16 +21659,16 @@
         <v>26</v>
       </c>
       <c r="E49" t="s">
+        <v>1173</v>
+      </c>
+      <c r="F49" t="s">
         <v>1174</v>
       </c>
-      <c r="F49" t="s">
-        <v>1175</v>
-      </c>
       <c r="G49" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="H49" s="52" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="I49" t="s">
         <v>707</v>
@@ -21688,16 +21688,16 @@
         <v>26</v>
       </c>
       <c r="E50" t="s">
+        <v>1173</v>
+      </c>
+      <c r="F50" t="s">
         <v>1174</v>
       </c>
-      <c r="F50" t="s">
-        <v>1175</v>
-      </c>
       <c r="G50" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="H50" s="52" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="I50" t="s">
         <v>709</v>
@@ -21717,16 +21717,16 @@
         <v>26</v>
       </c>
       <c r="E51" t="s">
+        <v>1173</v>
+      </c>
+      <c r="F51" t="s">
         <v>1174</v>
       </c>
-      <c r="F51" t="s">
-        <v>1175</v>
-      </c>
       <c r="G51" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="H51" s="52" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="I51" t="s">
         <v>708</v>
@@ -21746,16 +21746,16 @@
         <v>26</v>
       </c>
       <c r="E52" t="s">
+        <v>1173</v>
+      </c>
+      <c r="F52" t="s">
         <v>1174</v>
       </c>
-      <c r="F52" t="s">
-        <v>1175</v>
-      </c>
       <c r="G52" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="H52" s="52" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="I52" t="s">
         <v>729</v>
@@ -21775,16 +21775,16 @@
         <v>26</v>
       </c>
       <c r="E53" t="s">
+        <v>1173</v>
+      </c>
+      <c r="F53" t="s">
         <v>1174</v>
       </c>
-      <c r="F53" t="s">
-        <v>1175</v>
-      </c>
       <c r="G53" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="H53" s="52" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="I53" t="s">
         <v>731</v>
@@ -21804,16 +21804,16 @@
         <v>26</v>
       </c>
       <c r="E54" t="s">
+        <v>1173</v>
+      </c>
+      <c r="F54" t="s">
         <v>1174</v>
       </c>
-      <c r="F54" t="s">
-        <v>1175</v>
-      </c>
       <c r="G54" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="H54" s="52" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="I54" t="s">
         <v>730</v>
@@ -21833,16 +21833,16 @@
         <v>26</v>
       </c>
       <c r="E55" t="s">
+        <v>1173</v>
+      </c>
+      <c r="F55" t="s">
         <v>1174</v>
       </c>
-      <c r="F55" t="s">
-        <v>1175</v>
-      </c>
       <c r="G55" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="H55" s="52" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="I55" t="s">
         <v>751</v>
@@ -21862,16 +21862,16 @@
         <v>26</v>
       </c>
       <c r="E56" t="s">
+        <v>1173</v>
+      </c>
+      <c r="F56" t="s">
         <v>1174</v>
       </c>
-      <c r="F56" t="s">
-        <v>1175</v>
-      </c>
       <c r="G56" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="H56" s="52" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="I56" t="s">
         <v>753</v>
@@ -21891,16 +21891,16 @@
         <v>26</v>
       </c>
       <c r="E57" t="s">
+        <v>1173</v>
+      </c>
+      <c r="F57" t="s">
         <v>1174</v>
       </c>
-      <c r="F57" t="s">
-        <v>1175</v>
-      </c>
       <c r="G57" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="H57" s="52" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="I57" t="s">
         <v>752</v>
@@ -21920,16 +21920,16 @@
         <v>26</v>
       </c>
       <c r="E58" t="s">
+        <v>1173</v>
+      </c>
+      <c r="F58" t="s">
         <v>1174</v>
       </c>
-      <c r="F58" t="s">
-        <v>1175</v>
-      </c>
       <c r="G58" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="H58" s="52" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="I58" t="s">
         <v>773</v>
@@ -21949,16 +21949,16 @@
         <v>26</v>
       </c>
       <c r="E59" t="s">
+        <v>1173</v>
+      </c>
+      <c r="F59" t="s">
         <v>1174</v>
       </c>
-      <c r="F59" t="s">
-        <v>1175</v>
-      </c>
       <c r="G59" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="H59" s="52" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="I59" t="s">
         <v>775</v>
@@ -21978,16 +21978,16 @@
         <v>26</v>
       </c>
       <c r="E60" t="s">
+        <v>1173</v>
+      </c>
+      <c r="F60" t="s">
         <v>1174</v>
       </c>
-      <c r="F60" t="s">
-        <v>1175</v>
-      </c>
       <c r="G60" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="H60" s="52" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="I60" t="s">
         <v>774</v>
@@ -22007,16 +22007,16 @@
         <v>26</v>
       </c>
       <c r="E61" t="s">
+        <v>1173</v>
+      </c>
+      <c r="F61" t="s">
         <v>1174</v>
       </c>
-      <c r="F61" t="s">
-        <v>1175</v>
-      </c>
       <c r="G61" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="H61" s="52" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="I61" t="s">
         <v>795</v>
@@ -22036,16 +22036,16 @@
         <v>26</v>
       </c>
       <c r="E62" t="s">
+        <v>1173</v>
+      </c>
+      <c r="F62" t="s">
         <v>1174</v>
       </c>
-      <c r="F62" t="s">
-        <v>1175</v>
-      </c>
       <c r="G62" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="H62" s="52" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="I62" t="s">
         <v>797</v>
@@ -22065,16 +22065,16 @@
         <v>26</v>
       </c>
       <c r="E63" t="s">
+        <v>1173</v>
+      </c>
+      <c r="F63" t="s">
         <v>1174</v>
       </c>
-      <c r="F63" t="s">
-        <v>1175</v>
-      </c>
       <c r="G63" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="H63" s="52" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="I63" t="s">
         <v>796</v>
@@ -22094,16 +22094,16 @@
         <v>26</v>
       </c>
       <c r="E64" t="s">
+        <v>1173</v>
+      </c>
+      <c r="F64" t="s">
         <v>1174</v>
       </c>
-      <c r="F64" t="s">
-        <v>1175</v>
-      </c>
       <c r="G64" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="H64" s="52" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="I64" t="s">
         <v>817</v>
@@ -22123,16 +22123,16 @@
         <v>26</v>
       </c>
       <c r="E65" t="s">
+        <v>1173</v>
+      </c>
+      <c r="F65" t="s">
         <v>1174</v>
       </c>
-      <c r="F65" t="s">
-        <v>1175</v>
-      </c>
       <c r="G65" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="H65" s="52" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="I65" t="s">
         <v>819</v>
@@ -22152,16 +22152,16 @@
         <v>26</v>
       </c>
       <c r="E66" t="s">
+        <v>1173</v>
+      </c>
+      <c r="F66" t="s">
         <v>1174</v>
       </c>
-      <c r="F66" t="s">
-        <v>1175</v>
-      </c>
       <c r="G66" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="H66" s="52" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="I66" t="s">
         <v>818</v>
@@ -22181,16 +22181,16 @@
         <v>26</v>
       </c>
       <c r="E67" t="s">
+        <v>1173</v>
+      </c>
+      <c r="F67" t="s">
         <v>1174</v>
       </c>
-      <c r="F67" t="s">
-        <v>1175</v>
-      </c>
       <c r="G67" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="H67" s="52" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="I67" t="s">
         <v>839</v>
@@ -22210,16 +22210,16 @@
         <v>26</v>
       </c>
       <c r="E68" t="s">
+        <v>1173</v>
+      </c>
+      <c r="F68" t="s">
         <v>1174</v>
       </c>
-      <c r="F68" t="s">
-        <v>1175</v>
-      </c>
       <c r="G68" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="H68" s="52" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="I68" t="s">
         <v>841</v>
@@ -22239,16 +22239,16 @@
         <v>26</v>
       </c>
       <c r="E69" t="s">
+        <v>1173</v>
+      </c>
+      <c r="F69" t="s">
         <v>1174</v>
       </c>
-      <c r="F69" t="s">
-        <v>1175</v>
-      </c>
       <c r="G69" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="H69" s="52" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="I69" t="s">
         <v>840</v>
@@ -22310,7 +22310,7 @@
         <v>211</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">

--- a/app/config/tables/MIF/forms/MIF/MIF.xlsx
+++ b/app/config/tables/MIF/forms/MIF/MIF.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15115E0F-E2AA-4B2C-9503-79D9DD174541}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1C019F5-C819-47DB-BA9C-F328D88652E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="648" firstSheet="1" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19320" yWindow="-2100" windowWidth="19440" windowHeight="15000" tabRatio="648" firstSheet="1" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -6957,8 +6957,8 @@
   <dimension ref="A1:G313"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A293" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D310" sqref="D310"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7568,7 +7568,7 @@
         <v>383</v>
       </c>
       <c r="B56" t="s">
-        <v>24</v>
+        <v>124</v>
       </c>
       <c r="C56" t="b">
         <v>0</v>
@@ -10814,7 +10814,7 @@
   <dimension ref="A1:R140"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A120" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
@@ -12186,8 +12186,8 @@
   <dimension ref="A1:XFD117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F59" sqref="F59"/>
+      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D105" sqref="D105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/app/config/tables/MIF/forms/MIF/MIF.xlsx
+++ b/app/config/tables/MIF/forms/MIF/MIF.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1C019F5-C819-47DB-BA9C-F328D88652E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC4DDAB4-0AF9-410F-AD0E-2D86AA4E0BF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="-2100" windowWidth="19440" windowHeight="15000" tabRatio="648" firstSheet="1" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19320" yWindow="-2100" windowWidth="19440" windowHeight="15000" tabRatio="648" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -3851,7 +3851,7 @@
     <t>Last visit status: &lt;b&gt;Não visitada&lt;b&gt;</t>
   </si>
   <si>
-    <t>data('ESTADOVIS') != '2' &amp;&amp; data('ESTADOVIS') !='3' &amp;&amp; data('ESTADOVIS') == '6'</t>
+    <t>data('ESTADOVIS') != '2' &amp;&amp; data('ESTADOVIS') !='3'</t>
   </si>
 </sst>
 </file>
@@ -4619,8 +4619,8 @@
   <dimension ref="A1:D156"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A142" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A152" sqref="A152"/>
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A77" sqref="A77:A82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6956,7 +6956,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FCD3AC6-97A9-4343-AD51-53B42E3E4B29}">
   <dimension ref="A1:G313"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B56" sqref="B56"/>
     </sheetView>
@@ -12185,9 +12185,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{568D4494-839B-4F7A-8E9C-72B7EC0E8A88}">
   <dimension ref="A1:XFD117"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D105" sqref="D105"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/app/config/tables/MIF/forms/MIF/MIF.xlsx
+++ b/app/config/tables/MIF/forms/MIF/MIF.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC4DDAB4-0AF9-410F-AD0E-2D86AA4E0BF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05A856EE-25A9-40AC-8864-8B19639CC039}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="-2100" windowWidth="19440" windowHeight="15000" tabRatio="648" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19320" yWindow="-2100" windowWidth="19440" windowHeight="15000" tabRatio="648" firstSheet="1" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -6956,8 +6956,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FCD3AC6-97A9-4343-AD51-53B42E3E4B29}">
   <dimension ref="A1:G313"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
@@ -7557,7 +7557,7 @@
         <v>302</v>
       </c>
       <c r="B55" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="C55" t="b">
         <v>0</v>
@@ -10428,8 +10428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{373816BB-105F-4FD4-99CF-DB87DCC19FA9}">
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12185,9 +12185,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{568D4494-839B-4F7A-8E9C-72B7EC0E8A88}">
   <dimension ref="A1:XFD117"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D42" sqref="D42"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/app/config/tables/MIF/forms/MIF/MIF.xlsx
+++ b/app/config/tables/MIF/forms/MIF/MIF.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78C8A825-8171-4D67-81CB-F9235B985A19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1008528D-A0A6-44F5-9EC8-CD89C012076C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="648" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="648" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3393" uniqueCount="1044">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3395" uniqueCount="1044">
   <si>
     <t>setting_name</t>
   </si>
@@ -2696,12 +2696,6 @@
     <t>Mãe/Tia/Madrasta/Avó</t>
   </si>
   <si>
-    <t>NadoVivo</t>
-  </si>
-  <si>
-    <t>NadoMorto</t>
-  </si>
-  <si>
     <t>O feto não saiu</t>
   </si>
   <si>
@@ -3260,6 +3254,12 @@
   </si>
   <si>
     <t>(data('VISITTYPE') == 'control' &amp;&amp; data('gr') != '1' &amp;&amp; data('GR') == '1') || data('VISITTYPE') != 'control'</t>
+  </si>
+  <si>
+    <t>birthoutcomefal</t>
+  </si>
+  <si>
+    <t>Health centre</t>
   </si>
 </sst>
 </file>
@@ -3943,7 +3943,7 @@
         <v>207</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -3965,8 +3965,8 @@
   <dimension ref="A1:E156"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A106" sqref="A106"/>
+      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D94" sqref="D94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4377,7 +4377,7 @@
         <v>73</v>
       </c>
       <c r="D26" s="47" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="E26" s="47"/>
     </row>
@@ -4608,7 +4608,7 @@
         <v>260</v>
       </c>
       <c r="D41" s="47" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="E41" s="47"/>
     </row>
@@ -5796,7 +5796,7 @@
         <v>855</v>
       </c>
       <c r="D116" s="47" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="E116" s="47"/>
     </row>
@@ -5897,7 +5897,7 @@
         <v>2</v>
       </c>
       <c r="C122" s="47" t="s">
-        <v>857</v>
+        <v>1043</v>
       </c>
       <c r="D122" s="47" t="s">
         <v>857</v>
@@ -5944,7 +5944,7 @@
         <f>"1"</f>
         <v>1</v>
       </c>
-      <c r="C125" s="47" t="s">
+      <c r="C125" s="40" t="s">
         <v>860</v>
       </c>
       <c r="D125" s="47" t="s">
@@ -5960,7 +5960,7 @@
         <f>"2"</f>
         <v>2</v>
       </c>
-      <c r="C126" s="47" t="s">
+      <c r="C126" s="40" t="s">
         <v>199</v>
       </c>
       <c r="D126" s="47" t="s">
@@ -5976,7 +5976,7 @@
         <f>"3"</f>
         <v>3</v>
       </c>
-      <c r="C127" s="47" t="s">
+      <c r="C127" s="40" t="s">
         <v>861</v>
       </c>
       <c r="D127" s="47" t="s">
@@ -5992,7 +5992,7 @@
         <f>"4"</f>
         <v>4</v>
       </c>
-      <c r="C128" s="47" t="s">
+      <c r="C128" s="40" t="s">
         <v>862</v>
       </c>
       <c r="D128" s="47" t="s">
@@ -6008,7 +6008,7 @@
         <f>"5"</f>
         <v>5</v>
       </c>
-      <c r="C129" s="47" t="s">
+      <c r="C129" s="40" t="s">
         <v>863</v>
       </c>
       <c r="D129" s="47" t="s">
@@ -6024,7 +6024,7 @@
         <f>"6"</f>
         <v>6</v>
       </c>
-      <c r="C130" s="47" t="s">
+      <c r="C130" s="40" t="s">
         <v>859</v>
       </c>
       <c r="D130" s="47" t="s">
@@ -6040,7 +6040,7 @@
         <f>"1"</f>
         <v>1</v>
       </c>
-      <c r="C131" s="47" t="s">
+      <c r="C131" s="40" t="s">
         <v>864</v>
       </c>
       <c r="D131" s="47" t="s">
@@ -6056,7 +6056,7 @@
         <f>"2"</f>
         <v>2</v>
       </c>
-      <c r="C132" s="47" t="s">
+      <c r="C132" s="40" t="s">
         <v>865</v>
       </c>
       <c r="D132" s="47" t="s">
@@ -6072,7 +6072,7 @@
         <f>"3"</f>
         <v>3</v>
       </c>
-      <c r="C133" s="47" t="s">
+      <c r="C133" s="40" t="s">
         <v>866</v>
       </c>
       <c r="D133" s="47" t="s">
@@ -6088,7 +6088,7 @@
         <f>"4"</f>
         <v>4</v>
       </c>
-      <c r="C134" s="47" t="s">
+      <c r="C134" s="40" t="s">
         <v>867</v>
       </c>
       <c r="D134" s="47" t="s">
@@ -6104,7 +6104,7 @@
         <f>"5"</f>
         <v>5</v>
       </c>
-      <c r="C135" s="47" t="s">
+      <c r="C135" s="40" t="s">
         <v>868</v>
       </c>
       <c r="D135" s="47" t="s">
@@ -6120,7 +6120,7 @@
         <f>"6"</f>
         <v>6</v>
       </c>
-      <c r="C136" s="47" t="s">
+      <c r="C136" s="40" t="s">
         <v>869</v>
       </c>
       <c r="D136" s="47" t="s">
@@ -6136,7 +6136,7 @@
         <f>"7"</f>
         <v>7</v>
       </c>
-      <c r="C137" s="47" t="s">
+      <c r="C137" s="40" t="s">
         <v>870</v>
       </c>
       <c r="D137" s="47" t="s">
@@ -6152,7 +6152,7 @@
         <f>"8"</f>
         <v>8</v>
       </c>
-      <c r="C138" s="47" t="s">
+      <c r="C138" s="40" t="s">
         <v>871</v>
       </c>
       <c r="D138" s="47" t="s">
@@ -6168,7 +6168,7 @@
         <f>"1"</f>
         <v>1</v>
       </c>
-      <c r="C139" s="47" t="s">
+      <c r="C139" s="40" t="s">
         <v>872</v>
       </c>
       <c r="D139" s="47" t="s">
@@ -6184,7 +6184,7 @@
         <f>"2"</f>
         <v>2</v>
       </c>
-      <c r="C140" s="47" t="s">
+      <c r="C140" s="40" t="s">
         <v>873</v>
       </c>
       <c r="D140" s="47" t="s">
@@ -6200,7 +6200,7 @@
         <f>"3"</f>
         <v>3</v>
       </c>
-      <c r="C141" s="47" t="s">
+      <c r="C141" s="40" t="s">
         <v>874</v>
       </c>
       <c r="D141" s="47" t="s">
@@ -6216,7 +6216,7 @@
         <f>"4"</f>
         <v>4</v>
       </c>
-      <c r="C142" s="47" t="s">
+      <c r="C142" s="40" t="s">
         <v>875</v>
       </c>
       <c r="D142" s="47" t="s">
@@ -6232,7 +6232,7 @@
         <f>"5"</f>
         <v>5</v>
       </c>
-      <c r="C143" s="47" t="s">
+      <c r="C143" s="40" t="s">
         <v>876</v>
       </c>
       <c r="D143" s="47" t="s">
@@ -6248,7 +6248,7 @@
         <f>"6"</f>
         <v>6</v>
       </c>
-      <c r="C144" s="47" t="s">
+      <c r="C144" s="40" t="s">
         <v>877</v>
       </c>
       <c r="D144" s="47" t="s">
@@ -6265,7 +6265,7 @@
         <v>7</v>
       </c>
       <c r="C145" s="47" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D145" s="47" t="s">
         <v>32</v>
@@ -6280,7 +6280,7 @@
         <f>"1"</f>
         <v>1</v>
       </c>
-      <c r="C146" s="47" t="s">
+      <c r="C146" s="40" t="s">
         <v>878</v>
       </c>
       <c r="D146" s="47" t="s">
@@ -6296,7 +6296,7 @@
         <f>"2"</f>
         <v>2</v>
       </c>
-      <c r="C147" s="47" t="s">
+      <c r="C147" s="40" t="s">
         <v>879</v>
       </c>
       <c r="D147" s="47" t="s">
@@ -6312,7 +6312,7 @@
         <f>"3"</f>
         <v>3</v>
       </c>
-      <c r="C148" s="47" t="s">
+      <c r="C148" s="40" t="s">
         <v>880</v>
       </c>
       <c r="D148" s="47" t="s">
@@ -6328,7 +6328,7 @@
         <f>"4"</f>
         <v>4</v>
       </c>
-      <c r="C149" s="47" t="s">
+      <c r="C149" s="40" t="s">
         <v>881</v>
       </c>
       <c r="D149" s="47" t="s">
@@ -6344,7 +6344,7 @@
         <f>"5"</f>
         <v>5</v>
       </c>
-      <c r="C150" s="47" t="s">
+      <c r="C150" s="40" t="s">
         <v>859</v>
       </c>
       <c r="D150" s="47" t="s">
@@ -6361,7 +6361,7 @@
         <v>6</v>
       </c>
       <c r="C151" s="47" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D151" s="47" t="s">
         <v>32</v>
@@ -6370,46 +6370,46 @@
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="47" t="s">
-        <v>333</v>
+        <v>1042</v>
       </c>
       <c r="B152" s="47" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C152" s="47" t="s">
-        <v>882</v>
+        <v>808</v>
       </c>
       <c r="D152" s="47" t="s">
-        <v>882</v>
+        <v>809</v>
       </c>
       <c r="E152" s="47"/>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="47" t="s">
-        <v>333</v>
+        <v>1042</v>
       </c>
       <c r="B153" s="47" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C153" s="47" t="s">
-        <v>883</v>
+        <v>810</v>
       </c>
       <c r="D153" s="47" t="s">
-        <v>883</v>
+        <v>811</v>
       </c>
       <c r="E153" s="47"/>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="47" t="s">
-        <v>333</v>
+        <v>1042</v>
       </c>
       <c r="B154" s="47" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C154" s="47" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="D154" s="47" t="s">
         <v>813</v>
@@ -6418,30 +6418,30 @@
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="47" t="s">
-        <v>333</v>
+        <v>1042</v>
       </c>
       <c r="B155" s="47" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
-      <c r="C155" s="47" t="s">
-        <v>884</v>
+      <c r="C155" s="40" t="s">
+        <v>882</v>
       </c>
       <c r="D155" s="47" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="E155" s="47"/>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="47" t="s">
-        <v>333</v>
+        <v>1042</v>
       </c>
       <c r="B156" s="47" t="str">
         <f>"5"</f>
         <v>5</v>
       </c>
       <c r="C156" s="47" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D156" s="47" t="s">
         <v>32</v>
@@ -6460,7 +6460,7 @@
   <dimension ref="A1:G252"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A230" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A215" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A76" sqref="A76:XFD76"/>
     </sheetView>
   </sheetViews>
@@ -6528,7 +6528,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -6539,7 +6539,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -6550,7 +6550,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="B8" t="s">
         <v>231</v>
@@ -6847,7 +6847,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="B35" t="s">
         <v>111</v>
@@ -8853,7 +8853,7 @@
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="B224" t="s">
         <v>24</v>
@@ -8919,7 +8919,7 @@
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="B230" s="17" t="s">
         <v>111</v>
@@ -9084,7 +9084,7 @@
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="B245" t="s">
         <v>111</v>
@@ -9117,7 +9117,7 @@
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="B249" t="s">
         <v>24</v>
@@ -9128,7 +9128,7 @@
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="B250" t="s">
         <v>24</v>
@@ -9139,7 +9139,7 @@
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="B251" t="s">
         <v>24</v>
@@ -9150,7 +9150,7 @@
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="B252" t="s">
         <v>265</v>
@@ -9228,7 +9228,7 @@
         <v>130</v>
       </c>
       <c r="C2" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -9238,12 +9238,12 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -9324,10 +9324,10 @@
         <v>181</v>
       </c>
       <c r="G3" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="H3" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -9335,10 +9335,10 @@
         <v>181</v>
       </c>
       <c r="G4" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="H4" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -9346,10 +9346,10 @@
         <v>181</v>
       </c>
       <c r="G5" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="H5" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -9357,10 +9357,10 @@
         <v>181</v>
       </c>
       <c r="G6" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="H6" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -9368,10 +9368,10 @@
         <v>181</v>
       </c>
       <c r="G7" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="H7" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -9379,10 +9379,10 @@
         <v>181</v>
       </c>
       <c r="G8" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="H8" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -9390,10 +9390,10 @@
         <v>181</v>
       </c>
       <c r="G9" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="H9" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -9404,13 +9404,13 @@
         <v>369</v>
       </c>
       <c r="F10" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="G10" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="H10" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -9424,7 +9424,7 @@
         <v>130</v>
       </c>
       <c r="C12" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -9437,7 +9437,7 @@
         <v>111</v>
       </c>
       <c r="F14" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="G14" t="s">
         <v>112</v>
@@ -9457,7 +9457,7 @@
         <v>119</v>
       </c>
       <c r="H15" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -9548,10 +9548,10 @@
         <v>181</v>
       </c>
       <c r="G23" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="H23" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -9559,10 +9559,10 @@
         <v>181</v>
       </c>
       <c r="G24" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="H24" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -9570,10 +9570,10 @@
         <v>181</v>
       </c>
       <c r="G25" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="H25" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -9581,10 +9581,10 @@
         <v>181</v>
       </c>
       <c r="G26" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="H26" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -9592,10 +9592,10 @@
         <v>181</v>
       </c>
       <c r="G27" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="H27" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -9603,10 +9603,10 @@
         <v>181</v>
       </c>
       <c r="G28" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="H28" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -9614,10 +9614,10 @@
         <v>181</v>
       </c>
       <c r="G29" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="H29" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -9646,8 +9646,8 @@
   <dimension ref="A1:R135"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D22" sqref="D22:E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9720,10 +9720,10 @@
         <v>181</v>
       </c>
       <c r="G4" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="H4" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -9731,10 +9731,10 @@
         <v>181</v>
       </c>
       <c r="G5" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="H5" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -9796,7 +9796,7 @@
         <v>111</v>
       </c>
       <c r="F11" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="G11" t="s">
         <v>112</v>
@@ -10186,7 +10186,7 @@
         <v>29</v>
       </c>
       <c r="F53" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>242</v>
@@ -10200,7 +10200,7 @@
         <v>130</v>
       </c>
       <c r="C54" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
@@ -10210,7 +10210,7 @@
         <v>24</v>
       </c>
       <c r="F55" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>244</v>
@@ -10227,7 +10227,7 @@
         <v>232</v>
       </c>
       <c r="F56" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.25">
@@ -10235,7 +10235,7 @@
         <v>130</v>
       </c>
       <c r="C57" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.25">
@@ -10243,7 +10243,7 @@
         <v>137</v>
       </c>
       <c r="F58" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="I58" s="18">
         <v>99</v>
@@ -10937,7 +10937,7 @@
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B135" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
     </row>
   </sheetData>
@@ -10949,9 +10949,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{568D4494-839B-4F7A-8E9C-72B7EC0E8A88}">
   <dimension ref="A1:L114"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C53" sqref="C53"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11020,7 +11020,7 @@
         <v>130</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -11028,10 +11028,10 @@
         <v>181</v>
       </c>
       <c r="G4" s="29" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="H4" s="29" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -11045,7 +11045,7 @@
         <v>130</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -11054,10 +11054,10 @@
         <v>181</v>
       </c>
       <c r="G7" s="29" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="H7" s="29" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -11072,7 +11072,7 @@
         <v>130</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -11081,10 +11081,10 @@
         <v>181</v>
       </c>
       <c r="G10" s="29" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="H10" s="29" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -11099,7 +11099,7 @@
         <v>130</v>
       </c>
       <c r="C12" s="29" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -11108,10 +11108,10 @@
         <v>181</v>
       </c>
       <c r="G13" s="29" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="H13" s="29" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -11126,7 +11126,7 @@
         <v>130</v>
       </c>
       <c r="C15" s="29" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -11135,10 +11135,10 @@
         <v>181</v>
       </c>
       <c r="G16" s="29" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="H16" s="29" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -11153,7 +11153,7 @@
         <v>130</v>
       </c>
       <c r="C18" s="29" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -11162,10 +11162,10 @@
         <v>181</v>
       </c>
       <c r="G19" s="29" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="H19" s="29" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -11180,7 +11180,7 @@
         <v>130</v>
       </c>
       <c r="C21" s="29" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -11188,10 +11188,10 @@
         <v>181</v>
       </c>
       <c r="G22" s="29" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="H22" s="29" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -11287,7 +11287,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B33" s="29" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -11302,7 +11302,7 @@
         <v>130</v>
       </c>
       <c r="C35" s="29" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -11333,7 +11333,7 @@
         <v>309</v>
       </c>
       <c r="H38" s="29" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -11432,10 +11432,10 @@
         <v>181</v>
       </c>
       <c r="G49" s="29" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="H49" s="29" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -11483,7 +11483,7 @@
         <v>130</v>
       </c>
       <c r="C53" s="29" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
@@ -11514,7 +11514,7 @@
         <v>328</v>
       </c>
       <c r="H56" s="29" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
@@ -11888,7 +11888,7 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B98" s="29" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
@@ -11917,7 +11917,7 @@
         <v>371</v>
       </c>
       <c r="H101" s="29" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
@@ -11935,7 +11935,7 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B104" s="29" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
@@ -11968,7 +11968,7 @@
         <v>130</v>
       </c>
       <c r="C109" s="29" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
@@ -11984,7 +11984,7 @@
         <v>373</v>
       </c>
       <c r="H111" s="29" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
@@ -12075,7 +12075,7 @@
         <v>130</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -12143,7 +12143,7 @@
         <v>385</v>
       </c>
       <c r="H9" s="29" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -12218,10 +12218,10 @@
         <v>394</v>
       </c>
       <c r="G18" s="42" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="H18" s="42" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="J18" s="42"/>
     </row>
@@ -12247,7 +12247,7 @@
         <v>385</v>
       </c>
       <c r="H20" s="29" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -12305,7 +12305,7 @@
         <v>130</v>
       </c>
       <c r="C26" s="29" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -12373,7 +12373,7 @@
         <v>385</v>
       </c>
       <c r="H33" s="29" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
@@ -12451,10 +12451,10 @@
         <v>405</v>
       </c>
       <c r="G42" s="42" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="H42" s="42" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.25">
@@ -12479,7 +12479,7 @@
         <v>385</v>
       </c>
       <c r="H44" s="29" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.25">
@@ -12538,7 +12538,7 @@
         <v>130</v>
       </c>
       <c r="C50" s="29" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
@@ -12606,7 +12606,7 @@
         <v>385</v>
       </c>
       <c r="H57" s="29" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
@@ -12681,10 +12681,10 @@
         <v>415</v>
       </c>
       <c r="G66" s="42" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="H66" s="42" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
@@ -12709,7 +12709,7 @@
         <v>385</v>
       </c>
       <c r="H68" s="29" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
@@ -12767,7 +12767,7 @@
         <v>130</v>
       </c>
       <c r="C74" s="29" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
@@ -12836,7 +12836,7 @@
         <v>385</v>
       </c>
       <c r="H81" s="29" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="82" spans="2:8" x14ac:dyDescent="0.25">
@@ -12914,10 +12914,10 @@
         <v>425</v>
       </c>
       <c r="G90" s="42" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="H90" s="42" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
     </row>
     <row r="91" spans="2:8" x14ac:dyDescent="0.25">
@@ -12942,7 +12942,7 @@
         <v>385</v>
       </c>
       <c r="H92" s="29" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="93" spans="2:8" x14ac:dyDescent="0.25">
@@ -13000,7 +13000,7 @@
         <v>130</v>
       </c>
       <c r="C98" s="29" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
@@ -13068,7 +13068,7 @@
         <v>385</v>
       </c>
       <c r="H105" s="29" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
@@ -13144,10 +13144,10 @@
         <v>435</v>
       </c>
       <c r="G114" s="42" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="H114" s="42" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
@@ -13172,7 +13172,7 @@
         <v>385</v>
       </c>
       <c r="H116" s="29" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
@@ -13230,7 +13230,7 @@
         <v>130</v>
       </c>
       <c r="C122" s="29" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
@@ -13298,7 +13298,7 @@
         <v>385</v>
       </c>
       <c r="H129" s="29" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="130" spans="2:10" x14ac:dyDescent="0.25">
@@ -13376,10 +13376,10 @@
         <v>445</v>
       </c>
       <c r="G138" s="42" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="H138" s="42" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="139" spans="2:10" x14ac:dyDescent="0.25">
@@ -13404,7 +13404,7 @@
         <v>385</v>
       </c>
       <c r="H140" s="29" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="141" spans="2:10" x14ac:dyDescent="0.25">
@@ -13463,7 +13463,7 @@
         <v>130</v>
       </c>
       <c r="C146" s="29" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
@@ -13531,7 +13531,7 @@
         <v>385</v>
       </c>
       <c r="H153" s="29" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
@@ -13606,10 +13606,10 @@
         <v>455</v>
       </c>
       <c r="G162" s="42" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="H162" s="42" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.25">
@@ -13634,7 +13634,7 @@
         <v>385</v>
       </c>
       <c r="H164" s="29" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.25">
@@ -13692,7 +13692,7 @@
         <v>130</v>
       </c>
       <c r="C170" s="29" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.25">
@@ -13761,7 +13761,7 @@
         <v>385</v>
       </c>
       <c r="H177" s="29" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="178" spans="2:8" x14ac:dyDescent="0.25">
@@ -13839,10 +13839,10 @@
         <v>465</v>
       </c>
       <c r="G186" s="42" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="H186" s="42" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
     </row>
     <row r="187" spans="2:8" x14ac:dyDescent="0.25">
@@ -13867,7 +13867,7 @@
         <v>385</v>
       </c>
       <c r="H188" s="29" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="189" spans="2:8" x14ac:dyDescent="0.25">
@@ -13925,7 +13925,7 @@
         <v>130</v>
       </c>
       <c r="C194" s="29" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.25">
@@ -13993,7 +13993,7 @@
         <v>385</v>
       </c>
       <c r="H201" s="29" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.25">
@@ -14069,10 +14069,10 @@
         <v>475</v>
       </c>
       <c r="G210" s="42" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="H210" s="42" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.25">
@@ -14097,7 +14097,7 @@
         <v>385</v>
       </c>
       <c r="H212" s="29" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.25">
@@ -14155,7 +14155,7 @@
         <v>130</v>
       </c>
       <c r="C218" s="29" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.25">
@@ -14223,7 +14223,7 @@
         <v>385</v>
       </c>
       <c r="H225" s="29" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="226" spans="2:10" x14ac:dyDescent="0.25">
@@ -14301,10 +14301,10 @@
         <v>485</v>
       </c>
       <c r="G234" s="42" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="H234" s="42" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
     </row>
     <row r="235" spans="2:10" x14ac:dyDescent="0.25">
@@ -14330,7 +14330,7 @@
         <v>385</v>
       </c>
       <c r="H236" s="29" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="237" spans="2:10" x14ac:dyDescent="0.25">
@@ -14388,7 +14388,7 @@
         <v>130</v>
       </c>
       <c r="C242" s="29" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.25">
@@ -14456,7 +14456,7 @@
         <v>385</v>
       </c>
       <c r="H249" s="29" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.25">
@@ -14531,10 +14531,10 @@
         <v>495</v>
       </c>
       <c r="G258" s="42" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="H258" s="42" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
     </row>
     <row r="259" spans="1:10" x14ac:dyDescent="0.25">
@@ -14559,7 +14559,7 @@
         <v>385</v>
       </c>
       <c r="H260" s="29" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="261" spans="1:10" x14ac:dyDescent="0.25">
@@ -14617,7 +14617,7 @@
         <v>130</v>
       </c>
       <c r="C266" s="29" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="J266" s="42"/>
     </row>
@@ -14686,7 +14686,7 @@
         <v>385</v>
       </c>
       <c r="H273" s="29" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="274" spans="2:8" x14ac:dyDescent="0.25">
@@ -14764,10 +14764,10 @@
         <v>505</v>
       </c>
       <c r="G282" s="42" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="H282" s="42" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
     </row>
     <row r="283" spans="2:8" x14ac:dyDescent="0.25">
@@ -14792,7 +14792,7 @@
         <v>385</v>
       </c>
       <c r="H284" s="29" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="285" spans="2:8" x14ac:dyDescent="0.25">
@@ -14850,7 +14850,7 @@
         <v>130</v>
       </c>
       <c r="C290" s="29" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
     </row>
     <row r="291" spans="1:10" x14ac:dyDescent="0.25">
@@ -14918,7 +14918,7 @@
         <v>385</v>
       </c>
       <c r="H297" s="29" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="J297" s="42"/>
     </row>
@@ -14994,10 +14994,10 @@
         <v>515</v>
       </c>
       <c r="G306" s="42" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="H306" s="42" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="307" spans="1:8" x14ac:dyDescent="0.25">
@@ -15022,7 +15022,7 @@
         <v>385</v>
       </c>
       <c r="H308" s="29" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="309" spans="1:8" x14ac:dyDescent="0.25">
@@ -15080,7 +15080,7 @@
         <v>130</v>
       </c>
       <c r="C314" s="29" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
     </row>
     <row r="315" spans="1:8" x14ac:dyDescent="0.25">
@@ -15148,7 +15148,7 @@
         <v>385</v>
       </c>
       <c r="H321" s="29" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="322" spans="2:10" x14ac:dyDescent="0.25">
@@ -15227,10 +15227,10 @@
         <v>525</v>
       </c>
       <c r="G330" s="42" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="H330" s="42" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="331" spans="2:10" x14ac:dyDescent="0.25">
@@ -15255,7 +15255,7 @@
         <v>385</v>
       </c>
       <c r="H332" s="29" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="333" spans="2:10" x14ac:dyDescent="0.25">
@@ -15313,7 +15313,7 @@
         <v>130</v>
       </c>
       <c r="C338" s="29" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
     </row>
     <row r="339" spans="1:8" x14ac:dyDescent="0.25">
@@ -15381,7 +15381,7 @@
         <v>385</v>
       </c>
       <c r="H345" s="29" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="346" spans="1:8" x14ac:dyDescent="0.25">
@@ -15456,10 +15456,10 @@
         <v>535</v>
       </c>
       <c r="G354" s="42" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="H354" s="42" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="355" spans="1:10" x14ac:dyDescent="0.25">
@@ -15484,7 +15484,7 @@
         <v>385</v>
       </c>
       <c r="H356" s="29" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="357" spans="1:10" x14ac:dyDescent="0.25">
@@ -15543,7 +15543,7 @@
         <v>130</v>
       </c>
       <c r="C362" s="29" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
     </row>
     <row r="363" spans="1:10" x14ac:dyDescent="0.25">
@@ -15611,7 +15611,7 @@
         <v>385</v>
       </c>
       <c r="H369" s="29" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="370" spans="2:8" x14ac:dyDescent="0.25">
@@ -15689,10 +15689,10 @@
         <v>545</v>
       </c>
       <c r="G378" s="42" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="H378" s="42" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="379" spans="2:8" x14ac:dyDescent="0.25">
@@ -15717,7 +15717,7 @@
         <v>385</v>
       </c>
       <c r="H380" s="29" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="381" spans="2:8" x14ac:dyDescent="0.25">
@@ -15775,7 +15775,7 @@
         <v>130</v>
       </c>
       <c r="C386" s="29" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="387" spans="1:10" x14ac:dyDescent="0.25">
@@ -15844,7 +15844,7 @@
         <v>385</v>
       </c>
       <c r="H393" s="29" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="394" spans="1:10" x14ac:dyDescent="0.25">
@@ -15919,10 +15919,10 @@
         <v>555</v>
       </c>
       <c r="G402" s="42" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="H402" s="42" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="403" spans="1:8" x14ac:dyDescent="0.25">
@@ -15947,7 +15947,7 @@
         <v>385</v>
       </c>
       <c r="H404" s="29" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="405" spans="1:8" x14ac:dyDescent="0.25">
@@ -16005,7 +16005,7 @@
         <v>130</v>
       </c>
       <c r="C410" s="29" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="411" spans="1:8" x14ac:dyDescent="0.25">
@@ -16073,7 +16073,7 @@
         <v>385</v>
       </c>
       <c r="H417" s="29" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="418" spans="2:10" x14ac:dyDescent="0.25">
@@ -16152,10 +16152,10 @@
         <v>565</v>
       </c>
       <c r="G426" s="42" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="H426" s="42" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="427" spans="2:10" x14ac:dyDescent="0.25">
@@ -16180,7 +16180,7 @@
         <v>385</v>
       </c>
       <c r="H428" s="29" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="429" spans="2:10" x14ac:dyDescent="0.25">
@@ -16238,7 +16238,7 @@
         <v>130</v>
       </c>
       <c r="C434" s="29" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
     </row>
     <row r="435" spans="1:8" x14ac:dyDescent="0.25">
@@ -16306,7 +16306,7 @@
         <v>385</v>
       </c>
       <c r="H441" s="29" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="442" spans="1:8" x14ac:dyDescent="0.25">
@@ -16381,10 +16381,10 @@
         <v>575</v>
       </c>
       <c r="G450" s="42" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="H450" s="42" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="451" spans="1:10" x14ac:dyDescent="0.25">
@@ -16409,7 +16409,7 @@
         <v>385</v>
       </c>
       <c r="H452" s="29" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="J452" s="42"/>
     </row>
@@ -16468,7 +16468,7 @@
         <v>130</v>
       </c>
       <c r="C458" s="29" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
     </row>
     <row r="459" spans="1:10" x14ac:dyDescent="0.25">
@@ -16536,7 +16536,7 @@
         <v>385</v>
       </c>
       <c r="H465" s="29" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="466" spans="2:8" x14ac:dyDescent="0.25">
@@ -16614,10 +16614,10 @@
         <v>585</v>
       </c>
       <c r="G474" s="42" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="H474" s="42" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="475" spans="2:8" x14ac:dyDescent="0.25">
@@ -16642,7 +16642,7 @@
         <v>385</v>
       </c>
       <c r="H476" s="29" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="477" spans="2:8" x14ac:dyDescent="0.25">
@@ -16794,7 +16794,7 @@
         <v>592</v>
       </c>
       <c r="H5" s="29" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -16849,7 +16849,7 @@
         <v>598</v>
       </c>
       <c r="H11" s="29" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -17015,7 +17015,7 @@
         <v>598</v>
       </c>
       <c r="H27" s="29" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
@@ -17181,7 +17181,7 @@
         <v>598</v>
       </c>
       <c r="H43" s="29" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.25">
@@ -17336,7 +17336,7 @@
         <v>598</v>
       </c>
       <c r="H58" s="29" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.25">
@@ -17468,11 +17468,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08D25534-A009-4B32-8A9F-69AC75C4E3ED}">
-  <dimension ref="A1:M96"/>
+  <dimension ref="A1:M98"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G87" sqref="G87"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17553,31 +17553,13 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D4" s="47" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="47" t="s">
-        <v>648</v>
-      </c>
-      <c r="G4" s="47" t="s">
-        <v>649</v>
-      </c>
-      <c r="H4" s="47" t="s">
-        <v>649</v>
+      <c r="B4" s="47" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D5" s="47" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="47" t="s">
-        <v>650</v>
-      </c>
-      <c r="G5" s="47" t="s">
-        <v>651</v>
-      </c>
-      <c r="H5" s="47" t="s">
-        <v>651</v>
+      <c r="B5" s="47" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -17585,795 +17567,813 @@
         <v>24</v>
       </c>
       <c r="F6" s="47" t="s">
+        <v>648</v>
+      </c>
+      <c r="G6" s="47" t="s">
+        <v>649</v>
+      </c>
+      <c r="H6" s="47" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D7" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="47" t="s">
+        <v>650</v>
+      </c>
+      <c r="G7" s="47" t="s">
+        <v>651</v>
+      </c>
+      <c r="H7" s="47" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D8" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="47" t="s">
         <v>652</v>
       </c>
-      <c r="G6" s="47" t="s">
+      <c r="G8" s="47" t="s">
         <v>653</v>
       </c>
-      <c r="H6" s="47" t="s">
+      <c r="H8" s="47" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B7" s="47" t="s">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B9" s="47" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B8" s="47" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D9" s="47" t="s">
-        <v>121</v>
-      </c>
-      <c r="E9" s="47" t="s">
-        <v>654</v>
-      </c>
-      <c r="F9" s="47" t="s">
-        <v>655</v>
-      </c>
-      <c r="G9" s="47" t="s">
-        <v>656</v>
-      </c>
-      <c r="H9" s="47" t="s">
-        <v>657</v>
-      </c>
-      <c r="J9" s="48"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B10" s="47" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D11" s="47" t="s">
+        <v>121</v>
+      </c>
+      <c r="E11" s="47" t="s">
+        <v>654</v>
+      </c>
+      <c r="F11" s="47" t="s">
+        <v>655</v>
+      </c>
+      <c r="G11" s="47" t="s">
+        <v>656</v>
+      </c>
+      <c r="H11" s="47" t="s">
+        <v>657</v>
+      </c>
+      <c r="J11" s="48"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B12" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="J10" s="48"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="49"/>
-      <c r="B11" s="47" t="s">
+      <c r="J12" s="48"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="49"/>
+      <c r="B13" s="47" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D12" s="47" t="s">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D14" s="47" t="s">
         <v>121</v>
       </c>
-      <c r="E12" s="47" t="s">
+      <c r="E14" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="47" t="s">
+      <c r="F14" s="47" t="s">
         <v>658</v>
       </c>
-      <c r="G12" s="47" t="s">
+      <c r="G14" s="47" t="s">
         <v>659</v>
       </c>
-      <c r="H12" s="47" t="s">
+      <c r="H14" s="47" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B13" s="47" t="s">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B15" s="47" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="49"/>
-      <c r="B14" s="47" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="49"/>
-      <c r="D15" s="47" t="s">
-        <v>121</v>
-      </c>
-      <c r="E15" s="47" t="s">
-        <v>661</v>
-      </c>
-      <c r="F15" s="47" t="s">
-        <v>662</v>
-      </c>
-      <c r="G15" s="47" t="s">
-        <v>663</v>
-      </c>
-      <c r="H15" s="47" t="s">
-        <v>1012</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="49"/>
       <c r="B16" s="47" t="s">
-        <v>130</v>
-      </c>
-      <c r="C16" s="47" t="s">
-        <v>664</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="49"/>
       <c r="D17" s="47" t="s">
-        <v>111</v>
+        <v>121</v>
+      </c>
+      <c r="E17" s="47" t="s">
+        <v>661</v>
       </c>
       <c r="F17" s="47" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="G17" s="47" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="H17" s="47" t="s">
-        <v>305</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="49"/>
       <c r="B18" s="47" t="s">
+        <v>130</v>
+      </c>
+      <c r="C18" s="47" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="49"/>
+      <c r="D19" s="47" t="s">
+        <v>111</v>
+      </c>
+      <c r="F19" s="47" t="s">
+        <v>665</v>
+      </c>
+      <c r="G19" s="47" t="s">
+        <v>666</v>
+      </c>
+      <c r="H19" s="47" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="49"/>
+      <c r="B20" s="47" t="s">
         <v>135</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="47" t="s">
-        <v>130</v>
-      </c>
-      <c r="C19" s="47" t="s">
-        <v>667</v>
-      </c>
-      <c r="E19" s="50"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D20" s="47" t="s">
-        <v>111</v>
-      </c>
-      <c r="F20" s="47" t="s">
-        <v>906</v>
-      </c>
-      <c r="G20" s="47" t="s">
-        <v>668</v>
-      </c>
-      <c r="H20" s="47" t="s">
-        <v>1013</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B21" s="47" t="s">
-        <v>135</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="C21" s="47" t="s">
+        <v>667</v>
+      </c>
+      <c r="E21" s="50"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="47" t="s">
-        <v>13</v>
+      <c r="D22" s="47" t="s">
+        <v>111</v>
+      </c>
+      <c r="F22" s="47" t="s">
+        <v>904</v>
+      </c>
+      <c r="G22" s="47" t="s">
+        <v>668</v>
+      </c>
+      <c r="H22" s="47" t="s">
+        <v>1011</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B23" s="47" t="s">
-        <v>12</v>
+        <v>135</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D24" s="47" t="s">
-        <v>121</v>
-      </c>
-      <c r="E24" s="47" t="s">
-        <v>29</v>
-      </c>
-      <c r="F24" s="47" t="s">
-        <v>669</v>
-      </c>
-      <c r="G24" s="47" t="s">
-        <v>670</v>
-      </c>
-      <c r="H24" s="47" t="s">
-        <v>671</v>
+      <c r="B24" s="47" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B25" s="47" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="47" t="s">
-        <v>130</v>
-      </c>
-      <c r="C26" s="47" t="s">
-        <v>672</v>
+      <c r="D26" s="47" t="s">
+        <v>121</v>
+      </c>
+      <c r="E26" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="F26" s="47" t="s">
+        <v>669</v>
+      </c>
+      <c r="G26" s="47" t="s">
+        <v>670</v>
+      </c>
+      <c r="H26" s="47" t="s">
+        <v>671</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B27" s="47" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D28" s="47" t="s">
-        <v>111</v>
-      </c>
-      <c r="F28" s="47" t="s">
-        <v>673</v>
-      </c>
-      <c r="G28" s="47" t="s">
-        <v>674</v>
-      </c>
-      <c r="H28" s="47" t="s">
-        <v>1014</v>
+      <c r="B28" s="47" t="s">
+        <v>130</v>
+      </c>
+      <c r="C28" s="47" t="s">
+        <v>672</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B29" s="47" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D30" s="47" t="s">
+        <v>111</v>
+      </c>
+      <c r="F30" s="47" t="s">
+        <v>673</v>
+      </c>
+      <c r="G30" s="47" t="s">
+        <v>674</v>
+      </c>
+      <c r="H30" s="47" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B31" s="47" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="47" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D31" s="47" t="s">
-        <v>121</v>
-      </c>
-      <c r="E31" s="47" t="s">
-        <v>675</v>
-      </c>
-      <c r="F31" s="47" t="s">
-        <v>676</v>
-      </c>
-      <c r="G31" s="47" t="s">
-        <v>677</v>
-      </c>
-      <c r="H31" s="47" t="s">
-        <v>1015</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B32" s="47" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D33" s="47" t="s">
+        <v>121</v>
+      </c>
+      <c r="E33" s="47" t="s">
+        <v>675</v>
+      </c>
+      <c r="F33" s="47" t="s">
+        <v>676</v>
+      </c>
+      <c r="G33" s="47" t="s">
+        <v>677</v>
+      </c>
+      <c r="H33" s="47" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B34" s="47" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="48"/>
-      <c r="B33" s="47" t="s">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="48"/>
+      <c r="B35" s="47" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D34" s="47" t="s">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D36" s="47" t="s">
         <v>121</v>
       </c>
-      <c r="E34" s="47" t="s">
+      <c r="E36" s="47" t="s">
         <v>678</v>
       </c>
-      <c r="F34" s="47" t="s">
+      <c r="F36" s="47" t="s">
         <v>679</v>
       </c>
-      <c r="G34" s="47" t="s">
+      <c r="G36" s="47" t="s">
         <v>680</v>
       </c>
-      <c r="H34" s="47" t="s">
+      <c r="H36" s="47" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B35" s="47" t="s">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B37" s="47" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B36" s="47" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D37" s="47" t="s">
-        <v>121</v>
-      </c>
-      <c r="E37" s="47" t="s">
-        <v>682</v>
-      </c>
-      <c r="F37" s="47" t="s">
-        <v>683</v>
-      </c>
-      <c r="G37" s="47" t="s">
-        <v>684</v>
-      </c>
-      <c r="H37" s="47" t="s">
-        <v>685</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B38" s="47" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D39" s="47" t="s">
+        <v>121</v>
+      </c>
+      <c r="E39" s="47" t="s">
+        <v>682</v>
+      </c>
+      <c r="F39" s="47" t="s">
+        <v>683</v>
+      </c>
+      <c r="G39" s="47" t="s">
+        <v>684</v>
+      </c>
+      <c r="H39" s="47" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B40" s="47" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B39" s="47" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D40" s="47" t="s">
-        <v>121</v>
-      </c>
-      <c r="E40" s="47" t="s">
-        <v>333</v>
-      </c>
-      <c r="F40" s="47" t="s">
-        <v>686</v>
-      </c>
-      <c r="G40" s="47" t="s">
-        <v>687</v>
-      </c>
-      <c r="H40" s="47" t="s">
-        <v>688</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B41" s="47" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D42" s="47" t="s">
+        <v>121</v>
+      </c>
+      <c r="E42" s="47" t="s">
+        <v>1042</v>
+      </c>
+      <c r="F42" s="47" t="s">
+        <v>686</v>
+      </c>
+      <c r="G42" s="47" t="s">
+        <v>687</v>
+      </c>
+      <c r="H42" s="47" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B43" s="47" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B42" s="47" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D43" s="47" t="s">
-        <v>121</v>
-      </c>
-      <c r="E43" s="47" t="s">
-        <v>29</v>
-      </c>
-      <c r="F43" s="47" t="s">
-        <v>899</v>
-      </c>
-      <c r="G43" s="47" t="s">
-        <v>689</v>
-      </c>
-      <c r="H43" s="47" t="s">
-        <v>690</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B44" s="47" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D45" s="47" t="s">
+        <v>121</v>
+      </c>
+      <c r="E45" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="F45" s="47" t="s">
+        <v>897</v>
+      </c>
+      <c r="G45" s="47" t="s">
+        <v>689</v>
+      </c>
+      <c r="H45" s="47" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B46" s="47" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B45" s="47" t="s">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B47" s="47" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D46" s="47" t="s">
-        <v>181</v>
-      </c>
-      <c r="G46" s="47" t="s">
-        <v>691</v>
-      </c>
-      <c r="H46" s="47" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D47" s="47" t="s">
-        <v>24</v>
-      </c>
-      <c r="F47" s="47" t="s">
-        <v>693</v>
-      </c>
-      <c r="G47" s="47" t="s">
-        <v>694</v>
-      </c>
-      <c r="H47" s="47" t="s">
-        <v>1016</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D48" s="47" t="s">
-        <v>24</v>
-      </c>
-      <c r="F48" s="47" t="s">
+        <v>181</v>
+      </c>
+      <c r="G48" s="47" t="s">
+        <v>691</v>
+      </c>
+      <c r="H48" s="47" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D49" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="F49" s="47" t="s">
+        <v>693</v>
+      </c>
+      <c r="G49" s="47" t="s">
+        <v>694</v>
+      </c>
+      <c r="H49" s="47" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D50" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="F50" s="47" t="s">
         <v>695</v>
       </c>
-      <c r="G48" s="47" t="s">
+      <c r="G50" s="47" t="s">
         <v>696</v>
       </c>
-      <c r="H48" s="47" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B49" s="47" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B50" s="47" t="s">
-        <v>135</v>
+      <c r="H50" s="47" t="s">
+        <v>1015</v>
       </c>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B51" s="47" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D52" s="47" t="s">
-        <v>121</v>
-      </c>
-      <c r="E52" s="47" t="s">
-        <v>29</v>
-      </c>
-      <c r="F52" s="47" t="s">
-        <v>697</v>
-      </c>
-      <c r="G52" s="47" t="s">
-        <v>698</v>
-      </c>
-      <c r="H52" s="47" t="s">
-        <v>699</v>
+      <c r="B52" s="47" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B53" s="47" t="s">
-        <v>130</v>
-      </c>
-      <c r="C53" s="47" t="s">
-        <v>700</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D54" s="47" t="s">
-        <v>111</v>
+        <v>121</v>
+      </c>
+      <c r="E54" s="47" t="s">
+        <v>29</v>
       </c>
       <c r="F54" s="47" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="G54" s="47" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="H54" s="47" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B55" s="47" t="s">
-        <v>135</v>
+        <v>130</v>
+      </c>
+      <c r="C55" s="47" t="s">
+        <v>700</v>
       </c>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B56" s="47" t="s">
-        <v>13</v>
+      <c r="D56" s="47" t="s">
+        <v>111</v>
+      </c>
+      <c r="F56" s="47" t="s">
+        <v>701</v>
+      </c>
+      <c r="G56" s="47" t="s">
+        <v>702</v>
+      </c>
+      <c r="H56" s="47" t="s">
+        <v>703</v>
       </c>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B57" s="47" t="s">
-        <v>12</v>
+        <v>135</v>
       </c>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D58" s="47" t="s">
-        <v>121</v>
-      </c>
-      <c r="E58" s="47" t="s">
-        <v>29</v>
-      </c>
-      <c r="F58" s="47" t="s">
-        <v>704</v>
-      </c>
-      <c r="G58" s="47" t="s">
-        <v>705</v>
-      </c>
-      <c r="H58" s="47" t="s">
-        <v>706</v>
+      <c r="B58" s="47" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B59" s="47" t="s">
-        <v>130</v>
-      </c>
-      <c r="C59" s="47" t="s">
-        <v>707</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D60" s="47" t="s">
-        <v>111</v>
+        <v>121</v>
+      </c>
+      <c r="E60" s="47" t="s">
+        <v>29</v>
       </c>
       <c r="F60" s="47" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="G60" s="47" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="H60" s="47" t="s">
-        <v>703</v>
+        <v>706</v>
       </c>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B61" s="47" t="s">
-        <v>135</v>
+        <v>130</v>
+      </c>
+      <c r="C61" s="47" t="s">
+        <v>707</v>
       </c>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B62" s="47" t="s">
-        <v>13</v>
+      <c r="D62" s="47" t="s">
+        <v>111</v>
+      </c>
+      <c r="F62" s="47" t="s">
+        <v>708</v>
+      </c>
+      <c r="G62" s="47" t="s">
+        <v>709</v>
+      </c>
+      <c r="H62" s="47" t="s">
+        <v>703</v>
       </c>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B63" s="47" t="s">
-        <v>130</v>
-      </c>
-      <c r="C63" s="47" t="s">
-        <v>710</v>
+        <v>135</v>
       </c>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B64" s="47" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D65" s="47" t="s">
-        <v>111</v>
-      </c>
-      <c r="F65" s="47" t="s">
-        <v>711</v>
-      </c>
-      <c r="G65" s="47" t="s">
-        <v>712</v>
-      </c>
-      <c r="H65" s="47" t="s">
-        <v>1018</v>
+      <c r="B65" s="47" t="s">
+        <v>130</v>
+      </c>
+      <c r="C65" s="47" t="s">
+        <v>710</v>
       </c>
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B66" s="47" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D67" s="47" t="s">
+        <v>111</v>
+      </c>
+      <c r="F67" s="47" t="s">
+        <v>711</v>
+      </c>
+      <c r="G67" s="47" t="s">
+        <v>712</v>
+      </c>
+      <c r="H67" s="47" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B68" s="47" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B67" s="47" t="s">
+    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B69" s="47" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D68" s="47" t="s">
-        <v>181</v>
-      </c>
-      <c r="G68" s="47" t="s">
-        <v>713</v>
-      </c>
-      <c r="H68" s="47" t="s">
-        <v>1019</v>
-      </c>
-    </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D69" s="47" t="s">
-        <v>121</v>
-      </c>
-      <c r="E69" s="47" t="s">
-        <v>29</v>
-      </c>
-      <c r="F69" s="47" t="s">
-        <v>714</v>
-      </c>
-      <c r="G69" s="47" t="s">
-        <v>715</v>
-      </c>
-      <c r="H69" s="47" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="70" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D70" s="47" t="s">
+        <v>181</v>
+      </c>
+      <c r="G70" s="47" t="s">
+        <v>713</v>
+      </c>
+      <c r="H70" s="47" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D71" s="47" t="s">
         <v>121</v>
       </c>
-      <c r="E70" s="47" t="s">
+      <c r="E71" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="F70" s="47" t="s">
+      <c r="F71" s="47" t="s">
+        <v>714</v>
+      </c>
+      <c r="G71" s="47" t="s">
+        <v>715</v>
+      </c>
+      <c r="H71" s="47" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D72" s="47" t="s">
+        <v>121</v>
+      </c>
+      <c r="E72" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="F72" s="47" t="s">
         <v>717</v>
       </c>
-      <c r="G70" s="47" t="s">
+      <c r="G72" s="47" t="s">
         <v>718</v>
       </c>
-      <c r="H70" s="47" t="s">
+      <c r="H72" s="47" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B71" s="47" t="s">
+    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B73" s="47" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B72" s="47" t="s">
+    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B74" s="47" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D73" s="47" t="s">
+    <row r="75" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D75" s="47" t="s">
         <v>121</v>
       </c>
-      <c r="E73" s="47" t="s">
+      <c r="E75" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="F73" s="47" t="s">
+      <c r="F75" s="47" t="s">
         <v>720</v>
       </c>
-      <c r="G73" s="47" t="s">
+      <c r="G75" s="47" t="s">
         <v>721</v>
       </c>
-      <c r="H73" s="47" t="s">
+      <c r="H75" s="47" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D74" s="47" t="s">
+    <row r="76" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D76" s="47" t="s">
         <v>121</v>
       </c>
-      <c r="E74" s="47" t="s">
+      <c r="E76" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="F74" s="47" t="s">
+      <c r="F76" s="47" t="s">
         <v>723</v>
       </c>
-      <c r="G74" s="47" t="s">
+      <c r="G76" s="47" t="s">
         <v>724</v>
       </c>
-      <c r="H74" s="47" t="s">
+      <c r="H76" s="47" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B75" s="47" t="s">
+    <row r="77" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B77" s="47" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B76" s="47" t="s">
+    <row r="78" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B78" s="47" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="77" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D77" s="47" t="s">
+    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D79" s="47" t="s">
         <v>121</v>
       </c>
-      <c r="E77" s="47" t="s">
+      <c r="E79" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="F77" s="47" t="s">
+      <c r="F79" s="47" t="s">
         <v>726</v>
       </c>
-      <c r="G77" s="47" t="s">
+      <c r="G79" s="47" t="s">
         <v>727</v>
       </c>
-      <c r="H77" s="47" t="s">
+      <c r="H79" s="47" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D78" s="47" t="s">
+    <row r="80" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D80" s="47" t="s">
         <v>121</v>
       </c>
-      <c r="E78" s="47" t="s">
+      <c r="E80" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="F78" s="47" t="s">
+      <c r="F80" s="47" t="s">
         <v>729</v>
       </c>
-      <c r="G78" s="47" t="s">
+      <c r="G80" s="47" t="s">
         <v>730</v>
       </c>
-      <c r="H78" s="47" t="s">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B79" s="47" t="s">
+      <c r="H80" s="47" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B81" s="47" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="80" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B80" s="47" t="s">
-        <v>12</v>
-      </c>
-      <c r="C80" s="47" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D81" s="47" t="s">
-        <v>121</v>
-      </c>
-      <c r="E81" s="47" t="s">
-        <v>29</v>
-      </c>
-      <c r="F81" s="47" t="s">
-        <v>732</v>
-      </c>
-      <c r="G81" s="47" t="s">
-        <v>733</v>
-      </c>
-      <c r="H81" s="47" t="s">
-        <v>1021</v>
       </c>
     </row>
     <row r="82" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B82" s="47" t="s">
-        <v>130</v>
+        <v>12</v>
       </c>
       <c r="C82" s="47" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
     </row>
     <row r="83" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D83" s="47" t="s">
-        <v>111</v>
+        <v>121</v>
+      </c>
+      <c r="E83" s="47" t="s">
+        <v>29</v>
       </c>
       <c r="F83" s="47" t="s">
-        <v>735</v>
-      </c>
-      <c r="G83" s="48" t="s">
-        <v>736</v>
-      </c>
-      <c r="H83" s="48" t="s">
-        <v>1022</v>
+        <v>732</v>
+      </c>
+      <c r="G83" s="47" t="s">
+        <v>733</v>
+      </c>
+      <c r="H83" s="47" t="s">
+        <v>1019</v>
       </c>
     </row>
     <row r="84" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B84" s="47" t="s">
-        <v>135</v>
+        <v>130</v>
+      </c>
+      <c r="C84" s="47" t="s">
+        <v>734</v>
       </c>
     </row>
     <row r="85" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D85" s="47" t="s">
-        <v>121</v>
-      </c>
-      <c r="E85" s="47" t="s">
-        <v>29</v>
+        <v>111</v>
       </c>
       <c r="F85" s="47" t="s">
-        <v>737</v>
-      </c>
-      <c r="G85" s="47" t="s">
-        <v>738</v>
-      </c>
-      <c r="H85" s="47" t="s">
-        <v>1023</v>
+        <v>735</v>
+      </c>
+      <c r="G85" s="48" t="s">
+        <v>736</v>
+      </c>
+      <c r="H85" s="48" t="s">
+        <v>1020</v>
       </c>
     </row>
     <row r="86" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B86" s="47" t="s">
-        <v>130</v>
-      </c>
-      <c r="C86" s="47" t="s">
-        <v>739</v>
+        <v>135</v>
       </c>
     </row>
     <row r="87" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D87" s="47" t="s">
-        <v>111</v>
+        <v>121</v>
+      </c>
+      <c r="E87" s="47" t="s">
+        <v>29</v>
       </c>
       <c r="F87" s="47" t="s">
-        <v>740</v>
-      </c>
-      <c r="G87" s="48" t="s">
-        <v>741</v>
-      </c>
-      <c r="H87" s="48" t="s">
-        <v>1024</v>
+        <v>737</v>
+      </c>
+      <c r="G87" s="47" t="s">
+        <v>738</v>
+      </c>
+      <c r="H87" s="47" t="s">
+        <v>1021</v>
       </c>
     </row>
     <row r="88" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B88" s="47" t="s">
-        <v>135</v>
+        <v>130</v>
+      </c>
+      <c r="C88" s="47" t="s">
+        <v>739</v>
       </c>
     </row>
     <row r="89" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B89" s="47" t="s">
-        <v>13</v>
+      <c r="D89" s="47" t="s">
+        <v>111</v>
+      </c>
+      <c r="F89" s="47" t="s">
+        <v>740</v>
+      </c>
+      <c r="G89" s="48" t="s">
+        <v>741</v>
+      </c>
+      <c r="H89" s="48" t="s">
+        <v>1022</v>
       </c>
     </row>
     <row r="90" spans="2:8" x14ac:dyDescent="0.25">
@@ -18383,55 +18383,65 @@
     </row>
     <row r="91" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B91" s="47" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="92" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D92" s="47" t="s">
-        <v>121</v>
-      </c>
-      <c r="E92" s="47" t="s">
-        <v>29</v>
-      </c>
-      <c r="F92" s="47" t="s">
-        <v>742</v>
-      </c>
-      <c r="G92" s="47" t="s">
-        <v>743</v>
-      </c>
-      <c r="H92" s="47" t="s">
-        <v>1025</v>
+      <c r="B92" s="47" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="93" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B93" s="47" t="s">
-        <v>130</v>
-      </c>
-      <c r="C93" s="47" t="s">
-        <v>744</v>
+        <v>12</v>
       </c>
     </row>
     <row r="94" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D94" s="47" t="s">
-        <v>111</v>
+        <v>121</v>
+      </c>
+      <c r="E94" s="47" t="s">
+        <v>29</v>
       </c>
       <c r="F94" s="47" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="G94" s="47" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="H94" s="47" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="95" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B95" s="47" t="s">
+        <v>130</v>
+      </c>
+      <c r="C95" s="47" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="96" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D96" s="47" t="s">
+        <v>111</v>
+      </c>
+      <c r="F96" s="47" t="s">
+        <v>745</v>
+      </c>
+      <c r="G96" s="47" t="s">
+        <v>746</v>
+      </c>
+      <c r="H96" s="47" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B97" s="47" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="96" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B96" s="47" t="s">
+    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B98" s="47" t="s">
         <v>13</v>
       </c>
     </row>
@@ -18471,25 +18481,25 @@
         <v>217</v>
       </c>
       <c r="C1" s="21" t="s">
+        <v>886</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>887</v>
+      </c>
+      <c r="E1" s="21" t="s">
         <v>888</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="F1" s="21" t="s">
         <v>889</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="G1" s="21" t="s">
         <v>890</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="H1" s="12" t="s">
         <v>891</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="I1" s="22" t="s">
         <v>892</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>893</v>
-      </c>
-      <c r="I1" s="22" t="s">
-        <v>894</v>
       </c>
       <c r="J1" s="13" t="s">
         <v>218</v>
@@ -18506,22 +18516,22 @@
         <v>307</v>
       </c>
       <c r="C2" s="16" t="s">
+        <v>893</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>893</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>894</v>
+      </c>
+      <c r="F2" s="16" t="s">
         <v>895</v>
       </c>
-      <c r="D2" s="16" t="s">
-        <v>895</v>
-      </c>
-      <c r="E2" s="16" t="s">
+      <c r="G2" s="16" t="s">
+        <v>981</v>
+      </c>
+      <c r="H2" s="24" t="s">
         <v>896</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>897</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>983</v>
-      </c>
-      <c r="H2" s="24" t="s">
-        <v>898</v>
       </c>
       <c r="I2" s="16"/>
       <c r="J2" s="16"/>

--- a/app/config/tables/MIF/forms/MIF/MIF.xlsx
+++ b/app/config/tables/MIF/forms/MIF/MIF.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1008528D-A0A6-44F5-9EC8-CD89C012076C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5826306A-A41F-41CE-9A76-889313321F72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="648" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="648" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3395" uniqueCount="1044">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3403" uniqueCount="1045">
   <si>
     <t>setting_name</t>
   </si>
@@ -3260,6 +3260,9 @@
   </si>
   <si>
     <t>Health centre</t>
+  </si>
+  <si>
+    <t>data('ESTADOVIS')</t>
   </si>
 </sst>
 </file>
@@ -9645,8 +9648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F97EDFF-72E2-4781-A226-FCA8C7C63015}">
   <dimension ref="A1:R135"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D22" sqref="D22:E22"/>
     </sheetView>
   </sheetViews>
@@ -10947,11 +10950,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{568D4494-839B-4F7A-8E9C-72B7EC0E8A88}">
-  <dimension ref="A1:L114"/>
+  <dimension ref="A1:L118"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E61" sqref="E61"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10964,7 +10967,7 @@
     <col min="6" max="6" width="15.7109375" style="29" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="31.7109375" style="29" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="36.28515625" style="29" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" style="29" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.28515625" style="29" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="31.85546875" style="29" customWidth="1"/>
     <col min="11" max="11" width="29.7109375" style="29" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="53.140625" style="29" bestFit="1" customWidth="1"/>
@@ -11141,13 +11144,13 @@
         <v>937</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="47"/>
       <c r="B17" s="29" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="47"/>
       <c r="B18" s="29" t="s">
         <v>130</v>
@@ -11156,7 +11159,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="47"/>
       <c r="D19" s="29" t="s">
         <v>181</v>
@@ -11168,13 +11171,13 @@
         <v>938</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="47"/>
       <c r="B20" s="29" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="47"/>
       <c r="B21" s="29" t="s">
         <v>130</v>
@@ -11183,7 +11186,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D22" s="29" t="s">
         <v>181</v>
       </c>
@@ -11194,12 +11197,12 @@
         <v>939</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B23" s="29" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D24" s="29" t="s">
         <v>121</v>
       </c>
@@ -11216,7 +11219,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B25" s="29" t="s">
         <v>130</v>
       </c>
@@ -11224,7 +11227,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D26" s="29" t="s">
         <v>265</v>
       </c>
@@ -11238,296 +11241,296 @@
         <v>301</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="29" t="s">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D27" s="47" t="s">
+        <v>137</v>
+      </c>
+      <c r="F27" s="29" t="s">
+        <v>212</v>
+      </c>
+      <c r="I27" s="29" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B28" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="C27" s="29" t="s">
+      <c r="C28" s="29" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D28" s="29" t="s">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D29" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="F28" s="29" t="s">
+      <c r="F29" s="29" t="s">
         <v>303</v>
       </c>
-      <c r="G28" s="29" t="s">
+      <c r="G29" s="29" t="s">
         <v>304</v>
       </c>
-      <c r="H28" s="29" t="s">
+      <c r="H29" s="29" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="29" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B30" s="29" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="30"/>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B31" s="29" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B32" s="47" t="s">
+        <v>130</v>
+      </c>
+      <c r="C32" s="29" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D33" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="F33" s="29" t="s">
+        <v>212</v>
+      </c>
+      <c r="I33" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B34" s="47" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="30"/>
+      <c r="B35" s="29" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="31"/>
-      <c r="B32" s="29" t="s">
-        <v>130</v>
-      </c>
-      <c r="C32" s="29" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="29" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="31"/>
-      <c r="B34" s="29" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="40"/>
-      <c r="B35" s="29" t="s">
-        <v>130</v>
-      </c>
-      <c r="C35" s="29" t="s">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="33"/>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="31"/>
       <c r="B36" s="29" t="s">
         <v>130</v>
       </c>
       <c r="C36" s="29" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B37" s="29" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D38" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="E38" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="F38" s="29" t="s">
-        <v>215</v>
-      </c>
-      <c r="G38" s="34" t="s">
-        <v>309</v>
-      </c>
-      <c r="H38" s="29" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="31"/>
+      <c r="B38" s="29" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="40"/>
       <c r="B39" s="29" t="s">
         <v>130</v>
       </c>
       <c r="C39" s="29" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D40" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="E40" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="F40" s="29" t="s">
-        <v>210</v>
-      </c>
-      <c r="G40" s="34" t="s">
-        <v>311</v>
-      </c>
-      <c r="H40" s="29" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="33"/>
+      <c r="B40" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="C40" s="29" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B41" s="29" t="s">
-        <v>130</v>
-      </c>
-      <c r="C41" s="29" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D42" s="29" t="s">
         <v>121</v>
       </c>
       <c r="E42" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="F42" s="29" t="s">
+        <v>215</v>
+      </c>
+      <c r="G42" s="34" t="s">
+        <v>309</v>
+      </c>
+      <c r="H42" s="29" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B43" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="C43" s="29" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D44" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="E44" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="F44" s="29" t="s">
+        <v>210</v>
+      </c>
+      <c r="G44" s="34" t="s">
+        <v>311</v>
+      </c>
+      <c r="H44" s="29" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B45" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="C45" s="29" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D46" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="E46" s="29" t="s">
         <v>314</v>
       </c>
-      <c r="F42" s="29" t="s">
+      <c r="F46" s="29" t="s">
         <v>315</v>
       </c>
-      <c r="G42" s="29" t="s">
+      <c r="G46" s="29" t="s">
         <v>316</v>
       </c>
-      <c r="H42" s="29" t="s">
+      <c r="H46" s="29" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D43" s="29" t="s">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D47" s="29" t="s">
         <v>265</v>
       </c>
-      <c r="F43" s="29" t="s">
+      <c r="F47" s="29" t="s">
         <v>318</v>
       </c>
-      <c r="G43" s="29" t="s">
+      <c r="G47" s="29" t="s">
         <v>319</v>
       </c>
-      <c r="H43" s="29" t="s">
+      <c r="H47" s="29" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B44" s="29" t="s">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B48" s="29" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B45" s="29" t="s">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B49" s="29" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B46" s="29" t="s">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B50" s="29" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="33"/>
-      <c r="B47" s="29" t="s">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="33"/>
+      <c r="B51" s="29" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="35"/>
-      <c r="B48" s="29" t="s">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="35"/>
+      <c r="B52" s="29" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D49" s="29" t="s">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D53" s="29" t="s">
         <v>181</v>
       </c>
-      <c r="G49" s="29" t="s">
+      <c r="G53" s="29" t="s">
         <v>920</v>
       </c>
-      <c r="H49" s="29" t="s">
+      <c r="H53" s="29" t="s">
         <v>920</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D50" s="29" t="s">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D54" s="29" t="s">
         <v>121</v>
       </c>
-      <c r="E50" s="29" t="s">
+      <c r="E54" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="F50" s="29" t="s">
+      <c r="F54" s="29" t="s">
         <v>261</v>
       </c>
-      <c r="G50" s="29" t="s">
+      <c r="G54" s="29" t="s">
         <v>321</v>
       </c>
-      <c r="H50" s="29" t="s">
+      <c r="H54" s="29" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D51" s="29" t="s">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D55" s="29" t="s">
         <v>121</v>
       </c>
-      <c r="E51" s="29" t="s">
+      <c r="E55" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="F51" s="29" t="s">
+      <c r="F55" s="29" t="s">
         <v>323</v>
       </c>
-      <c r="G51" s="29" t="s">
+      <c r="G55" s="29" t="s">
         <v>324</v>
       </c>
-      <c r="H51" s="29" t="s">
+      <c r="H55" s="29" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B52" s="29" t="s">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B56" s="29" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="53"/>
-      <c r="B53" s="47" t="s">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="53"/>
+      <c r="B57" s="47" t="s">
         <v>130</v>
       </c>
-      <c r="C53" s="29" t="s">
+      <c r="C57" s="29" t="s">
         <v>1041</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="32"/>
-      <c r="B54" s="29" t="s">
-        <v>130</v>
-      </c>
-      <c r="C54" s="29" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B55" s="29" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D56" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="E56" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="F56" s="29" t="s">
-        <v>327</v>
-      </c>
-      <c r="G56" s="29" t="s">
-        <v>328</v>
-      </c>
-      <c r="H56" s="29" t="s">
-        <v>985</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B57" s="29" t="s">
-        <v>13</v>
-      </c>
-    </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="32"/>
       <c r="B58" s="29" t="s">
         <v>130</v>
       </c>
       <c r="C58" s="29" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
@@ -11537,51 +11540,51 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D60" s="29" t="s">
-        <v>265</v>
+        <v>121</v>
+      </c>
+      <c r="E60" s="29" t="s">
+        <v>29</v>
       </c>
       <c r="F60" s="29" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="G60" s="29" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="H60" s="29" t="s">
-        <v>332</v>
+        <v>985</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D61" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="E61" s="29" t="s">
-        <v>333</v>
-      </c>
-      <c r="F61" s="29" t="s">
-        <v>334</v>
-      </c>
-      <c r="G61" s="29" t="s">
-        <v>335</v>
-      </c>
-      <c r="H61" s="29" t="s">
-        <v>336</v>
+      <c r="B61" s="29" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B62" s="29" t="s">
-        <v>13</v>
+        <v>130</v>
+      </c>
+      <c r="C62" s="29" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B63" s="29" t="s">
-        <v>130</v>
-      </c>
-      <c r="C63" s="29" t="s">
-        <v>337</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B64" s="29" t="s">
-        <v>12</v>
+      <c r="D64" s="29" t="s">
+        <v>265</v>
+      </c>
+      <c r="F64" s="29" t="s">
+        <v>330</v>
+      </c>
+      <c r="G64" s="29" t="s">
+        <v>331</v>
+      </c>
+      <c r="H64" s="29" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.25">
@@ -11589,420 +11592,455 @@
         <v>121</v>
       </c>
       <c r="E65" s="29" t="s">
-        <v>29</v>
+        <v>333</v>
       </c>
       <c r="F65" s="29" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="G65" s="29" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="H65" s="29" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B66" s="29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B67" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="C66" s="29" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D67" s="29" t="s">
-        <v>265</v>
-      </c>
-      <c r="F67" s="29" t="s">
-        <v>342</v>
-      </c>
-      <c r="G67" s="29" t="s">
-        <v>343</v>
-      </c>
-      <c r="H67" s="29" t="s">
-        <v>344</v>
+      <c r="C67" s="29" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B68" s="29" t="s">
-        <v>135</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B69" s="29" t="s">
-        <v>13</v>
+      <c r="D69" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="E69" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="F69" s="29" t="s">
+        <v>338</v>
+      </c>
+      <c r="G69" s="29" t="s">
+        <v>339</v>
+      </c>
+      <c r="H69" s="29" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="70" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B70" s="29" t="s">
-        <v>135</v>
+        <v>130</v>
+      </c>
+      <c r="C70" s="29" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B71" s="29" t="s">
-        <v>135</v>
+      <c r="D71" s="29" t="s">
+        <v>265</v>
+      </c>
+      <c r="F71" s="29" t="s">
+        <v>342</v>
+      </c>
+      <c r="G71" s="29" t="s">
+        <v>343</v>
+      </c>
+      <c r="H71" s="29" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="72" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B72" s="29" t="s">
-        <v>130</v>
-      </c>
-      <c r="C72" s="29" t="s">
-        <v>345</v>
+        <v>135</v>
       </c>
     </row>
     <row r="73" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B73" s="29" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="74" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D74" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="E74" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="F74" s="29" t="s">
-        <v>346</v>
-      </c>
-      <c r="G74" s="29" t="s">
-        <v>347</v>
-      </c>
-      <c r="H74" s="29" t="s">
-        <v>348</v>
+      <c r="B74" s="29" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="75" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B75" s="29" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="76" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B76" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="C75" s="29" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D76" s="29" t="s">
-        <v>231</v>
-      </c>
-      <c r="E76" s="29" t="s">
-        <v>350</v>
-      </c>
-      <c r="F76" s="29" t="s">
-        <v>351</v>
-      </c>
-      <c r="G76" s="29" t="s">
-        <v>352</v>
-      </c>
-      <c r="H76" s="29" t="s">
-        <v>353</v>
+      <c r="C76" s="29" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="77" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B77" s="29" t="s">
-        <v>135</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B78" s="29" t="s">
-        <v>13</v>
+      <c r="D78" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="E78" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="F78" s="29" t="s">
+        <v>346</v>
+      </c>
+      <c r="G78" s="29" t="s">
+        <v>347</v>
+      </c>
+      <c r="H78" s="29" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="79" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B79" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="C79" s="29" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="80" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D80" s="29" t="s">
+        <v>231</v>
+      </c>
+      <c r="E80" s="29" t="s">
+        <v>350</v>
+      </c>
+      <c r="F80" s="29" t="s">
+        <v>351</v>
+      </c>
+      <c r="G80" s="29" t="s">
+        <v>352</v>
+      </c>
+      <c r="H80" s="29" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B81" s="29" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="80" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B80" s="29" t="s">
+    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B82" s="29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B83" s="29" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="84" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B84" s="29" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D81" s="29" t="s">
+    <row r="85" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D85" s="29" t="s">
         <v>121</v>
       </c>
-      <c r="E81" s="29" t="s">
+      <c r="E85" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="F81" s="29" t="s">
+      <c r="F85" s="29" t="s">
         <v>354</v>
       </c>
-      <c r="G81" s="29" t="s">
+      <c r="G85" s="29" t="s">
         <v>355</v>
       </c>
-      <c r="H81" s="29" t="s">
+      <c r="H85" s="29" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D82" s="29" t="s">
+    <row r="86" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D86" s="29" t="s">
         <v>121</v>
       </c>
-      <c r="E82" s="29" t="s">
+      <c r="E86" s="29" t="s">
         <v>357</v>
       </c>
-      <c r="F82" s="29" t="s">
+      <c r="F86" s="29" t="s">
         <v>358</v>
       </c>
-      <c r="G82" s="29" t="s">
+      <c r="G86" s="29" t="s">
         <v>359</v>
       </c>
-      <c r="H82" s="29" t="s">
+      <c r="H86" s="29" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B83" s="29" t="s">
+    <row r="87" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B87" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="C83" s="29" t="s">
+      <c r="C87" s="29" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D84" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="E84" s="29" t="s">
-        <v>362</v>
-      </c>
-      <c r="F84" s="29" t="s">
-        <v>363</v>
-      </c>
-      <c r="G84" s="29" t="s">
-        <v>364</v>
-      </c>
-      <c r="H84" s="29" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B85" s="29" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B86" s="29" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B87" s="29" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D88" s="29" t="s">
         <v>121</v>
       </c>
       <c r="E88" s="29" t="s">
+        <v>362</v>
+      </c>
+      <c r="F88" s="29" t="s">
+        <v>363</v>
+      </c>
+      <c r="G88" s="29" t="s">
+        <v>364</v>
+      </c>
+      <c r="H88" s="29" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="89" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B89" s="29" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="90" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B90" s="29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="91" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B91" s="29" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="92" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D92" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="E92" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="F88" s="29" t="s">
+      <c r="F92" s="29" t="s">
         <v>229</v>
       </c>
-      <c r="G88" s="29" t="s">
+      <c r="G92" s="29" t="s">
         <v>365</v>
       </c>
-      <c r="H88" s="29" t="s">
+      <c r="H92" s="29" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B89" s="29" t="s">
+    <row r="93" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B93" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="C89" s="29" t="s">
+      <c r="C93" s="29" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D90" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="F90" s="29" t="s">
+    <row r="94" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D94" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="F94" s="29" t="s">
         <v>230</v>
       </c>
-      <c r="G90" s="29" t="s">
+      <c r="G94" s="29" t="s">
         <v>244</v>
       </c>
-      <c r="H90" s="29" t="s">
+      <c r="H94" s="29" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D91" s="29" t="s">
+    <row r="95" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D95" s="29" t="s">
         <v>231</v>
       </c>
-      <c r="E91" s="29" t="s">
+      <c r="E95" s="29" t="s">
         <v>232</v>
       </c>
-      <c r="F91" s="29" t="s">
+      <c r="F95" s="29" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B92" s="29" t="s">
+    <row r="96" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B96" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="C92" s="29" t="s">
+      <c r="C96" s="29" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D93" s="29" t="s">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D97" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="F93" s="29" t="s">
+      <c r="F97" s="29" t="s">
         <v>230</v>
       </c>
-      <c r="I93" s="36">
+      <c r="I97" s="36">
         <v>99</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B94" s="29" t="s">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B98" s="29" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B95" s="29" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A96" s="35"/>
-      <c r="B96" s="29" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" s="37"/>
-      <c r="B97" s="29" t="s">
-        <v>130</v>
-      </c>
-      <c r="C97" s="29" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B98" s="29" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99" s="37"/>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B99" s="29" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A100" s="38"/>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A100" s="35"/>
       <c r="B100" s="29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A101" s="37"/>
+      <c r="B101" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="C101" s="29" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B102" s="29" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A103" s="37"/>
+      <c r="B103" s="29" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A104" s="38"/>
+      <c r="B104" s="29" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D101" s="29" t="s">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D105" s="29" t="s">
         <v>121</v>
       </c>
-      <c r="E101" s="29" t="s">
+      <c r="E105" s="29" t="s">
         <v>369</v>
       </c>
-      <c r="F101" s="29" t="s">
+      <c r="F105" s="29" t="s">
         <v>370</v>
       </c>
-      <c r="G101" s="29" t="s">
+      <c r="G105" s="29" t="s">
         <v>371</v>
       </c>
-      <c r="H101" s="29" t="s">
+      <c r="H105" s="29" t="s">
         <v>986</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B102" s="29" t="s">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B106" s="29" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B103" s="29" t="s">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B107" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="C103" s="29" t="s">
+      <c r="C107" s="29" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B104" s="29" t="s">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B108" s="29" t="s">
         <v>885</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A105" s="38"/>
-      <c r="B105" s="29" t="s">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A109" s="38"/>
+      <c r="B109" s="29" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A106" s="32"/>
-      <c r="B106" s="29" t="s">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A110" s="32"/>
+      <c r="B110" s="29" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A107" s="53"/>
-      <c r="B107" s="29" t="s">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A111" s="53"/>
+      <c r="B111" s="29" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A108" s="40"/>
-      <c r="B108" s="47" t="s">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A112" s="40"/>
+      <c r="B112" s="47" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A109" s="39"/>
-      <c r="B109" s="29" t="s">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A113" s="39"/>
+      <c r="B113" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="C109" s="29" t="s">
+      <c r="C113" s="29" t="s">
         <v>1039</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B110" s="29" t="s">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B114" s="29" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D111" s="29" t="s">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D115" s="29" t="s">
         <v>181</v>
       </c>
-      <c r="G111" s="47" t="s">
+      <c r="G115" s="47" t="s">
         <v>373</v>
       </c>
-      <c r="H111" s="29" t="s">
+      <c r="H115" s="29" t="s">
         <v>1040</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D112" s="29" t="s">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D116" s="29" t="s">
         <v>307</v>
       </c>
-      <c r="E112" s="29" t="s">
+      <c r="E116" s="29" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B113" s="29" t="s">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B117" s="29" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" s="39"/>
-      <c r="B114" s="29" t="s">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A118" s="39"/>
+      <c r="B118" s="29" t="s">
         <v>135</v>
       </c>
     </row>
@@ -17470,8 +17508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08D25534-A009-4B32-8A9F-69AC75C4E3ED}">
   <dimension ref="A1:M98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4:XFD5"/>
     </sheetView>
   </sheetViews>

--- a/app/config/tables/MIF/forms/MIF/MIF.xlsx
+++ b/app/config/tables/MIF/forms/MIF/MIF.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A29113B8-49A9-461D-B902-CB06BF149570}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C96F0F9-E41E-41FF-81E6-0BAC1F8DE54C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="648" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="75" yWindow="390" windowWidth="9975" windowHeight="7875" tabRatio="648" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3369" uniqueCount="1042">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3558" uniqueCount="1075">
   <si>
     <t>setting_name</t>
   </si>
@@ -2639,12 +2639,6 @@
     <t>Date of birth: {{data.MIFDNASC}}</t>
   </si>
   <si>
-    <t>Relation: {{data.RELA1}}</t>
-  </si>
-  <si>
-    <t>Relação: {{data.RELA1}}</t>
-  </si>
-  <si>
     <t>Name of relation: {{data.RELA1NOME}}</t>
   </si>
   <si>
@@ -3254,6 +3248,111 @@
   </si>
   <si>
     <t>data('MIFMAE')</t>
+  </si>
+  <si>
+    <t>constraint</t>
+  </si>
+  <si>
+    <t>display.constraint_message.text.english</t>
+  </si>
+  <si>
+    <t>display.constraint_message.text</t>
+  </si>
+  <si>
+    <t>adate.diffInYears(data('MIFDNASC'), data('CONT'))&lt;50 &amp;&amp;  adate.diffInYears(data('CONT'), data('MIFDNASC'))&lt;0 || data('MIFDNASC') == null</t>
+  </si>
+  <si>
+    <t>The age cannot be more than 50 years and cannot be in the future</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> adate.diffInYears(data('CONT'), data('REGDIA'))&lt;0 || data('REGDIA') == null</t>
+  </si>
+  <si>
+    <t>The registration date cannot be in the future</t>
+  </si>
+  <si>
+    <t>adate.diffInYears(data('CONT'), data('CONSENTDAT'))&lt;0 || data('CONSENTDAT') == null</t>
+  </si>
+  <si>
+    <t>The date of signature cannot be in the future</t>
+  </si>
+  <si>
+    <t>(adate.diffInYears(data('MIFDNASC'), data('DATAUP'))&gt;0 &amp;&amp; adate.diffInYears(data('CONT'), data('ABPARTDATA'))&lt;0) || data('DATAUP') == null</t>
+  </si>
+  <si>
+    <t>Date of latest delivery cannot be before date of birth and cannot be in the future</t>
+  </si>
+  <si>
+    <t>adate.diffInYears(data('CONT'), data('ABPARTNVDATA'))&lt;0 || data('ABPARTNVDATA') == null</t>
+  </si>
+  <si>
+    <t>Date of death cannot be in the future</t>
+  </si>
+  <si>
+    <t>adate.diffInYears(data('CONT'), data('VAC1DATA'))&lt;0 || data('VAC1DATA') == null</t>
+  </si>
+  <si>
+    <t>Vaccination date cannot be in the future</t>
+  </si>
+  <si>
+    <t>adate.diffInYears(data('CONT'), data('VAC2DATA'))&lt;0 || data('VAC2DATA')  == null</t>
+  </si>
+  <si>
+    <t>adate.diffInYears(data('CONT'), data('VAC3DATA'))&lt;0 || data('VAC3DATA') == null</t>
+  </si>
+  <si>
+    <t>adate.diffInYears(data('CONT'), data('VAC4DATA'))&lt;0 || data('VAC4DATA') == null</t>
+  </si>
+  <si>
+    <t>adate.diffInYears(data('CONT'), data('VAC5DATA'))&lt;0 || data('VAC5DATA') == null</t>
+  </si>
+  <si>
+    <t>adate.diffInYears(data('CONT'), data('VAC6DATA'))&lt;0 || data('VAC6DATA') == null</t>
+  </si>
+  <si>
+    <t>adate.diffInYears(data('CONT'), data('VAC7DATA'))&lt;0 || data('VAC7DATA') == null</t>
+  </si>
+  <si>
+    <t>adate.diffInYears(data('CONT'), data('VAC8DATA'))&lt;0 || data('VAC8DATA') == null</t>
+  </si>
+  <si>
+    <t>adate.diffInYears(data('CONT'), data('VAC9DATA'))&lt;0 || data('VAC9DATA') == null</t>
+  </si>
+  <si>
+    <t>adate.diffInYears(data('CONT'), data('VAC10DATA'))&lt;0 || data('VAC10DATA') == null</t>
+  </si>
+  <si>
+    <t>adate.diffInYears(data('CONT'), data('VAC11DATA'))&lt;0 || data('VAC11DATA') == null</t>
+  </si>
+  <si>
+    <t>adate.diffInYears(data('CONT'), data('VAC12DATA'))&lt;0 || data('VAC12DATA') == null</t>
+  </si>
+  <si>
+    <t>adate.diffInYears(data('CONT'), data('VAC13DATA'))&lt;0 || data('VAC13DATA') == null</t>
+  </si>
+  <si>
+    <t>adate.diffInYears(data('CONT'), data('VAC14DATA'))&lt;0 || data('VAC14DATA') == null</t>
+  </si>
+  <si>
+    <t>adate.diffInYears(data('CONT'), data('VAC15DATA'))&lt;0 || data('VAC15DATA') == null</t>
+  </si>
+  <si>
+    <t>adate.diffInYears(data('CONT'), data('VAC16DATA'))&lt;0 || data('VAC16DATA') == null</t>
+  </si>
+  <si>
+    <t>adate.diffInYears(data('CONT'), data('VAC17DATA'))&lt;0 || data('VAC17DATA') == null</t>
+  </si>
+  <si>
+    <t>adate.diffInYears(data('CONT'), data('VAC18DATA'))&lt;0 || data('VAC18DATA') == null</t>
+  </si>
+  <si>
+    <t>adate.diffInYears(data('CONT'), data('VAC19DATA'))&lt;0 || data('VAC19DATA') == null</t>
+  </si>
+  <si>
+    <t>adate.diffInYears(data('CONT'), data('VAC20DATA'))&lt;0 || data('VAC20DATA') == null</t>
+  </si>
+  <si>
+    <t>(adate.diffInYears(data('MIFDNASC'), data('DATAUP'))&gt;0 &amp;&amp; adate.diffInYears(data('CONT'), data('DATAUP'))&gt;0) || data('DATAUP') == null</t>
   </si>
 </sst>
 </file>
@@ -4371,7 +4470,7 @@
         <v>73</v>
       </c>
       <c r="D26" s="47" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="E26" s="47"/>
     </row>
@@ -4618,7 +4717,7 @@
         <v>249</v>
       </c>
       <c r="D42" s="47" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="E42" s="47"/>
     </row>
@@ -5294,7 +5393,7 @@
         <v>810</v>
       </c>
       <c r="D85" s="47" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="E85" s="47"/>
     </row>
@@ -5372,10 +5471,10 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="B90" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="C90" t="s">
         <v>812</v>
@@ -5386,38 +5485,38 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B91" t="s">
         <v>1021</v>
       </c>
-      <c r="B91" t="s">
+      <c r="C91" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D91" t="s">
         <v>1023</v>
-      </c>
-      <c r="C91" t="s">
-        <v>1024</v>
-      </c>
-      <c r="D91" t="s">
-        <v>1025</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="B92" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C92" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D92" t="s">
         <v>1026</v>
-      </c>
-      <c r="C92" t="s">
-        <v>1027</v>
-      </c>
-      <c r="D92" t="s">
-        <v>1028</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="B93" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="C93" t="s">
         <v>811</v>
@@ -5428,13 +5527,13 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="B94" t="s">
         <v>65</v>
       </c>
       <c r="C94" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="D94" t="s">
         <v>813</v>
@@ -5442,13 +5541,13 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="B95" t="s">
         <v>66</v>
       </c>
       <c r="C95" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="D95" t="s">
         <v>32</v>
@@ -5792,27 +5891,27 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B117" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C117" t="s">
         <v>1011</v>
       </c>
-      <c r="B117" t="s">
+      <c r="D117" t="s">
         <v>1012</v>
-      </c>
-      <c r="C117" t="s">
-        <v>1013</v>
-      </c>
-      <c r="D117" t="s">
-        <v>1014</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="B118" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="C118" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="D118" t="s">
         <v>832</v>
@@ -5820,21 +5919,21 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="B119" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C119" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D119" t="s">
         <v>1017</v>
-      </c>
-      <c r="C119" t="s">
-        <v>1018</v>
-      </c>
-      <c r="D119" t="s">
-        <v>1019</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="B120" t="s">
         <v>65</v>
@@ -5848,13 +5947,13 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="B121" t="s">
         <v>66</v>
       </c>
       <c r="C121" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="D121" t="s">
         <v>32</v>
@@ -5862,7 +5961,7 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="47" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="B122" s="47" t="str">
         <f>"1"</f>
@@ -5878,7 +5977,7 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="47" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="B123" s="47" t="str">
         <f>"2"</f>
@@ -5894,7 +5993,7 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="47" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="B124" s="47" t="str">
         <f>"3"</f>
@@ -5910,7 +6009,7 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="47" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="B125" s="47" t="str">
         <f>"4"</f>
@@ -5926,7 +6025,7 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="47" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="B126" s="47" t="str">
         <f>"5"</f>
@@ -8576,7 +8675,7 @@
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="B245" t="s">
         <v>103</v>
@@ -8620,7 +8719,7 @@
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="B250" t="s">
         <v>24</v>
@@ -8631,7 +8730,7 @@
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="B251" t="s">
         <v>24</v>
@@ -8642,7 +8741,7 @@
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="B252" t="s">
         <v>254</v>
@@ -8720,7 +8819,7 @@
         <v>122</v>
       </c>
       <c r="C2" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -8735,7 +8834,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -8750,10 +8849,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{373816BB-105F-4FD4-99CF-DB87DCC19FA9}">
-  <dimension ref="A1:K52"/>
+  <dimension ref="A1:K72"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48:H72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8830,7 +8929,7 @@
         <v>862</v>
       </c>
       <c r="H4" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -8838,10 +8937,10 @@
         <v>173</v>
       </c>
       <c r="G5" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="H5" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -8871,7 +8970,7 @@
         <v>122</v>
       </c>
       <c r="C8" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -8879,10 +8978,10 @@
         <v>173</v>
       </c>
       <c r="G9" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="H9" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -8895,7 +8994,7 @@
         <v>122</v>
       </c>
       <c r="C11" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -8903,10 +9002,10 @@
         <v>173</v>
       </c>
       <c r="G12" t="s">
+        <v>1034</v>
+      </c>
+      <c r="H12" t="s">
         <v>1036</v>
-      </c>
-      <c r="H12" t="s">
-        <v>1038</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -8919,7 +9018,7 @@
         <v>122</v>
       </c>
       <c r="C14" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -8927,10 +9026,10 @@
         <v>173</v>
       </c>
       <c r="G15" t="s">
+        <v>1035</v>
+      </c>
+      <c r="H15" t="s">
         <v>1037</v>
-      </c>
-      <c r="H15" t="s">
-        <v>1039</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -8943,7 +9042,7 @@
         <v>122</v>
       </c>
       <c r="C17" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -8951,10 +9050,10 @@
         <v>173</v>
       </c>
       <c r="G18" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="H18" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -8967,7 +9066,7 @@
         <v>122</v>
       </c>
       <c r="C20" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -8975,10 +9074,10 @@
         <v>173</v>
       </c>
       <c r="G21" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="H21" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -8991,7 +9090,7 @@
         <v>122</v>
       </c>
       <c r="C23" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -8999,10 +9098,10 @@
         <v>173</v>
       </c>
       <c r="G24" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="H24" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -9015,7 +9114,7 @@
         <v>122</v>
       </c>
       <c r="C26" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -9023,10 +9122,10 @@
         <v>173</v>
       </c>
       <c r="G27" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="H27" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -9039,10 +9138,10 @@
         <v>173</v>
       </c>
       <c r="G29" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="H29" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -9056,10 +9155,10 @@
         <v>860</v>
       </c>
       <c r="G30" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="H30" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -9106,7 +9205,7 @@
         <v>111</v>
       </c>
       <c r="H35" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
@@ -9211,7 +9310,7 @@
         <v>862</v>
       </c>
       <c r="H44" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.25">
@@ -9219,10 +9318,10 @@
         <v>173</v>
       </c>
       <c r="G45" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="H45" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.25">
@@ -9248,40 +9347,197 @@
       </c>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D48" t="s">
-        <v>173</v>
-      </c>
-      <c r="G48" t="s">
-        <v>863</v>
-      </c>
-      <c r="H48" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>122</v>
+      </c>
+      <c r="C48" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D49" t="s">
         <v>173</v>
       </c>
       <c r="G49" t="s">
-        <v>865</v>
+        <v>999</v>
       </c>
       <c r="H49" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>122</v>
+      </c>
+      <c r="C51" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D52" t="s">
+        <v>173</v>
+      </c>
+      <c r="G52" t="s">
+        <v>1034</v>
+      </c>
+      <c r="H52" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>122</v>
+      </c>
+      <c r="C54" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D55" t="s">
+        <v>173</v>
+      </c>
+      <c r="G55" t="s">
+        <v>1035</v>
+      </c>
+      <c r="H55" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>122</v>
+      </c>
+      <c r="C57" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D58" t="s">
+        <v>173</v>
+      </c>
+      <c r="G58" t="s">
+        <v>1001</v>
+      </c>
+      <c r="H58" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>122</v>
+      </c>
+      <c r="C60" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D61" t="s">
+        <v>173</v>
+      </c>
+      <c r="G61" t="s">
+        <v>1003</v>
+      </c>
+      <c r="H61" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>122</v>
+      </c>
+      <c r="C63" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D64" t="s">
+        <v>173</v>
+      </c>
+      <c r="G64" t="s">
+        <v>1005</v>
+      </c>
+      <c r="H64" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>122</v>
+      </c>
+      <c r="C66" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D67" t="s">
+        <v>173</v>
+      </c>
+      <c r="G67" t="s">
+        <v>1007</v>
+      </c>
+      <c r="H67" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D69" t="s">
+        <v>173</v>
+      </c>
+      <c r="G69" t="s">
+        <v>863</v>
+      </c>
+      <c r="H69" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="17"/>
-      <c r="B51" t="s">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="17"/>
+      <c r="B71" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
         <v>731</v>
       </c>
     </row>
@@ -9294,9 +9550,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F97EDFF-72E2-4781-A226-FCA8C7C63015}">
   <dimension ref="A1:R138"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G40" sqref="G40"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A120" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A74" sqref="A74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9311,9 +9567,12 @@
     <col min="8" max="8" width="30" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="36.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="127.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="30.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>140</v>
       </c>
@@ -9344,14 +9603,23 @@
       <c r="J1" s="4" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" s="5" t="s">
+        <v>1040</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>1041</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
         <v>129</v>
       </c>
@@ -9364,29 +9632,29 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
         <v>173</v>
       </c>
       <c r="G4" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="H4" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
         <v>173</v>
       </c>
       <c r="G5" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="H5" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
         <v>24</v>
       </c>
@@ -9400,7 +9668,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
         <v>24</v>
       </c>
@@ -9414,7 +9682,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
         <v>24</v>
       </c>
@@ -9428,19 +9696,19 @@
         <v>182</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
       <c r="B10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
         <v>103</v>
       </c>
@@ -9454,7 +9722,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
         <v>24</v>
       </c>
@@ -9468,18 +9736,18 @@
         <v>230</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D15" s="16" t="s">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
         <v>254</v>
       </c>
       <c r="F15" t="s">
@@ -9491,8 +9759,17 @@
       <c r="H15" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K15" t="s">
+        <v>1043</v>
+      </c>
+      <c r="L15" t="s">
+        <v>1044</v>
+      </c>
+      <c r="M15" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>122</v>
       </c>
@@ -9699,7 +9976,7 @@
         <v>122</v>
       </c>
       <c r="C39" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
     </row>
     <row r="40" spans="2:18" x14ac:dyDescent="0.25">
@@ -9710,7 +9987,7 @@
         <v>186</v>
       </c>
       <c r="I40" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="41" spans="2:18" x14ac:dyDescent="0.25">
@@ -9873,7 +10150,7 @@
         <v>122</v>
       </c>
       <c r="C57" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="G57" s="2"/>
       <c r="H57" s="2"/>
@@ -9908,7 +10185,7 @@
         <v>122</v>
       </c>
       <c r="C60" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
     </row>
     <row r="61" spans="2:18" x14ac:dyDescent="0.25">
@@ -9937,13 +10214,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D66" s="16" t="s">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D66" t="s">
         <v>254</v>
       </c>
       <c r="F66" t="s">
@@ -9955,8 +10232,17 @@
       <c r="H66" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K66" t="s">
+        <v>1045</v>
+      </c>
+      <c r="L66" t="s">
+        <v>1046</v>
+      </c>
+      <c r="M66" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D67" t="s">
         <v>103</v>
       </c>
@@ -9970,19 +10256,19 @@
         <v>139</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="8"/>
       <c r="B68" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="9"/>
       <c r="B69" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D70" t="s">
         <v>173</v>
       </c>
@@ -9993,7 +10279,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D71" t="s">
         <v>113</v>
       </c>
@@ -10010,7 +10296,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
         <v>122</v>
       </c>
@@ -10018,7 +10304,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D73" t="s">
         <v>113</v>
       </c>
@@ -10035,12 +10321,12 @@
         <v>177</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
         <v>122</v>
       </c>
@@ -10048,7 +10334,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D76" t="s">
         <v>129</v>
       </c>
@@ -10059,12 +10345,12 @@
         <v>237</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D78" t="s">
         <v>129</v>
       </c>
@@ -10075,12 +10361,12 @@
         <v>238</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
         <v>13</v>
       </c>
@@ -10610,7 +10896,7 @@
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B138" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
     </row>
   </sheetData>
@@ -10620,11 +10906,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{568D4494-839B-4F7A-8E9C-72B7EC0E8A88}">
-  <dimension ref="A1:L118"/>
+  <dimension ref="A1:O118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C107" sqref="C107"/>
+      <pane ySplit="1" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M71" sqref="M71:O71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10641,10 +10927,12 @@
     <col min="10" max="10" width="31.85546875" style="29" customWidth="1"/>
     <col min="11" max="11" width="29.7109375" style="29" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="53.140625" style="29" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="29"/>
+    <col min="13" max="13" width="79.5703125" style="29" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="41.42578125" style="29" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>140</v>
       </c>
@@ -10681,198 +10969,273 @@
       <c r="L1" s="26" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M1" s="4" t="s">
+        <v>1040</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>1041</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="30"/>
       <c r="B2" s="29" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M2"/>
+      <c r="N2"/>
+      <c r="O2"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B3" s="29" t="s">
         <v>122</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+        <v>984</v>
+      </c>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D4" s="29" t="s">
         <v>173</v>
       </c>
       <c r="G4" s="29" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="H4" s="29" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+        <v>978</v>
+      </c>
+      <c r="M4"/>
+      <c r="N4"/>
+      <c r="O4"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B5" s="47" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M5"/>
+      <c r="N5"/>
+      <c r="O5"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="47"/>
       <c r="B6" s="29" t="s">
         <v>122</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+        <v>871</v>
+      </c>
+      <c r="M6"/>
+      <c r="N6"/>
+      <c r="O6"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="47"/>
       <c r="D7" s="29" t="s">
         <v>173</v>
       </c>
       <c r="G7" s="29" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="H7" s="29" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+        <v>883</v>
+      </c>
+      <c r="M7"/>
+      <c r="N7"/>
+      <c r="O7"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="47"/>
       <c r="B8" s="29" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M8"/>
+      <c r="N8"/>
+      <c r="O8"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="47"/>
       <c r="B9" s="29" t="s">
         <v>122</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+        <v>872</v>
+      </c>
+      <c r="M9"/>
+      <c r="N9"/>
+      <c r="O9"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="47"/>
       <c r="D10" s="29" t="s">
         <v>173</v>
       </c>
       <c r="G10" s="29" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="H10" s="29" t="s">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+        <v>884</v>
+      </c>
+      <c r="M10"/>
+      <c r="N10"/>
+      <c r="O10"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="47"/>
       <c r="B11" s="29" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M11"/>
+      <c r="N11"/>
+      <c r="O11"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="47"/>
       <c r="B12" s="29" t="s">
         <v>122</v>
       </c>
       <c r="C12" s="29" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+        <v>873</v>
+      </c>
+      <c r="M12"/>
+      <c r="N12"/>
+      <c r="O12"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="47"/>
       <c r="D13" s="29" t="s">
         <v>173</v>
       </c>
       <c r="G13" s="29" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="H13" s="29" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+        <v>885</v>
+      </c>
+      <c r="M13"/>
+      <c r="N13"/>
+      <c r="O13"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="47"/>
       <c r="B14" s="29" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M14"/>
+      <c r="N14"/>
+      <c r="O14"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="47"/>
       <c r="B15" s="29" t="s">
         <v>122</v>
       </c>
       <c r="C15" s="29" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+        <v>874</v>
+      </c>
+      <c r="M15"/>
+      <c r="N15"/>
+      <c r="O15"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="47"/>
       <c r="D16" s="29" t="s">
         <v>173</v>
       </c>
       <c r="G16" s="29" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="H16" s="29" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+        <v>886</v>
+      </c>
+      <c r="M16"/>
+      <c r="N16"/>
+      <c r="O16"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="47"/>
       <c r="B17" s="29" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M17"/>
+      <c r="N17"/>
+      <c r="O17"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="47"/>
       <c r="B18" s="29" t="s">
         <v>122</v>
       </c>
       <c r="C18" s="29" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+        <v>875</v>
+      </c>
+      <c r="M18"/>
+      <c r="N18"/>
+      <c r="O18"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="47"/>
       <c r="D19" s="29" t="s">
         <v>173</v>
       </c>
       <c r="G19" s="29" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="H19" s="29" t="s">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+        <v>887</v>
+      </c>
+      <c r="M19"/>
+      <c r="N19"/>
+      <c r="O19"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="47"/>
       <c r="B20" s="29" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M20"/>
+      <c r="N20"/>
+      <c r="O20"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="47"/>
       <c r="B21" s="29" t="s">
         <v>122</v>
       </c>
       <c r="C21" s="29" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+        <v>876</v>
+      </c>
+      <c r="M21"/>
+      <c r="N21"/>
+      <c r="O21"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D22" s="29" t="s">
         <v>173</v>
       </c>
       <c r="G22" s="29" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="H22" s="29" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+        <v>888</v>
+      </c>
+      <c r="M22"/>
+      <c r="N22"/>
+      <c r="O22"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B23" s="29" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M23"/>
+      <c r="N23"/>
+      <c r="O23"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D24" s="29" t="s">
         <v>113</v>
       </c>
@@ -10888,16 +11251,22 @@
       <c r="H24" s="29" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M24"/>
+      <c r="N24"/>
+      <c r="O24"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B25" s="29" t="s">
         <v>122</v>
       </c>
       <c r="C25" s="29" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M25"/>
+      <c r="N25"/>
+      <c r="O25"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D26" s="29" t="s">
         <v>254</v>
       </c>
@@ -10910,8 +11279,11 @@
       <c r="H26" s="29" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M26"/>
+      <c r="N26"/>
+      <c r="O26"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D27" s="47" t="s">
         <v>129</v>
       </c>
@@ -10919,18 +11291,24 @@
         <v>202</v>
       </c>
       <c r="I27" s="29" t="s">
-        <v>994</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+        <v>992</v>
+      </c>
+      <c r="M27"/>
+      <c r="N27"/>
+      <c r="O27"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B28" s="29" t="s">
         <v>122</v>
       </c>
       <c r="C28" s="29" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M28"/>
+      <c r="N28"/>
+      <c r="O28"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D29" s="29" t="s">
         <v>103</v>
       </c>
@@ -10943,26 +11321,38 @@
       <c r="H29" s="29" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M29"/>
+      <c r="N29"/>
+      <c r="O29"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B30" s="29" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M30"/>
+      <c r="N30"/>
+      <c r="O30"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B31" s="29" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M31"/>
+      <c r="N31"/>
+      <c r="O31"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B32" s="47" t="s">
         <v>122</v>
       </c>
       <c r="C32" s="29" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+        <v>889</v>
+      </c>
+      <c r="M32"/>
+      <c r="N32"/>
+      <c r="O32"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D33" s="29" t="s">
         <v>129</v>
       </c>
@@ -10972,19 +11362,28 @@
       <c r="I33" s="29">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M33"/>
+      <c r="N33"/>
+      <c r="O33"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B34" s="47" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M34"/>
+      <c r="N34"/>
+      <c r="O34"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="30"/>
       <c r="B35" s="29" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M35"/>
+      <c r="N35"/>
+      <c r="O35"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="31"/>
       <c r="B36" s="29" t="s">
         <v>122</v>
@@ -10992,28 +11391,40 @@
       <c r="C36" s="29" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M36"/>
+      <c r="N36"/>
+      <c r="O36"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B37" s="29" t="s">
         <v>834</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M37"/>
+      <c r="N37"/>
+      <c r="O37"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="31"/>
       <c r="B38" s="29" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M38"/>
+      <c r="N38"/>
+      <c r="O38"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="40"/>
       <c r="B39" s="29" t="s">
         <v>122</v>
       </c>
       <c r="C39" s="29" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+        <v>889</v>
+      </c>
+      <c r="M39"/>
+      <c r="N39"/>
+      <c r="O39"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="33"/>
       <c r="B40" s="29" t="s">
         <v>122</v>
@@ -11022,12 +11433,12 @@
         <v>296</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B41" s="29" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D42" s="29" t="s">
         <v>113</v>
       </c>
@@ -11041,10 +11452,10 @@
         <v>297</v>
       </c>
       <c r="H42" s="29" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B43" s="29" t="s">
         <v>122</v>
       </c>
@@ -11052,7 +11463,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D44" s="29" t="s">
         <v>113</v>
       </c>
@@ -11069,7 +11480,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B45" s="29" t="s">
         <v>122</v>
       </c>
@@ -11077,7 +11488,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D46" s="29" t="s">
         <v>113</v>
       </c>
@@ -11094,7 +11505,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D47" s="29" t="s">
         <v>254</v>
       </c>
@@ -11107,46 +11518,55 @@
       <c r="H47" s="29" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M47" t="s">
+        <v>1047</v>
+      </c>
+      <c r="N47" t="s">
+        <v>1048</v>
+      </c>
+      <c r="O47" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B48" s="29" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B49" s="29" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B50" s="29" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="33"/>
       <c r="B51" s="29" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="35"/>
       <c r="B52" s="29" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D53" s="29" t="s">
         <v>173</v>
       </c>
       <c r="G53" s="29" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="H53" s="29" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D54" s="29" t="s">
         <v>113</v>
       </c>
@@ -11163,7 +11583,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D55" s="29" t="s">
         <v>113</v>
       </c>
@@ -11180,21 +11600,21 @@
         <v>313</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B56" s="29" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="53"/>
       <c r="B57" s="47" t="s">
         <v>122</v>
       </c>
       <c r="C57" s="29" t="s">
-        <v>992</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="32"/>
       <c r="B58" s="29" t="s">
         <v>122</v>
@@ -11203,12 +11623,12 @@
         <v>314</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B59" s="29" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D60" s="29" t="s">
         <v>113</v>
       </c>
@@ -11222,15 +11642,15 @@
         <v>316</v>
       </c>
       <c r="H60" s="29" t="s">
-        <v>936</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B61" s="29" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B62" s="29" t="s">
         <v>122</v>
       </c>
@@ -11238,12 +11658,12 @@
         <v>317</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B63" s="29" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D64" s="29" t="s">
         <v>254</v>
       </c>
@@ -11256,8 +11676,17 @@
       <c r="H64" s="29" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="M64" t="s">
+        <v>1049</v>
+      </c>
+      <c r="N64" t="s">
+        <v>1050</v>
+      </c>
+      <c r="O64" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D65" s="29" t="s">
         <v>113</v>
       </c>
@@ -11274,12 +11703,12 @@
         <v>324</v>
       </c>
     </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B66" s="29" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B67" s="29" t="s">
         <v>122</v>
       </c>
@@ -11287,12 +11716,12 @@
         <v>325</v>
       </c>
     </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B68" s="29" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D69" s="29" t="s">
         <v>113</v>
       </c>
@@ -11309,7 +11738,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B70" s="29" t="s">
         <v>122</v>
       </c>
@@ -11317,7 +11746,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D71" s="29" t="s">
         <v>254</v>
       </c>
@@ -11330,28 +11759,37 @@
       <c r="H71" s="29" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="M71" t="s">
+        <v>1051</v>
+      </c>
+      <c r="N71" t="s">
+        <v>1052</v>
+      </c>
+      <c r="O71" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B72" s="29" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B73" s="29" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B74" s="29" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B75" s="29" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B76" s="29" t="s">
         <v>122</v>
       </c>
@@ -11359,12 +11797,12 @@
         <v>333</v>
       </c>
     </row>
-    <row r="77" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B77" s="29" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D78" s="29" t="s">
         <v>113</v>
       </c>
@@ -11381,7 +11819,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B79" s="29" t="s">
         <v>122</v>
       </c>
@@ -11389,7 +11827,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="80" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D80" s="29" t="s">
         <v>221</v>
       </c>
@@ -11605,7 +12043,7 @@
         <v>358</v>
       </c>
       <c r="H102" s="29" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
@@ -11638,7 +12076,7 @@
         <v>122</v>
       </c>
       <c r="C107" s="29" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
@@ -11676,7 +12114,7 @@
         <v>122</v>
       </c>
       <c r="C113" s="29" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
@@ -11692,7 +12130,7 @@
         <v>360</v>
       </c>
       <c r="H115" s="29" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
@@ -11721,11 +12159,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF620B59-79FA-4646-92DD-ED95E169989F}">
-  <dimension ref="A1:J481"/>
+  <dimension ref="A1:M481"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A462" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+      <pane ySplit="1" topLeftCell="A434" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B444" sqref="B444"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11740,10 +12178,13 @@
     <col min="8" max="8" width="36.28515625" style="29" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.7109375" style="29" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="21.42578125" style="29" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="29"/>
+    <col min="11" max="11" width="45.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>140</v>
       </c>
@@ -11774,8 +12215,17 @@
       <c r="J1" s="26" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" s="4" t="s">
+        <v>1040</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>1041</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="41" t="s">
         <v>363</v>
       </c>
@@ -11783,15 +12233,15 @@
         <v>122</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B3" s="29" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D4" s="29" t="s">
         <v>113</v>
       </c>
@@ -11808,12 +12258,12 @@
         <v>366</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B5" s="29" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B6" s="29" t="s">
         <v>122</v>
       </c>
@@ -11821,12 +12271,12 @@
         <v>367</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B7" s="29" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D8" s="29" t="s">
         <v>173</v>
       </c>
@@ -11837,7 +12287,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D9" s="29" t="s">
         <v>113</v>
       </c>
@@ -11851,10 +12301,10 @@
         <v>372</v>
       </c>
       <c r="H9" s="29" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D10" s="29" t="s">
         <v>113</v>
       </c>
@@ -11871,7 +12321,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D11" s="29" t="s">
         <v>254</v>
       </c>
@@ -11884,38 +12334,47 @@
       <c r="H11" s="29" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K11" t="s">
+        <v>1053</v>
+      </c>
+      <c r="L11" t="s">
+        <v>1054</v>
+      </c>
+      <c r="M11" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B12" s="29" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B13" s="29" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B14" s="29" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B15" s="29" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B16" s="29" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B17" s="29" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="D18" s="29" t="s">
         <v>113</v>
       </c>
@@ -11926,14 +12385,14 @@
         <v>381</v>
       </c>
       <c r="G18" s="42" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="H18" s="42" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="J18" s="42"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B19" s="29" t="s">
         <v>122</v>
       </c>
@@ -11941,7 +12400,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D20" s="29" t="s">
         <v>113</v>
       </c>
@@ -11955,10 +12414,10 @@
         <v>372</v>
       </c>
       <c r="H20" s="29" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D21" s="29" t="s">
         <v>113</v>
       </c>
@@ -11975,7 +12434,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D22" s="29" t="s">
         <v>254</v>
       </c>
@@ -11988,24 +12447,33 @@
       <c r="H22" s="29" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K22" t="s">
+        <v>1053</v>
+      </c>
+      <c r="L22" t="s">
+        <v>1054</v>
+      </c>
+      <c r="M22" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B23" s="29" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B24" s="29" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="41"/>
       <c r="B25" s="29" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="43" t="s">
         <v>383</v>
       </c>
@@ -12013,15 +12481,15 @@
         <v>122</v>
       </c>
       <c r="C26" s="29" t="s">
-        <v>901</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B27" s="29" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D28" s="29" t="s">
         <v>113</v>
       </c>
@@ -12038,12 +12506,12 @@
         <v>366</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B29" s="29" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B30" s="29" t="s">
         <v>122</v>
       </c>
@@ -12051,12 +12519,12 @@
         <v>386</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B31" s="29" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D32" s="29" t="s">
         <v>173</v>
       </c>
@@ -12067,7 +12535,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D33" s="29" t="s">
         <v>113</v>
       </c>
@@ -12081,10 +12549,10 @@
         <v>372</v>
       </c>
       <c r="H33" s="29" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D34" s="29" t="s">
         <v>113</v>
       </c>
@@ -12101,7 +12569,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D35" s="29" t="s">
         <v>254</v>
       </c>
@@ -12114,8 +12582,17 @@
       <c r="H35" s="29" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="K35" t="s">
+        <v>1055</v>
+      </c>
+      <c r="L35" t="s">
+        <v>1054</v>
+      </c>
+      <c r="M35" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B36" s="29" t="s">
         <v>13</v>
       </c>
@@ -12123,32 +12600,32 @@
         <v>377</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B37" s="29" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B38" s="29" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B39" s="29" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B40" s="29" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B41" s="29" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:13" ht="45" x14ac:dyDescent="0.25">
       <c r="D42" s="29" t="s">
         <v>113</v>
       </c>
@@ -12159,13 +12636,13 @@
         <v>392</v>
       </c>
       <c r="G42" s="42" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="H42" s="42" t="s">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B43" s="29" t="s">
         <v>122</v>
       </c>
@@ -12173,7 +12650,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D44" s="29" t="s">
         <v>113</v>
       </c>
@@ -12187,10 +12664,10 @@
         <v>372</v>
       </c>
       <c r="H44" s="29" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D45" s="29" t="s">
         <v>113</v>
       </c>
@@ -12207,7 +12684,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D46" s="29" t="s">
         <v>254</v>
       </c>
@@ -12220,25 +12697,34 @@
       <c r="H46" s="29" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="K46" t="s">
+        <v>1055</v>
+      </c>
+      <c r="L46" t="s">
+        <v>1054</v>
+      </c>
+      <c r="M46" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B47" s="29" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B48" s="29" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="43"/>
       <c r="B49" s="29" t="s">
         <v>127</v>
       </c>
       <c r="J49" s="42"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="41" t="s">
         <v>394</v>
       </c>
@@ -12246,15 +12732,15 @@
         <v>122</v>
       </c>
       <c r="C50" s="29" t="s">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B51" s="29" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D52" s="29" t="s">
         <v>113</v>
       </c>
@@ -12271,12 +12757,12 @@
         <v>366</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B53" s="29" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B54" s="29" t="s">
         <v>122</v>
       </c>
@@ -12284,12 +12770,12 @@
         <v>396</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B55" s="29" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D56" s="29" t="s">
         <v>173</v>
       </c>
@@ -12300,7 +12786,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D57" s="29" t="s">
         <v>113</v>
       </c>
@@ -12314,10 +12800,10 @@
         <v>372</v>
       </c>
       <c r="H57" s="29" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D58" s="29" t="s">
         <v>113</v>
       </c>
@@ -12334,7 +12820,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D59" s="29" t="s">
         <v>254</v>
       </c>
@@ -12347,38 +12833,47 @@
       <c r="H59" s="29" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K59" t="s">
+        <v>1056</v>
+      </c>
+      <c r="L59" t="s">
+        <v>1054</v>
+      </c>
+      <c r="M59" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B60" s="29" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B61" s="29" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B62" s="29" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B63" s="29" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B64" s="29" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B65" s="29" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="D66" s="29" t="s">
         <v>113</v>
       </c>
@@ -12389,13 +12884,13 @@
         <v>402</v>
       </c>
       <c r="G66" s="42" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="H66" s="42" t="s">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B67" s="29" t="s">
         <v>122</v>
       </c>
@@ -12403,7 +12898,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D68" s="29" t="s">
         <v>113</v>
       </c>
@@ -12417,10 +12912,10 @@
         <v>372</v>
       </c>
       <c r="H68" s="29" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D69" s="29" t="s">
         <v>113</v>
       </c>
@@ -12437,7 +12932,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D70" s="29" t="s">
         <v>254</v>
       </c>
@@ -12450,24 +12945,33 @@
       <c r="H70" s="29" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K70" t="s">
+        <v>1056</v>
+      </c>
+      <c r="L70" t="s">
+        <v>1054</v>
+      </c>
+      <c r="M70" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B71" s="29" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B72" s="29" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="41"/>
       <c r="B73" s="29" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="43" t="s">
         <v>404</v>
       </c>
@@ -12475,15 +12979,15 @@
         <v>122</v>
       </c>
       <c r="C74" s="29" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B75" s="29" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D76" s="29" t="s">
         <v>113</v>
       </c>
@@ -12500,12 +13004,12 @@
         <v>366</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B77" s="29" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B78" s="29" t="s">
         <v>122</v>
       </c>
@@ -12513,12 +13017,12 @@
         <v>406</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B79" s="29" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D80" s="29" t="s">
         <v>173</v>
       </c>
@@ -12530,7 +13034,7 @@
       </c>
       <c r="J80" s="42"/>
     </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D81" s="29" t="s">
         <v>113</v>
       </c>
@@ -12544,10 +13048,10 @@
         <v>372</v>
       </c>
       <c r="H81" s="29" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="82" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D82" s="29" t="s">
         <v>113</v>
       </c>
@@ -12564,7 +13068,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D83" s="29" t="s">
         <v>254</v>
       </c>
@@ -12577,8 +13081,17 @@
       <c r="H83" s="29" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="K83" t="s">
+        <v>1057</v>
+      </c>
+      <c r="L83" t="s">
+        <v>1054</v>
+      </c>
+      <c r="M83" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="84" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B84" s="29" t="s">
         <v>13</v>
       </c>
@@ -12586,32 +13099,32 @@
         <v>377</v>
       </c>
     </row>
-    <row r="85" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B85" s="29" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="86" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B86" s="29" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="87" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B87" s="29" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="88" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B88" s="29" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="89" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B89" s="29" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="90" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:13" ht="45" x14ac:dyDescent="0.25">
       <c r="D90" s="29" t="s">
         <v>113</v>
       </c>
@@ -12622,13 +13135,13 @@
         <v>412</v>
       </c>
       <c r="G90" s="42" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="H90" s="42" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="91" spans="2:8" x14ac:dyDescent="0.25">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="91" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B91" s="29" t="s">
         <v>122</v>
       </c>
@@ -12636,7 +13149,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="92" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D92" s="29" t="s">
         <v>113</v>
       </c>
@@ -12650,10 +13163,10 @@
         <v>372</v>
       </c>
       <c r="H92" s="29" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="93" spans="2:8" x14ac:dyDescent="0.25">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="93" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D93" s="29" t="s">
         <v>113</v>
       </c>
@@ -12670,7 +13183,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="94" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D94" s="29" t="s">
         <v>254</v>
       </c>
@@ -12683,24 +13196,33 @@
       <c r="H94" s="29" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="95" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="K94" t="s">
+        <v>1057</v>
+      </c>
+      <c r="L94" t="s">
+        <v>1054</v>
+      </c>
+      <c r="M94" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="95" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B95" s="29" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="96" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B96" s="29" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" s="43"/>
       <c r="B97" s="29" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" s="41" t="s">
         <v>414</v>
       </c>
@@ -12708,15 +13230,15 @@
         <v>122</v>
       </c>
       <c r="C98" s="29" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B99" s="29" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D100" s="29" t="s">
         <v>113</v>
       </c>
@@ -12733,12 +13255,12 @@
         <v>366</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B101" s="29" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B102" s="29" t="s">
         <v>122</v>
       </c>
@@ -12746,12 +13268,12 @@
         <v>416</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B103" s="29" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D104" s="29" t="s">
         <v>173</v>
       </c>
@@ -12762,7 +13284,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D105" s="29" t="s">
         <v>113</v>
       </c>
@@ -12776,10 +13298,10 @@
         <v>372</v>
       </c>
       <c r="H105" s="29" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D106" s="29" t="s">
         <v>113</v>
       </c>
@@ -12796,7 +13318,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D107" s="29" t="s">
         <v>254</v>
       </c>
@@ -12809,39 +13331,48 @@
       <c r="H107" s="29" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K107" t="s">
+        <v>1058</v>
+      </c>
+      <c r="L107" t="s">
+        <v>1054</v>
+      </c>
+      <c r="M107" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B108" s="29" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B109" s="29" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B110" s="29" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B111" s="29" t="s">
         <v>127</v>
       </c>
       <c r="J111" s="42"/>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B112" s="29" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B113" s="29" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="114" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="D114" s="29" t="s">
         <v>113</v>
       </c>
@@ -12852,13 +13383,13 @@
         <v>422</v>
       </c>
       <c r="G114" s="42" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="H114" s="42" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B115" s="29" t="s">
         <v>122</v>
       </c>
@@ -12866,7 +13397,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D116" s="29" t="s">
         <v>113</v>
       </c>
@@ -12880,10 +13411,10 @@
         <v>372</v>
       </c>
       <c r="H116" s="29" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D117" s="29" t="s">
         <v>113</v>
       </c>
@@ -12900,7 +13431,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D118" s="29" t="s">
         <v>254</v>
       </c>
@@ -12913,24 +13444,33 @@
       <c r="H118" s="29" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K118" t="s">
+        <v>1058</v>
+      </c>
+      <c r="L118" t="s">
+        <v>1054</v>
+      </c>
+      <c r="M118" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B119" s="29" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B120" s="29" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121" s="41"/>
       <c r="B121" s="29" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" s="43" t="s">
         <v>424</v>
       </c>
@@ -12938,15 +13478,15 @@
         <v>122</v>
       </c>
       <c r="C122" s="29" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B123" s="29" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D124" s="29" t="s">
         <v>113</v>
       </c>
@@ -12963,12 +13503,12 @@
         <v>366</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B125" s="29" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B126" s="29" t="s">
         <v>122</v>
       </c>
@@ -12976,12 +13516,12 @@
         <v>426</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B127" s="29" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D128" s="29" t="s">
         <v>173</v>
       </c>
@@ -12992,7 +13532,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="129" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D129" s="29" t="s">
         <v>113</v>
       </c>
@@ -13006,10 +13546,10 @@
         <v>372</v>
       </c>
       <c r="H129" s="29" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="130" spans="2:10" x14ac:dyDescent="0.25">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="130" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D130" s="29" t="s">
         <v>113</v>
       </c>
@@ -13026,7 +13566,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="131" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D131" s="29" t="s">
         <v>254</v>
       </c>
@@ -13039,8 +13579,17 @@
       <c r="H131" s="29" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="132" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K131" t="s">
+        <v>1059</v>
+      </c>
+      <c r="L131" t="s">
+        <v>1054</v>
+      </c>
+      <c r="M131" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="132" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B132" s="29" t="s">
         <v>13</v>
       </c>
@@ -13048,32 +13597,32 @@
         <v>377</v>
       </c>
     </row>
-    <row r="133" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B133" s="29" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="134" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B134" s="29" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="135" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B135" s="29" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="136" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B136" s="29" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="137" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B137" s="29" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="138" spans="2:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:13" ht="45" x14ac:dyDescent="0.25">
       <c r="D138" s="29" t="s">
         <v>113</v>
       </c>
@@ -13084,13 +13633,13 @@
         <v>432</v>
       </c>
       <c r="G138" s="42" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="H138" s="42" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="139" spans="2:10" x14ac:dyDescent="0.25">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="139" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B139" s="29" t="s">
         <v>122</v>
       </c>
@@ -13098,7 +13647,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="140" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D140" s="29" t="s">
         <v>113</v>
       </c>
@@ -13112,10 +13661,10 @@
         <v>372</v>
       </c>
       <c r="H140" s="29" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="141" spans="2:10" x14ac:dyDescent="0.25">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="141" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D141" s="29" t="s">
         <v>113</v>
       </c>
@@ -13132,7 +13681,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="142" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D142" s="29" t="s">
         <v>254</v>
       </c>
@@ -13146,24 +13695,33 @@
         <v>378</v>
       </c>
       <c r="J142" s="42"/>
-    </row>
-    <row r="143" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K142" t="s">
+        <v>1059</v>
+      </c>
+      <c r="L142" t="s">
+        <v>1054</v>
+      </c>
+      <c r="M142" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="143" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B143" s="29" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="144" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B144" s="29" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145" s="43"/>
       <c r="B145" s="29" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146" s="41" t="s">
         <v>434</v>
       </c>
@@ -13171,15 +13729,15 @@
         <v>122</v>
       </c>
       <c r="C146" s="29" t="s">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B147" s="29" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D148" s="29" t="s">
         <v>113</v>
       </c>
@@ -13196,12 +13754,12 @@
         <v>366</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B149" s="29" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B150" s="29" t="s">
         <v>122</v>
       </c>
@@ -13209,12 +13767,12 @@
         <v>436</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B151" s="29" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D152" s="29" t="s">
         <v>173</v>
       </c>
@@ -13225,7 +13783,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D153" s="29" t="s">
         <v>113</v>
       </c>
@@ -13239,10 +13797,10 @@
         <v>372</v>
       </c>
       <c r="H153" s="29" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D154" s="29" t="s">
         <v>113</v>
       </c>
@@ -13259,7 +13817,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D155" s="29" t="s">
         <v>254</v>
       </c>
@@ -13272,38 +13830,47 @@
       <c r="H155" s="29" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K155" t="s">
+        <v>1060</v>
+      </c>
+      <c r="L155" t="s">
+        <v>1054</v>
+      </c>
+      <c r="M155" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B156" s="29" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B157" s="29" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B158" s="29" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B159" s="29" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B160" s="29" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B161" s="29" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="162" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="D162" s="29" t="s">
         <v>113</v>
       </c>
@@ -13314,13 +13881,13 @@
         <v>442</v>
       </c>
       <c r="G162" s="42" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="H162" s="42" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B163" s="29" t="s">
         <v>122</v>
       </c>
@@ -13328,7 +13895,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D164" s="29" t="s">
         <v>113</v>
       </c>
@@ -13342,10 +13909,10 @@
         <v>372</v>
       </c>
       <c r="H164" s="29" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D165" s="29" t="s">
         <v>113</v>
       </c>
@@ -13362,7 +13929,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D166" s="29" t="s">
         <v>254</v>
       </c>
@@ -13375,24 +13942,33 @@
       <c r="H166" s="29" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K166" t="s">
+        <v>1060</v>
+      </c>
+      <c r="L166" t="s">
+        <v>1054</v>
+      </c>
+      <c r="M166" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B167" s="29" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B168" s="29" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A169" s="41"/>
       <c r="B169" s="29" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A170" s="43" t="s">
         <v>444</v>
       </c>
@@ -13400,15 +13976,15 @@
         <v>122</v>
       </c>
       <c r="C170" s="29" t="s">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B171" s="29" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D172" s="29" t="s">
         <v>113</v>
       </c>
@@ -13425,13 +14001,13 @@
         <v>366</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B173" s="29" t="s">
         <v>13</v>
       </c>
       <c r="J173" s="42"/>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B174" s="29" t="s">
         <v>122</v>
       </c>
@@ -13439,12 +14015,12 @@
         <v>446</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B175" s="29" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D176" s="29" t="s">
         <v>173</v>
       </c>
@@ -13455,7 +14031,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="177" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D177" s="29" t="s">
         <v>113</v>
       </c>
@@ -13469,10 +14045,10 @@
         <v>372</v>
       </c>
       <c r="H177" s="29" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="178" spans="2:8" x14ac:dyDescent="0.25">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="178" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D178" s="29" t="s">
         <v>113</v>
       </c>
@@ -13489,7 +14065,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="179" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D179" s="29" t="s">
         <v>254</v>
       </c>
@@ -13502,8 +14078,17 @@
       <c r="H179" s="29" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="180" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="K179" t="s">
+        <v>1061</v>
+      </c>
+      <c r="L179" t="s">
+        <v>1054</v>
+      </c>
+      <c r="M179" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="180" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B180" s="29" t="s">
         <v>13</v>
       </c>
@@ -13511,32 +14096,32 @@
         <v>377</v>
       </c>
     </row>
-    <row r="181" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B181" s="29" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="182" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B182" s="29" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="183" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B183" s="29" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="184" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B184" s="29" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="185" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B185" s="29" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="186" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:13" ht="45" x14ac:dyDescent="0.25">
       <c r="D186" s="29" t="s">
         <v>113</v>
       </c>
@@ -13547,13 +14132,13 @@
         <v>452</v>
       </c>
       <c r="G186" s="42" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="H186" s="42" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="187" spans="2:8" x14ac:dyDescent="0.25">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="187" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B187" s="29" t="s">
         <v>122</v>
       </c>
@@ -13561,7 +14146,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="188" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D188" s="29" t="s">
         <v>113</v>
       </c>
@@ -13575,10 +14160,10 @@
         <v>372</v>
       </c>
       <c r="H188" s="29" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="189" spans="2:8" x14ac:dyDescent="0.25">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="189" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D189" s="29" t="s">
         <v>113</v>
       </c>
@@ -13595,7 +14180,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="190" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D190" s="29" t="s">
         <v>254</v>
       </c>
@@ -13608,24 +14193,33 @@
       <c r="H190" s="29" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="191" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="K190" t="s">
+        <v>1061</v>
+      </c>
+      <c r="L190" t="s">
+        <v>1054</v>
+      </c>
+      <c r="M190" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="191" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B191" s="29" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="192" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B192" s="29" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A193" s="43"/>
       <c r="B193" s="29" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A194" s="41" t="s">
         <v>454</v>
       </c>
@@ -13633,15 +14227,15 @@
         <v>122</v>
       </c>
       <c r="C194" s="29" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B195" s="29" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D196" s="29" t="s">
         <v>113</v>
       </c>
@@ -13658,12 +14252,12 @@
         <v>366</v>
       </c>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B197" s="29" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B198" s="29" t="s">
         <v>122</v>
       </c>
@@ -13671,12 +14265,12 @@
         <v>456</v>
       </c>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B199" s="29" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D200" s="29" t="s">
         <v>173</v>
       </c>
@@ -13687,7 +14281,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D201" s="29" t="s">
         <v>113</v>
       </c>
@@ -13701,10 +14295,10 @@
         <v>372</v>
       </c>
       <c r="H201" s="29" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D202" s="29" t="s">
         <v>113</v>
       </c>
@@ -13721,7 +14315,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D203" s="29" t="s">
         <v>254</v>
       </c>
@@ -13734,39 +14328,48 @@
       <c r="H203" s="29" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K203" t="s">
+        <v>1062</v>
+      </c>
+      <c r="L203" t="s">
+        <v>1054</v>
+      </c>
+      <c r="M203" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B204" s="29" t="s">
         <v>13</v>
       </c>
       <c r="J204" s="42"/>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B205" s="29" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B206" s="29" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B207" s="29" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B208" s="29" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B209" s="29" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="210" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="D210" s="29" t="s">
         <v>113</v>
       </c>
@@ -13777,13 +14380,13 @@
         <v>462</v>
       </c>
       <c r="G210" s="42" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="H210" s="42" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B211" s="29" t="s">
         <v>122</v>
       </c>
@@ -13791,7 +14394,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D212" s="29" t="s">
         <v>113</v>
       </c>
@@ -13805,10 +14408,10 @@
         <v>372</v>
       </c>
       <c r="H212" s="29" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D213" s="29" t="s">
         <v>113</v>
       </c>
@@ -13825,7 +14428,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D214" s="29" t="s">
         <v>254</v>
       </c>
@@ -13838,24 +14441,33 @@
       <c r="H214" s="29" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K214" t="s">
+        <v>1062</v>
+      </c>
+      <c r="L214" t="s">
+        <v>1054</v>
+      </c>
+      <c r="M214" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B215" s="29" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B216" s="29" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A217" s="41"/>
       <c r="B217" s="29" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A218" s="43" t="s">
         <v>464</v>
       </c>
@@ -13863,15 +14475,15 @@
         <v>122</v>
       </c>
       <c r="C218" s="29" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="219" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B219" s="29" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D220" s="29" t="s">
         <v>113</v>
       </c>
@@ -13888,12 +14500,12 @@
         <v>366</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B221" s="29" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B222" s="29" t="s">
         <v>122</v>
       </c>
@@ -13901,12 +14513,12 @@
         <v>466</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B223" s="29" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D224" s="29" t="s">
         <v>173</v>
       </c>
@@ -13917,7 +14529,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="225" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D225" s="29" t="s">
         <v>113</v>
       </c>
@@ -13931,10 +14543,10 @@
         <v>372</v>
       </c>
       <c r="H225" s="29" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="226" spans="2:10" x14ac:dyDescent="0.25">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="226" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D226" s="29" t="s">
         <v>113</v>
       </c>
@@ -13951,7 +14563,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="227" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D227" s="29" t="s">
         <v>254</v>
       </c>
@@ -13964,8 +14576,17 @@
       <c r="H227" s="29" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="228" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K227" t="s">
+        <v>1063</v>
+      </c>
+      <c r="L227" t="s">
+        <v>1054</v>
+      </c>
+      <c r="M227" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="228" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B228" s="29" t="s">
         <v>13</v>
       </c>
@@ -13973,32 +14594,32 @@
         <v>377</v>
       </c>
     </row>
-    <row r="229" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B229" s="29" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="230" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B230" s="29" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="231" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B231" s="29" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="232" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B232" s="29" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="233" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B233" s="29" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="234" spans="2:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:13" ht="45" x14ac:dyDescent="0.25">
       <c r="D234" s="29" t="s">
         <v>113</v>
       </c>
@@ -14009,13 +14630,13 @@
         <v>472</v>
       </c>
       <c r="G234" s="42" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="H234" s="42" t="s">
-        <v>948</v>
-      </c>
-    </row>
-    <row r="235" spans="2:10" x14ac:dyDescent="0.25">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="235" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B235" s="29" t="s">
         <v>122</v>
       </c>
@@ -14024,7 +14645,7 @@
       </c>
       <c r="J235" s="42"/>
     </row>
-    <row r="236" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D236" s="29" t="s">
         <v>113</v>
       </c>
@@ -14038,10 +14659,10 @@
         <v>372</v>
       </c>
       <c r="H236" s="29" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="237" spans="2:10" x14ac:dyDescent="0.25">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="237" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D237" s="29" t="s">
         <v>113</v>
       </c>
@@ -14058,7 +14679,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="238" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D238" s="29" t="s">
         <v>254</v>
       </c>
@@ -14071,24 +14692,33 @@
       <c r="H238" s="29" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="239" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K238" t="s">
+        <v>1063</v>
+      </c>
+      <c r="L238" t="s">
+        <v>1054</v>
+      </c>
+      <c r="M238" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="239" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B239" s="29" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="240" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B240" s="29" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A241" s="43"/>
       <c r="B241" s="29" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A242" s="41" t="s">
         <v>474</v>
       </c>
@@ -14096,15 +14726,15 @@
         <v>122</v>
       </c>
       <c r="C242" s="29" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="243" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B243" s="29" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D244" s="29" t="s">
         <v>113</v>
       </c>
@@ -14121,12 +14751,12 @@
         <v>366</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B245" s="29" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B246" s="29" t="s">
         <v>122</v>
       </c>
@@ -14134,12 +14764,12 @@
         <v>476</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B247" s="29" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D248" s="29" t="s">
         <v>173</v>
       </c>
@@ -14150,7 +14780,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D249" s="29" t="s">
         <v>113</v>
       </c>
@@ -14164,10 +14794,10 @@
         <v>372</v>
       </c>
       <c r="H249" s="29" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="250" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D250" s="29" t="s">
         <v>113</v>
       </c>
@@ -14184,7 +14814,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D251" s="29" t="s">
         <v>254</v>
       </c>
@@ -14197,38 +14827,47 @@
       <c r="H251" s="29" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K251" t="s">
+        <v>1064</v>
+      </c>
+      <c r="L251" t="s">
+        <v>1054</v>
+      </c>
+      <c r="M251" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="252" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B252" s="29" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B253" s="29" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B254" s="29" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B255" s="29" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B256" s="29" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B257" s="29" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="258" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="D258" s="29" t="s">
         <v>113</v>
       </c>
@@ -14239,13 +14878,13 @@
         <v>482</v>
       </c>
       <c r="G258" s="42" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="H258" s="42" t="s">
-        <v>949</v>
-      </c>
-    </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.25">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="259" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B259" s="29" t="s">
         <v>122</v>
       </c>
@@ -14253,7 +14892,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D260" s="29" t="s">
         <v>113</v>
       </c>
@@ -14267,10 +14906,10 @@
         <v>372</v>
       </c>
       <c r="H260" s="29" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.25">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="261" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D261" s="29" t="s">
         <v>113</v>
       </c>
@@ -14287,7 +14926,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D262" s="29" t="s">
         <v>254</v>
       </c>
@@ -14300,24 +14939,33 @@
       <c r="H262" s="29" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K262" t="s">
+        <v>1064</v>
+      </c>
+      <c r="L262" t="s">
+        <v>1054</v>
+      </c>
+      <c r="M262" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="263" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B263" s="29" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B264" s="29" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A265" s="41"/>
       <c r="B265" s="29" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A266" s="43" t="s">
         <v>484</v>
       </c>
@@ -14325,16 +14973,16 @@
         <v>122</v>
       </c>
       <c r="C266" s="29" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="J266" s="42"/>
     </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B267" s="29" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D268" s="29" t="s">
         <v>113</v>
       </c>
@@ -14351,12 +14999,12 @@
         <v>366</v>
       </c>
     </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B269" s="29" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B270" s="29" t="s">
         <v>122</v>
       </c>
@@ -14364,12 +15012,12 @@
         <v>486</v>
       </c>
     </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B271" s="29" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D272" s="29" t="s">
         <v>173</v>
       </c>
@@ -14380,7 +15028,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="273" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="273" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D273" s="29" t="s">
         <v>113</v>
       </c>
@@ -14394,10 +15042,10 @@
         <v>372</v>
       </c>
       <c r="H273" s="29" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="274" spans="2:8" x14ac:dyDescent="0.25">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="274" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D274" s="29" t="s">
         <v>113</v>
       </c>
@@ -14414,7 +15062,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="275" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="275" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D275" s="29" t="s">
         <v>254</v>
       </c>
@@ -14427,8 +15075,17 @@
       <c r="H275" s="29" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="276" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="K275" t="s">
+        <v>1065</v>
+      </c>
+      <c r="L275" t="s">
+        <v>1054</v>
+      </c>
+      <c r="M275" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="276" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B276" s="29" t="s">
         <v>13</v>
       </c>
@@ -14436,32 +15093,32 @@
         <v>377</v>
       </c>
     </row>
-    <row r="277" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="277" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B277" s="29" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="278" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="278" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B278" s="29" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="279" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="279" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B279" s="29" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="280" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="280" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B280" s="29" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="281" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="281" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B281" s="29" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="282" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="282" spans="2:13" ht="45" x14ac:dyDescent="0.25">
       <c r="D282" s="29" t="s">
         <v>113</v>
       </c>
@@ -14472,13 +15129,13 @@
         <v>492</v>
       </c>
       <c r="G282" s="42" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="H282" s="42" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="283" spans="2:8" x14ac:dyDescent="0.25">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="283" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B283" s="29" t="s">
         <v>122</v>
       </c>
@@ -14486,7 +15143,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="284" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="284" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D284" s="29" t="s">
         <v>113</v>
       </c>
@@ -14500,10 +15157,10 @@
         <v>372</v>
       </c>
       <c r="H284" s="29" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="285" spans="2:8" x14ac:dyDescent="0.25">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="285" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D285" s="29" t="s">
         <v>113</v>
       </c>
@@ -14520,7 +15177,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="286" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="286" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D286" s="29" t="s">
         <v>254</v>
       </c>
@@ -14533,24 +15190,33 @@
       <c r="H286" s="29" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="287" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="K286" t="s">
+        <v>1065</v>
+      </c>
+      <c r="L286" t="s">
+        <v>1054</v>
+      </c>
+      <c r="M286" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="287" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B287" s="29" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="288" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="288" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B288" s="29" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A289" s="43"/>
       <c r="B289" s="29" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A290" s="41" t="s">
         <v>494</v>
       </c>
@@ -14558,15 +15224,15 @@
         <v>122</v>
       </c>
       <c r="C290" s="29" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.25">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="291" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B291" s="29" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="292" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D292" s="29" t="s">
         <v>113</v>
       </c>
@@ -14583,12 +15249,12 @@
         <v>366</v>
       </c>
     </row>
-    <row r="293" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B293" s="29" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="294" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B294" s="29" t="s">
         <v>122</v>
       </c>
@@ -14596,12 +15262,12 @@
         <v>496</v>
       </c>
     </row>
-    <row r="295" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B295" s="29" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="296" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D296" s="29" t="s">
         <v>173</v>
       </c>
@@ -14612,7 +15278,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="297" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D297" s="29" t="s">
         <v>113</v>
       </c>
@@ -14626,11 +15292,11 @@
         <v>372</v>
       </c>
       <c r="H297" s="29" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="J297" s="42"/>
     </row>
-    <row r="298" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D298" s="29" t="s">
         <v>113</v>
       </c>
@@ -14647,7 +15313,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="299" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D299" s="29" t="s">
         <v>254</v>
       </c>
@@ -14660,38 +15326,47 @@
       <c r="H299" s="29" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="300" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K299" t="s">
+        <v>1066</v>
+      </c>
+      <c r="L299" t="s">
+        <v>1054</v>
+      </c>
+      <c r="M299" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="300" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B300" s="29" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="301" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B301" s="29" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="302" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B302" s="29" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="303" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B303" s="29" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="304" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B304" s="29" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B305" s="29" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="306" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="D306" s="29" t="s">
         <v>113</v>
       </c>
@@ -14702,13 +15377,13 @@
         <v>502</v>
       </c>
       <c r="G306" s="42" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="H306" s="42" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="307" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B307" s="29" t="s">
         <v>122</v>
       </c>
@@ -14716,7 +15391,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D308" s="29" t="s">
         <v>113</v>
       </c>
@@ -14730,10 +15405,10 @@
         <v>372</v>
       </c>
       <c r="H308" s="29" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="309" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D309" s="29" t="s">
         <v>113</v>
       </c>
@@ -14750,7 +15425,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D310" s="29" t="s">
         <v>254</v>
       </c>
@@ -14763,24 +15438,33 @@
       <c r="H310" s="29" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K310" t="s">
+        <v>1066</v>
+      </c>
+      <c r="L310" t="s">
+        <v>1054</v>
+      </c>
+      <c r="M310" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="311" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B311" s="29" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B312" s="29" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A313" s="41"/>
       <c r="B313" s="29" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A314" s="43" t="s">
         <v>504</v>
       </c>
@@ -14788,15 +15472,15 @@
         <v>122</v>
       </c>
       <c r="C314" s="29" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="315" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B315" s="29" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D316" s="29" t="s">
         <v>113</v>
       </c>
@@ -14813,12 +15497,12 @@
         <v>366</v>
       </c>
     </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B317" s="29" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B318" s="29" t="s">
         <v>122</v>
       </c>
@@ -14826,12 +15510,12 @@
         <v>506</v>
       </c>
     </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B319" s="29" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D320" s="29" t="s">
         <v>173</v>
       </c>
@@ -14842,7 +15526,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="321" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="321" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D321" s="29" t="s">
         <v>113</v>
       </c>
@@ -14856,10 +15540,10 @@
         <v>372</v>
       </c>
       <c r="H321" s="29" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="322" spans="2:10" x14ac:dyDescent="0.25">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="322" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D322" s="29" t="s">
         <v>113</v>
       </c>
@@ -14876,7 +15560,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="323" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="323" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D323" s="29" t="s">
         <v>254</v>
       </c>
@@ -14889,8 +15573,17 @@
       <c r="H323" s="29" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="324" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K323" t="s">
+        <v>1067</v>
+      </c>
+      <c r="L323" t="s">
+        <v>1054</v>
+      </c>
+      <c r="M323" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="324" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B324" s="29" t="s">
         <v>13</v>
       </c>
@@ -14898,33 +15591,33 @@
         <v>377</v>
       </c>
     </row>
-    <row r="325" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="325" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B325" s="29" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="326" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="326" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B326" s="29" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="327" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="327" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B327" s="29" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="328" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="328" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B328" s="29" t="s">
         <v>130</v>
       </c>
       <c r="J328" s="42"/>
     </row>
-    <row r="329" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="329" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B329" s="29" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="330" spans="2:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="330" spans="2:13" ht="45" x14ac:dyDescent="0.25">
       <c r="D330" s="29" t="s">
         <v>113</v>
       </c>
@@ -14935,13 +15628,13 @@
         <v>512</v>
       </c>
       <c r="G330" s="42" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="H330" s="42" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="331" spans="2:10" x14ac:dyDescent="0.25">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="331" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B331" s="29" t="s">
         <v>122</v>
       </c>
@@ -14949,7 +15642,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="332" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="332" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D332" s="29" t="s">
         <v>113</v>
       </c>
@@ -14963,10 +15656,10 @@
         <v>372</v>
       </c>
       <c r="H332" s="29" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="333" spans="2:10" x14ac:dyDescent="0.25">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="333" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D333" s="29" t="s">
         <v>113</v>
       </c>
@@ -14983,7 +15676,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="334" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="334" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D334" s="29" t="s">
         <v>254</v>
       </c>
@@ -14996,24 +15689,33 @@
       <c r="H334" s="29" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="335" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K334" t="s">
+        <v>1067</v>
+      </c>
+      <c r="L334" t="s">
+        <v>1054</v>
+      </c>
+      <c r="M334" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="335" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B335" s="29" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="336" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="336" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B336" s="29" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A337" s="43"/>
       <c r="B337" s="29" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A338" s="41" t="s">
         <v>514</v>
       </c>
@@ -15021,15 +15723,15 @@
         <v>122</v>
       </c>
       <c r="C338" s="29" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="339" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B339" s="29" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D340" s="29" t="s">
         <v>113</v>
       </c>
@@ -15046,12 +15748,12 @@
         <v>366</v>
       </c>
     </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B341" s="29" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B342" s="29" t="s">
         <v>122</v>
       </c>
@@ -15059,12 +15761,12 @@
         <v>516</v>
       </c>
     </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B343" s="29" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D344" s="29" t="s">
         <v>173</v>
       </c>
@@ -15075,7 +15777,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D345" s="29" t="s">
         <v>113</v>
       </c>
@@ -15089,10 +15791,10 @@
         <v>372</v>
       </c>
       <c r="H345" s="29" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="346" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D346" s="29" t="s">
         <v>113</v>
       </c>
@@ -15109,7 +15811,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D347" s="29" t="s">
         <v>254</v>
       </c>
@@ -15122,38 +15824,47 @@
       <c r="H347" s="29" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K347" t="s">
+        <v>1068</v>
+      </c>
+      <c r="L347" t="s">
+        <v>1054</v>
+      </c>
+      <c r="M347" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="348" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B348" s="29" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B349" s="29" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B350" s="29" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B351" s="29" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B352" s="29" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="353" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B353" s="29" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="354" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="D354" s="29" t="s">
         <v>113</v>
       </c>
@@ -15164,13 +15875,13 @@
         <v>522</v>
       </c>
       <c r="G354" s="42" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="H354" s="42" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="355" spans="1:10" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="355" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B355" s="29" t="s">
         <v>122</v>
       </c>
@@ -15178,7 +15889,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="356" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D356" s="29" t="s">
         <v>113</v>
       </c>
@@ -15192,10 +15903,10 @@
         <v>372</v>
       </c>
       <c r="H356" s="29" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="357" spans="1:10" x14ac:dyDescent="0.25">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="357" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D357" s="29" t="s">
         <v>113</v>
       </c>
@@ -15212,7 +15923,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="358" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D358" s="29" t="s">
         <v>254</v>
       </c>
@@ -15225,25 +15936,34 @@
       <c r="H358" s="29" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="359" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K358" t="s">
+        <v>1068</v>
+      </c>
+      <c r="L358" t="s">
+        <v>1054</v>
+      </c>
+      <c r="M358" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="359" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B359" s="29" t="s">
         <v>127</v>
       </c>
       <c r="J359" s="42"/>
     </row>
-    <row r="360" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B360" s="29" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="361" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A361" s="41"/>
       <c r="B361" s="29" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="362" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A362" s="43" t="s">
         <v>524</v>
       </c>
@@ -15251,15 +15971,15 @@
         <v>122</v>
       </c>
       <c r="C362" s="29" t="s">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="363" spans="1:10" x14ac:dyDescent="0.25">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="363" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B363" s="29" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="364" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D364" s="29" t="s">
         <v>113</v>
       </c>
@@ -15276,12 +15996,12 @@
         <v>366</v>
       </c>
     </row>
-    <row r="365" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B365" s="29" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="366" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B366" s="29" t="s">
         <v>122</v>
       </c>
@@ -15289,12 +16009,12 @@
         <v>526</v>
       </c>
     </row>
-    <row r="367" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B367" s="29" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="368" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D368" s="29" t="s">
         <v>173</v>
       </c>
@@ -15305,7 +16025,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="369" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="369" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D369" s="29" t="s">
         <v>113</v>
       </c>
@@ -15319,10 +16039,10 @@
         <v>372</v>
       </c>
       <c r="H369" s="29" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="370" spans="2:8" x14ac:dyDescent="0.25">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="370" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D370" s="29" t="s">
         <v>113</v>
       </c>
@@ -15339,7 +16059,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="371" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="371" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D371" s="29" t="s">
         <v>254</v>
       </c>
@@ -15352,8 +16072,17 @@
       <c r="H371" s="29" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="372" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="K371" t="s">
+        <v>1069</v>
+      </c>
+      <c r="L371" t="s">
+        <v>1054</v>
+      </c>
+      <c r="M371" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="372" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B372" s="29" t="s">
         <v>13</v>
       </c>
@@ -15361,32 +16090,32 @@
         <v>377</v>
       </c>
     </row>
-    <row r="373" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="373" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B373" s="29" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="374" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="374" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B374" s="29" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="375" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="375" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B375" s="29" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="376" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="376" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B376" s="29" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="377" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="377" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B377" s="29" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="378" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="378" spans="2:13" ht="45" x14ac:dyDescent="0.25">
       <c r="D378" s="29" t="s">
         <v>113</v>
       </c>
@@ -15397,13 +16126,13 @@
         <v>532</v>
       </c>
       <c r="G378" s="42" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="H378" s="42" t="s">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="379" spans="2:8" x14ac:dyDescent="0.25">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="379" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B379" s="29" t="s">
         <v>122</v>
       </c>
@@ -15411,7 +16140,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="380" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="380" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D380" s="29" t="s">
         <v>113</v>
       </c>
@@ -15425,10 +16154,10 @@
         <v>372</v>
       </c>
       <c r="H380" s="29" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="381" spans="2:8" x14ac:dyDescent="0.25">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="381" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D381" s="29" t="s">
         <v>113</v>
       </c>
@@ -15445,7 +16174,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="382" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="382" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D382" s="29" t="s">
         <v>254</v>
       </c>
@@ -15458,24 +16187,33 @@
       <c r="H382" s="29" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="383" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="K382" t="s">
+        <v>1069</v>
+      </c>
+      <c r="L382" t="s">
+        <v>1054</v>
+      </c>
+      <c r="M382" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="383" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B383" s="29" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="384" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="384" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B384" s="29" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="385" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A385" s="43"/>
       <c r="B385" s="29" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="386" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A386" s="41" t="s">
         <v>534</v>
       </c>
@@ -15483,15 +16221,15 @@
         <v>122</v>
       </c>
       <c r="C386" s="29" t="s">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="387" spans="1:10" x14ac:dyDescent="0.25">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="387" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B387" s="29" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="388" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D388" s="29" t="s">
         <v>113</v>
       </c>
@@ -15508,12 +16246,12 @@
         <v>366</v>
       </c>
     </row>
-    <row r="389" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B389" s="29" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="390" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B390" s="29" t="s">
         <v>122</v>
       </c>
@@ -15522,12 +16260,12 @@
       </c>
       <c r="J390" s="42"/>
     </row>
-    <row r="391" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B391" s="29" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="392" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D392" s="29" t="s">
         <v>173</v>
       </c>
@@ -15538,7 +16276,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="393" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D393" s="29" t="s">
         <v>113</v>
       </c>
@@ -15552,10 +16290,10 @@
         <v>372</v>
       </c>
       <c r="H393" s="29" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="394" spans="1:10" x14ac:dyDescent="0.25">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="394" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D394" s="29" t="s">
         <v>113</v>
       </c>
@@ -15572,7 +16310,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="395" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D395" s="29" t="s">
         <v>254</v>
       </c>
@@ -15585,38 +16323,47 @@
       <c r="H395" s="29" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="396" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K395" t="s">
+        <v>1070</v>
+      </c>
+      <c r="L395" t="s">
+        <v>1054</v>
+      </c>
+      <c r="M395" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="396" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B396" s="29" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="397" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B397" s="29" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="398" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B398" s="29" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="399" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B399" s="29" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="400" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B400" s="29" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="401" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B401" s="29" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="402" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="D402" s="29" t="s">
         <v>113</v>
       </c>
@@ -15627,13 +16374,13 @@
         <v>542</v>
       </c>
       <c r="G402" s="42" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="H402" s="42" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="403" spans="1:8" x14ac:dyDescent="0.25">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="403" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B403" s="29" t="s">
         <v>122</v>
       </c>
@@ -15641,7 +16388,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="404" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D404" s="29" t="s">
         <v>113</v>
       </c>
@@ -15655,10 +16402,10 @@
         <v>372</v>
       </c>
       <c r="H404" s="29" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="405" spans="1:8" x14ac:dyDescent="0.25">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="405" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D405" s="29" t="s">
         <v>113</v>
       </c>
@@ -15675,7 +16422,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="406" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D406" s="29" t="s">
         <v>254</v>
       </c>
@@ -15688,24 +16435,33 @@
       <c r="H406" s="29" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="407" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K406" t="s">
+        <v>1070</v>
+      </c>
+      <c r="L406" t="s">
+        <v>1054</v>
+      </c>
+      <c r="M406" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="407" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B407" s="29" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="408" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B408" s="29" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="409" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A409" s="41"/>
       <c r="B409" s="29" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="410" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A410" s="43" t="s">
         <v>544</v>
       </c>
@@ -15713,15 +16469,15 @@
         <v>122</v>
       </c>
       <c r="C410" s="29" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="411" spans="1:8" x14ac:dyDescent="0.25">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="411" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B411" s="29" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="412" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D412" s="29" t="s">
         <v>113</v>
       </c>
@@ -15738,12 +16494,12 @@
         <v>366</v>
       </c>
     </row>
-    <row r="413" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B413" s="29" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="414" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B414" s="29" t="s">
         <v>122</v>
       </c>
@@ -15751,12 +16507,12 @@
         <v>546</v>
       </c>
     </row>
-    <row r="415" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B415" s="29" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="416" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D416" s="29" t="s">
         <v>173</v>
       </c>
@@ -15767,7 +16523,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="417" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="417" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D417" s="29" t="s">
         <v>113</v>
       </c>
@@ -15781,10 +16537,10 @@
         <v>372</v>
       </c>
       <c r="H417" s="29" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="418" spans="2:10" x14ac:dyDescent="0.25">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="418" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D418" s="29" t="s">
         <v>113</v>
       </c>
@@ -15801,7 +16557,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="419" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="419" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D419" s="29" t="s">
         <v>254</v>
       </c>
@@ -15814,8 +16570,17 @@
       <c r="H419" s="29" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="420" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K419" t="s">
+        <v>1071</v>
+      </c>
+      <c r="L419" t="s">
+        <v>1054</v>
+      </c>
+      <c r="M419" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="420" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B420" s="29" t="s">
         <v>13</v>
       </c>
@@ -15823,33 +16588,33 @@
         <v>377</v>
       </c>
     </row>
-    <row r="421" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="421" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B421" s="29" t="s">
         <v>130</v>
       </c>
       <c r="J421" s="42"/>
     </row>
-    <row r="422" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="422" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B422" s="29" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="423" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="423" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B423" s="29" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="424" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="424" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B424" s="29" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="425" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="425" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B425" s="29" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="426" spans="2:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="426" spans="2:13" ht="45" x14ac:dyDescent="0.25">
       <c r="D426" s="29" t="s">
         <v>113</v>
       </c>
@@ -15860,13 +16625,13 @@
         <v>552</v>
       </c>
       <c r="G426" s="42" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="H426" s="42" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="427" spans="2:10" x14ac:dyDescent="0.25">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="427" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B427" s="29" t="s">
         <v>122</v>
       </c>
@@ -15874,7 +16639,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="428" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="428" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D428" s="29" t="s">
         <v>113</v>
       </c>
@@ -15888,10 +16653,10 @@
         <v>372</v>
       </c>
       <c r="H428" s="29" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="429" spans="2:10" x14ac:dyDescent="0.25">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="429" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D429" s="29" t="s">
         <v>113</v>
       </c>
@@ -15908,7 +16673,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="430" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="430" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D430" s="29" t="s">
         <v>254</v>
       </c>
@@ -15921,24 +16686,33 @@
       <c r="H430" s="29" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="431" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K430" t="s">
+        <v>1071</v>
+      </c>
+      <c r="L430" t="s">
+        <v>1054</v>
+      </c>
+      <c r="M430" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="431" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B431" s="29" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="432" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="432" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B432" s="29" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="433" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A433" s="43"/>
       <c r="B433" s="29" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="434" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A434" s="41" t="s">
         <v>554</v>
       </c>
@@ -15946,15 +16720,15 @@
         <v>122</v>
       </c>
       <c r="C434" s="29" t="s">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="435" spans="1:8" x14ac:dyDescent="0.25">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="435" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B435" s="29" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="436" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D436" s="29" t="s">
         <v>113</v>
       </c>
@@ -15971,12 +16745,12 @@
         <v>366</v>
       </c>
     </row>
-    <row r="437" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B437" s="29" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="438" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B438" s="29" t="s">
         <v>122</v>
       </c>
@@ -15984,12 +16758,12 @@
         <v>556</v>
       </c>
     </row>
-    <row r="439" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B439" s="29" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="440" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D440" s="29" t="s">
         <v>173</v>
       </c>
@@ -16000,7 +16774,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="441" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D441" s="29" t="s">
         <v>113</v>
       </c>
@@ -16014,10 +16788,10 @@
         <v>372</v>
       </c>
       <c r="H441" s="29" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="442" spans="1:8" x14ac:dyDescent="0.25">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="442" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D442" s="29" t="s">
         <v>113</v>
       </c>
@@ -16034,7 +16808,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="443" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D443" s="29" t="s">
         <v>254</v>
       </c>
@@ -16047,38 +16821,47 @@
       <c r="H443" s="29" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="444" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K443" t="s">
+        <v>1072</v>
+      </c>
+      <c r="L443" t="s">
+        <v>1054</v>
+      </c>
+      <c r="M443" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="444" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B444" s="29" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="445" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B445" s="29" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="446" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B446" s="29" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="447" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B447" s="29" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="448" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B448" s="29" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="449" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B449" s="29" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="450" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="D450" s="29" t="s">
         <v>113</v>
       </c>
@@ -16089,13 +16872,13 @@
         <v>562</v>
       </c>
       <c r="G450" s="42" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="H450" s="42" t="s">
-        <v>957</v>
-      </c>
-    </row>
-    <row r="451" spans="1:10" x14ac:dyDescent="0.25">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="451" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B451" s="29" t="s">
         <v>122</v>
       </c>
@@ -16103,7 +16886,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="452" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D452" s="29" t="s">
         <v>113</v>
       </c>
@@ -16117,11 +16900,11 @@
         <v>372</v>
       </c>
       <c r="H452" s="29" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="J452" s="42"/>
     </row>
-    <row r="453" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D453" s="29" t="s">
         <v>113</v>
       </c>
@@ -16138,7 +16921,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="454" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D454" s="29" t="s">
         <v>254</v>
       </c>
@@ -16151,24 +16934,33 @@
       <c r="H454" s="29" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="455" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K454" t="s">
+        <v>1072</v>
+      </c>
+      <c r="L454" t="s">
+        <v>1054</v>
+      </c>
+      <c r="M454" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="455" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B455" s="29" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="456" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B456" s="29" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="457" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A457" s="41"/>
       <c r="B457" s="29" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="458" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A458" s="43" t="s">
         <v>564</v>
       </c>
@@ -16176,15 +16968,15 @@
         <v>122</v>
       </c>
       <c r="C458" s="29" t="s">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="459" spans="1:10" x14ac:dyDescent="0.25">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="459" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B459" s="29" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="460" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D460" s="29" t="s">
         <v>113</v>
       </c>
@@ -16201,12 +16993,12 @@
         <v>366</v>
       </c>
     </row>
-    <row r="461" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B461" s="29" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="462" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B462" s="29" t="s">
         <v>122</v>
       </c>
@@ -16214,12 +17006,12 @@
         <v>566</v>
       </c>
     </row>
-    <row r="463" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B463" s="29" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="464" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D464" s="29" t="s">
         <v>173</v>
       </c>
@@ -16230,7 +17022,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="465" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="465" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D465" s="29" t="s">
         <v>113</v>
       </c>
@@ -16244,10 +17036,10 @@
         <v>372</v>
       </c>
       <c r="H465" s="29" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="466" spans="2:8" x14ac:dyDescent="0.25">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="466" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D466" s="29" t="s">
         <v>113</v>
       </c>
@@ -16264,7 +17056,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="467" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="467" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D467" s="29" t="s">
         <v>254</v>
       </c>
@@ -16277,8 +17069,17 @@
       <c r="H467" s="29" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="468" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="K467" t="s">
+        <v>1073</v>
+      </c>
+      <c r="L467" t="s">
+        <v>1054</v>
+      </c>
+      <c r="M467" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="468" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B468" s="29" t="s">
         <v>13</v>
       </c>
@@ -16286,32 +17087,32 @@
         <v>377</v>
       </c>
     </row>
-    <row r="469" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="469" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B469" s="29" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="470" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="470" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B470" s="29" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="471" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="471" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B471" s="29" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="472" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="472" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B472" s="29" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="473" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="473" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B473" s="29" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="474" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="474" spans="2:13" ht="45" x14ac:dyDescent="0.25">
       <c r="D474" s="29" t="s">
         <v>113</v>
       </c>
@@ -16322,13 +17123,13 @@
         <v>572</v>
       </c>
       <c r="G474" s="42" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="H474" s="42" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="475" spans="2:8" x14ac:dyDescent="0.25">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="475" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B475" s="29" t="s">
         <v>122</v>
       </c>
@@ -16336,7 +17137,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="476" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="476" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D476" s="29" t="s">
         <v>113</v>
       </c>
@@ -16350,10 +17151,10 @@
         <v>372</v>
       </c>
       <c r="H476" s="29" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="477" spans="2:8" x14ac:dyDescent="0.25">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="477" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D477" s="29" t="s">
         <v>113</v>
       </c>
@@ -16370,7 +17171,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="478" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="478" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D478" s="29" t="s">
         <v>254</v>
       </c>
@@ -16383,13 +17184,22 @@
       <c r="H478" s="29" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="479" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="K478" t="s">
+        <v>1073</v>
+      </c>
+      <c r="L478" t="s">
+        <v>1054</v>
+      </c>
+      <c r="M478" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="479" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B479" s="29" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="480" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="480" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B480" s="29" t="s">
         <v>13</v>
       </c>
@@ -16410,7 +17220,7 @@
   <dimension ref="A1:I70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
@@ -16473,10 +17283,10 @@
         <v>198</v>
       </c>
       <c r="G3" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="H3" s="29" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -16502,7 +17312,7 @@
         <v>577</v>
       </c>
       <c r="H5" s="29" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -16557,7 +17367,7 @@
         <v>583</v>
       </c>
       <c r="H11" s="29" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -16600,10 +17410,10 @@
         <v>588</v>
       </c>
       <c r="G15" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="H15" s="29" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -16723,7 +17533,7 @@
         <v>583</v>
       </c>
       <c r="H27" s="29" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
@@ -16889,7 +17699,7 @@
         <v>583</v>
       </c>
       <c r="H43" s="29" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.25">
@@ -17044,7 +17854,7 @@
         <v>583</v>
       </c>
       <c r="H58" s="29" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.25">
@@ -17176,11 +17986,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08D25534-A009-4B32-8A9F-69AC75C4E3ED}">
-  <dimension ref="A1:M98"/>
+  <dimension ref="A1:P98"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17197,10 +18007,13 @@
     <col min="10" max="10" width="21.42578125" style="47" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="23" style="47" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16.140625" style="47" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="47"/>
+    <col min="13" max="13" width="9.140625" style="47"/>
+    <col min="14" max="14" width="125.42578125" style="47" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="74.140625" style="47" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="47"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="44" t="s">
         <v>140</v>
       </c>
@@ -17240,13 +18053,22 @@
       <c r="M1" s="44" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N1" s="4" t="s">
+        <v>1040</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>1041</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B2" s="47" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D3" s="47" t="s">
         <v>254</v>
       </c>
@@ -17259,18 +18081,27 @@
       <c r="H3" s="47" t="s">
         <v>632</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N3" t="s">
+        <v>1074</v>
+      </c>
+      <c r="O3" t="s">
+        <v>1050</v>
+      </c>
+      <c r="P3" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B4" s="47" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B5" s="47" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D6" s="47" t="s">
         <v>24</v>
       </c>
@@ -17284,7 +18115,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D7" s="47" t="s">
         <v>24</v>
       </c>
@@ -17298,7 +18129,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D8" s="47" t="s">
         <v>24</v>
       </c>
@@ -17312,17 +18143,17 @@
         <v>638</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B9" s="47" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B10" s="47" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D11" s="47" t="s">
         <v>113</v>
       </c>
@@ -17340,19 +18171,19 @@
       </c>
       <c r="J11" s="48"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B12" s="47" t="s">
         <v>13</v>
       </c>
       <c r="J12" s="48"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="49"/>
       <c r="B13" s="47" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D14" s="47" t="s">
         <v>113</v>
       </c>
@@ -17369,12 +18200,12 @@
         <v>645</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B15" s="47" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="49"/>
       <c r="B16" s="47" t="s">
         <v>12</v>
@@ -17386,7 +18217,7 @@
         <v>113</v>
       </c>
       <c r="E17" s="47" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="F17" s="47" t="s">
         <v>646</v>
@@ -17395,7 +18226,7 @@
         <v>647</v>
       </c>
       <c r="H17" s="47" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -17448,7 +18279,7 @@
         <v>652</v>
       </c>
       <c r="H22" s="47" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -17512,7 +18343,7 @@
         <v>658</v>
       </c>
       <c r="H30" s="47" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -17539,7 +18370,7 @@
         <v>661</v>
       </c>
       <c r="H33" s="47" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -17585,7 +18416,7 @@
         <v>113</v>
       </c>
       <c r="E39" s="47" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="F39" s="47" t="s">
         <v>666</v>
@@ -17612,7 +18443,7 @@
         <v>113</v>
       </c>
       <c r="E42" s="47" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="F42" s="47" t="s">
         <v>669</v>
@@ -17683,7 +18514,7 @@
         <v>677</v>
       </c>
       <c r="H49" s="47" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.25">
@@ -17697,7 +18528,7 @@
         <v>679</v>
       </c>
       <c r="H50" s="47" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.25">
@@ -17842,7 +18673,7 @@
         <v>695</v>
       </c>
       <c r="H67" s="47" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.25">
@@ -17863,7 +18694,7 @@
         <v>696</v>
       </c>
       <c r="H70" s="47" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.25">
@@ -17985,7 +18816,7 @@
         <v>713</v>
       </c>
       <c r="H80" s="47" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
     </row>
     <row r="81" spans="2:8" x14ac:dyDescent="0.25">
@@ -18015,7 +18846,7 @@
         <v>716</v>
       </c>
       <c r="H83" s="47" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="84" spans="2:8" x14ac:dyDescent="0.25">
@@ -18037,7 +18868,7 @@
         <v>719</v>
       </c>
       <c r="H85" s="48" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="86" spans="2:8" x14ac:dyDescent="0.25">
@@ -18059,7 +18890,7 @@
         <v>721</v>
       </c>
       <c r="H87" s="47" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="88" spans="2:8" x14ac:dyDescent="0.25">
@@ -18081,7 +18912,7 @@
         <v>724</v>
       </c>
       <c r="H89" s="48" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="90" spans="2:8" x14ac:dyDescent="0.25">
@@ -18118,7 +18949,7 @@
         <v>726</v>
       </c>
       <c r="H94" s="47" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="95" spans="2:8" x14ac:dyDescent="0.25">
@@ -18140,7 +18971,7 @@
         <v>729</v>
       </c>
       <c r="H96" s="47" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="97" spans="2:2" x14ac:dyDescent="0.25">
@@ -18236,7 +19067,7 @@
         <v>846</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="H2" s="24" t="s">
         <v>847</v>

--- a/app/config/tables/MIF/forms/MIF/MIF.xlsx
+++ b/app/config/tables/MIF/forms/MIF/MIF.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C96F0F9-E41E-41FF-81E6-0BAC1F8DE54C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{003C68A2-E15A-4055-9B80-56D3C51B5487}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="75" yWindow="390" windowWidth="9975" windowHeight="7875" tabRatio="648" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="649" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -16,10 +16,11 @@
     <sheet name="vac" sheetId="7" r:id="rId6"/>
     <sheet name="scar" sheetId="8" r:id="rId7"/>
     <sheet name="fal" sheetId="10" r:id="rId8"/>
-    <sheet name="queries" sheetId="5" r:id="rId9"/>
-    <sheet name="prompt_types" sheetId="6" r:id="rId10"/>
-    <sheet name="choices" sheetId="3" r:id="rId11"/>
-    <sheet name="model" sheetId="4" r:id="rId12"/>
+    <sheet name="calculates" sheetId="14" r:id="rId9"/>
+    <sheet name="queries" sheetId="5" r:id="rId10"/>
+    <sheet name="prompt_types" sheetId="6" r:id="rId11"/>
+    <sheet name="choices" sheetId="3" r:id="rId12"/>
+    <sheet name="model" sheetId="4" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3558" uniqueCount="1075">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3617" uniqueCount="1128">
   <si>
     <t>setting_name</t>
   </si>
@@ -2618,48 +2619,21 @@
     <t>ONDECOD2</t>
   </si>
   <si>
-    <t>Name: {{data.NOME}}</t>
-  </si>
-  <si>
-    <t>Nome: {{data.NOME}}</t>
-  </si>
-  <si>
-    <t>Casa: {{data.CASA}}</t>
-  </si>
-  <si>
-    <t>Fogao: {{data.FOGAO}}</t>
-  </si>
-  <si>
     <t>change</t>
   </si>
   <si>
     <t>data('change') == '1'</t>
   </si>
   <si>
-    <t>Date of birth: {{data.MIFDNASC}}</t>
-  </si>
-  <si>
-    <t>Name of relation: {{data.RELA1NOME}}</t>
-  </si>
-  <si>
-    <t>Nome de relação: {{data.RELA1NOME}}</t>
-  </si>
-  <si>
     <t>do section stsc</t>
   </si>
   <si>
-    <t>Morança: {{data.MOR}}</t>
-  </si>
-  <si>
     <t>estadovis</t>
   </si>
   <si>
     <t>VISITTYPE</t>
   </si>
   <si>
-    <t>Pregnant status: {{data.gr}}</t>
-  </si>
-  <si>
     <t>gr</t>
   </si>
   <si>
@@ -2723,169 +2697,66 @@
     <t>data('VAC1DATA') == null</t>
   </si>
   <si>
-    <t>Vaccine type: {{data.VAC1TIPO}}
-Information: {{data.VAC1INF}}
-Date: {{data.VAC1DATA}}</t>
-  </si>
-  <si>
-    <t>Vaccine type: {{data.VAC10TIPO}}
-Information: {{data.VAC10INF}}
-Date: {{data.VAC10DATA}}</t>
-  </si>
-  <si>
     <t>data('VAC10DATA') == null</t>
   </si>
   <si>
-    <t>Vaccine type: {{data.VAC11TIPO}}
-Information: {{data.VAC11INF}}
-Date: {{data.VAC11DATA}}</t>
-  </si>
-  <si>
     <t>data('VAC11DATA') == null</t>
   </si>
   <si>
-    <t>Vaccine type: {{data.VAC12TIPO}}
-Information: {{data.VAC12INF}}
-Date: {{data.VAC12DATA}}</t>
-  </si>
-  <si>
     <t>data('VAC12DATA') == null</t>
   </si>
   <si>
-    <t>Vaccine type: {{data.VAC2TIPO}}
-Information: {{data.VAC2INF}}
-Date: {{data.VAC2DATA}}</t>
-  </si>
-  <si>
     <t>data('VAC2DATA') == null</t>
   </si>
   <si>
-    <t>Vaccine type: {{data.VAC3TIPO}}
-Information: {{data.VAC3INF}}
-Date: {{data.VAC3DATA}}</t>
-  </si>
-  <si>
     <t>data('VAC3DATA') == null</t>
   </si>
   <si>
-    <t>Vaccine type: {{data.VAC13TIPO}}
-Information: {{data.VAC13INF}}
-Date: {{data.VAC13DATA}}</t>
-  </si>
-  <si>
     <t>data('VAC13DATA') == null</t>
   </si>
   <si>
-    <t>Vaccine type: {{data.VAC14TIPO}}
-Information: {{data.VAC14INF}}
-Date: {{data.VAC14DATA}}</t>
-  </si>
-  <si>
     <t>data('VAC14DATA') == null</t>
   </si>
   <si>
-    <t>Vaccine type: {{data.VAC4TIPO}}
-Information: {{data.VAC4INF}}
-Date: {{data.VAC4DATA}}</t>
-  </si>
-  <si>
     <t>data('VAC4DATA') == null</t>
   </si>
   <si>
-    <t>Vaccine type: {{data.VAC5TIPO}}
-Information: {{data.VAC5INF}}
-Date: {{data.VAC5DATA}}</t>
-  </si>
-  <si>
     <t>data('VAC5DATA') == null</t>
   </si>
   <si>
-    <t>Vaccine type: {{data.VAC15TIPO}}
-Information: {{data.VAC15INF}}
-Date: {{data.VAC15DATA}}</t>
-  </si>
-  <si>
     <t>data('VAC15DATA') == null</t>
   </si>
   <si>
-    <t>Vaccine type: {{data.VAC16TIPO}}
-Information: {{data.VAC16INF}}
-Date: {{data.VAC16DATA}}</t>
-  </si>
-  <si>
     <t>data('VAC16DATA') == null</t>
   </si>
   <si>
-    <t>Vaccine type: {{data.VAC6TIPO}}
-Information: {{data.VAC6INF}}
-Date: {{data.VAC6DATA}}</t>
-  </si>
-  <si>
     <t>data('VAC6DATA') == null</t>
   </si>
   <si>
-    <t>Vaccine type: {{data.VAC7TIPO}}
-Information: {{data.VAC7INF}}
-Date: {{data.VAC7DATA}}</t>
-  </si>
-  <si>
     <t>data('VAC7DATA') == null</t>
   </si>
   <si>
-    <t>Vaccine type: {{data.VAC17TIPO}}
-Information: {{data.VAC17INF}}
-Date: {{data.VAC17DATA}}</t>
-  </si>
-  <si>
     <t>data('VAC17DATA') == null</t>
   </si>
   <si>
-    <t>Vaccine type: {{data.VAC18TIPO}}
-Information: {{data.VAC18INF}}
-Date: {{data.VAC18DATA}}</t>
-  </si>
-  <si>
     <t>data('VAC18DATA') == null</t>
   </si>
   <si>
-    <t>Vaccine type: {{data.VAC8TIPO}}
-Information: {{data.VAC8INF}}
-Date: {{data.VAC8DATA}}</t>
-  </si>
-  <si>
     <t>data('VAC8DATA') == null</t>
   </si>
   <si>
-    <t>Vaccine type: {{data.VAC9TIPO}}
-Information: {{data.VAC9INF}}
-Date: {{data.VAC9DATA}}</t>
-  </si>
-  <si>
     <t>data('VAC9DATA') == null</t>
   </si>
   <si>
-    <t>Vaccine type: {{data.VAC19TIPO}}
-Information: {{data.VAC19INF}}
-Date: {{data.VAC19DATA}}</t>
-  </si>
-  <si>
     <t>data('VAC19DATA') == null</t>
   </si>
   <si>
-    <t>Vaccine type: {{data.VAC20TIPO}}
-Information: {{data.VAC20INF}}
-Date: {{data.VAC20DATA}}</t>
-  </si>
-  <si>
     <t>data('VAC20DATA') == null</t>
   </si>
   <si>
     <t>{REGID: data('REGID'), CONT: data('CONT'), MULPRESA: data('ESTADOVIS'), VISITID: opendatakit.getCurrentInstanceId(), ASSISTENTE: data('ASSISTENTE')}</t>
   </si>
   <si>
-    <t>Data de nascimento: {{data.MIFDNASC}}</t>
-  </si>
-  <si>
     <t>Data de nascimento</t>
   </si>
   <si>
@@ -2901,106 +2772,6 @@
     <t>Tipo de vacina</t>
   </si>
   <si>
-    <t>Tipo de vacina: : {{data.VAC1TIPO}}
-Informação: {{data.VAC1INF}}
-Data da vacina: {{data.VAC1DATA}}</t>
-  </si>
-  <si>
-    <t>Tipo de vacina: {{data.VAC2TIPO}}
-Informação: {{data.VAC2INF}}
-Data da vacina: {{data.VAC2DATA}}</t>
-  </si>
-  <si>
-    <t>Tipo de vacina: {{data.VAC3TIPO}}
-Informação: {{data.VAC3INF}}
-Data da vacina: {{data.VAC3DATA}}</t>
-  </si>
-  <si>
-    <t>Tipo de vacina: {{data.VAC4TIPO}}
-Informação: {{data.VAC4INF}}
-Data da vacina: {{data.VAC4DATA}}</t>
-  </si>
-  <si>
-    <t>Tipo de vacina: {{data.VAC5TIPO}}
-Informação: {{data.VAC5INF}}
-Data da vacina: {{data.VAC5DATA}}</t>
-  </si>
-  <si>
-    <t>Tipo de vacina: {{data.VAC6TIPO}}
-Informação: {{data.VAC6INF}}
-Data da vacina: {{data.VAC6DATA}}</t>
-  </si>
-  <si>
-    <t>Tipo de vacina: {{data.VAC7TIPO}}
-Informação: {{data.VAC7INF}}
-Data da vacina: {{data.VAC7DATA}}</t>
-  </si>
-  <si>
-    <t>Tipo de vacina: {{data.VAC8TIPO}}
-Informação: {{data.VAC8INF}}
-Data da vacina: {{data.VAC8DATA}}</t>
-  </si>
-  <si>
-    <t>Tipo de vacina: {{data.VAC9TIPO}}
-Informação: {{data.VAC9INF}}
-Data da vacina: {{data.VAC9DATA}}</t>
-  </si>
-  <si>
-    <t>Tipo de vacina: {{data.VAC10TIPO}}
-Informação: {{data.VAC10INF}}
-Data da vacina: {{data.VAC10DATA}}</t>
-  </si>
-  <si>
-    <t>Tipo de vacina: {{data.VAC11TIPO}}
-Informação: {{data.VAC11INF}}
-Data da vacina: {{data.VAC11DATA}}</t>
-  </si>
-  <si>
-    <t>Tipo de vacina: {{data.VAC12TIPO}}
-Informação: {{data.VAC12INF}}
-Data da vacina: {{data.VAC12DATA}}</t>
-  </si>
-  <si>
-    <t>Tipo de vacina: {{data.VAC13TIPO}}
-Informação: {{data.VAC13INF}}
-Data da vacina: {{data.VAC13DATA}}</t>
-  </si>
-  <si>
-    <t>Tipo de vacina: {{data.VAC14TIPO}}
-Informação: {{data.VAC14INF}}
-Data da vacina: {{data.VAC14DATA}}</t>
-  </si>
-  <si>
-    <t>Tipo de vacina: {{data.VAC15TIPO}}
-Informação: {{data.VAC15INF}}
-Data da vacina: {{data.VAC15DATA}}</t>
-  </si>
-  <si>
-    <t>Tipo de vacina: {{data.VAC16TIPO}}
-Informação: {{data.VAC16INF}}
-Data da vacina: {{data.VAC16DATA}}</t>
-  </si>
-  <si>
-    <t>Tipo de vacina: {{data.VAC17TIPO}}
-Informação: {{data.VAC17INF}}
-Data da vacina: {{data.VAC17DATA}}</t>
-  </si>
-  <si>
-    <t>Tipo de vacina: {{data.VAC18TIPO}}
-Informação: {{data.VAC18INF}}
-Data da vacina: {{data.VAC18DATA}}</t>
-  </si>
-  <si>
-    <t>Tipo de vacina: {{data.VAC19TIPO}}
-Informação: {{data.VAC19INF}}
-Data da vacina: {{data.VAC19DATA}}</t>
-  </si>
-  <si>
-    <t>Tipo de vacina: {{data.VAC20TIPO}}
-Informação: {{data.VAC20INF}}
-Data da vacina: {{data.VAC20DATA}}</t>
-  </si>
-  <si>
     <t>Quantas cicatrizes?</t>
   </si>
   <si>
@@ -3064,9 +2835,6 @@
     <t>lastvisitdate</t>
   </si>
   <si>
-    <t>Last visit: &lt;b&gt;{{data.lastvisitdate}}&lt;b&gt;</t>
-  </si>
-  <si>
     <t>data('lastvisitdate') == null</t>
   </si>
   <si>
@@ -3085,15 +2853,6 @@
     <t>data('lastvisitdate') != null</t>
   </si>
   <si>
-    <t>Region: {{data.REG}}</t>
-  </si>
-  <si>
-    <t>Região: {{data.REG}}</t>
-  </si>
-  <si>
-    <t>Tabanca: {{data.TAB}}</t>
-  </si>
-  <si>
     <t>data('GR') == '1'  || data('gr') == '1'</t>
   </si>
   <si>
@@ -3127,36 +2886,6 @@
     <t>data('RELA1') == '5'</t>
   </si>
   <si>
-    <t>Relation: Don't know</t>
-  </si>
-  <si>
-    <t>Relação: Não sabe</t>
-  </si>
-  <si>
-    <t>Relation: Husband</t>
-  </si>
-  <si>
-    <t>Relação: Marido</t>
-  </si>
-  <si>
-    <t>Relation: Sister/brother</t>
-  </si>
-  <si>
-    <t>Relação: Irmã/irmão</t>
-  </si>
-  <si>
-    <t>Relation: Aunt/uncle</t>
-  </si>
-  <si>
-    <t>Relação: Tia/tio</t>
-  </si>
-  <si>
-    <t>Relation: Other</t>
-  </si>
-  <si>
-    <t>Relação: Outra/o</t>
-  </si>
-  <si>
     <t>healthstaff_fal</t>
   </si>
   <si>
@@ -3232,18 +2961,6 @@
     <t>Numero (tipo) de cicatriz</t>
   </si>
   <si>
-    <t>Relation: Mother</t>
-  </si>
-  <si>
-    <t>Relation: Father</t>
-  </si>
-  <si>
-    <t>Relação: Mãe</t>
-  </si>
-  <si>
-    <t>Relação: Pai</t>
-  </si>
-  <si>
     <t>data('RELA1') == '6'</t>
   </si>
   <si>
@@ -3259,100 +2976,543 @@
     <t>display.constraint_message.text</t>
   </si>
   <si>
-    <t>adate.diffInYears(data('MIFDNASC'), data('CONT'))&lt;50 &amp;&amp;  adate.diffInYears(data('CONT'), data('MIFDNASC'))&lt;0 || data('MIFDNASC') == null</t>
-  </si>
-  <si>
     <t>The age cannot be more than 50 years and cannot be in the future</t>
   </si>
   <si>
-    <t xml:space="preserve"> adate.diffInYears(data('CONT'), data('REGDIA'))&lt;0 || data('REGDIA') == null</t>
-  </si>
-  <si>
-    <t>The registration date cannot be in the future</t>
-  </si>
-  <si>
-    <t>adate.diffInYears(data('CONT'), data('CONSENTDAT'))&lt;0 || data('CONSENTDAT') == null</t>
-  </si>
-  <si>
     <t>The date of signature cannot be in the future</t>
   </si>
   <si>
-    <t>(adate.diffInYears(data('MIFDNASC'), data('DATAUP'))&gt;0 &amp;&amp; adate.diffInYears(data('CONT'), data('ABPARTDATA'))&lt;0) || data('DATAUP') == null</t>
-  </si>
-  <si>
     <t>Date of latest delivery cannot be before date of birth and cannot be in the future</t>
   </si>
   <si>
-    <t>adate.diffInYears(data('CONT'), data('ABPARTNVDATA'))&lt;0 || data('ABPARTNVDATA') == null</t>
-  </si>
-  <si>
-    <t>Date of death cannot be in the future</t>
-  </si>
-  <si>
-    <t>adate.diffInYears(data('CONT'), data('VAC1DATA'))&lt;0 || data('VAC1DATA') == null</t>
-  </si>
-  <si>
     <t>Vaccination date cannot be in the future</t>
   </si>
   <si>
-    <t>adate.diffInYears(data('CONT'), data('VAC2DATA'))&lt;0 || data('VAC2DATA')  == null</t>
-  </si>
-  <si>
-    <t>adate.diffInYears(data('CONT'), data('VAC3DATA'))&lt;0 || data('VAC3DATA') == null</t>
-  </si>
-  <si>
-    <t>adate.diffInYears(data('CONT'), data('VAC4DATA'))&lt;0 || data('VAC4DATA') == null</t>
-  </si>
-  <si>
-    <t>adate.diffInYears(data('CONT'), data('VAC5DATA'))&lt;0 || data('VAC5DATA') == null</t>
-  </si>
-  <si>
-    <t>adate.diffInYears(data('CONT'), data('VAC6DATA'))&lt;0 || data('VAC6DATA') == null</t>
-  </si>
-  <si>
-    <t>adate.diffInYears(data('CONT'), data('VAC7DATA'))&lt;0 || data('VAC7DATA') == null</t>
-  </si>
-  <si>
-    <t>adate.diffInYears(data('CONT'), data('VAC8DATA'))&lt;0 || data('VAC8DATA') == null</t>
-  </si>
-  <si>
-    <t>adate.diffInYears(data('CONT'), data('VAC9DATA'))&lt;0 || data('VAC9DATA') == null</t>
-  </si>
-  <si>
-    <t>adate.diffInYears(data('CONT'), data('VAC10DATA'))&lt;0 || data('VAC10DATA') == null</t>
-  </si>
-  <si>
-    <t>adate.diffInYears(data('CONT'), data('VAC11DATA'))&lt;0 || data('VAC11DATA') == null</t>
-  </si>
-  <si>
-    <t>adate.diffInYears(data('CONT'), data('VAC12DATA'))&lt;0 || data('VAC12DATA') == null</t>
-  </si>
-  <si>
-    <t>adate.diffInYears(data('CONT'), data('VAC13DATA'))&lt;0 || data('VAC13DATA') == null</t>
-  </si>
-  <si>
-    <t>adate.diffInYears(data('CONT'), data('VAC14DATA'))&lt;0 || data('VAC14DATA') == null</t>
-  </si>
-  <si>
-    <t>adate.diffInYears(data('CONT'), data('VAC15DATA'))&lt;0 || data('VAC15DATA') == null</t>
-  </si>
-  <si>
-    <t>adate.diffInYears(data('CONT'), data('VAC16DATA'))&lt;0 || data('VAC16DATA') == null</t>
-  </si>
-  <si>
-    <t>adate.diffInYears(data('CONT'), data('VAC17DATA'))&lt;0 || data('VAC17DATA') == null</t>
-  </si>
-  <si>
-    <t>adate.diffInYears(data('CONT'), data('VAC18DATA'))&lt;0 || data('VAC18DATA') == null</t>
-  </si>
-  <si>
-    <t>adate.diffInYears(data('CONT'), data('VAC19DATA'))&lt;0 || data('VAC19DATA') == null</t>
-  </si>
-  <si>
-    <t>adate.diffInYears(data('CONT'), data('VAC20DATA'))&lt;0 || data('VAC20DATA') == null</t>
-  </si>
-  <si>
-    <t>(adate.diffInYears(data('MIFDNASC'), data('DATAUP'))&gt;0 &amp;&amp; adate.diffInYears(data('CONT'), data('DATAUP'))&gt;0) || data('DATAUP') == null</t>
+    <t>Name: &lt;b&gt;{{data.NOME}}&lt;b&gt;</t>
+  </si>
+  <si>
+    <t>Nome: &lt;b&gt;{{data.NOME}}&lt;b&gt;</t>
+  </si>
+  <si>
+    <t>Morança: &lt;b&gt;{{data.MOR}}&lt;b&gt;</t>
+  </si>
+  <si>
+    <t>Casa: &lt;b&gt;{{data.CASA}}&lt;b&gt;</t>
+  </si>
+  <si>
+    <t>Fogao: &lt;b&gt;{{data.FOGAO}}&lt;b&gt;</t>
+  </si>
+  <si>
+    <t>Name of relation: &lt;b&gt;{{data.RELA1NOME}}&lt;b&gt;</t>
+  </si>
+  <si>
+    <t>Nome de relação: &lt;b&gt;{{data.RELA1NOME}}&lt;b&gt;</t>
+  </si>
+  <si>
+    <t>Relation: &lt;b&gt;Don't know&lt;b&gt;</t>
+  </si>
+  <si>
+    <t>Relation: &lt;b&gt;Mother&lt;b&gt;</t>
+  </si>
+  <si>
+    <t>Relation: &lt;b&gt;Father&lt;b&gt;</t>
+  </si>
+  <si>
+    <t>Relation: &lt;b&gt;Husband&lt;b&gt;</t>
+  </si>
+  <si>
+    <t>Relation: &lt;b&gt;Sister/brother&lt;b&gt;</t>
+  </si>
+  <si>
+    <t>Relação: &lt;b&gt;Não sabe&lt;b&gt;</t>
+  </si>
+  <si>
+    <t>Relação: &lt;b&gt;Mãe&lt;b&gt;</t>
+  </si>
+  <si>
+    <t>Relação: &lt;b&gt;Pai&lt;b&gt;</t>
+  </si>
+  <si>
+    <t>Relação: &lt;b&gt;Marido&lt;b&gt;</t>
+  </si>
+  <si>
+    <t>Relação: &lt;b&gt;Irmã/irmão&lt;b&gt;</t>
+  </si>
+  <si>
+    <t>Relation: &lt;b&gt;Aunt/uncle&lt;b&gt;</t>
+  </si>
+  <si>
+    <t>Relation: &lt;b&gt;Other&lt;b&gt;</t>
+  </si>
+  <si>
+    <t>Relação: &lt;b&gt;Outra/o&lt;b&gt;</t>
+  </si>
+  <si>
+    <t>Relação: &lt;b&gt;Tia/tio&lt;b&gt;</t>
+  </si>
+  <si>
+    <t>Date of birth: &lt;b&gt;{{calculates.displayMIFDNASC}}&lt;b&gt;</t>
+  </si>
+  <si>
+    <t>Data de nascimento: &lt;b&gt;{{calculates.displayMIFDNASC}}&lt;b&gt;</t>
+  </si>
+  <si>
+    <t>displayMIFDNASC</t>
+  </si>
+  <si>
+    <t>calculation_name</t>
+  </si>
+  <si>
+    <t>adate.display(data('MIFDNASC'))</t>
+  </si>
+  <si>
+    <t>Region: &lt;b&gt;{{data.REG}}&lt;b&gt;</t>
+  </si>
+  <si>
+    <t>Região: &lt;b&gt;{{data.REG}}&lt;b&gt;</t>
+  </si>
+  <si>
+    <t>Tabanca: &lt;b&gt;{{data.TAB}}&lt;b&gt;</t>
+  </si>
+  <si>
+    <t>Last visit: &lt;b&gt;{{calculates.displayLastvisitdate}}&lt;b&gt;</t>
+  </si>
+  <si>
+    <t>displayLastvisitdate</t>
+  </si>
+  <si>
+    <t>adate.display(data('lastvisitdate'))</t>
+  </si>
+  <si>
+    <t>Pregnant status: &lt;b&gt;{{data.gr}}&lt;b&gt;</t>
+  </si>
+  <si>
+    <t>displayVAC20DATA</t>
+  </si>
+  <si>
+    <t>displayVAC1DATA</t>
+  </si>
+  <si>
+    <t>displayVAC2DATA</t>
+  </si>
+  <si>
+    <t>displayVAC3DATA</t>
+  </si>
+  <si>
+    <t>displayVAC4DATA</t>
+  </si>
+  <si>
+    <t>displayVAC5DATA</t>
+  </si>
+  <si>
+    <t>displayVAC6DATA</t>
+  </si>
+  <si>
+    <t>displayVAC7DATA</t>
+  </si>
+  <si>
+    <t>displayVAC8DATA</t>
+  </si>
+  <si>
+    <t>displayVAC9DATA</t>
+  </si>
+  <si>
+    <t>displayVAC10DATA</t>
+  </si>
+  <si>
+    <t>displayVAC11DATA</t>
+  </si>
+  <si>
+    <t>displayVAC12DATA</t>
+  </si>
+  <si>
+    <t>displayVAC13DATA</t>
+  </si>
+  <si>
+    <t>displayVAC14DATA</t>
+  </si>
+  <si>
+    <t>displayVAC15DATA</t>
+  </si>
+  <si>
+    <t>displayVAC16DATA</t>
+  </si>
+  <si>
+    <t>displayVAC17DATA</t>
+  </si>
+  <si>
+    <t>displayVAC18DATA</t>
+  </si>
+  <si>
+    <t>displayVAC19DATA</t>
+  </si>
+  <si>
+    <t>adate.display(data('VAC1DATA'))</t>
+  </si>
+  <si>
+    <t>adate.display(data('VAC2DATA'))</t>
+  </si>
+  <si>
+    <t>adate.display(data('VAC3DATA'))</t>
+  </si>
+  <si>
+    <t>adate.display(data('VAC4DATA'))</t>
+  </si>
+  <si>
+    <t>adate.display(data('VAC5DATA'))</t>
+  </si>
+  <si>
+    <t>adate.display(data('VAC6DATA'))</t>
+  </si>
+  <si>
+    <t>adate.display(data('VAC7DATA'))</t>
+  </si>
+  <si>
+    <t>adate.display(data('VAC8DATA'))</t>
+  </si>
+  <si>
+    <t>adate.display(data('VAC9DATA'))</t>
+  </si>
+  <si>
+    <t>adate.display(data('VAC10DATA'))</t>
+  </si>
+  <si>
+    <t>adate.display(data('VAC11DATA'))</t>
+  </si>
+  <si>
+    <t>adate.display(data('VAC12DATA'))</t>
+  </si>
+  <si>
+    <t>adate.display(data('VAC13DATA'))</t>
+  </si>
+  <si>
+    <t>adate.display(data('VAC14DATA'))</t>
+  </si>
+  <si>
+    <t>adate.display(data('VAC15DATA'))</t>
+  </si>
+  <si>
+    <t>adate.display(data('VAC16DATA'))</t>
+  </si>
+  <si>
+    <t>adate.display(data('VAC17DATA'))</t>
+  </si>
+  <si>
+    <t>adate.display(data('VAC18DATA'))</t>
+  </si>
+  <si>
+    <t>adate.display(data('VAC19DATA'))</t>
+  </si>
+  <si>
+    <t>adate.display(data('VAC20DATA'))</t>
+  </si>
+  <si>
+    <t>Vaccine type: &lt;b&gt;{{data.VAC1TIPO}}&lt;/b&gt;&lt;br/&gt;
+Information: &lt;b&gt;{{data.VAC1INF}}&lt;/b&gt;&lt;br/&gt;
+Date: &lt;b&gt;{{calculates.displayVAC1DATA}}&lt;/b&gt;&lt;br/&gt;</t>
+  </si>
+  <si>
+    <t>Tipo de vacina: &lt;b&gt;{{data.VAC1TIPO}}&lt;/b&gt;&lt;br/&gt;
+Informação: &lt;b&gt;{{data.VAC1INF}}&lt;/b&gt;&lt;br/&gt;
+Data da vacina: &lt;b&gt;{{calculates.displayVAC1DATA}}&lt;/b&gt;&lt;br/&gt;</t>
+  </si>
+  <si>
+    <t>Vaccine type: &lt;b&gt;{{data.VAC2TIPO}}&lt;/b&gt;&lt;br/&gt;
+Information: &lt;b&gt;{{data.VAC2INF}}&lt;/b&gt;&lt;br/&gt;
+Date: &lt;b&gt;{{calculates.displayVAC2DATA}}&lt;/b&gt;&lt;br/&gt;</t>
+  </si>
+  <si>
+    <t>Tipo de vacina: &lt;b&gt;{{data.VAC2TIPO}}&lt;/b&gt;&lt;br/&gt;
+Informação: &lt;b&gt;{{data.VAC2INF}}&lt;/b&gt;&lt;br/&gt;
+Data da vacina: &lt;b&gt;{{calculates.displayVAC2DATA}}&lt;/b&gt;&lt;br/&gt;</t>
+  </si>
+  <si>
+    <t>Vaccine type: &lt;b&gt;{{data.VAC3TIPO}}&lt;/b&gt;&lt;br/&gt;
+Information: &lt;b&gt;{{data.VAC3INF}}&lt;/b&gt;&lt;br/&gt;
+Date: &lt;b&gt;{{calculates.displayVAC3DATA}}&lt;/b&gt;&lt;br/&gt;</t>
+  </si>
+  <si>
+    <t>Tipo de vacina: &lt;b&gt;{{data.VAC3TIPO}}&lt;/b&gt;&lt;br/&gt;
+Informação: &lt;b&gt;{{data.VAC3INF}}&lt;/b&gt;&lt;br/&gt;
+Data da vacina: &lt;b&gt;{{calculates.displayVAC3DATA}}&lt;/b&gt;&lt;br/&gt;</t>
+  </si>
+  <si>
+    <t>Vaccine type: &lt;b&gt;{{data.VAC4TIPO}}&lt;/b&gt;&lt;br/&gt;
+Information: &lt;b&gt;{{data.VAC4INF}}&lt;/b&gt;&lt;br/&gt;
+Date: &lt;b&gt;{{calculates.displayVAC4DATA}}&lt;/b&gt;&lt;br/&gt;</t>
+  </si>
+  <si>
+    <t>Tipo de vacina: &lt;b&gt;{{data.VAC4TIPO}}&lt;/b&gt;&lt;br/&gt;
+Informação: &lt;b&gt;{{data.VAC4INF}}&lt;/b&gt;&lt;br/&gt;
+Data da vacina: &lt;b&gt;{{calculates.displayVAC4DATA}}&lt;/b&gt;&lt;br/&gt;</t>
+  </si>
+  <si>
+    <t>Vaccine type: &lt;b&gt;{{data.VAC5TIPO}}&lt;/b&gt;&lt;br/&gt;
+Information: &lt;b&gt;{{data.VAC5INF}}&lt;/b&gt;&lt;br/&gt;
+Date: &lt;b&gt;{{calculates.displayVAC5DATA}}&lt;/b&gt;&lt;br/&gt;</t>
+  </si>
+  <si>
+    <t>Tipo de vacina: &lt;b&gt;{{data.VAC5TIPO}}&lt;/b&gt;&lt;br/&gt;
+Informação: &lt;b&gt;{{data.VAC5INF}}&lt;/b&gt;&lt;br/&gt;
+Data da vacina: &lt;b&gt;{{calculates.displayVAC5DATA}}&lt;/b&gt;&lt;br/&gt;</t>
+  </si>
+  <si>
+    <t>Vaccine type: &lt;b&gt;{{data.VAC6TIPO}}&lt;/b&gt;&lt;br/&gt;
+Information: &lt;b&gt;{{data.VAC6INF}}&lt;/b&gt;&lt;br/&gt;
+Date: &lt;b&gt;{{calculates.displayVAC6DATA}}&lt;/b&gt;&lt;br/&gt;</t>
+  </si>
+  <si>
+    <t>Tipo de vacina: &lt;b&gt;{{data.VAC6TIPO}}&lt;/b&gt;&lt;br/&gt;
+Informação: &lt;b&gt;{{data.VAC6INF}}&lt;/b&gt;&lt;br/&gt;
+Data da vacina: &lt;b&gt;{{calculates.displayVAC6DATA}}&lt;/b&gt;&lt;br/&gt;</t>
+  </si>
+  <si>
+    <t>Vaccine type: &lt;b&gt;{{data.VAC7TIPO}}&lt;/b&gt;&lt;br/&gt;
+Information: &lt;b&gt;{{data.VAC7INF}}&lt;/b&gt;&lt;br/&gt;
+Date: &lt;b&gt;{{calculates.displayVAC7DATA}}&lt;/b&gt;&lt;br/&gt;</t>
+  </si>
+  <si>
+    <t>Tipo de vacina: &lt;b&gt;{{data.VAC7TIPO}}&lt;/b&gt;&lt;br/&gt;
+Informação: &lt;b&gt;{{data.VAC7INF}}&lt;/b&gt;&lt;br/&gt;
+Data da vacina: &lt;b&gt;{{calculates.displayVAC7DATA}}&lt;/b&gt;&lt;br/&gt;</t>
+  </si>
+  <si>
+    <t>Vaccine type: &lt;b&gt;{{data.VAC8TIPO}}&lt;/b&gt;&lt;br/&gt;
+Information: &lt;b&gt;{{data.VAC8INF}}&lt;/b&gt;&lt;br/&gt;
+Date: &lt;b&gt;{{calculates.displayVAC8DATA}}&lt;/b&gt;&lt;br/&gt;</t>
+  </si>
+  <si>
+    <t>Tipo de vacina: &lt;b&gt;{{data.VAC8TIPO}}&lt;/b&gt;&lt;br/&gt;
+Informação: &lt;b&gt;{{data.VAC8INF}}&lt;/b&gt;&lt;br/&gt;
+Data da vacina: &lt;b&gt;{{calculates.displayVAC8DATA}}&lt;/b&gt;&lt;br/&gt;</t>
+  </si>
+  <si>
+    <t>Vaccine type: &lt;b&gt;{{data.VAC9TIPO}}&lt;/b&gt;&lt;br/&gt;
+Information: &lt;b&gt;{{data.VAC9INF}}&lt;/b&gt;&lt;br/&gt;
+Date: &lt;b&gt;{{calculates.displayVAC9DATA}}&lt;/b&gt;&lt;br/&gt;</t>
+  </si>
+  <si>
+    <t>Tipo de vacina: &lt;b&gt;{{data.VAC9TIPO}}&lt;/b&gt;&lt;br/&gt;
+Informação: &lt;b&gt;{{data.VAC9INF}}&lt;/b&gt;&lt;br/&gt;
+Data da vacina: &lt;b&gt;{{calculates.displayVAC9DATA}}&lt;/b&gt;&lt;br/&gt;</t>
+  </si>
+  <si>
+    <t>Vaccine type: &lt;b&gt;{{data.VAC10TIPO}}&lt;/b&gt;&lt;br/&gt;
+Information: &lt;b&gt;{{data.VAC10INF}}&lt;/b&gt;&lt;br/&gt;
+Date: &lt;b&gt;{{calculates.displayVAC10DATA}}&lt;/b&gt;&lt;br/&gt;</t>
+  </si>
+  <si>
+    <t>Tipo de vacina: &lt;b&gt;{{data.VAC10TIPO}}&lt;/b&gt;&lt;br/&gt;
+Informação: &lt;b&gt;{{data.VAC10INF}}&lt;/b&gt;&lt;br/&gt;
+Data da vacina: &lt;b&gt;{{calculates.displayVAC10DATA}}&lt;/b&gt;&lt;br/&gt;</t>
+  </si>
+  <si>
+    <t>Vaccine type: &lt;b&gt;{{data.VAC11TIPO}}&lt;/b&gt;&lt;br/&gt;
+Information: &lt;b&gt;{{data.VAC11INF}}&lt;/b&gt;&lt;br/&gt;
+Date: &lt;b&gt;{{calculates.displayVAC11DATA}}&lt;/b&gt;&lt;br/&gt;</t>
+  </si>
+  <si>
+    <t>Tipo de vacina: &lt;b&gt;{{data.VAC11TIPO}}&lt;/b&gt;&lt;br/&gt;
+Informação: &lt;b&gt;{{data.VAC11INF}}&lt;/b&gt;&lt;br/&gt;
+Data da vacina: &lt;b&gt;{{calculates.displayVAC11DATA}}&lt;/b&gt;&lt;br/&gt;</t>
+  </si>
+  <si>
+    <t>Vaccine type: &lt;b&gt;{{data.VAC12TIPO}}&lt;/b&gt;&lt;br/&gt;
+Information: &lt;b&gt;{{data.VAC12INF}}&lt;/b&gt;&lt;br/&gt;
+Date: &lt;b&gt;{{calculates.displayVAC12DATA}}&lt;/b&gt;&lt;br/&gt;</t>
+  </si>
+  <si>
+    <t>Tipo de vacina: &lt;b&gt;{{data.VAC12TIPO}}&lt;/b&gt;&lt;br/&gt;
+Informação: &lt;b&gt;{{data.VAC12INF}}&lt;/b&gt;&lt;br/&gt;
+Data da vacina: &lt;b&gt;{{calculates.displayVAC12DATA}}&lt;/b&gt;&lt;br/&gt;</t>
+  </si>
+  <si>
+    <t>Vaccine type: &lt;b&gt;{{data.VAC13TIPO}}&lt;/b&gt;&lt;br/&gt;
+Information: &lt;b&gt;{{data.VAC13INF}}&lt;/b&gt;&lt;br/&gt;
+Date: &lt;b&gt;{{calculates.displayVAC13DATA}}&lt;/b&gt;&lt;br/&gt;</t>
+  </si>
+  <si>
+    <t>Tipo de vacina: &lt;b&gt;{{data.VAC13TIPO}}&lt;/b&gt;&lt;br/&gt;
+Informação: &lt;b&gt;{{data.VAC13INF}}&lt;/b&gt;&lt;br/&gt;
+Data da vacina: &lt;b&gt;{{calculates.displayVAC13DATA}}&lt;/b&gt;&lt;br/&gt;</t>
+  </si>
+  <si>
+    <t>Vaccine type: &lt;b&gt;{{data.VAC14TIPO}}&lt;/b&gt;&lt;br/&gt;
+Information: &lt;b&gt;{{data.VAC14INF}}&lt;/b&gt;&lt;br/&gt;
+Date: &lt;b&gt;{{calculates.displayVAC14DATA}}&lt;/b&gt;&lt;br/&gt;</t>
+  </si>
+  <si>
+    <t>Tipo de vacina: &lt;b&gt;{{data.VAC14TIPO}}&lt;/b&gt;&lt;br/&gt;
+Informação: &lt;b&gt;{{data.VAC14INF}}&lt;/b&gt;&lt;br/&gt;
+Data da vacina: &lt;b&gt;{{calculates.displayVAC14DATA}}&lt;/b&gt;&lt;br/&gt;</t>
+  </si>
+  <si>
+    <t>Vaccine type: &lt;b&gt;{{data.VAC15TIPO}}&lt;/b&gt;&lt;br/&gt;
+Information: &lt;b&gt;{{data.VAC15INF}}&lt;/b&gt;&lt;br/&gt;
+Date: &lt;b&gt;{{calculates.displayVAC15DATA}}&lt;/b&gt;&lt;br/&gt;</t>
+  </si>
+  <si>
+    <t>Tipo de vacina: &lt;b&gt;{{data.VAC15TIPO}}&lt;/b&gt;&lt;br/&gt;
+Informação: &lt;b&gt;{{data.VAC15INF}}&lt;/b&gt;&lt;br/&gt;
+Data da vacina: &lt;b&gt;{{calculates.displayVAC15DATA}}&lt;/b&gt;&lt;br/&gt;</t>
+  </si>
+  <si>
+    <t>Vaccine type: &lt;b&gt;{{data.VAC16TIPO}}&lt;/b&gt;&lt;br/&gt;
+Information: &lt;b&gt;{{data.VAC16INF}}&lt;/b&gt;&lt;br/&gt;
+Date: &lt;b&gt;{{calculates.displayVAC16DATA}}&lt;/b&gt;&lt;br/&gt;</t>
+  </si>
+  <si>
+    <t>Tipo de vacina: &lt;b&gt;{{data.VAC16TIPO}}&lt;/b&gt;&lt;br/&gt;
+Informação: &lt;b&gt;{{data.VAC16INF}}&lt;/b&gt;&lt;br/&gt;
+Data da vacina: &lt;b&gt;{{calculates.displayVAC16DATA}}&lt;/b&gt;&lt;br/&gt;</t>
+  </si>
+  <si>
+    <t>Vaccine type: &lt;b&gt;{{data.VAC17TIPO}}&lt;/b&gt;&lt;br/&gt;
+Information: &lt;b&gt;{{data.VAC17INF}}&lt;/b&gt;&lt;br/&gt;
+Date: &lt;b&gt;{{calculates.displayVAC17DATA}}&lt;/b&gt;&lt;br/&gt;</t>
+  </si>
+  <si>
+    <t>Tipo de vacina: &lt;b&gt;{{data.VAC17TIPO}}&lt;/b&gt;&lt;br/&gt;
+Informação: &lt;b&gt;{{data.VAC17INF}}&lt;/b&gt;&lt;br/&gt;
+Data da vacina: &lt;b&gt;{{calculates.displayVAC17DATA}}&lt;/b&gt;&lt;br/&gt;</t>
+  </si>
+  <si>
+    <t>Vaccine type: &lt;b&gt;{{data.VAC18TIPO}}&lt;/b&gt;&lt;br/&gt;
+Information: &lt;b&gt;{{data.VAC18INF}}&lt;/b&gt;&lt;br/&gt;
+Date: &lt;b&gt;{{calculates.displayVAC18DATA}}&lt;/b&gt;&lt;br/&gt;</t>
+  </si>
+  <si>
+    <t>Tipo de vacina: &lt;b&gt;{{data.VAC18TIPO}}&lt;/b&gt;&lt;br/&gt;
+Informação: &lt;b&gt;{{data.VAC18INF}}&lt;/b&gt;&lt;br/&gt;
+Data da vacina: &lt;b&gt;{{calculates.displayVAC18DATA}}&lt;/b&gt;&lt;br/&gt;</t>
+  </si>
+  <si>
+    <t>Vaccine type: &lt;b&gt;{{data.VAC19TIPO}}&lt;/b&gt;&lt;br/&gt;
+Information: &lt;b&gt;{{data.VAC19INF}}&lt;/b&gt;&lt;br/&gt;
+Date: &lt;b&gt;{{calculates.displayVAC19DATA}}&lt;/b&gt;&lt;br/&gt;</t>
+  </si>
+  <si>
+    <t>Tipo de vacina: &lt;b&gt;{{data.VAC19TIPO}}&lt;/b&gt;&lt;br/&gt;
+Informação: &lt;b&gt;{{data.VAC19INF}}&lt;/b&gt;&lt;br/&gt;
+Data da vacina: &lt;b&gt;{{calculates.displayVAC19DATA}}&lt;/b&gt;&lt;br/&gt;</t>
+  </si>
+  <si>
+    <t>Vaccine type: &lt;b&gt;{{data.VAC20TIPO}}&lt;/b&gt;&lt;br/&gt;
+Information: &lt;b&gt;{{data.VAC20INF}}&lt;/b&gt;&lt;br/&gt;
+Date: &lt;b&gt;{{calculates.displayVAC20DATA}}&lt;/b&gt;&lt;br/&gt;</t>
+  </si>
+  <si>
+    <t>Tipo de vacina: &lt;b&gt;{{data.VAC20TIPO}}&lt;/b&gt;&lt;br/&gt;
+Informação: &lt;b&gt;{{data.VAC20INF}}&lt;/b&gt;&lt;br/&gt;
+Data da vacina: &lt;b&gt;{{calculates.displayVAC20DATA}}&lt;/b&gt;&lt;br/&gt;</t>
+  </si>
+  <si>
+    <t>REGIDA</t>
+  </si>
+  <si>
+    <t>data('REGDIA') == null</t>
+  </si>
+  <si>
+    <t>data('CONT')</t>
+  </si>
+  <si>
+    <t>adate.diffInDays(data('CONT'), data('CONSENTDAT'))&lt;1 || data('CONSENTDAT') == null</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> adate.diffInDays(data('CONT'), data('ABPARTDATA'))&lt;1 || data('ABPARTDATA') == null</t>
+  </si>
+  <si>
+    <t>Date of death cannot be in the future and cannot be before day of birth</t>
+  </si>
+  <si>
+    <t>adate.diffInDays(data('CONT'), data('VAC1DATA'))&lt;1 || data('VAC1DATA') == null</t>
+  </si>
+  <si>
+    <t>adate.diffInDays(data('CONT'), data('VAC2DATA'))&lt;1 || data('VAC2DATA')  == null</t>
+  </si>
+  <si>
+    <t>adate.diffInDays(data('CONT'), data('VAC3DATA'))&lt;1 || data('VAC3DATA') == null</t>
+  </si>
+  <si>
+    <t>adate.diffInDays(data('CONT'), data('VAC4DATA'))&lt;1 || data('VAC4DATA') == null</t>
+  </si>
+  <si>
+    <t>adate.diffInDays(data('CONT'), data('VAC5DATA'))&lt;1 || data('VAC5DATA') == null</t>
+  </si>
+  <si>
+    <t>adate.diffInDays(data('CONT'), data('VAC6DATA'))&lt;1 || data('VAC6DATA') == null</t>
+  </si>
+  <si>
+    <t>adate.diffInDays(data('CONT'), data('VAC7DATA'))&lt;1 || data('VAC7DATA') == null</t>
+  </si>
+  <si>
+    <t>adate.diffInDays(data('CONT'), data('VAC8DATA'))&lt;1 || data('VAC8DATA') == null</t>
+  </si>
+  <si>
+    <t>adate.diffInDays(data('CONT'), data('VAC9DATA'))&lt;1 || data('VAC9DATA') == null</t>
+  </si>
+  <si>
+    <t>adate.diffInDays(data('CONT'), data('VAC10DATA'))&lt;1 || data('VAC10DATA') == null</t>
+  </si>
+  <si>
+    <t>adate.diffInDays(data('CONT'), data('VAC11DATA'))&lt;1 || data('VAC11DATA') == null</t>
+  </si>
+  <si>
+    <t>adate.diffInDays(data('CONT'), data('VAC12DATA'))&lt;1 || data('VAC12DATA') == null</t>
+  </si>
+  <si>
+    <t>adate.diffInDays(data('CONT'), data('VAC13DATA'))&lt;1 || data('VAC13DATA') == null</t>
+  </si>
+  <si>
+    <t>adate.diffInDays(data('CONT'), data('VAC14DATA'))&lt;1 || data('VAC14DATA') == null</t>
+  </si>
+  <si>
+    <t>adate.diffInDays(data('CONT'), data('VAC15DATA'))&lt;1 || data('VAC15DATA') == null</t>
+  </si>
+  <si>
+    <t>adate.diffInDays(data('CONT'), data('VAC16DATA'))&lt;1 || data('VAC16DATA') == null</t>
+  </si>
+  <si>
+    <t>adate.diffInDays(data('CONT'), data('VAC17DATA'))&lt;1 || data('VAC17DATA') == null</t>
+  </si>
+  <si>
+    <t>adate.diffInDays(data('CONT'), data('VAC18DATA'))&lt;1 || data('VAC18DATA') == null</t>
+  </si>
+  <si>
+    <t>adate.diffInDays(data('CONT'), data('VAC19DATA'))&lt;1 || data('VAC19DATA') == null</t>
+  </si>
+  <si>
+    <t>adate.diffInDays(data('CONT'), data('VAC20DATA'))&lt;1 || data('VAC20DATA') == null</t>
+  </si>
+  <si>
+    <t>(adate.diffInDays(data('CONT'), data('ABPARTNVDATA'))&lt;1 &amp;&amp; adate.diffInDays(data('ABPARTDATA'), data('ABPARTNVDATA'))&lt;1) || data('ABPARTNVDATA') == null</t>
+  </si>
+  <si>
+    <t>(adate.ageInYears(data('MIFDNASC'))&lt;50 &amp;&amp;  adate.ageInDays(data('MIFDNASC'))&gt;0) || data('lastvisitdate') != null</t>
+  </si>
+  <si>
+    <t>(adate.diffInDays(data('CONT'), data('EXITDATA'))&lt;1 &amp;&amp; adate.diffInDays(data('EXITDATA'), data('lastvisitdate'))&lt;1) || (data('ESTADOVIS') != '2' &amp;&amp; data('ESTADOVIS') != '3')</t>
+  </si>
+  <si>
+    <t>Last visit: &lt;b&gt;First visit&lt;b&gt;</t>
+  </si>
+  <si>
+    <t>Today's date: &lt;b&gt;{{calculates.displayCONT}}&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>displayCONT</t>
+  </si>
+  <si>
+    <t>adate.display(data('CONT'))</t>
+  </si>
+  <si>
+    <t>Exitdate cannot be before before last vist and cannot be in the future</t>
+  </si>
+  <si>
+    <t xml:space="preserve">((adate.diffInDays(data('DATAUP'), data('MIFDNASC'))&lt;1 || data('MIFDNASC') == null) &amp;&amp; adate.diffInDays(data('CONT'), data('DATAUP'))&lt;1) || data('ESTADO') !='3' </t>
+  </si>
+  <si>
+    <t>instance_name</t>
   </si>
 </sst>
 </file>
@@ -3362,7 +3522,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-406]General"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3418,6 +3578,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -3527,7 +3694,7 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -3596,6 +3763,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Excel Built-in Normal" xfId="2" xr:uid="{C28CC074-D3A0-48A2-81F3-B6A5CA836B7C}"/>
@@ -3879,11 +4047,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5:D5"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3980,6 +4148,14 @@
         <v>195</v>
       </c>
     </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B9" t="s">
+        <v>854</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3987,6 +4163,143 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72BBE916-BF25-4564-8A64-9F407011F034}">
+  <dimension ref="A1:K5"/>
+  <sheetViews>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K5" sqref="K5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.42578125" customWidth="1"/>
+    <col min="8" max="8" width="38.85546875" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="46.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>837</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>838</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>839</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>840</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>841</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>842</v>
+      </c>
+      <c r="I1" s="22" t="s">
+        <v>843</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
+        <v>361</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>844</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>844</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>845</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>846</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>901</v>
+      </c>
+      <c r="H2" s="24" t="s">
+        <v>847</v>
+      </c>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D3" s="15"/>
+    </row>
+    <row r="4" spans="1:11" ht="135" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="C4" s="16"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="K4" s="14" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="C5" s="16"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="K5" s="14" t="s">
+        <v>215</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{328DD6A2-F953-4C0B-9442-0FB4A254DCDD}">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -4053,7 +4366,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFF3D0A7-17A8-4B35-89BF-E7F3088D1597}">
   <dimension ref="A1:E126"/>
   <sheetViews>
@@ -4470,7 +4783,7 @@
         <v>73</v>
       </c>
       <c r="D26" s="47" t="s">
-        <v>974</v>
+        <v>924</v>
       </c>
       <c r="E26" s="47"/>
     </row>
@@ -4717,7 +5030,7 @@
         <v>249</v>
       </c>
       <c r="D42" s="47" t="s">
-        <v>975</v>
+        <v>925</v>
       </c>
       <c r="E42" s="47"/>
     </row>
@@ -5393,7 +5706,7 @@
         <v>810</v>
       </c>
       <c r="D85" s="47" t="s">
-        <v>976</v>
+        <v>926</v>
       </c>
       <c r="E85" s="47"/>
     </row>
@@ -5471,10 +5784,10 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>1019</v>
+        <v>955</v>
       </c>
       <c r="B90" t="s">
-        <v>1020</v>
+        <v>956</v>
       </c>
       <c r="C90" t="s">
         <v>812</v>
@@ -5485,38 +5798,38 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>1019</v>
+        <v>955</v>
       </c>
       <c r="B91" t="s">
-        <v>1021</v>
+        <v>957</v>
       </c>
       <c r="C91" t="s">
-        <v>1022</v>
+        <v>958</v>
       </c>
       <c r="D91" t="s">
-        <v>1023</v>
+        <v>959</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>1019</v>
+        <v>955</v>
       </c>
       <c r="B92" t="s">
-        <v>1024</v>
+        <v>960</v>
       </c>
       <c r="C92" t="s">
-        <v>1025</v>
+        <v>961</v>
       </c>
       <c r="D92" t="s">
-        <v>1026</v>
+        <v>962</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>1019</v>
+        <v>955</v>
       </c>
       <c r="B93" t="s">
-        <v>1027</v>
+        <v>963</v>
       </c>
       <c r="C93" t="s">
         <v>811</v>
@@ -5527,13 +5840,13 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>1019</v>
+        <v>955</v>
       </c>
       <c r="B94" t="s">
         <v>65</v>
       </c>
       <c r="C94" t="s">
-        <v>1028</v>
+        <v>964</v>
       </c>
       <c r="D94" t="s">
         <v>813</v>
@@ -5541,13 +5854,13 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>1019</v>
+        <v>955</v>
       </c>
       <c r="B95" t="s">
         <v>66</v>
       </c>
       <c r="C95" t="s">
-        <v>1018</v>
+        <v>954</v>
       </c>
       <c r="D95" t="s">
         <v>32</v>
@@ -5891,27 +6204,27 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>1009</v>
+        <v>945</v>
       </c>
       <c r="B117" t="s">
-        <v>1010</v>
+        <v>946</v>
       </c>
       <c r="C117" t="s">
-        <v>1011</v>
+        <v>947</v>
       </c>
       <c r="D117" t="s">
-        <v>1012</v>
+        <v>948</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>1009</v>
+        <v>945</v>
       </c>
       <c r="B118" t="s">
-        <v>1013</v>
+        <v>949</v>
       </c>
       <c r="C118" t="s">
-        <v>1014</v>
+        <v>950</v>
       </c>
       <c r="D118" t="s">
         <v>832</v>
@@ -5919,21 +6232,21 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>1009</v>
+        <v>945</v>
       </c>
       <c r="B119" t="s">
-        <v>1015</v>
+        <v>951</v>
       </c>
       <c r="C119" t="s">
-        <v>1016</v>
+        <v>952</v>
       </c>
       <c r="D119" t="s">
-        <v>1017</v>
+        <v>953</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>1009</v>
+        <v>945</v>
       </c>
       <c r="B120" t="s">
         <v>65</v>
@@ -5947,13 +6260,13 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>1009</v>
+        <v>945</v>
       </c>
       <c r="B121" t="s">
         <v>66</v>
       </c>
       <c r="C121" t="s">
-        <v>1018</v>
+        <v>954</v>
       </c>
       <c r="D121" t="s">
         <v>32</v>
@@ -5961,7 +6274,7 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="47" t="s">
-        <v>991</v>
+        <v>937</v>
       </c>
       <c r="B122" s="47" t="str">
         <f>"1"</f>
@@ -5977,7 +6290,7 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="47" t="s">
-        <v>991</v>
+        <v>937</v>
       </c>
       <c r="B123" s="47" t="str">
         <f>"2"</f>
@@ -5993,7 +6306,7 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="47" t="s">
-        <v>991</v>
+        <v>937</v>
       </c>
       <c r="B124" s="47" t="str">
         <f>"3"</f>
@@ -6009,7 +6322,7 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="47" t="s">
-        <v>991</v>
+        <v>937</v>
       </c>
       <c r="B125" s="47" t="str">
         <f>"4"</f>
@@ -6025,7 +6338,7 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="47" t="s">
-        <v>991</v>
+        <v>937</v>
       </c>
       <c r="B126" s="47" t="str">
         <f>"5"</f>
@@ -6046,7 +6359,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FCD3AC6-97A9-4343-AD51-53B42E3E4B29}">
   <dimension ref="A1:G252"/>
   <sheetViews>
@@ -8675,7 +8988,7 @@
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>868</v>
+        <v>860</v>
       </c>
       <c r="B245" t="s">
         <v>103</v>
@@ -8708,7 +9021,7 @@
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="B249" t="s">
         <v>24</v>
@@ -8719,7 +9032,7 @@
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>867</v>
+        <v>859</v>
       </c>
       <c r="B250" t="s">
         <v>24</v>
@@ -8730,7 +9043,7 @@
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>870</v>
+        <v>861</v>
       </c>
       <c r="B251" t="s">
         <v>24</v>
@@ -8741,7 +9054,7 @@
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>977</v>
+        <v>927</v>
       </c>
       <c r="B252" t="s">
         <v>254</v>
@@ -8819,7 +9132,7 @@
         <v>122</v>
       </c>
       <c r="C2" t="s">
-        <v>979</v>
+        <v>928</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -8834,7 +9147,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>865</v>
+        <v>858</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -8851,8 +9164,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{373816BB-105F-4FD4-99CF-DB87DCC19FA9}">
   <dimension ref="A1:K72"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48:H72"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I61" sqref="I61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8915,10 +9229,10 @@
         <v>173</v>
       </c>
       <c r="G3" t="s">
-        <v>856</v>
+        <v>979</v>
       </c>
       <c r="H3" t="s">
-        <v>857</v>
+        <v>980</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -8926,10 +9240,10 @@
         <v>173</v>
       </c>
       <c r="G4" t="s">
-        <v>862</v>
+        <v>1000</v>
       </c>
       <c r="H4" t="s">
-        <v>931</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -8937,10 +9251,10 @@
         <v>173</v>
       </c>
       <c r="G5" t="s">
-        <v>866</v>
+        <v>981</v>
       </c>
       <c r="H5" t="s">
-        <v>866</v>
+        <v>981</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -8948,10 +9262,10 @@
         <v>173</v>
       </c>
       <c r="G6" t="s">
-        <v>858</v>
+        <v>982</v>
       </c>
       <c r="H6" t="s">
-        <v>858</v>
+        <v>982</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -8959,10 +9273,10 @@
         <v>173</v>
       </c>
       <c r="G7" t="s">
-        <v>859</v>
+        <v>983</v>
       </c>
       <c r="H7" t="s">
-        <v>859</v>
+        <v>983</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -8970,7 +9284,7 @@
         <v>122</v>
       </c>
       <c r="C8" t="s">
-        <v>993</v>
+        <v>939</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -8978,10 +9292,10 @@
         <v>173</v>
       </c>
       <c r="G9" t="s">
-        <v>999</v>
+        <v>986</v>
       </c>
       <c r="H9" t="s">
-        <v>1000</v>
+        <v>991</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -8994,7 +9308,7 @@
         <v>122</v>
       </c>
       <c r="C11" t="s">
-        <v>994</v>
+        <v>940</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -9002,10 +9316,10 @@
         <v>173</v>
       </c>
       <c r="G12" t="s">
-        <v>1034</v>
+        <v>987</v>
       </c>
       <c r="H12" t="s">
-        <v>1036</v>
+        <v>992</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -9018,7 +9332,7 @@
         <v>122</v>
       </c>
       <c r="C14" t="s">
-        <v>995</v>
+        <v>941</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -9026,10 +9340,10 @@
         <v>173</v>
       </c>
       <c r="G15" t="s">
-        <v>1035</v>
+        <v>988</v>
       </c>
       <c r="H15" t="s">
-        <v>1037</v>
+        <v>993</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -9042,7 +9356,7 @@
         <v>122</v>
       </c>
       <c r="C17" t="s">
-        <v>996</v>
+        <v>942</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -9050,10 +9364,10 @@
         <v>173</v>
       </c>
       <c r="G18" t="s">
-        <v>1001</v>
+        <v>989</v>
       </c>
       <c r="H18" t="s">
-        <v>1002</v>
+        <v>994</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -9066,7 +9380,7 @@
         <v>122</v>
       </c>
       <c r="C20" t="s">
-        <v>997</v>
+        <v>943</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -9074,10 +9388,10 @@
         <v>173</v>
       </c>
       <c r="G21" t="s">
-        <v>1003</v>
+        <v>990</v>
       </c>
       <c r="H21" t="s">
-        <v>1004</v>
+        <v>995</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -9090,7 +9404,7 @@
         <v>122</v>
       </c>
       <c r="C23" t="s">
-        <v>998</v>
+        <v>944</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -9098,10 +9412,10 @@
         <v>173</v>
       </c>
       <c r="G24" t="s">
-        <v>1005</v>
+        <v>996</v>
       </c>
       <c r="H24" t="s">
-        <v>1006</v>
+        <v>999</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -9114,7 +9428,7 @@
         <v>122</v>
       </c>
       <c r="C26" t="s">
-        <v>1038</v>
+        <v>970</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -9122,10 +9436,10 @@
         <v>173</v>
       </c>
       <c r="G27" t="s">
-        <v>1007</v>
+        <v>997</v>
       </c>
       <c r="H27" t="s">
-        <v>1008</v>
+        <v>998</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -9138,10 +9452,10 @@
         <v>173</v>
       </c>
       <c r="G29" t="s">
-        <v>863</v>
+        <v>984</v>
       </c>
       <c r="H29" t="s">
-        <v>864</v>
+        <v>985</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -9152,13 +9466,13 @@
         <v>356</v>
       </c>
       <c r="F30" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="G30" t="s">
-        <v>983</v>
+        <v>932</v>
       </c>
       <c r="H30" t="s">
-        <v>982</v>
+        <v>931</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -9172,7 +9486,7 @@
         <v>122</v>
       </c>
       <c r="C32" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
@@ -9205,7 +9519,7 @@
         <v>111</v>
       </c>
       <c r="H35" t="s">
-        <v>932</v>
+        <v>902</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
@@ -9296,10 +9610,10 @@
         <v>173</v>
       </c>
       <c r="G43" t="s">
-        <v>856</v>
+        <v>979</v>
       </c>
       <c r="H43" t="s">
-        <v>857</v>
+        <v>980</v>
       </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.25">
@@ -9307,10 +9621,10 @@
         <v>173</v>
       </c>
       <c r="G44" t="s">
-        <v>862</v>
+        <v>1000</v>
       </c>
       <c r="H44" t="s">
-        <v>931</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.25">
@@ -9318,10 +9632,10 @@
         <v>173</v>
       </c>
       <c r="G45" t="s">
-        <v>866</v>
+        <v>981</v>
       </c>
       <c r="H45" t="s">
-        <v>866</v>
+        <v>981</v>
       </c>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.25">
@@ -9329,10 +9643,10 @@
         <v>173</v>
       </c>
       <c r="G46" t="s">
-        <v>858</v>
+        <v>982</v>
       </c>
       <c r="H46" t="s">
-        <v>858</v>
+        <v>982</v>
       </c>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.25">
@@ -9340,10 +9654,10 @@
         <v>173</v>
       </c>
       <c r="G47" t="s">
-        <v>859</v>
+        <v>983</v>
       </c>
       <c r="H47" t="s">
-        <v>859</v>
+        <v>983</v>
       </c>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.25">
@@ -9351,7 +9665,7 @@
         <v>122</v>
       </c>
       <c r="C48" t="s">
-        <v>993</v>
+        <v>939</v>
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.25">
@@ -9359,10 +9673,10 @@
         <v>173</v>
       </c>
       <c r="G49" t="s">
-        <v>999</v>
+        <v>986</v>
       </c>
       <c r="H49" t="s">
-        <v>1000</v>
+        <v>991</v>
       </c>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.25">
@@ -9375,7 +9689,7 @@
         <v>122</v>
       </c>
       <c r="C51" t="s">
-        <v>994</v>
+        <v>940</v>
       </c>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.25">
@@ -9383,10 +9697,10 @@
         <v>173</v>
       </c>
       <c r="G52" t="s">
-        <v>1034</v>
+        <v>987</v>
       </c>
       <c r="H52" t="s">
-        <v>1036</v>
+        <v>992</v>
       </c>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.25">
@@ -9399,7 +9713,7 @@
         <v>122</v>
       </c>
       <c r="C54" t="s">
-        <v>995</v>
+        <v>941</v>
       </c>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.25">
@@ -9407,10 +9721,10 @@
         <v>173</v>
       </c>
       <c r="G55" t="s">
-        <v>1035</v>
+        <v>988</v>
       </c>
       <c r="H55" t="s">
-        <v>1037</v>
+        <v>993</v>
       </c>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.25">
@@ -9423,7 +9737,7 @@
         <v>122</v>
       </c>
       <c r="C57" t="s">
-        <v>996</v>
+        <v>942</v>
       </c>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.25">
@@ -9431,10 +9745,10 @@
         <v>173</v>
       </c>
       <c r="G58" t="s">
-        <v>1001</v>
+        <v>989</v>
       </c>
       <c r="H58" t="s">
-        <v>1002</v>
+        <v>994</v>
       </c>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.25">
@@ -9447,7 +9761,7 @@
         <v>122</v>
       </c>
       <c r="C60" t="s">
-        <v>997</v>
+        <v>943</v>
       </c>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.25">
@@ -9455,10 +9769,10 @@
         <v>173</v>
       </c>
       <c r="G61" t="s">
-        <v>1003</v>
+        <v>990</v>
       </c>
       <c r="H61" t="s">
-        <v>1004</v>
+        <v>995</v>
       </c>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.25">
@@ -9471,7 +9785,7 @@
         <v>122</v>
       </c>
       <c r="C63" t="s">
-        <v>998</v>
+        <v>944</v>
       </c>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.25">
@@ -9479,10 +9793,10 @@
         <v>173</v>
       </c>
       <c r="G64" t="s">
-        <v>1005</v>
+        <v>996</v>
       </c>
       <c r="H64" t="s">
-        <v>1006</v>
+        <v>999</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
@@ -9495,7 +9809,7 @@
         <v>122</v>
       </c>
       <c r="C66" t="s">
-        <v>1038</v>
+        <v>970</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
@@ -9503,10 +9817,10 @@
         <v>173</v>
       </c>
       <c r="G67" t="s">
-        <v>1007</v>
+        <v>997</v>
       </c>
       <c r="H67" t="s">
-        <v>1008</v>
+        <v>998</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
@@ -9519,10 +9833,10 @@
         <v>173</v>
       </c>
       <c r="G69" t="s">
-        <v>863</v>
+        <v>984</v>
       </c>
       <c r="H69" t="s">
-        <v>864</v>
+        <v>985</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
@@ -9548,11 +9862,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F97EDFF-72E2-4781-A226-FCA8C7C63015}">
-  <dimension ref="A1:R138"/>
+  <dimension ref="A1:Q141"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A120" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A74" sqref="A74"/>
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9566,13 +9880,12 @@
     <col min="7" max="7" width="31.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="30" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="36.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="127.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="52" customWidth="1"/>
+    <col min="11" max="11" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="30.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>140</v>
       </c>
@@ -9600,733 +9913,715 @@
       <c r="I1" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="J1" s="4" t="s">
-        <v>214</v>
+      <c r="J1" s="5" t="s">
+        <v>972</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>1040</v>
+        <v>973</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>1041</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>1042</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D3" t="s">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
         <v>129</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F4" t="s">
+        <v>1092</v>
+      </c>
+      <c r="I4" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>129</v>
+      </c>
+      <c r="F6" t="s">
         <v>202</v>
       </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3">
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D4" t="s">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
         <v>173</v>
       </c>
-      <c r="G4" t="s">
-        <v>985</v>
-      </c>
-      <c r="H4" t="s">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D5" t="s">
+      <c r="G7" t="s">
+        <v>1005</v>
+      </c>
+      <c r="H7" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
         <v>173</v>
       </c>
-      <c r="G5" t="s">
-        <v>987</v>
-      </c>
-      <c r="H5" t="s">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D6" t="s">
+      <c r="G8" t="s">
+        <v>1007</v>
+      </c>
+      <c r="H8" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
         <v>24</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F9" t="s">
         <v>99</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G9" t="s">
         <v>100</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H9" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D7" t="s">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
         <v>24</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F10" t="s">
         <v>101</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G10" t="s">
         <v>183</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H10" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D8" t="s">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F11" t="s">
         <v>184</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G11" t="s">
         <v>182</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H11" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-      <c r="B9" t="s">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="7"/>
+      <c r="B12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" t="s">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D11" t="s">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
         <v>103</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F14" t="s">
         <v>854</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G14" t="s">
         <v>104</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H14" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D12" t="s">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
         <v>24</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F15" t="s">
         <v>106</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G15" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="H15" s="2" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D15" t="s">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
         <v>254</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F18" t="s">
         <v>110</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G18" t="s">
         <v>111</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H18" t="s">
         <v>112</v>
       </c>
-      <c r="K15" t="s">
-        <v>1043</v>
-      </c>
-      <c r="L15" t="s">
-        <v>1044</v>
-      </c>
-      <c r="M15" t="s">
-        <v>1044</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+      <c r="J18" t="s">
+        <v>1119</v>
+      </c>
+      <c r="K18" t="s">
+        <v>975</v>
+      </c>
+      <c r="L18" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
         <v>122</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C19" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D17" t="s">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
         <v>24</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F20" t="s">
         <v>107</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G20" t="s">
         <v>108</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H20" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D21" t="s">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
         <v>103</v>
-      </c>
-      <c r="F21" t="s">
-        <v>114</v>
-      </c>
-      <c r="G21" t="s">
-        <v>115</v>
-      </c>
-      <c r="H21" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D22" t="s">
-        <v>221</v>
-      </c>
-      <c r="E22" t="s">
-        <v>222</v>
-      </c>
-      <c r="F22" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>122</v>
-      </c>
-      <c r="C23" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D24" t="s">
-        <v>129</v>
       </c>
       <c r="F24" t="s">
         <v>114</v>
       </c>
-      <c r="I24" s="18" t="s">
+      <c r="G24" t="s">
+        <v>115</v>
+      </c>
+      <c r="H24" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>221</v>
+      </c>
+      <c r="E25" t="s">
+        <v>222</v>
+      </c>
+      <c r="F25" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>122</v>
+      </c>
+      <c r="C26" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>129</v>
+      </c>
+      <c r="F27" t="s">
+        <v>114</v>
+      </c>
+      <c r="I27" s="18" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D28" t="s">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
         <v>113</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E31" t="s">
         <v>29</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F31" t="s">
         <v>117</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G31" t="s">
         <v>179</v>
       </c>
-      <c r="H28" t="s">
+      <c r="H31" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>122</v>
-      </c>
-      <c r="C29" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D30" t="s">
-        <v>103</v>
-      </c>
-      <c r="F30" t="s">
-        <v>119</v>
-      </c>
-      <c r="G30" t="s">
-        <v>120</v>
-      </c>
-      <c r="H30" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D31" t="s">
-        <v>221</v>
-      </c>
-      <c r="E31" t="s">
-        <v>222</v>
-      </c>
-      <c r="F31" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>122</v>
       </c>
       <c r="C32" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D33" t="s">
-        <v>129</v>
+        <v>103</v>
       </c>
       <c r="F33" t="s">
         <v>119</v>
       </c>
-      <c r="I33" s="18" t="s">
+      <c r="G33" t="s">
+        <v>120</v>
+      </c>
+      <c r="H33" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
+        <v>221</v>
+      </c>
+      <c r="E34" t="s">
+        <v>222</v>
+      </c>
+      <c r="F34" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>122</v>
+      </c>
+      <c r="C35" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D36" t="s">
+        <v>129</v>
+      </c>
+      <c r="F36" t="s">
+        <v>119</v>
+      </c>
+      <c r="I36" s="18" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="36" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="D38" t="s">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D41" t="s">
         <v>96</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E41" t="s">
         <v>187</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F41" t="s">
         <v>121</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G41" t="s">
         <v>246</v>
       </c>
-      <c r="H38" t="s">
+      <c r="H41" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
         <v>122</v>
       </c>
-      <c r="C39" t="s">
-        <v>994</v>
-      </c>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="D40" t="s">
+      <c r="C42" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D43" t="s">
         <v>129</v>
-      </c>
-      <c r="F40" t="s">
-        <v>186</v>
-      </c>
-      <c r="I40" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="D43" t="s">
-        <v>103</v>
       </c>
       <c r="F43" t="s">
         <v>186</v>
       </c>
-      <c r="G43" t="s">
+      <c r="I43" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D46" t="s">
+        <v>103</v>
+      </c>
+      <c r="F46" t="s">
+        <v>186</v>
+      </c>
+      <c r="G46" t="s">
         <v>247</v>
       </c>
-      <c r="H43" t="s">
+      <c r="H46" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="D45" t="s">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D48" t="s">
         <v>96</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E48" t="s">
         <v>49</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F48" t="s">
         <v>49</v>
       </c>
-      <c r="G45" t="s">
+      <c r="G48" t="s">
         <v>133</v>
       </c>
-      <c r="H45" t="s">
+      <c r="H48" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
-        <v>122</v>
-      </c>
-      <c r="C46" t="s">
-        <v>277</v>
-      </c>
-      <c r="R46" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="D47" t="s">
-        <v>96</v>
-      </c>
-      <c r="E47" t="s">
-        <v>67</v>
-      </c>
-      <c r="F47" t="s">
-        <v>67</v>
-      </c>
-      <c r="G47" t="s">
-        <v>124</v>
-      </c>
-      <c r="H47" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q47" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="49" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>122</v>
       </c>
       <c r="C49" t="s">
         <v>277</v>
       </c>
-      <c r="R49" t="s">
+      <c r="Q49" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="50" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D50" t="s">
+        <v>96</v>
+      </c>
+      <c r="E50" t="s">
+        <v>67</v>
+      </c>
+      <c r="F50" t="s">
+        <v>67</v>
+      </c>
+      <c r="G50" t="s">
+        <v>124</v>
+      </c>
+      <c r="H50" t="s">
+        <v>125</v>
+      </c>
+      <c r="P50" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="51" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="52" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>122</v>
+      </c>
+      <c r="C52" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q52" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="50" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="D50" t="s">
+    <row r="53" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D53" t="s">
         <v>129</v>
       </c>
-      <c r="F50" t="s">
+      <c r="F53" t="s">
         <v>132</v>
       </c>
-      <c r="I50" t="s">
+      <c r="I53" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="51" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
+    <row r="54" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
         <v>130</v>
       </c>
-      <c r="R51" t="s">
+      <c r="Q54" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="52" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="D52" t="s">
+    <row r="55" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D55" t="s">
         <v>129</v>
       </c>
-      <c r="F52" t="s">
+      <c r="F55" t="s">
         <v>132</v>
       </c>
-      <c r="I52" t="s">
+      <c r="I55" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="53" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
+    <row r="56" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="54" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
+    <row r="57" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="55" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B55" t="s">
+    <row r="58" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="56" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="D56" t="s">
+    <row r="59" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D59" t="s">
         <v>113</v>
       </c>
-      <c r="E56" t="s">
+      <c r="E59" t="s">
         <v>29</v>
       </c>
-      <c r="F56" t="s">
+      <c r="F59" t="s">
         <v>849</v>
       </c>
-      <c r="G56" s="2" t="s">
+      <c r="G59" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="H56" s="2" t="s">
+      <c r="H59" s="2" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="57" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B57" t="s">
-        <v>122</v>
-      </c>
-      <c r="C57" t="s">
-        <v>980</v>
-      </c>
-      <c r="G57" s="2"/>
-      <c r="H57" s="2"/>
-    </row>
-    <row r="58" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="D58" t="s">
-        <v>24</v>
-      </c>
-      <c r="F58" t="s">
-        <v>850</v>
-      </c>
-      <c r="G58" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="H58" s="2" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="59" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="D59" t="s">
-        <v>221</v>
-      </c>
-      <c r="E59" t="s">
-        <v>222</v>
-      </c>
-      <c r="F59" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="60" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>122</v>
       </c>
       <c r="C60" t="s">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="61" spans="2:18" x14ac:dyDescent="0.25">
+        <v>929</v>
+      </c>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+    </row>
+    <row r="61" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D61" t="s">
-        <v>129</v>
+        <v>24</v>
       </c>
       <c r="F61" t="s">
         <v>850</v>
       </c>
-      <c r="I61" s="18">
+      <c r="G61" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="62" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D62" t="s">
+        <v>221</v>
+      </c>
+      <c r="E62" t="s">
+        <v>222</v>
+      </c>
+      <c r="F62" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="63" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>122</v>
+      </c>
+      <c r="C63" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="64" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D64" t="s">
+        <v>129</v>
+      </c>
+      <c r="F64" t="s">
+        <v>850</v>
+      </c>
+      <c r="I64" s="18">
         <v>99</v>
       </c>
     </row>
-    <row r="62" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B62" t="s">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="63" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B63" t="s">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="64" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B64" t="s">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B65" t="s">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D66" t="s">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D69" t="s">
         <v>254</v>
       </c>
-      <c r="F66" t="s">
+      <c r="F69" t="s">
         <v>136</v>
       </c>
-      <c r="G66" s="6" t="s">
+      <c r="G69" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="H66" t="s">
+      <c r="H69" t="s">
         <v>137</v>
       </c>
-      <c r="K66" t="s">
-        <v>1045</v>
-      </c>
-      <c r="L66" t="s">
-        <v>1046</v>
-      </c>
-      <c r="M66" t="s">
-        <v>1046</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D67" t="s">
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D70" t="s">
         <v>103</v>
       </c>
-      <c r="F67" t="s">
+      <c r="F70" t="s">
         <v>253</v>
       </c>
-      <c r="G67" t="s">
+      <c r="G70" t="s">
         <v>139</v>
       </c>
-      <c r="H67" t="s">
+      <c r="H70" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A68" s="8"/>
-      <c r="B68" t="s">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" s="8"/>
+      <c r="B71" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A69" s="9"/>
-      <c r="B69" t="s">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" s="9"/>
+      <c r="B72" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D70" t="s">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D73" t="s">
         <v>173</v>
       </c>
-      <c r="G70" t="s">
+      <c r="G73" t="s">
         <v>175</v>
       </c>
-      <c r="H70" t="s">
+      <c r="H73" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D71" t="s">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D74" t="s">
         <v>113</v>
       </c>
-      <c r="E71" t="s">
+      <c r="E74" t="s">
         <v>33</v>
       </c>
-      <c r="F71" t="s">
+      <c r="F74" t="s">
         <v>33</v>
       </c>
-      <c r="G71" t="s">
+      <c r="G74" t="s">
         <v>172</v>
       </c>
-      <c r="H71" t="s">
+      <c r="H74" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B72" t="s">
-        <v>122</v>
-      </c>
-      <c r="C72" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D73" t="s">
-        <v>113</v>
-      </c>
-      <c r="E73" t="s">
-        <v>36</v>
-      </c>
-      <c r="F73" t="s">
-        <v>36</v>
-      </c>
-      <c r="G73" t="s">
-        <v>176</v>
-      </c>
-      <c r="H73" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B74" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
         <v>122</v>
       </c>
@@ -10334,569 +10629,599 @@
         <v>278</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D76" t="s">
+        <v>113</v>
+      </c>
+      <c r="E76" t="s">
+        <v>36</v>
+      </c>
+      <c r="F76" t="s">
+        <v>36</v>
+      </c>
+      <c r="G76" t="s">
+        <v>176</v>
+      </c>
+      <c r="H76" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>122</v>
+      </c>
+      <c r="C78" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D79" t="s">
         <v>129</v>
       </c>
-      <c r="F76" t="s">
+      <c r="F79" t="s">
         <v>170</v>
       </c>
-      <c r="I76" t="s">
+      <c r="I79" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B77" t="s">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D78" t="s">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D81" t="s">
         <v>129</v>
       </c>
-      <c r="F78" t="s">
+      <c r="F81" t="s">
         <v>170</v>
       </c>
-      <c r="I78" t="s">
+      <c r="I81" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B79" t="s">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B80" t="s">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B81" t="s">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D82" t="s">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D85" t="s">
         <v>173</v>
       </c>
-      <c r="G82" t="s">
+      <c r="G85" t="s">
         <v>175</v>
       </c>
-      <c r="H82" t="s">
+      <c r="H85" t="s">
         <v>174</v>
-      </c>
-    </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D83" t="s">
-        <v>24</v>
-      </c>
-      <c r="F83" t="s">
-        <v>141</v>
-      </c>
-      <c r="G83" t="s">
-        <v>142</v>
-      </c>
-      <c r="H83" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D84" t="s">
-        <v>221</v>
-      </c>
-      <c r="E84" t="s">
-        <v>222</v>
-      </c>
-      <c r="F84" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B85" t="s">
-        <v>122</v>
-      </c>
-      <c r="C85" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="86" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D86" t="s">
-        <v>129</v>
+        <v>24</v>
       </c>
       <c r="F86" t="s">
         <v>141</v>
       </c>
-      <c r="I86" s="18">
-        <v>99</v>
+      <c r="G86" t="s">
+        <v>142</v>
+      </c>
+      <c r="H86" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="87" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B87" t="s">
-        <v>127</v>
+      <c r="D87" t="s">
+        <v>221</v>
+      </c>
+      <c r="E87" t="s">
+        <v>222</v>
+      </c>
+      <c r="F87" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="88" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D88" t="s">
-        <v>24</v>
-      </c>
-      <c r="F88" t="s">
-        <v>144</v>
-      </c>
-      <c r="G88" t="s">
-        <v>145</v>
-      </c>
-      <c r="H88" t="s">
-        <v>146</v>
+      <c r="B88" t="s">
+        <v>122</v>
+      </c>
+      <c r="C88" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="89" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D89" t="s">
-        <v>221</v>
-      </c>
-      <c r="E89" t="s">
-        <v>222</v>
+        <v>129</v>
       </c>
       <c r="F89" t="s">
-        <v>265</v>
+        <v>141</v>
+      </c>
+      <c r="I89" s="18">
+        <v>99</v>
       </c>
     </row>
     <row r="90" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
-        <v>122</v>
-      </c>
-      <c r="C90" t="s">
-        <v>266</v>
+        <v>127</v>
       </c>
     </row>
     <row r="91" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D91" t="s">
-        <v>129</v>
+        <v>24</v>
       </c>
       <c r="F91" t="s">
         <v>144</v>
       </c>
-      <c r="I91" s="18">
-        <v>99</v>
+      <c r="G91" t="s">
+        <v>145</v>
+      </c>
+      <c r="H91" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="92" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B92" t="s">
-        <v>127</v>
+      <c r="D92" t="s">
+        <v>221</v>
+      </c>
+      <c r="E92" t="s">
+        <v>222</v>
+      </c>
+      <c r="F92" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="93" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D93" t="s">
-        <v>24</v>
-      </c>
-      <c r="F93" t="s">
-        <v>147</v>
-      </c>
-      <c r="G93" t="s">
-        <v>148</v>
-      </c>
-      <c r="H93" t="s">
-        <v>149</v>
+      <c r="B93" t="s">
+        <v>122</v>
+      </c>
+      <c r="C93" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="94" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D94" t="s">
-        <v>221</v>
-      </c>
-      <c r="E94" t="s">
-        <v>222</v>
+        <v>129</v>
       </c>
       <c r="F94" t="s">
-        <v>263</v>
+        <v>144</v>
+      </c>
+      <c r="I94" s="18">
+        <v>99</v>
       </c>
     </row>
     <row r="95" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
-        <v>122</v>
-      </c>
-      <c r="C95" t="s">
-        <v>264</v>
+        <v>127</v>
       </c>
     </row>
     <row r="96" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D96" t="s">
-        <v>129</v>
+        <v>24</v>
       </c>
       <c r="F96" t="s">
         <v>147</v>
       </c>
-      <c r="I96" s="18">
-        <v>99</v>
+      <c r="G96" t="s">
+        <v>148</v>
+      </c>
+      <c r="H96" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="97" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B97" t="s">
-        <v>127</v>
+      <c r="D97" t="s">
+        <v>221</v>
+      </c>
+      <c r="E97" t="s">
+        <v>222</v>
+      </c>
+      <c r="F97" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="98" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
+        <v>122</v>
+      </c>
+      <c r="C98" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D99" t="s">
+        <v>129</v>
+      </c>
+      <c r="F99" t="s">
+        <v>147</v>
+      </c>
+      <c r="I99" s="18">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B100" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B101" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B99" t="s">
+    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B102" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D100" t="s">
+    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D103" t="s">
         <v>173</v>
       </c>
-      <c r="G100" t="s">
+      <c r="G103" t="s">
         <v>175</v>
       </c>
-      <c r="H100" t="s">
+      <c r="H103" t="s">
         <v>174</v>
-      </c>
-    </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D101" t="s">
-        <v>24</v>
-      </c>
-      <c r="F101" t="s">
-        <v>150</v>
-      </c>
-      <c r="G101" t="s">
-        <v>154</v>
-      </c>
-      <c r="H101" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D102" t="s">
-        <v>221</v>
-      </c>
-      <c r="E102" t="s">
-        <v>222</v>
-      </c>
-      <c r="F102" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B103" t="s">
-        <v>122</v>
-      </c>
-      <c r="C103" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="104" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D104" t="s">
-        <v>129</v>
+        <v>24</v>
       </c>
       <c r="F104" t="s">
         <v>150</v>
       </c>
-      <c r="I104" s="18">
-        <v>99</v>
+      <c r="G104" t="s">
+        <v>154</v>
+      </c>
+      <c r="H104" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="105" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B105" t="s">
-        <v>127</v>
+      <c r="D105" t="s">
+        <v>221</v>
+      </c>
+      <c r="E105" t="s">
+        <v>222</v>
+      </c>
+      <c r="F105" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="106" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D106" t="s">
-        <v>24</v>
-      </c>
-      <c r="F106" t="s">
-        <v>152</v>
-      </c>
-      <c r="G106" t="s">
-        <v>155</v>
-      </c>
-      <c r="H106" t="s">
-        <v>153</v>
+      <c r="B106" t="s">
+        <v>122</v>
+      </c>
+      <c r="C106" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="107" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D107" t="s">
-        <v>221</v>
-      </c>
-      <c r="E107" t="s">
-        <v>222</v>
+        <v>129</v>
       </c>
       <c r="F107" t="s">
-        <v>271</v>
+        <v>150</v>
+      </c>
+      <c r="I107" s="18">
+        <v>99</v>
       </c>
     </row>
     <row r="108" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
-        <v>122</v>
-      </c>
-      <c r="C108" t="s">
-        <v>272</v>
+        <v>127</v>
       </c>
     </row>
     <row r="109" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D109" t="s">
-        <v>129</v>
+        <v>24</v>
       </c>
       <c r="F109" t="s">
         <v>152</v>
       </c>
-      <c r="I109" s="18">
-        <v>99</v>
+      <c r="G109" t="s">
+        <v>155</v>
+      </c>
+      <c r="H109" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="110" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B110" t="s">
-        <v>127</v>
+      <c r="D110" t="s">
+        <v>221</v>
+      </c>
+      <c r="E110" t="s">
+        <v>222</v>
+      </c>
+      <c r="F110" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="111" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
+        <v>122</v>
+      </c>
+      <c r="C111" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D112" t="s">
+        <v>129</v>
+      </c>
+      <c r="F112" t="s">
+        <v>152</v>
+      </c>
+      <c r="I112" s="18">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="113" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B113" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="114" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B114" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B112" t="s">
+    <row r="115" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B115" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D113" t="s">
+    <row r="116" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D116" t="s">
         <v>173</v>
       </c>
-      <c r="G113" t="s">
+      <c r="G116" t="s">
         <v>175</v>
       </c>
-      <c r="H113" t="s">
+      <c r="H116" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D114" t="s">
+    <row r="117" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D117" t="s">
         <v>113</v>
       </c>
-      <c r="E114" t="s">
+      <c r="E117" t="s">
         <v>29</v>
       </c>
-      <c r="F114" t="s">
+      <c r="F117" t="s">
         <v>156</v>
       </c>
-      <c r="G114" t="s">
+      <c r="G117" t="s">
         <v>157</v>
       </c>
-      <c r="H114" t="s">
+      <c r="H117" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B115" t="s">
+    <row r="118" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B118" t="s">
         <v>122</v>
       </c>
-      <c r="C115" t="s">
+      <c r="C118" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D116" t="s">
+    <row r="119" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D119" t="s">
         <v>103</v>
       </c>
-      <c r="F116" t="s">
+      <c r="F119" t="s">
         <v>159</v>
       </c>
-      <c r="G116" t="s">
+      <c r="G119" t="s">
         <v>160</v>
       </c>
-      <c r="H116" t="s">
+      <c r="H119" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B117" t="s">
+    <row r="120" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B120" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B118" t="s">
+    <row r="121" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B121" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B119" t="s">
+    <row r="122" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B122" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D120" t="s">
+    <row r="123" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D123" t="s">
         <v>173</v>
       </c>
-      <c r="G120" t="s">
+      <c r="G123" t="s">
         <v>175</v>
       </c>
-      <c r="H120" t="s">
+      <c r="H123" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D121" t="s">
+    <row r="124" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D124" t="s">
         <v>113</v>
       </c>
-      <c r="E121" t="s">
+      <c r="E124" t="s">
         <v>29</v>
       </c>
-      <c r="F121" t="s">
+      <c r="F124" t="s">
         <v>162</v>
       </c>
-      <c r="G121" t="s">
+      <c r="G124" t="s">
         <v>163</v>
       </c>
-      <c r="H121" t="s">
+      <c r="H124" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B122" t="s">
-        <v>122</v>
-      </c>
-      <c r="C122" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D123" t="s">
-        <v>24</v>
-      </c>
-      <c r="F123" t="s">
-        <v>164</v>
-      </c>
-      <c r="G123" t="s">
-        <v>165</v>
-      </c>
-      <c r="H123" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D124" t="s">
-        <v>221</v>
-      </c>
-      <c r="E124" t="s">
-        <v>222</v>
-      </c>
-      <c r="F124" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
         <v>122</v>
       </c>
       <c r="C125" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="126" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D126" t="s">
-        <v>129</v>
+        <v>24</v>
       </c>
       <c r="F126" t="s">
         <v>164</v>
       </c>
-      <c r="I126" s="18">
+      <c r="G126" t="s">
+        <v>165</v>
+      </c>
+      <c r="H126" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="127" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D127" t="s">
+        <v>221</v>
+      </c>
+      <c r="E127" t="s">
+        <v>222</v>
+      </c>
+      <c r="F127" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="128" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B128" t="s">
+        <v>122</v>
+      </c>
+      <c r="C128" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D129" t="s">
+        <v>129</v>
+      </c>
+      <c r="F129" t="s">
+        <v>164</v>
+      </c>
+      <c r="I129" s="18">
         <v>99</v>
-      </c>
-    </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B127" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B128" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B129" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B131" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B132" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B133" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D131" t="s">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D134" t="s">
         <v>173</v>
       </c>
-      <c r="G131" t="s">
+      <c r="G134" t="s">
         <v>175</v>
       </c>
-      <c r="H131" t="s">
+      <c r="H134" t="s">
         <v>174</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D132" t="s">
-        <v>24</v>
-      </c>
-      <c r="F132" t="s">
-        <v>167</v>
-      </c>
-      <c r="G132" t="s">
-        <v>169</v>
-      </c>
-      <c r="H132" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D133" t="s">
-        <v>221</v>
-      </c>
-      <c r="E133" t="s">
-        <v>248</v>
-      </c>
-      <c r="F133" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B134" t="s">
-        <v>122</v>
-      </c>
-      <c r="C134" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D135" t="s">
-        <v>129</v>
+        <v>24</v>
       </c>
       <c r="F135" t="s">
         <v>167</v>
       </c>
-      <c r="I135" s="18" t="s">
+      <c r="G135" t="s">
+        <v>169</v>
+      </c>
+      <c r="H135" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D136" t="s">
+        <v>221</v>
+      </c>
+      <c r="E136" t="s">
+        <v>248</v>
+      </c>
+      <c r="F136" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B137" t="s">
+        <v>122</v>
+      </c>
+      <c r="C137" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D138" t="s">
+        <v>129</v>
+      </c>
+      <c r="F138" t="s">
+        <v>167</v>
+      </c>
+      <c r="I138" s="18" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B136" t="s">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B139" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A137" s="9"/>
-      <c r="B137" t="s">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A140" s="9"/>
+      <c r="B140" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B138" t="s">
-        <v>865</v>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B141" t="s">
+        <v>858</v>
       </c>
     </row>
   </sheetData>
@@ -10906,11 +11231,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{568D4494-839B-4F7A-8E9C-72B7EC0E8A88}">
-  <dimension ref="A1:O118"/>
+  <dimension ref="A1:N121"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M71" sqref="M71:O71"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10924,15 +11249,15 @@
     <col min="7" max="7" width="31.7109375" style="29" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="36.28515625" style="29" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.28515625" style="29" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="31.85546875" style="29" customWidth="1"/>
-    <col min="11" max="11" width="29.7109375" style="29" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="53.140625" style="29" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="79.5703125" style="29" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="41.42578125" style="29" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="29"/>
+    <col min="10" max="10" width="23.5703125" style="29" customWidth="1"/>
+    <col min="11" max="11" width="38.85546875" style="29" customWidth="1"/>
+    <col min="12" max="12" width="41.42578125" style="29" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="31.85546875" style="29" customWidth="1"/>
+    <col min="14" max="14" width="29.7109375" style="29" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>140</v>
       </c>
@@ -10960,950 +11285,944 @@
       <c r="I1" s="26" t="s">
         <v>135</v>
       </c>
-      <c r="J1" s="27" t="s">
+      <c r="J1" s="4" t="s">
+        <v>972</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>973</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>974</v>
+      </c>
+      <c r="M1" s="27" t="s">
         <v>280</v>
       </c>
-      <c r="K1" s="28" t="s">
+      <c r="N1" s="28" t="s">
         <v>281</v>
       </c>
-      <c r="L1" s="26" t="s">
-        <v>226</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>1040</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>1041</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>1042</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="30"/>
       <c r="B2" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="M2"/>
-      <c r="N2"/>
-      <c r="O2"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B3" s="29" t="s">
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2"/>
+    </row>
+    <row r="3" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>173</v>
+      </c>
+      <c r="G3" t="s">
+        <v>1122</v>
+      </c>
+      <c r="H3" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B4" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="C3" s="29" t="s">
-        <v>984</v>
-      </c>
-      <c r="M3"/>
-      <c r="N3"/>
-      <c r="O3"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D4" s="29" t="s">
+      <c r="C4" s="29" t="s">
+        <v>933</v>
+      </c>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D5" s="29" t="s">
         <v>173</v>
       </c>
-      <c r="G4" s="29" t="s">
-        <v>978</v>
-      </c>
-      <c r="H4" s="29" t="s">
-        <v>978</v>
-      </c>
-      <c r="M4"/>
-      <c r="N4"/>
-      <c r="O4"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B5" s="47" t="s">
-        <v>127</v>
-      </c>
-      <c r="M5"/>
-      <c r="N5"/>
-      <c r="O5"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="47"/>
-      <c r="B6" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="C6" s="29" t="s">
-        <v>871</v>
-      </c>
-      <c r="M6"/>
-      <c r="N6"/>
-      <c r="O6"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="47"/>
+      <c r="G5" s="29" t="s">
+        <v>1008</v>
+      </c>
+      <c r="H5" s="29" t="s">
+        <v>1008</v>
+      </c>
+      <c r="J5"/>
+      <c r="K5"/>
+      <c r="L5"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B6" s="47" t="s">
+        <v>130</v>
+      </c>
+      <c r="J6"/>
+      <c r="K6"/>
+      <c r="L6"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D7" s="29" t="s">
         <v>173</v>
       </c>
       <c r="G7" s="29" t="s">
-        <v>877</v>
+        <v>1121</v>
       </c>
       <c r="H7" s="29" t="s">
-        <v>883</v>
-      </c>
-      <c r="M7"/>
-      <c r="N7"/>
-      <c r="O7"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="47"/>
-      <c r="B8" s="29" t="s">
+        <v>1121</v>
+      </c>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B8" s="47" t="s">
         <v>127</v>
       </c>
-      <c r="M8"/>
-      <c r="N8"/>
-      <c r="O8"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J8"/>
+      <c r="K8"/>
+      <c r="L8"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="47"/>
       <c r="B9" s="29" t="s">
         <v>122</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>872</v>
-      </c>
-      <c r="M9"/>
-      <c r="N9"/>
-      <c r="O9"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+        <v>862</v>
+      </c>
+      <c r="J9"/>
+      <c r="K9"/>
+      <c r="L9"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="47"/>
       <c r="D10" s="29" t="s">
         <v>173</v>
       </c>
       <c r="G10" s="29" t="s">
-        <v>878</v>
+        <v>868</v>
       </c>
       <c r="H10" s="29" t="s">
-        <v>884</v>
-      </c>
-      <c r="M10"/>
-      <c r="N10"/>
-      <c r="O10"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+        <v>874</v>
+      </c>
+      <c r="J10"/>
+      <c r="K10"/>
+      <c r="L10"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="47"/>
       <c r="B11" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="M11"/>
-      <c r="N11"/>
-      <c r="O11"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J11"/>
+      <c r="K11"/>
+      <c r="L11"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="47"/>
       <c r="B12" s="29" t="s">
         <v>122</v>
       </c>
       <c r="C12" s="29" t="s">
-        <v>873</v>
-      </c>
-      <c r="M12"/>
-      <c r="N12"/>
-      <c r="O12"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+        <v>863</v>
+      </c>
+      <c r="J12"/>
+      <c r="K12"/>
+      <c r="L12"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="47"/>
       <c r="D13" s="29" t="s">
         <v>173</v>
       </c>
       <c r="G13" s="29" t="s">
-        <v>879</v>
+        <v>869</v>
       </c>
       <c r="H13" s="29" t="s">
-        <v>885</v>
-      </c>
-      <c r="M13"/>
-      <c r="N13"/>
-      <c r="O13"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+        <v>875</v>
+      </c>
+      <c r="J13"/>
+      <c r="K13"/>
+      <c r="L13"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="47"/>
       <c r="B14" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="M14"/>
-      <c r="N14"/>
-      <c r="O14"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J14"/>
+      <c r="K14"/>
+      <c r="L14"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="47"/>
       <c r="B15" s="29" t="s">
         <v>122</v>
       </c>
       <c r="C15" s="29" t="s">
-        <v>874</v>
-      </c>
-      <c r="M15"/>
-      <c r="N15"/>
-      <c r="O15"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+        <v>864</v>
+      </c>
+      <c r="J15"/>
+      <c r="K15"/>
+      <c r="L15"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="47"/>
       <c r="D16" s="29" t="s">
         <v>173</v>
       </c>
       <c r="G16" s="29" t="s">
-        <v>880</v>
+        <v>870</v>
       </c>
       <c r="H16" s="29" t="s">
-        <v>886</v>
-      </c>
-      <c r="M16"/>
-      <c r="N16"/>
-      <c r="O16"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+        <v>876</v>
+      </c>
+      <c r="J16"/>
+      <c r="K16"/>
+      <c r="L16"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="47"/>
       <c r="B17" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="M17"/>
-      <c r="N17"/>
-      <c r="O17"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J17"/>
+      <c r="K17"/>
+      <c r="L17"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="47"/>
       <c r="B18" s="29" t="s">
         <v>122</v>
       </c>
       <c r="C18" s="29" t="s">
-        <v>875</v>
-      </c>
-      <c r="M18"/>
-      <c r="N18"/>
-      <c r="O18"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+        <v>865</v>
+      </c>
+      <c r="J18"/>
+      <c r="K18"/>
+      <c r="L18"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="47"/>
       <c r="D19" s="29" t="s">
         <v>173</v>
       </c>
       <c r="G19" s="29" t="s">
-        <v>881</v>
+        <v>871</v>
       </c>
       <c r="H19" s="29" t="s">
-        <v>887</v>
-      </c>
-      <c r="M19"/>
-      <c r="N19"/>
-      <c r="O19"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+        <v>877</v>
+      </c>
+      <c r="J19"/>
+      <c r="K19"/>
+      <c r="L19"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="47"/>
       <c r="B20" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="M20"/>
-      <c r="N20"/>
-      <c r="O20"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J20"/>
+      <c r="K20"/>
+      <c r="L20"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="47"/>
       <c r="B21" s="29" t="s">
         <v>122</v>
       </c>
       <c r="C21" s="29" t="s">
-        <v>876</v>
-      </c>
-      <c r="M21"/>
-      <c r="N21"/>
-      <c r="O21"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+        <v>866</v>
+      </c>
+      <c r="J21"/>
+      <c r="K21"/>
+      <c r="L21"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="47"/>
       <c r="D22" s="29" t="s">
         <v>173</v>
       </c>
       <c r="G22" s="29" t="s">
-        <v>882</v>
+        <v>872</v>
       </c>
       <c r="H22" s="29" t="s">
-        <v>888</v>
-      </c>
-      <c r="M22"/>
-      <c r="N22"/>
-      <c r="O22"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+        <v>878</v>
+      </c>
+      <c r="J22"/>
+      <c r="K22"/>
+      <c r="L22"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="47"/>
       <c r="B23" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="M23"/>
-      <c r="N23"/>
-      <c r="O23"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D24" s="29" t="s">
+      <c r="J23"/>
+      <c r="K23"/>
+      <c r="L23"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="47"/>
+      <c r="B24" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="C24" s="29" t="s">
+        <v>867</v>
+      </c>
+      <c r="J24"/>
+      <c r="K24"/>
+      <c r="L24"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D25" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="G25" s="29" t="s">
+        <v>873</v>
+      </c>
+      <c r="H25" s="29" t="s">
+        <v>879</v>
+      </c>
+      <c r="J25"/>
+      <c r="K25"/>
+      <c r="L25"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B26" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="J26"/>
+      <c r="K26"/>
+      <c r="L26"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D27" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="E24" s="29" t="s">
+      <c r="E27" s="29" t="s">
         <v>284</v>
       </c>
-      <c r="F24" s="29" t="s">
+      <c r="F27" s="29" t="s">
         <v>201</v>
       </c>
-      <c r="G24" s="29" t="s">
+      <c r="G27" s="29" t="s">
         <v>285</v>
       </c>
-      <c r="H24" s="29" t="s">
+      <c r="H27" s="29" t="s">
         <v>286</v>
       </c>
-      <c r="M24"/>
-      <c r="N24"/>
-      <c r="O24"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B25" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="C25" s="29" t="s">
-        <v>287</v>
-      </c>
-      <c r="M25"/>
-      <c r="N25"/>
-      <c r="O25"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D26" s="29" t="s">
-        <v>254</v>
-      </c>
-      <c r="F26" s="29" t="s">
-        <v>203</v>
-      </c>
-      <c r="G26" s="29" t="s">
-        <v>288</v>
-      </c>
-      <c r="H26" s="29" t="s">
-        <v>289</v>
-      </c>
-      <c r="M26"/>
-      <c r="N26"/>
-      <c r="O26"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D27" s="47" t="s">
-        <v>129</v>
-      </c>
-      <c r="F27" s="29" t="s">
-        <v>202</v>
-      </c>
-      <c r="I27" s="29" t="s">
-        <v>992</v>
-      </c>
-      <c r="M27"/>
-      <c r="N27"/>
-      <c r="O27"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J27"/>
+      <c r="K27"/>
+      <c r="L27"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B28" s="29" t="s">
         <v>122</v>
       </c>
       <c r="C28" s="29" t="s">
+        <v>287</v>
+      </c>
+      <c r="J28"/>
+      <c r="K28"/>
+      <c r="L28"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D29" s="29" t="s">
+        <v>254</v>
+      </c>
+      <c r="F29" s="29" t="s">
+        <v>203</v>
+      </c>
+      <c r="G29" s="29" t="s">
+        <v>288</v>
+      </c>
+      <c r="H29" s="29" t="s">
+        <v>289</v>
+      </c>
+      <c r="J29" t="s">
+        <v>1120</v>
+      </c>
+      <c r="K29" t="s">
+        <v>1125</v>
+      </c>
+      <c r="L29" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D30" s="47" t="s">
+        <v>129</v>
+      </c>
+      <c r="F30" s="29" t="s">
+        <v>202</v>
+      </c>
+      <c r="I30" s="29" t="s">
+        <v>938</v>
+      </c>
+      <c r="J30"/>
+      <c r="K30"/>
+      <c r="L30"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B31" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="C31" s="29" t="s">
         <v>290</v>
       </c>
-      <c r="M28"/>
-      <c r="N28"/>
-      <c r="O28"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D29" s="29" t="s">
+      <c r="J31"/>
+      <c r="K31"/>
+      <c r="L31"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D32" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="F29" s="29" t="s">
+      <c r="F32" s="29" t="s">
         <v>291</v>
       </c>
-      <c r="G29" s="29" t="s">
+      <c r="G32" s="29" t="s">
         <v>292</v>
       </c>
-      <c r="H29" s="29" t="s">
+      <c r="H32" s="29" t="s">
         <v>293</v>
       </c>
-      <c r="M29"/>
-      <c r="N29"/>
-      <c r="O29"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B30" s="29" t="s">
+      <c r="J32"/>
+      <c r="K32"/>
+      <c r="L32"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B33" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="M30"/>
-      <c r="N30"/>
-      <c r="O30"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B31" s="29" t="s">
+      <c r="J33"/>
+      <c r="K33"/>
+      <c r="L33"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B34" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="M31"/>
-      <c r="N31"/>
-      <c r="O31"/>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B32" s="47" t="s">
+      <c r="J34"/>
+      <c r="K34"/>
+      <c r="L34"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B35" s="47" t="s">
         <v>122</v>
       </c>
-      <c r="C32" s="29" t="s">
-        <v>889</v>
-      </c>
-      <c r="M32"/>
-      <c r="N32"/>
-      <c r="O32"/>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D33" s="29" t="s">
+      <c r="C35" s="29" t="s">
+        <v>880</v>
+      </c>
+      <c r="J35"/>
+      <c r="K35"/>
+      <c r="L35"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D36" s="29" t="s">
         <v>129</v>
       </c>
-      <c r="F33" s="29" t="s">
+      <c r="F36" s="29" t="s">
         <v>202</v>
       </c>
-      <c r="I33" s="29">
+      <c r="I36" s="29">
         <v>1</v>
       </c>
-      <c r="M33"/>
-      <c r="N33"/>
-      <c r="O33"/>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B34" s="47" t="s">
+      <c r="J36"/>
+      <c r="K36"/>
+      <c r="L36"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B37" s="47" t="s">
         <v>127</v>
       </c>
-      <c r="M34"/>
-      <c r="N34"/>
-      <c r="O34"/>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" s="30"/>
-      <c r="B35" s="29" t="s">
+      <c r="J37"/>
+      <c r="K37"/>
+      <c r="L37"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="30"/>
+      <c r="B38" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="M35"/>
-      <c r="N35"/>
-      <c r="O35"/>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36" s="31"/>
-      <c r="B36" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="C36" s="29" t="s">
-        <v>294</v>
-      </c>
-      <c r="M36"/>
-      <c r="N36"/>
-      <c r="O36"/>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B37" s="29" t="s">
-        <v>834</v>
-      </c>
-      <c r="M37"/>
-      <c r="N37"/>
-      <c r="O37"/>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A38" s="31"/>
-      <c r="B38" s="29" t="s">
-        <v>127</v>
-      </c>
-      <c r="M38"/>
-      <c r="N38"/>
-      <c r="O38"/>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A39" s="40"/>
+      <c r="J38"/>
+      <c r="K38"/>
+      <c r="L38"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="31"/>
       <c r="B39" s="29" t="s">
         <v>122</v>
       </c>
       <c r="C39" s="29" t="s">
-        <v>889</v>
-      </c>
-      <c r="M39"/>
-      <c r="N39"/>
-      <c r="O39"/>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A40" s="33"/>
+        <v>294</v>
+      </c>
+      <c r="J39"/>
+      <c r="K39"/>
+      <c r="L39"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B40" s="29" t="s">
+        <v>834</v>
+      </c>
+      <c r="J40"/>
+      <c r="K40"/>
+      <c r="L40"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="31"/>
+      <c r="B41" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="J41"/>
+      <c r="K41"/>
+      <c r="L41"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="40"/>
+      <c r="B42" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="C40" s="29" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B41" s="29" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D42" s="29" t="s">
-        <v>113</v>
-      </c>
-      <c r="E42" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="F42" s="29" t="s">
-        <v>205</v>
-      </c>
-      <c r="G42" s="34" t="s">
-        <v>297</v>
-      </c>
-      <c r="H42" s="29" t="s">
-        <v>933</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C42" s="29" t="s">
+        <v>880</v>
+      </c>
+      <c r="J42"/>
+      <c r="K42"/>
+      <c r="L42"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="33"/>
       <c r="B43" s="29" t="s">
         <v>122</v>
       </c>
       <c r="C43" s="29" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B44" s="29" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D45" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="E45" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="F45" s="29" t="s">
+        <v>205</v>
+      </c>
+      <c r="G45" s="34" t="s">
+        <v>297</v>
+      </c>
+      <c r="H45" s="29" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B46" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="C46" s="29" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D44" s="29" t="s">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D47" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="E44" s="29" t="s">
+      <c r="E47" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="F44" s="29" t="s">
+      <c r="F47" s="29" t="s">
         <v>200</v>
       </c>
-      <c r="G44" s="34" t="s">
+      <c r="G47" s="34" t="s">
         <v>299</v>
       </c>
-      <c r="H44" s="29" t="s">
+      <c r="H47" s="29" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B45" s="29" t="s">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B48" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="C45" s="29" t="s">
+      <c r="C48" s="29" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D46" s="29" t="s">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D49" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="E46" s="29" t="s">
+      <c r="E49" s="29" t="s">
         <v>302</v>
       </c>
-      <c r="F46" s="29" t="s">
+      <c r="F49" s="29" t="s">
         <v>303</v>
       </c>
-      <c r="G46" s="29" t="s">
+      <c r="G49" s="29" t="s">
         <v>304</v>
       </c>
-      <c r="H46" s="29" t="s">
+      <c r="H49" s="29" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D47" s="29" t="s">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D50" s="29" t="s">
         <v>254</v>
       </c>
-      <c r="F47" s="29" t="s">
+      <c r="F50" s="29" t="s">
         <v>306</v>
       </c>
-      <c r="G47" s="29" t="s">
+      <c r="G50" s="29" t="s">
         <v>307</v>
       </c>
-      <c r="H47" s="29" t="s">
+      <c r="H50" s="29" t="s">
         <v>308</v>
       </c>
-      <c r="M47" t="s">
-        <v>1047</v>
-      </c>
-      <c r="N47" t="s">
-        <v>1048</v>
-      </c>
-      <c r="O47" t="s">
-        <v>1048</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B48" s="29" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B49" s="29" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B50" s="29" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A51" s="33"/>
+      <c r="J50" t="s">
+        <v>1095</v>
+      </c>
+      <c r="K50" t="s">
+        <v>976</v>
+      </c>
+      <c r="L50" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B51" s="29" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A52" s="35"/>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B52" s="29" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B53" s="29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" s="33"/>
+      <c r="B54" s="29" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" s="35"/>
+      <c r="B55" s="29" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D53" s="29" t="s">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D56" s="29" t="s">
         <v>173</v>
       </c>
-      <c r="G53" s="29" t="s">
-        <v>869</v>
-      </c>
-      <c r="H53" s="29" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D54" s="29" t="s">
+      <c r="G56" s="29" t="s">
+        <v>1011</v>
+      </c>
+      <c r="H56" s="29" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D57" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="E54" s="29" t="s">
+      <c r="E57" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="F54" s="29" t="s">
+      <c r="F57" s="29" t="s">
         <v>250</v>
       </c>
-      <c r="G54" s="29" t="s">
+      <c r="G57" s="29" t="s">
         <v>309</v>
       </c>
-      <c r="H54" s="29" t="s">
+      <c r="H57" s="29" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D55" s="29" t="s">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D58" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="E55" s="29" t="s">
+      <c r="E58" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="F55" s="29" t="s">
+      <c r="F58" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="G55" s="29" t="s">
+      <c r="G58" s="29" t="s">
         <v>312</v>
       </c>
-      <c r="H55" s="29" t="s">
+      <c r="H58" s="29" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B56" s="29" t="s">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B59" s="29" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A57" s="53"/>
-      <c r="B57" s="47" t="s">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" s="53"/>
+      <c r="B60" s="47" t="s">
         <v>122</v>
       </c>
-      <c r="C57" s="29" t="s">
-        <v>990</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A58" s="32"/>
-      <c r="B58" s="29" t="s">
+      <c r="C60" s="29" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61" s="32"/>
+      <c r="B61" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="C58" s="29" t="s">
+      <c r="C61" s="29" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B59" s="29" t="s">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B62" s="29" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D60" s="29" t="s">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D63" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="E60" s="29" t="s">
+      <c r="E63" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="F60" s="29" t="s">
+      <c r="F63" s="29" t="s">
         <v>315</v>
       </c>
-      <c r="G60" s="29" t="s">
+      <c r="G63" s="29" t="s">
         <v>316</v>
       </c>
-      <c r="H60" s="29" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B61" s="29" t="s">
+      <c r="H63" s="29" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B64" s="29" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B62" s="29" t="s">
+    <row r="65" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B65" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="C62" s="29" t="s">
+      <c r="C65" s="29" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B63" s="29" t="s">
+    <row r="66" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B66" s="29" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D64" s="29" t="s">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D67" s="29" t="s">
         <v>254</v>
       </c>
-      <c r="F64" s="29" t="s">
+      <c r="F67" s="29" t="s">
         <v>318</v>
       </c>
-      <c r="G64" s="29" t="s">
+      <c r="G67" s="29" t="s">
         <v>319</v>
       </c>
-      <c r="H64" s="29" t="s">
+      <c r="H67" s="29" t="s">
         <v>320</v>
       </c>
-      <c r="M64" t="s">
-        <v>1049</v>
-      </c>
-      <c r="N64" t="s">
-        <v>1050</v>
-      </c>
-      <c r="O64" t="s">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D65" s="29" t="s">
+      <c r="J67" t="s">
+        <v>1096</v>
+      </c>
+      <c r="K67" t="s">
+        <v>977</v>
+      </c>
+      <c r="L67" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D68" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="E65" s="29" t="s">
+      <c r="E68" s="29" t="s">
         <v>321</v>
       </c>
-      <c r="F65" s="29" t="s">
+      <c r="F68" s="29" t="s">
         <v>322</v>
       </c>
-      <c r="G65" s="29" t="s">
+      <c r="G68" s="29" t="s">
         <v>323</v>
       </c>
-      <c r="H65" s="29" t="s">
+      <c r="H68" s="29" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B66" s="29" t="s">
+    <row r="69" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B69" s="29" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B67" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="C67" s="29" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B68" s="29" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D69" s="29" t="s">
-        <v>113</v>
-      </c>
-      <c r="E69" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="F69" s="29" t="s">
-        <v>326</v>
-      </c>
-      <c r="G69" s="29" t="s">
-        <v>327</v>
-      </c>
-      <c r="H69" s="29" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B70" s="29" t="s">
         <v>122</v>
       </c>
       <c r="C70" s="29" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B71" s="29" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D72" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="E72" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="F72" s="29" t="s">
+        <v>326</v>
+      </c>
+      <c r="G72" s="29" t="s">
+        <v>327</v>
+      </c>
+      <c r="H72" s="29" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B73" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="C73" s="29" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D71" s="29" t="s">
+    <row r="74" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D74" s="29" t="s">
         <v>254</v>
       </c>
-      <c r="F71" s="29" t="s">
+      <c r="F74" s="29" t="s">
         <v>330</v>
       </c>
-      <c r="G71" s="29" t="s">
+      <c r="G74" s="29" t="s">
         <v>331</v>
       </c>
-      <c r="H71" s="29" t="s">
+      <c r="H74" s="29" t="s">
         <v>332</v>
       </c>
-      <c r="M71" t="s">
-        <v>1051</v>
-      </c>
-      <c r="N71" t="s">
-        <v>1052</v>
-      </c>
-      <c r="O71" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B72" s="29" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B73" s="29" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B74" s="29" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="J74" t="s">
+        <v>1118</v>
+      </c>
+      <c r="K74" t="s">
+        <v>1097</v>
+      </c>
+      <c r="L74" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B75" s="29" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B76" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="C76" s="29" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B77" s="29" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="78" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D78" s="29" t="s">
-        <v>113</v>
-      </c>
-      <c r="E78" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="F78" s="29" t="s">
-        <v>334</v>
-      </c>
-      <c r="G78" s="29" t="s">
-        <v>335</v>
-      </c>
-      <c r="H78" s="29" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="78" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B78" s="29" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B79" s="29" t="s">
         <v>122</v>
       </c>
       <c r="C79" s="29" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D80" s="29" t="s">
-        <v>221</v>
-      </c>
-      <c r="E80" s="29" t="s">
-        <v>338</v>
-      </c>
-      <c r="F80" s="29" t="s">
-        <v>339</v>
-      </c>
-      <c r="G80" s="29" t="s">
-        <v>340</v>
-      </c>
-      <c r="H80" s="29" t="s">
-        <v>341</v>
+        <v>333</v>
+      </c>
+    </row>
+    <row r="80" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B80" s="29" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="81" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B81" s="29" t="s">
-        <v>127</v>
+      <c r="D81" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="E81" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="F81" s="29" t="s">
+        <v>334</v>
+      </c>
+      <c r="G81" s="29" t="s">
+        <v>335</v>
+      </c>
+      <c r="H81" s="29" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="82" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B82" s="29" t="s">
-        <v>13</v>
+        <v>122</v>
+      </c>
+      <c r="C82" s="29" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="83" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B83" s="29" t="s">
-        <v>127</v>
+      <c r="D83" s="29" t="s">
+        <v>221</v>
+      </c>
+      <c r="E83" s="29" t="s">
+        <v>338</v>
+      </c>
+      <c r="F83" s="29" t="s">
+        <v>339</v>
+      </c>
+      <c r="G83" s="29" t="s">
+        <v>340</v>
+      </c>
+      <c r="H83" s="29" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="84" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B84" s="29" t="s">
-        <v>12</v>
+        <v>127</v>
       </c>
     </row>
     <row r="85" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D85" s="29" t="s">
-        <v>113</v>
-      </c>
-      <c r="E85" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="F85" s="29" t="s">
-        <v>342</v>
-      </c>
-      <c r="G85" s="29" t="s">
-        <v>343</v>
-      </c>
-      <c r="H85" s="29" t="s">
-        <v>344</v>
+      <c r="B85" s="29" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="86" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D86" s="29" t="s">
-        <v>113</v>
-      </c>
-      <c r="E86" s="29" t="s">
-        <v>345</v>
-      </c>
-      <c r="F86" s="29" t="s">
-        <v>346</v>
-      </c>
-      <c r="G86" s="29" t="s">
-        <v>347</v>
-      </c>
-      <c r="H86" s="29" t="s">
-        <v>348</v>
+      <c r="B86" s="29" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="87" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B87" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="C87" s="29" t="s">
-        <v>349</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88" spans="2:8" x14ac:dyDescent="0.25">
@@ -11911,81 +12230,90 @@
         <v>113</v>
       </c>
       <c r="E88" s="29" t="s">
-        <v>350</v>
+        <v>29</v>
       </c>
       <c r="F88" s="29" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="G88" s="29" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="H88" s="29" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
     </row>
     <row r="89" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B89" s="29" t="s">
-        <v>127</v>
+      <c r="D89" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="E89" s="29" t="s">
+        <v>345</v>
+      </c>
+      <c r="F89" s="29" t="s">
+        <v>346</v>
+      </c>
+      <c r="G89" s="29" t="s">
+        <v>347</v>
+      </c>
+      <c r="H89" s="29" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="90" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B90" s="29" t="s">
-        <v>13</v>
+        <v>122</v>
+      </c>
+      <c r="C90" s="29" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="91" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B91" s="29" t="s">
-        <v>12</v>
+      <c r="D91" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="E91" s="29" t="s">
+        <v>350</v>
+      </c>
+      <c r="F91" s="29" t="s">
+        <v>351</v>
+      </c>
+      <c r="G91" s="29" t="s">
+        <v>352</v>
+      </c>
+      <c r="H91" s="29" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="92" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D92" s="29" t="s">
-        <v>113</v>
-      </c>
-      <c r="E92" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="F92" s="29" t="s">
-        <v>219</v>
-      </c>
-      <c r="G92" s="29" t="s">
-        <v>353</v>
-      </c>
-      <c r="H92" s="29" t="s">
-        <v>354</v>
+      <c r="B92" s="29" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="93" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B93" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="C93" s="29" t="s">
-        <v>229</v>
+        <v>13</v>
       </c>
     </row>
     <row r="94" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D94" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="F94" s="29" t="s">
-        <v>220</v>
-      </c>
-      <c r="G94" s="29" t="s">
-        <v>233</v>
-      </c>
-      <c r="H94" s="29" t="s">
-        <v>355</v>
+      <c r="B94" s="29" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="95" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D95" s="29" t="s">
-        <v>221</v>
+        <v>113</v>
       </c>
       <c r="E95" s="29" t="s">
-        <v>222</v>
+        <v>29</v>
       </c>
       <c r="F95" s="29" t="s">
-        <v>261</v>
+        <v>219</v>
+      </c>
+      <c r="G95" s="29" t="s">
+        <v>353</v>
+      </c>
+      <c r="H95" s="29" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="96" spans="2:8" x14ac:dyDescent="0.25">
@@ -11993,162 +12321,195 @@
         <v>122</v>
       </c>
       <c r="C96" s="29" t="s">
-        <v>262</v>
+        <v>229</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D97" s="29" t="s">
-        <v>129</v>
+        <v>24</v>
       </c>
       <c r="F97" s="29" t="s">
         <v>220</v>
       </c>
-      <c r="I97" s="36">
-        <v>99</v>
+      <c r="G97" s="29" t="s">
+        <v>233</v>
+      </c>
+      <c r="H97" s="29" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B98" s="29" t="s">
-        <v>127</v>
+      <c r="D98" s="29" t="s">
+        <v>221</v>
+      </c>
+      <c r="E98" s="29" t="s">
+        <v>222</v>
+      </c>
+      <c r="F98" s="29" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B99" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="C99" s="29" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D100" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="F100" s="29" t="s">
+        <v>220</v>
+      </c>
+      <c r="I100" s="36">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B101" s="29" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A100" s="35"/>
-      <c r="B100" s="29" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A101" s="38"/>
-      <c r="B101" s="29" t="s">
-        <v>12</v>
-      </c>
-    </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D102" s="29" t="s">
-        <v>113</v>
-      </c>
-      <c r="E102" s="29" t="s">
-        <v>356</v>
-      </c>
-      <c r="F102" s="29" t="s">
-        <v>357</v>
-      </c>
-      <c r="G102" s="29" t="s">
-        <v>358</v>
-      </c>
-      <c r="H102" s="29" t="s">
-        <v>935</v>
+      <c r="B102" s="29" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A103" s="35"/>
       <c r="B103" s="29" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A104" s="38"/>
       <c r="B104" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="C104" s="29" t="s">
-        <v>359</v>
+        <v>12</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B105" s="29" t="s">
-        <v>836</v>
+      <c r="D105" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="E105" s="29" t="s">
+        <v>356</v>
+      </c>
+      <c r="F105" s="29" t="s">
+        <v>357</v>
+      </c>
+      <c r="G105" s="29" t="s">
+        <v>358</v>
+      </c>
+      <c r="H105" s="29" t="s">
+        <v>905</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A106" s="38"/>
       <c r="B106" s="29" t="s">
-        <v>127</v>
+        <v>13</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A107" s="37"/>
       <c r="B107" s="29" t="s">
         <v>122</v>
       </c>
       <c r="C107" s="29" t="s">
-        <v>1029</v>
+        <v>359</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B108" s="29" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A109" s="37"/>
+      <c r="A109" s="38"/>
       <c r="B109" s="29" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A110" s="32"/>
+      <c r="A110" s="37"/>
       <c r="B110" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="C110" s="29" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B111" s="29" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A112" s="37"/>
+      <c r="B112" s="29" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A111" s="53"/>
-      <c r="B111" s="29" t="s">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A113" s="32"/>
+      <c r="B113" s="29" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A112" s="40"/>
-      <c r="B112" s="47" t="s">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114" s="53"/>
+      <c r="B114" s="29" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A113" s="39"/>
-      <c r="B113" s="29" t="s">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115" s="40"/>
+      <c r="B115" s="47" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A116" s="39"/>
+      <c r="B116" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="C113" s="29" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B114" s="29" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D115" s="29" t="s">
-        <v>173</v>
-      </c>
-      <c r="G115" s="47" t="s">
-        <v>360</v>
-      </c>
-      <c r="H115" s="29" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D116" s="29" t="s">
-        <v>295</v>
-      </c>
-      <c r="E116" s="29" t="s">
-        <v>361</v>
+      <c r="C116" s="29" t="s">
+        <v>934</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B117" s="29" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D118" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="G118" s="47" t="s">
+        <v>360</v>
+      </c>
+      <c r="H118" s="29" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D119" s="29" t="s">
+        <v>295</v>
+      </c>
+      <c r="E119" s="29" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B120" s="29" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A118" s="39"/>
-      <c r="B118" s="29" t="s">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A121" s="39"/>
+      <c r="B121" s="29" t="s">
         <v>127</v>
       </c>
     </row>
@@ -12162,8 +12523,8 @@
   <dimension ref="A1:M481"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A434" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B444" sqref="B444"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12174,8 +12535,8 @@
     <col min="4" max="4" width="23.5703125" style="29" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.42578125" style="29" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.42578125" style="29" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31.7109375" style="29" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="36.28515625" style="29" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="49.7109375" style="29" customWidth="1"/>
+    <col min="8" max="8" width="57.42578125" style="29" customWidth="1"/>
     <col min="9" max="9" width="14.7109375" style="29" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="21.42578125" style="29" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="45.85546875" bestFit="1" customWidth="1"/>
@@ -12216,13 +12577,13 @@
         <v>226</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>1040</v>
+        <v>972</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>1041</v>
+        <v>973</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>1042</v>
+        <v>974</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -12233,7 +12594,7 @@
         <v>122</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>890</v>
+        <v>881</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -12301,7 +12662,7 @@
         <v>372</v>
       </c>
       <c r="H9" s="29" t="s">
-        <v>936</v>
+        <v>906</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -12335,13 +12696,13 @@
         <v>378</v>
       </c>
       <c r="K11" t="s">
-        <v>1053</v>
+        <v>1098</v>
       </c>
       <c r="L11" t="s">
-        <v>1054</v>
+        <v>978</v>
       </c>
       <c r="M11" t="s">
-        <v>1054</v>
+        <v>978</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -12374,7 +12735,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D18" s="29" t="s">
         <v>113</v>
       </c>
@@ -12385,10 +12746,10 @@
         <v>381</v>
       </c>
       <c r="G18" s="42" t="s">
-        <v>891</v>
+        <v>1052</v>
       </c>
       <c r="H18" s="42" t="s">
-        <v>937</v>
+        <v>1053</v>
       </c>
       <c r="J18" s="42"/>
     </row>
@@ -12414,7 +12775,7 @@
         <v>372</v>
       </c>
       <c r="H20" s="29" t="s">
-        <v>936</v>
+        <v>906</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -12448,13 +12809,13 @@
         <v>378</v>
       </c>
       <c r="K22" t="s">
-        <v>1053</v>
+        <v>1098</v>
       </c>
       <c r="L22" t="s">
-        <v>1054</v>
+        <v>978</v>
       </c>
       <c r="M22" t="s">
-        <v>1054</v>
+        <v>978</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -12481,7 +12842,7 @@
         <v>122</v>
       </c>
       <c r="C26" s="29" t="s">
-        <v>899</v>
+        <v>885</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
@@ -12549,7 +12910,7 @@
         <v>372</v>
       </c>
       <c r="H33" s="29" t="s">
-        <v>936</v>
+        <v>906</v>
       </c>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.25">
@@ -12583,13 +12944,13 @@
         <v>378</v>
       </c>
       <c r="K35" t="s">
-        <v>1055</v>
+        <v>1099</v>
       </c>
       <c r="L35" t="s">
-        <v>1054</v>
+        <v>978</v>
       </c>
       <c r="M35" t="s">
-        <v>1054</v>
+        <v>978</v>
       </c>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.25">
@@ -12636,10 +12997,10 @@
         <v>392</v>
       </c>
       <c r="G42" s="42" t="s">
-        <v>898</v>
+        <v>1054</v>
       </c>
       <c r="H42" s="42" t="s">
-        <v>938</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.25">
@@ -12664,7 +13025,7 @@
         <v>372</v>
       </c>
       <c r="H44" s="29" t="s">
-        <v>936</v>
+        <v>906</v>
       </c>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.25">
@@ -12698,13 +13059,13 @@
         <v>378</v>
       </c>
       <c r="K46" t="s">
-        <v>1055</v>
+        <v>1099</v>
       </c>
       <c r="L46" t="s">
-        <v>1054</v>
+        <v>978</v>
       </c>
       <c r="M46" t="s">
-        <v>1054</v>
+        <v>978</v>
       </c>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.25">
@@ -12732,7 +13093,7 @@
         <v>122</v>
       </c>
       <c r="C50" s="29" t="s">
-        <v>901</v>
+        <v>886</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
@@ -12800,7 +13161,7 @@
         <v>372</v>
       </c>
       <c r="H57" s="29" t="s">
-        <v>936</v>
+        <v>906</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
@@ -12834,13 +13195,13 @@
         <v>378</v>
       </c>
       <c r="K59" t="s">
-        <v>1056</v>
+        <v>1100</v>
       </c>
       <c r="L59" t="s">
-        <v>1054</v>
+        <v>978</v>
       </c>
       <c r="M59" t="s">
-        <v>1054</v>
+        <v>978</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
@@ -12884,10 +13245,10 @@
         <v>402</v>
       </c>
       <c r="G66" s="42" t="s">
-        <v>900</v>
+        <v>1056</v>
       </c>
       <c r="H66" s="42" t="s">
-        <v>939</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
@@ -12912,7 +13273,7 @@
         <v>372</v>
       </c>
       <c r="H68" s="29" t="s">
-        <v>936</v>
+        <v>906</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
@@ -12946,13 +13307,13 @@
         <v>378</v>
       </c>
       <c r="K70" t="s">
-        <v>1056</v>
+        <v>1100</v>
       </c>
       <c r="L70" t="s">
-        <v>1054</v>
+        <v>978</v>
       </c>
       <c r="M70" t="s">
-        <v>1054</v>
+        <v>978</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
@@ -12979,7 +13340,7 @@
         <v>122</v>
       </c>
       <c r="C74" s="29" t="s">
-        <v>907</v>
+        <v>889</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
@@ -13048,7 +13409,7 @@
         <v>372</v>
       </c>
       <c r="H81" s="29" t="s">
-        <v>936</v>
+        <v>906</v>
       </c>
     </row>
     <row r="82" spans="2:13" x14ac:dyDescent="0.25">
@@ -13082,13 +13443,13 @@
         <v>378</v>
       </c>
       <c r="K83" t="s">
-        <v>1057</v>
+        <v>1101</v>
       </c>
       <c r="L83" t="s">
-        <v>1054</v>
+        <v>978</v>
       </c>
       <c r="M83" t="s">
-        <v>1054</v>
+        <v>978</v>
       </c>
     </row>
     <row r="84" spans="2:13" x14ac:dyDescent="0.25">
@@ -13135,10 +13496,10 @@
         <v>412</v>
       </c>
       <c r="G90" s="42" t="s">
-        <v>906</v>
+        <v>1058</v>
       </c>
       <c r="H90" s="42" t="s">
-        <v>940</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="91" spans="2:13" x14ac:dyDescent="0.25">
@@ -13163,7 +13524,7 @@
         <v>372</v>
       </c>
       <c r="H92" s="29" t="s">
-        <v>936</v>
+        <v>906</v>
       </c>
     </row>
     <row r="93" spans="2:13" x14ac:dyDescent="0.25">
@@ -13197,13 +13558,13 @@
         <v>378</v>
       </c>
       <c r="K94" t="s">
-        <v>1057</v>
+        <v>1101</v>
       </c>
       <c r="L94" t="s">
-        <v>1054</v>
+        <v>978</v>
       </c>
       <c r="M94" t="s">
-        <v>1054</v>
+        <v>978</v>
       </c>
     </row>
     <row r="95" spans="2:13" x14ac:dyDescent="0.25">
@@ -13230,7 +13591,7 @@
         <v>122</v>
       </c>
       <c r="C98" s="29" t="s">
-        <v>909</v>
+        <v>890</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
@@ -13298,7 +13659,7 @@
         <v>372</v>
       </c>
       <c r="H105" s="29" t="s">
-        <v>936</v>
+        <v>906</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.25">
@@ -13332,13 +13693,13 @@
         <v>378</v>
       </c>
       <c r="K107" t="s">
-        <v>1058</v>
+        <v>1102</v>
       </c>
       <c r="L107" t="s">
-        <v>1054</v>
+        <v>978</v>
       </c>
       <c r="M107" t="s">
-        <v>1054</v>
+        <v>978</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.25">
@@ -13383,10 +13744,10 @@
         <v>422</v>
       </c>
       <c r="G114" s="42" t="s">
-        <v>908</v>
+        <v>1060</v>
       </c>
       <c r="H114" s="42" t="s">
-        <v>941</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.25">
@@ -13411,7 +13772,7 @@
         <v>372</v>
       </c>
       <c r="H116" s="29" t="s">
-        <v>936</v>
+        <v>906</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.25">
@@ -13445,13 +13806,13 @@
         <v>378</v>
       </c>
       <c r="K118" t="s">
-        <v>1058</v>
+        <v>1102</v>
       </c>
       <c r="L118" t="s">
-        <v>1054</v>
+        <v>978</v>
       </c>
       <c r="M118" t="s">
-        <v>1054</v>
+        <v>978</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.25">
@@ -13478,7 +13839,7 @@
         <v>122</v>
       </c>
       <c r="C122" s="29" t="s">
-        <v>915</v>
+        <v>893</v>
       </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.25">
@@ -13546,7 +13907,7 @@
         <v>372</v>
       </c>
       <c r="H129" s="29" t="s">
-        <v>936</v>
+        <v>906</v>
       </c>
     </row>
     <row r="130" spans="2:13" x14ac:dyDescent="0.25">
@@ -13580,13 +13941,13 @@
         <v>378</v>
       </c>
       <c r="K131" t="s">
-        <v>1059</v>
+        <v>1103</v>
       </c>
       <c r="L131" t="s">
-        <v>1054</v>
+        <v>978</v>
       </c>
       <c r="M131" t="s">
-        <v>1054</v>
+        <v>978</v>
       </c>
     </row>
     <row r="132" spans="2:13" x14ac:dyDescent="0.25">
@@ -13633,10 +13994,10 @@
         <v>432</v>
       </c>
       <c r="G138" s="42" t="s">
-        <v>914</v>
+        <v>1062</v>
       </c>
       <c r="H138" s="42" t="s">
-        <v>942</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="139" spans="2:13" x14ac:dyDescent="0.25">
@@ -13661,7 +14022,7 @@
         <v>372</v>
       </c>
       <c r="H140" s="29" t="s">
-        <v>936</v>
+        <v>906</v>
       </c>
     </row>
     <row r="141" spans="2:13" x14ac:dyDescent="0.25">
@@ -13696,13 +14057,13 @@
       </c>
       <c r="J142" s="42"/>
       <c r="K142" t="s">
-        <v>1059</v>
+        <v>1103</v>
       </c>
       <c r="L142" t="s">
-        <v>1054</v>
+        <v>978</v>
       </c>
       <c r="M142" t="s">
-        <v>1054</v>
+        <v>978</v>
       </c>
     </row>
     <row r="143" spans="2:13" x14ac:dyDescent="0.25">
@@ -13729,7 +14090,7 @@
         <v>122</v>
       </c>
       <c r="C146" s="29" t="s">
-        <v>917</v>
+        <v>894</v>
       </c>
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.25">
@@ -13797,7 +14158,7 @@
         <v>372</v>
       </c>
       <c r="H153" s="29" t="s">
-        <v>936</v>
+        <v>906</v>
       </c>
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.25">
@@ -13831,13 +14192,13 @@
         <v>378</v>
       </c>
       <c r="K155" t="s">
-        <v>1060</v>
+        <v>1104</v>
       </c>
       <c r="L155" t="s">
-        <v>1054</v>
+        <v>978</v>
       </c>
       <c r="M155" t="s">
-        <v>1054</v>
+        <v>978</v>
       </c>
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.25">
@@ -13881,10 +14242,10 @@
         <v>442</v>
       </c>
       <c r="G162" s="42" t="s">
-        <v>916</v>
+        <v>1064</v>
       </c>
       <c r="H162" s="42" t="s">
-        <v>943</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.25">
@@ -13909,7 +14270,7 @@
         <v>372</v>
       </c>
       <c r="H164" s="29" t="s">
-        <v>936</v>
+        <v>906</v>
       </c>
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.25">
@@ -13943,13 +14304,13 @@
         <v>378</v>
       </c>
       <c r="K166" t="s">
-        <v>1060</v>
+        <v>1104</v>
       </c>
       <c r="L166" t="s">
-        <v>1054</v>
+        <v>978</v>
       </c>
       <c r="M166" t="s">
-        <v>1054</v>
+        <v>978</v>
       </c>
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.25">
@@ -13976,7 +14337,7 @@
         <v>122</v>
       </c>
       <c r="C170" s="29" t="s">
-        <v>923</v>
+        <v>897</v>
       </c>
     </row>
     <row r="171" spans="1:13" x14ac:dyDescent="0.25">
@@ -14045,7 +14406,7 @@
         <v>372</v>
       </c>
       <c r="H177" s="29" t="s">
-        <v>936</v>
+        <v>906</v>
       </c>
     </row>
     <row r="178" spans="2:13" x14ac:dyDescent="0.25">
@@ -14079,13 +14440,13 @@
         <v>378</v>
       </c>
       <c r="K179" t="s">
-        <v>1061</v>
+        <v>1105</v>
       </c>
       <c r="L179" t="s">
-        <v>1054</v>
+        <v>978</v>
       </c>
       <c r="M179" t="s">
-        <v>1054</v>
+        <v>978</v>
       </c>
     </row>
     <row r="180" spans="2:13" x14ac:dyDescent="0.25">
@@ -14132,10 +14493,10 @@
         <v>452</v>
       </c>
       <c r="G186" s="42" t="s">
-        <v>922</v>
+        <v>1066</v>
       </c>
       <c r="H186" s="42" t="s">
-        <v>944</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="187" spans="2:13" x14ac:dyDescent="0.25">
@@ -14160,7 +14521,7 @@
         <v>372</v>
       </c>
       <c r="H188" s="29" t="s">
-        <v>936</v>
+        <v>906</v>
       </c>
     </row>
     <row r="189" spans="2:13" x14ac:dyDescent="0.25">
@@ -14194,13 +14555,13 @@
         <v>378</v>
       </c>
       <c r="K190" t="s">
-        <v>1061</v>
+        <v>1105</v>
       </c>
       <c r="L190" t="s">
-        <v>1054</v>
+        <v>978</v>
       </c>
       <c r="M190" t="s">
-        <v>1054</v>
+        <v>978</v>
       </c>
     </row>
     <row r="191" spans="2:13" x14ac:dyDescent="0.25">
@@ -14227,7 +14588,7 @@
         <v>122</v>
       </c>
       <c r="C194" s="29" t="s">
-        <v>925</v>
+        <v>898</v>
       </c>
     </row>
     <row r="195" spans="1:13" x14ac:dyDescent="0.25">
@@ -14295,7 +14656,7 @@
         <v>372</v>
       </c>
       <c r="H201" s="29" t="s">
-        <v>936</v>
+        <v>906</v>
       </c>
     </row>
     <row r="202" spans="1:13" x14ac:dyDescent="0.25">
@@ -14329,13 +14690,13 @@
         <v>378</v>
       </c>
       <c r="K203" t="s">
-        <v>1062</v>
+        <v>1106</v>
       </c>
       <c r="L203" t="s">
-        <v>1054</v>
+        <v>978</v>
       </c>
       <c r="M203" t="s">
-        <v>1054</v>
+        <v>978</v>
       </c>
     </row>
     <row r="204" spans="1:13" x14ac:dyDescent="0.25">
@@ -14380,10 +14741,10 @@
         <v>462</v>
       </c>
       <c r="G210" s="42" t="s">
-        <v>924</v>
+        <v>1068</v>
       </c>
       <c r="H210" s="42" t="s">
-        <v>945</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="211" spans="1:13" x14ac:dyDescent="0.25">
@@ -14408,7 +14769,7 @@
         <v>372</v>
       </c>
       <c r="H212" s="29" t="s">
-        <v>936</v>
+        <v>906</v>
       </c>
     </row>
     <row r="213" spans="1:13" x14ac:dyDescent="0.25">
@@ -14442,13 +14803,13 @@
         <v>378</v>
       </c>
       <c r="K214" t="s">
-        <v>1062</v>
+        <v>1106</v>
       </c>
       <c r="L214" t="s">
-        <v>1054</v>
+        <v>978</v>
       </c>
       <c r="M214" t="s">
-        <v>1054</v>
+        <v>978</v>
       </c>
     </row>
     <row r="215" spans="1:13" x14ac:dyDescent="0.25">
@@ -14475,7 +14836,7 @@
         <v>122</v>
       </c>
       <c r="C218" s="29" t="s">
-        <v>893</v>
+        <v>882</v>
       </c>
     </row>
     <row r="219" spans="1:13" x14ac:dyDescent="0.25">
@@ -14543,7 +14904,7 @@
         <v>372</v>
       </c>
       <c r="H225" s="29" t="s">
-        <v>936</v>
+        <v>906</v>
       </c>
     </row>
     <row r="226" spans="2:13" x14ac:dyDescent="0.25">
@@ -14577,13 +14938,13 @@
         <v>378</v>
       </c>
       <c r="K227" t="s">
-        <v>1063</v>
+        <v>1107</v>
       </c>
       <c r="L227" t="s">
-        <v>1054</v>
+        <v>978</v>
       </c>
       <c r="M227" t="s">
-        <v>1054</v>
+        <v>978</v>
       </c>
     </row>
     <row r="228" spans="2:13" x14ac:dyDescent="0.25">
@@ -14630,10 +14991,10 @@
         <v>472</v>
       </c>
       <c r="G234" s="42" t="s">
-        <v>892</v>
+        <v>1070</v>
       </c>
       <c r="H234" s="42" t="s">
-        <v>946</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="235" spans="2:13" x14ac:dyDescent="0.25">
@@ -14659,7 +15020,7 @@
         <v>372</v>
       </c>
       <c r="H236" s="29" t="s">
-        <v>936</v>
+        <v>906</v>
       </c>
     </row>
     <row r="237" spans="2:13" x14ac:dyDescent="0.25">
@@ -14693,13 +15054,13 @@
         <v>378</v>
       </c>
       <c r="K238" t="s">
-        <v>1063</v>
+        <v>1107</v>
       </c>
       <c r="L238" t="s">
-        <v>1054</v>
+        <v>978</v>
       </c>
       <c r="M238" t="s">
-        <v>1054</v>
+        <v>978</v>
       </c>
     </row>
     <row r="239" spans="2:13" x14ac:dyDescent="0.25">
@@ -14726,7 +15087,7 @@
         <v>122</v>
       </c>
       <c r="C242" s="29" t="s">
-        <v>895</v>
+        <v>883</v>
       </c>
     </row>
     <row r="243" spans="1:13" x14ac:dyDescent="0.25">
@@ -14794,7 +15155,7 @@
         <v>372</v>
       </c>
       <c r="H249" s="29" t="s">
-        <v>936</v>
+        <v>906</v>
       </c>
     </row>
     <row r="250" spans="1:13" x14ac:dyDescent="0.25">
@@ -14828,13 +15189,13 @@
         <v>378</v>
       </c>
       <c r="K251" t="s">
-        <v>1064</v>
+        <v>1108</v>
       </c>
       <c r="L251" t="s">
-        <v>1054</v>
+        <v>978</v>
       </c>
       <c r="M251" t="s">
-        <v>1054</v>
+        <v>978</v>
       </c>
     </row>
     <row r="252" spans="1:13" x14ac:dyDescent="0.25">
@@ -14878,10 +15239,10 @@
         <v>482</v>
       </c>
       <c r="G258" s="42" t="s">
-        <v>894</v>
+        <v>1072</v>
       </c>
       <c r="H258" s="42" t="s">
-        <v>947</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="259" spans="1:13" x14ac:dyDescent="0.25">
@@ -14906,7 +15267,7 @@
         <v>372</v>
       </c>
       <c r="H260" s="29" t="s">
-        <v>936</v>
+        <v>906</v>
       </c>
     </row>
     <row r="261" spans="1:13" x14ac:dyDescent="0.25">
@@ -14940,13 +15301,13 @@
         <v>378</v>
       </c>
       <c r="K262" t="s">
-        <v>1064</v>
+        <v>1108</v>
       </c>
       <c r="L262" t="s">
-        <v>1054</v>
+        <v>978</v>
       </c>
       <c r="M262" t="s">
-        <v>1054</v>
+        <v>978</v>
       </c>
     </row>
     <row r="263" spans="1:13" x14ac:dyDescent="0.25">
@@ -14973,7 +15334,7 @@
         <v>122</v>
       </c>
       <c r="C266" s="29" t="s">
-        <v>897</v>
+        <v>884</v>
       </c>
       <c r="J266" s="42"/>
     </row>
@@ -15042,7 +15403,7 @@
         <v>372</v>
       </c>
       <c r="H273" s="29" t="s">
-        <v>936</v>
+        <v>906</v>
       </c>
     </row>
     <row r="274" spans="2:13" x14ac:dyDescent="0.25">
@@ -15076,13 +15437,13 @@
         <v>378</v>
       </c>
       <c r="K275" t="s">
-        <v>1065</v>
+        <v>1109</v>
       </c>
       <c r="L275" t="s">
-        <v>1054</v>
+        <v>978</v>
       </c>
       <c r="M275" t="s">
-        <v>1054</v>
+        <v>978</v>
       </c>
     </row>
     <row r="276" spans="2:13" x14ac:dyDescent="0.25">
@@ -15129,10 +15490,10 @@
         <v>492</v>
       </c>
       <c r="G282" s="42" t="s">
-        <v>896</v>
+        <v>1074</v>
       </c>
       <c r="H282" s="42" t="s">
-        <v>948</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="283" spans="2:13" x14ac:dyDescent="0.25">
@@ -15157,7 +15518,7 @@
         <v>372</v>
       </c>
       <c r="H284" s="29" t="s">
-        <v>936</v>
+        <v>906</v>
       </c>
     </row>
     <row r="285" spans="2:13" x14ac:dyDescent="0.25">
@@ -15191,13 +15552,13 @@
         <v>378</v>
       </c>
       <c r="K286" t="s">
-        <v>1065</v>
+        <v>1109</v>
       </c>
       <c r="L286" t="s">
-        <v>1054</v>
+        <v>978</v>
       </c>
       <c r="M286" t="s">
-        <v>1054</v>
+        <v>978</v>
       </c>
     </row>
     <row r="287" spans="2:13" x14ac:dyDescent="0.25">
@@ -15224,7 +15585,7 @@
         <v>122</v>
       </c>
       <c r="C290" s="29" t="s">
-        <v>903</v>
+        <v>887</v>
       </c>
     </row>
     <row r="291" spans="1:13" x14ac:dyDescent="0.25">
@@ -15292,7 +15653,7 @@
         <v>372</v>
       </c>
       <c r="H297" s="29" t="s">
-        <v>936</v>
+        <v>906</v>
       </c>
       <c r="J297" s="42"/>
     </row>
@@ -15327,13 +15688,13 @@
         <v>378</v>
       </c>
       <c r="K299" t="s">
-        <v>1066</v>
+        <v>1110</v>
       </c>
       <c r="L299" t="s">
-        <v>1054</v>
+        <v>978</v>
       </c>
       <c r="M299" t="s">
-        <v>1054</v>
+        <v>978</v>
       </c>
     </row>
     <row r="300" spans="1:13" x14ac:dyDescent="0.25">
@@ -15377,10 +15738,10 @@
         <v>502</v>
       </c>
       <c r="G306" s="42" t="s">
-        <v>902</v>
+        <v>1076</v>
       </c>
       <c r="H306" s="42" t="s">
-        <v>949</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="307" spans="1:13" x14ac:dyDescent="0.25">
@@ -15405,7 +15766,7 @@
         <v>372</v>
       </c>
       <c r="H308" s="29" t="s">
-        <v>936</v>
+        <v>906</v>
       </c>
     </row>
     <row r="309" spans="1:13" x14ac:dyDescent="0.25">
@@ -15439,13 +15800,13 @@
         <v>378</v>
       </c>
       <c r="K310" t="s">
-        <v>1066</v>
+        <v>1110</v>
       </c>
       <c r="L310" t="s">
-        <v>1054</v>
+        <v>978</v>
       </c>
       <c r="M310" t="s">
-        <v>1054</v>
+        <v>978</v>
       </c>
     </row>
     <row r="311" spans="1:13" x14ac:dyDescent="0.25">
@@ -15472,7 +15833,7 @@
         <v>122</v>
       </c>
       <c r="C314" s="29" t="s">
-        <v>905</v>
+        <v>888</v>
       </c>
     </row>
     <row r="315" spans="1:13" x14ac:dyDescent="0.25">
@@ -15540,7 +15901,7 @@
         <v>372</v>
       </c>
       <c r="H321" s="29" t="s">
-        <v>936</v>
+        <v>906</v>
       </c>
     </row>
     <row r="322" spans="2:13" x14ac:dyDescent="0.25">
@@ -15574,13 +15935,13 @@
         <v>378</v>
       </c>
       <c r="K323" t="s">
-        <v>1067</v>
+        <v>1111</v>
       </c>
       <c r="L323" t="s">
-        <v>1054</v>
+        <v>978</v>
       </c>
       <c r="M323" t="s">
-        <v>1054</v>
+        <v>978</v>
       </c>
     </row>
     <row r="324" spans="2:13" x14ac:dyDescent="0.25">
@@ -15628,10 +15989,10 @@
         <v>512</v>
       </c>
       <c r="G330" s="42" t="s">
-        <v>904</v>
+        <v>1078</v>
       </c>
       <c r="H330" s="42" t="s">
-        <v>950</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="331" spans="2:13" x14ac:dyDescent="0.25">
@@ -15656,7 +16017,7 @@
         <v>372</v>
       </c>
       <c r="H332" s="29" t="s">
-        <v>936</v>
+        <v>906</v>
       </c>
     </row>
     <row r="333" spans="2:13" x14ac:dyDescent="0.25">
@@ -15690,13 +16051,13 @@
         <v>378</v>
       </c>
       <c r="K334" t="s">
-        <v>1067</v>
+        <v>1111</v>
       </c>
       <c r="L334" t="s">
-        <v>1054</v>
+        <v>978</v>
       </c>
       <c r="M334" t="s">
-        <v>1054</v>
+        <v>978</v>
       </c>
     </row>
     <row r="335" spans="2:13" x14ac:dyDescent="0.25">
@@ -15723,7 +16084,7 @@
         <v>122</v>
       </c>
       <c r="C338" s="29" t="s">
-        <v>911</v>
+        <v>891</v>
       </c>
     </row>
     <row r="339" spans="1:13" x14ac:dyDescent="0.25">
@@ -15791,7 +16152,7 @@
         <v>372</v>
       </c>
       <c r="H345" s="29" t="s">
-        <v>936</v>
+        <v>906</v>
       </c>
     </row>
     <row r="346" spans="1:13" x14ac:dyDescent="0.25">
@@ -15825,13 +16186,13 @@
         <v>378</v>
       </c>
       <c r="K347" t="s">
-        <v>1068</v>
+        <v>1112</v>
       </c>
       <c r="L347" t="s">
-        <v>1054</v>
+        <v>978</v>
       </c>
       <c r="M347" t="s">
-        <v>1054</v>
+        <v>978</v>
       </c>
     </row>
     <row r="348" spans="1:13" x14ac:dyDescent="0.25">
@@ -15875,10 +16236,10 @@
         <v>522</v>
       </c>
       <c r="G354" s="42" t="s">
-        <v>910</v>
+        <v>1080</v>
       </c>
       <c r="H354" s="42" t="s">
-        <v>951</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="355" spans="1:13" x14ac:dyDescent="0.25">
@@ -15903,7 +16264,7 @@
         <v>372</v>
       </c>
       <c r="H356" s="29" t="s">
-        <v>936</v>
+        <v>906</v>
       </c>
     </row>
     <row r="357" spans="1:13" x14ac:dyDescent="0.25">
@@ -15937,13 +16298,13 @@
         <v>378</v>
       </c>
       <c r="K358" t="s">
-        <v>1068</v>
+        <v>1112</v>
       </c>
       <c r="L358" t="s">
-        <v>1054</v>
+        <v>978</v>
       </c>
       <c r="M358" t="s">
-        <v>1054</v>
+        <v>978</v>
       </c>
     </row>
     <row r="359" spans="1:13" x14ac:dyDescent="0.25">
@@ -15971,7 +16332,7 @@
         <v>122</v>
       </c>
       <c r="C362" s="29" t="s">
-        <v>913</v>
+        <v>892</v>
       </c>
     </row>
     <row r="363" spans="1:13" x14ac:dyDescent="0.25">
@@ -16039,7 +16400,7 @@
         <v>372</v>
       </c>
       <c r="H369" s="29" t="s">
-        <v>936</v>
+        <v>906</v>
       </c>
     </row>
     <row r="370" spans="2:13" x14ac:dyDescent="0.25">
@@ -16073,13 +16434,13 @@
         <v>378</v>
       </c>
       <c r="K371" t="s">
-        <v>1069</v>
+        <v>1113</v>
       </c>
       <c r="L371" t="s">
-        <v>1054</v>
+        <v>978</v>
       </c>
       <c r="M371" t="s">
-        <v>1054</v>
+        <v>978</v>
       </c>
     </row>
     <row r="372" spans="2:13" x14ac:dyDescent="0.25">
@@ -16126,10 +16487,10 @@
         <v>532</v>
       </c>
       <c r="G378" s="42" t="s">
-        <v>912</v>
+        <v>1082</v>
       </c>
       <c r="H378" s="42" t="s">
-        <v>952</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="379" spans="2:13" x14ac:dyDescent="0.25">
@@ -16154,7 +16515,7 @@
         <v>372</v>
       </c>
       <c r="H380" s="29" t="s">
-        <v>936</v>
+        <v>906</v>
       </c>
     </row>
     <row r="381" spans="2:13" x14ac:dyDescent="0.25">
@@ -16188,13 +16549,13 @@
         <v>378</v>
       </c>
       <c r="K382" t="s">
-        <v>1069</v>
+        <v>1113</v>
       </c>
       <c r="L382" t="s">
-        <v>1054</v>
+        <v>978</v>
       </c>
       <c r="M382" t="s">
-        <v>1054</v>
+        <v>978</v>
       </c>
     </row>
     <row r="383" spans="2:13" x14ac:dyDescent="0.25">
@@ -16221,7 +16582,7 @@
         <v>122</v>
       </c>
       <c r="C386" s="29" t="s">
-        <v>919</v>
+        <v>895</v>
       </c>
     </row>
     <row r="387" spans="1:13" x14ac:dyDescent="0.25">
@@ -16290,7 +16651,7 @@
         <v>372</v>
       </c>
       <c r="H393" s="29" t="s">
-        <v>936</v>
+        <v>906</v>
       </c>
     </row>
     <row r="394" spans="1:13" x14ac:dyDescent="0.25">
@@ -16324,13 +16685,13 @@
         <v>378</v>
       </c>
       <c r="K395" t="s">
-        <v>1070</v>
+        <v>1114</v>
       </c>
       <c r="L395" t="s">
-        <v>1054</v>
+        <v>978</v>
       </c>
       <c r="M395" t="s">
-        <v>1054</v>
+        <v>978</v>
       </c>
     </row>
     <row r="396" spans="1:13" x14ac:dyDescent="0.25">
@@ -16374,10 +16735,10 @@
         <v>542</v>
       </c>
       <c r="G402" s="42" t="s">
-        <v>918</v>
+        <v>1084</v>
       </c>
       <c r="H402" s="42" t="s">
-        <v>953</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="403" spans="1:13" x14ac:dyDescent="0.25">
@@ -16402,7 +16763,7 @@
         <v>372</v>
       </c>
       <c r="H404" s="29" t="s">
-        <v>936</v>
+        <v>906</v>
       </c>
     </row>
     <row r="405" spans="1:13" x14ac:dyDescent="0.25">
@@ -16436,13 +16797,13 @@
         <v>378</v>
       </c>
       <c r="K406" t="s">
-        <v>1070</v>
+        <v>1114</v>
       </c>
       <c r="L406" t="s">
-        <v>1054</v>
+        <v>978</v>
       </c>
       <c r="M406" t="s">
-        <v>1054</v>
+        <v>978</v>
       </c>
     </row>
     <row r="407" spans="1:13" x14ac:dyDescent="0.25">
@@ -16469,7 +16830,7 @@
         <v>122</v>
       </c>
       <c r="C410" s="29" t="s">
-        <v>921</v>
+        <v>896</v>
       </c>
     </row>
     <row r="411" spans="1:13" x14ac:dyDescent="0.25">
@@ -16537,7 +16898,7 @@
         <v>372</v>
       </c>
       <c r="H417" s="29" t="s">
-        <v>936</v>
+        <v>906</v>
       </c>
     </row>
     <row r="418" spans="2:13" x14ac:dyDescent="0.25">
@@ -16571,13 +16932,13 @@
         <v>378</v>
       </c>
       <c r="K419" t="s">
-        <v>1071</v>
+        <v>1115</v>
       </c>
       <c r="L419" t="s">
-        <v>1054</v>
+        <v>978</v>
       </c>
       <c r="M419" t="s">
-        <v>1054</v>
+        <v>978</v>
       </c>
     </row>
     <row r="420" spans="2:13" x14ac:dyDescent="0.25">
@@ -16625,10 +16986,10 @@
         <v>552</v>
       </c>
       <c r="G426" s="42" t="s">
-        <v>920</v>
+        <v>1086</v>
       </c>
       <c r="H426" s="42" t="s">
-        <v>954</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="427" spans="2:13" x14ac:dyDescent="0.25">
@@ -16653,7 +17014,7 @@
         <v>372</v>
       </c>
       <c r="H428" s="29" t="s">
-        <v>936</v>
+        <v>906</v>
       </c>
     </row>
     <row r="429" spans="2:13" x14ac:dyDescent="0.25">
@@ -16687,13 +17048,13 @@
         <v>378</v>
       </c>
       <c r="K430" t="s">
-        <v>1071</v>
+        <v>1115</v>
       </c>
       <c r="L430" t="s">
-        <v>1054</v>
+        <v>978</v>
       </c>
       <c r="M430" t="s">
-        <v>1054</v>
+        <v>978</v>
       </c>
     </row>
     <row r="431" spans="2:13" x14ac:dyDescent="0.25">
@@ -16720,7 +17081,7 @@
         <v>122</v>
       </c>
       <c r="C434" s="29" t="s">
-        <v>927</v>
+        <v>899</v>
       </c>
     </row>
     <row r="435" spans="1:13" x14ac:dyDescent="0.25">
@@ -16788,7 +17149,7 @@
         <v>372</v>
       </c>
       <c r="H441" s="29" t="s">
-        <v>936</v>
+        <v>906</v>
       </c>
     </row>
     <row r="442" spans="1:13" x14ac:dyDescent="0.25">
@@ -16822,13 +17183,13 @@
         <v>378</v>
       </c>
       <c r="K443" t="s">
-        <v>1072</v>
+        <v>1116</v>
       </c>
       <c r="L443" t="s">
-        <v>1054</v>
+        <v>978</v>
       </c>
       <c r="M443" t="s">
-        <v>1054</v>
+        <v>978</v>
       </c>
     </row>
     <row r="444" spans="1:13" x14ac:dyDescent="0.25">
@@ -16872,10 +17233,10 @@
         <v>562</v>
       </c>
       <c r="G450" s="42" t="s">
-        <v>926</v>
+        <v>1088</v>
       </c>
       <c r="H450" s="42" t="s">
-        <v>955</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="451" spans="1:13" x14ac:dyDescent="0.25">
@@ -16900,7 +17261,7 @@
         <v>372</v>
       </c>
       <c r="H452" s="29" t="s">
-        <v>936</v>
+        <v>906</v>
       </c>
       <c r="J452" s="42"/>
     </row>
@@ -16935,13 +17296,13 @@
         <v>378</v>
       </c>
       <c r="K454" t="s">
-        <v>1072</v>
+        <v>1116</v>
       </c>
       <c r="L454" t="s">
-        <v>1054</v>
+        <v>978</v>
       </c>
       <c r="M454" t="s">
-        <v>1054</v>
+        <v>978</v>
       </c>
     </row>
     <row r="455" spans="1:13" x14ac:dyDescent="0.25">
@@ -16968,7 +17329,7 @@
         <v>122</v>
       </c>
       <c r="C458" s="29" t="s">
-        <v>929</v>
+        <v>900</v>
       </c>
     </row>
     <row r="459" spans="1:13" x14ac:dyDescent="0.25">
@@ -17036,7 +17397,7 @@
         <v>372</v>
       </c>
       <c r="H465" s="29" t="s">
-        <v>936</v>
+        <v>906</v>
       </c>
     </row>
     <row r="466" spans="2:13" x14ac:dyDescent="0.25">
@@ -17070,13 +17431,13 @@
         <v>378</v>
       </c>
       <c r="K467" t="s">
-        <v>1073</v>
+        <v>1117</v>
       </c>
       <c r="L467" t="s">
-        <v>1054</v>
+        <v>978</v>
       </c>
       <c r="M467" t="s">
-        <v>1054</v>
+        <v>978</v>
       </c>
     </row>
     <row r="468" spans="2:13" x14ac:dyDescent="0.25">
@@ -17123,10 +17484,10 @@
         <v>572</v>
       </c>
       <c r="G474" s="42" t="s">
-        <v>928</v>
+        <v>1090</v>
       </c>
       <c r="H474" s="42" t="s">
-        <v>956</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="475" spans="2:13" x14ac:dyDescent="0.25">
@@ -17151,7 +17512,7 @@
         <v>372</v>
       </c>
       <c r="H476" s="29" t="s">
-        <v>936</v>
+        <v>906</v>
       </c>
     </row>
     <row r="477" spans="2:13" x14ac:dyDescent="0.25">
@@ -17185,13 +17546,13 @@
         <v>378</v>
       </c>
       <c r="K478" t="s">
-        <v>1073</v>
+        <v>1117</v>
       </c>
       <c r="L478" t="s">
-        <v>1054</v>
+        <v>978</v>
       </c>
       <c r="M478" t="s">
-        <v>1054</v>
+        <v>978</v>
       </c>
     </row>
     <row r="479" spans="2:13" x14ac:dyDescent="0.25">
@@ -17219,7 +17580,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A598CABF-5033-45AD-98B4-8BD01DC98155}">
   <dimension ref="A1:I70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
     </sheetView>
@@ -17283,10 +17644,10 @@
         <v>198</v>
       </c>
       <c r="G3" t="s">
-        <v>1030</v>
+        <v>966</v>
       </c>
       <c r="H3" s="29" t="s">
-        <v>1031</v>
+        <v>967</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -17312,7 +17673,7 @@
         <v>577</v>
       </c>
       <c r="H5" s="29" t="s">
-        <v>957</v>
+        <v>907</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -17367,7 +17728,7 @@
         <v>583</v>
       </c>
       <c r="H11" s="29" t="s">
-        <v>958</v>
+        <v>908</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -17410,10 +17771,10 @@
         <v>588</v>
       </c>
       <c r="G15" t="s">
-        <v>1032</v>
+        <v>968</v>
       </c>
       <c r="H15" s="29" t="s">
-        <v>1033</v>
+        <v>969</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -17533,7 +17894,7 @@
         <v>583</v>
       </c>
       <c r="H27" s="29" t="s">
-        <v>958</v>
+        <v>908</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
@@ -17699,7 +18060,7 @@
         <v>583</v>
       </c>
       <c r="H43" s="29" t="s">
-        <v>958</v>
+        <v>908</v>
       </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.25">
@@ -17854,7 +18215,7 @@
         <v>583</v>
       </c>
       <c r="H58" s="29" t="s">
-        <v>958</v>
+        <v>908</v>
       </c>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.25">
@@ -17986,11 +18347,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08D25534-A009-4B32-8A9F-69AC75C4E3ED}">
-  <dimension ref="A1:P98"/>
+  <dimension ref="A1:N98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O10" sqref="O10"/>
+      <selection pane="bottomLeft" activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18004,16 +18365,15 @@
     <col min="7" max="7" width="31.7109375" style="47" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="36.28515625" style="47" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.7109375" style="47" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.42578125" style="47" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23" style="47" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.140625" style="47" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="47"/>
-    <col min="14" max="14" width="125.42578125" style="47" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="74.140625" style="47" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="47"/>
+    <col min="10" max="10" width="50.7109375" style="47" customWidth="1"/>
+    <col min="11" max="11" width="38.85546875" style="47" customWidth="1"/>
+    <col min="12" max="12" width="30" style="47" customWidth="1"/>
+    <col min="13" max="13" width="23" style="47" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.140625" style="47" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="47"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="44" t="s">
         <v>140</v>
       </c>
@@ -18041,34 +18401,28 @@
       <c r="I1" s="44" t="s">
         <v>135</v>
       </c>
-      <c r="J1" s="44" t="s">
-        <v>226</v>
-      </c>
-      <c r="K1" s="45" t="s">
+      <c r="J1" s="4" t="s">
+        <v>972</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>973</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>974</v>
+      </c>
+      <c r="M1" s="45" t="s">
         <v>280</v>
       </c>
-      <c r="L1" s="46" t="s">
+      <c r="N1" s="46" t="s">
         <v>281</v>
       </c>
-      <c r="M1" s="44" t="s">
-        <v>226</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>1040</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>1041</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>1042</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B2" s="47" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D3" s="47" t="s">
         <v>254</v>
       </c>
@@ -18081,27 +18435,27 @@
       <c r="H3" s="47" t="s">
         <v>632</v>
       </c>
-      <c r="N3" t="s">
-        <v>1074</v>
-      </c>
-      <c r="O3" t="s">
-        <v>1050</v>
-      </c>
-      <c r="P3" t="s">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="J3" t="s">
+        <v>1126</v>
+      </c>
+      <c r="K3" t="s">
+        <v>977</v>
+      </c>
+      <c r="L3" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B4" s="47" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B5" s="47" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D6" s="47" t="s">
         <v>24</v>
       </c>
@@ -18115,7 +18469,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D7" s="47" t="s">
         <v>24</v>
       </c>
@@ -18129,7 +18483,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D8" s="47" t="s">
         <v>24</v>
       </c>
@@ -18143,17 +18497,17 @@
         <v>638</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B9" s="47" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B10" s="47" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D11" s="47" t="s">
         <v>113</v>
       </c>
@@ -18169,21 +18523,19 @@
       <c r="H11" s="47" t="s">
         <v>642</v>
       </c>
-      <c r="J11" s="48"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B12" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="J12" s="48"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="49"/>
       <c r="B13" s="47" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D14" s="47" t="s">
         <v>113</v>
       </c>
@@ -18200,12 +18552,12 @@
         <v>645</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B15" s="47" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="49"/>
       <c r="B16" s="47" t="s">
         <v>12</v>
@@ -18217,7 +18569,7 @@
         <v>113</v>
       </c>
       <c r="E17" s="47" t="s">
-        <v>1019</v>
+        <v>955</v>
       </c>
       <c r="F17" s="47" t="s">
         <v>646</v>
@@ -18226,7 +18578,7 @@
         <v>647</v>
       </c>
       <c r="H17" s="47" t="s">
-        <v>959</v>
+        <v>909</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -18279,7 +18631,7 @@
         <v>652</v>
       </c>
       <c r="H22" s="47" t="s">
-        <v>960</v>
+        <v>910</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -18343,7 +18695,7 @@
         <v>658</v>
       </c>
       <c r="H30" s="47" t="s">
-        <v>961</v>
+        <v>911</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -18370,7 +18722,7 @@
         <v>661</v>
       </c>
       <c r="H33" s="47" t="s">
-        <v>962</v>
+        <v>912</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -18416,7 +18768,7 @@
         <v>113</v>
       </c>
       <c r="E39" s="47" t="s">
-        <v>1009</v>
+        <v>945</v>
       </c>
       <c r="F39" s="47" t="s">
         <v>666</v>
@@ -18443,7 +18795,7 @@
         <v>113</v>
       </c>
       <c r="E42" s="47" t="s">
-        <v>991</v>
+        <v>937</v>
       </c>
       <c r="F42" s="47" t="s">
         <v>669</v>
@@ -18514,7 +18866,7 @@
         <v>677</v>
       </c>
       <c r="H49" s="47" t="s">
-        <v>963</v>
+        <v>913</v>
       </c>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.25">
@@ -18528,7 +18880,7 @@
         <v>679</v>
       </c>
       <c r="H50" s="47" t="s">
-        <v>964</v>
+        <v>914</v>
       </c>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.25">
@@ -18673,7 +19025,7 @@
         <v>695</v>
       </c>
       <c r="H67" s="47" t="s">
-        <v>965</v>
+        <v>915</v>
       </c>
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.25">
@@ -18694,7 +19046,7 @@
         <v>696</v>
       </c>
       <c r="H70" s="47" t="s">
-        <v>966</v>
+        <v>916</v>
       </c>
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.25">
@@ -18816,7 +19168,7 @@
         <v>713</v>
       </c>
       <c r="H80" s="47" t="s">
-        <v>967</v>
+        <v>917</v>
       </c>
     </row>
     <row r="81" spans="2:8" x14ac:dyDescent="0.25">
@@ -18846,7 +19198,7 @@
         <v>716</v>
       </c>
       <c r="H83" s="47" t="s">
-        <v>968</v>
+        <v>918</v>
       </c>
     </row>
     <row r="84" spans="2:8" x14ac:dyDescent="0.25">
@@ -18868,7 +19220,7 @@
         <v>719</v>
       </c>
       <c r="H85" s="48" t="s">
-        <v>969</v>
+        <v>919</v>
       </c>
     </row>
     <row r="86" spans="2:8" x14ac:dyDescent="0.25">
@@ -18890,7 +19242,7 @@
         <v>721</v>
       </c>
       <c r="H87" s="47" t="s">
-        <v>970</v>
+        <v>920</v>
       </c>
     </row>
     <row r="88" spans="2:8" x14ac:dyDescent="0.25">
@@ -18912,7 +19264,7 @@
         <v>724</v>
       </c>
       <c r="H89" s="48" t="s">
-        <v>971</v>
+        <v>921</v>
       </c>
     </row>
     <row r="90" spans="2:8" x14ac:dyDescent="0.25">
@@ -18949,7 +19301,7 @@
         <v>726</v>
       </c>
       <c r="H94" s="47" t="s">
-        <v>972</v>
+        <v>922</v>
       </c>
     </row>
     <row r="95" spans="2:8" x14ac:dyDescent="0.25">
@@ -18971,7 +19323,7 @@
         <v>729</v>
       </c>
       <c r="H96" s="47" t="s">
-        <v>973</v>
+        <v>923</v>
       </c>
     </row>
     <row r="97" spans="2:2" x14ac:dyDescent="0.25">
@@ -18990,138 +19342,214 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72BBE916-BF25-4564-8A64-9F407011F034}">
-  <dimension ref="A1:K5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5E3748E-0C02-4199-BD0F-3C6FE541843C}">
+  <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K5" sqref="K5"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="36.42578125" customWidth="1"/>
-    <col min="8" max="8" width="38.85546875" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" customWidth="1"/>
-    <col min="10" max="10" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="46.28515625" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>837</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>838</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>839</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>840</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>841</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>842</v>
-      </c>
-      <c r="I1" s="22" t="s">
-        <v>843</v>
-      </c>
-      <c r="J1" s="13" t="s">
-        <v>208</v>
-      </c>
-      <c r="K1" s="13" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
-        <v>361</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>295</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>844</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>844</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>845</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>846</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>930</v>
-      </c>
-      <c r="H2" s="24" t="s">
-        <v>847</v>
-      </c>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D3" s="15"/>
-    </row>
-    <row r="4" spans="1:11" ht="135" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
-        <v>210</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>211</v>
-      </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16" t="s">
-        <v>212</v>
-      </c>
-      <c r="K4" s="14" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
-        <v>213</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>211</v>
-      </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16" t="s">
-        <v>212</v>
-      </c>
-      <c r="K5" s="14" t="s">
-        <v>215</v>
+    <row r="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="54" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B1" s="54" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1051</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/app/config/tables/MIF/forms/MIF/MIF.xlsx
+++ b/app/config/tables/MIF/forms/MIF/MIF.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFFE8DBD-8BAC-4F1E-AD6D-5AAEA47BC22D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE3BBEB6-1B64-44E5-8553-24C0A22C2058}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="649" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="649" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -4231,7 +4231,7 @@
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K5" sqref="K5"/>
+      <selection pane="bottomLeft" activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11365,9 +11365,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{568D4494-839B-4F7A-8E9C-72B7EC0E8A88}">
   <dimension ref="A1:N146"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E94" sqref="E94"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G63" sqref="G63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12930,9 +12930,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF620B59-79FA-4646-92DD-ED95E169989F}">
   <dimension ref="A1:M481"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K11" sqref="K11"/>
+      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13143,7 +13143,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D18" s="29" t="s">
         <v>113</v>
       </c>
@@ -17981,6 +17981,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/app/config/tables/MIF/forms/MIF/MIF.xlsx
+++ b/app/config/tables/MIF/forms/MIF/MIF.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE3BBEB6-1B64-44E5-8553-24C0A22C2058}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FA3B438-B9DD-414B-AC11-73B6190B13E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="649" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="649" firstSheet="2" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3682" uniqueCount="1149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3684" uniqueCount="1149">
   <si>
     <t>setting_name</t>
   </si>
@@ -2553,9 +2553,6 @@
     <t>fieldName</t>
   </si>
   <si>
-    <t>GRAVIDA_VISIT</t>
-  </si>
-  <si>
     <t>REGID = ?</t>
   </si>
   <si>
@@ -2722,9 +2719,6 @@
   </si>
   <si>
     <t>data('VAC20DATA') == null</t>
-  </si>
-  <si>
-    <t>{REGID: data('REGID'), CONT: data('CONT'), MULPRESA: data('ESTADOVIS'), VISITID: opendatakit.getCurrentInstanceId(), ASSISTENTE: data('ASSISTENTE')}</t>
   </si>
   <si>
     <t>Data de nascimento</t>
@@ -3576,6 +3570,12 @@
   </si>
   <si>
     <t>A 3º criança ainda está viva?</t>
+  </si>
+  <si>
+    <t>{REGID: data('REGID'), CONT: data('CONT'), MULPRESA1: data('ESTADOVIS'), VISITID: opendatakit.getCurrentInstanceId(), ASSISTENTE: data('ASSISTENTE')}</t>
+  </si>
+  <si>
+    <t>GRAVIDA</t>
   </si>
 </sst>
 </file>
@@ -4213,10 +4213,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="B9" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
   </sheetData>
@@ -4229,9 +4229,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72BBE916-BF25-4564-8A64-9F407011F034}">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4290,23 +4290,23 @@
       <c r="B2" s="16" t="s">
         <v>294</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" t="s">
+        <v>1148</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1148</v>
+      </c>
+      <c r="E2" s="16" t="s">
         <v>834</v>
       </c>
-      <c r="D2" s="16" t="s">
-        <v>834</v>
-      </c>
-      <c r="E2" s="16" t="s">
+      <c r="F2" s="16" t="s">
         <v>835</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="G2" s="16" t="s">
+        <v>1147</v>
+      </c>
+      <c r="H2" s="24" t="s">
         <v>836</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>891</v>
-      </c>
-      <c r="H2" s="24" t="s">
-        <v>837</v>
       </c>
       <c r="I2" s="16"/>
       <c r="J2" s="16"/>
@@ -4412,7 +4412,7 @@
         <v>197</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -4434,8 +4434,8 @@
   <dimension ref="A1:E126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C36" sqref="C36:D41"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A46" sqref="A46:XFD51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4846,7 +4846,7 @@
         <v>73</v>
       </c>
       <c r="D26" s="47" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="E26" s="47"/>
     </row>
@@ -5093,7 +5093,7 @@
         <v>248</v>
       </c>
       <c r="D42" s="47" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="E42" s="47"/>
     </row>
@@ -5769,7 +5769,7 @@
         <v>800</v>
       </c>
       <c r="D85" s="47" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="E85" s="47"/>
     </row>
@@ -5847,10 +5847,10 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="B90" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="C90" t="s">
         <v>802</v>
@@ -5861,38 +5861,38 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
+        <v>943</v>
+      </c>
+      <c r="B91" t="s">
         <v>945</v>
       </c>
-      <c r="B91" t="s">
+      <c r="C91" t="s">
+        <v>946</v>
+      </c>
+      <c r="D91" t="s">
         <v>947</v>
-      </c>
-      <c r="C91" t="s">
-        <v>948</v>
-      </c>
-      <c r="D91" t="s">
-        <v>949</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="B92" t="s">
+        <v>948</v>
+      </c>
+      <c r="C92" t="s">
+        <v>949</v>
+      </c>
+      <c r="D92" t="s">
         <v>950</v>
-      </c>
-      <c r="C92" t="s">
-        <v>951</v>
-      </c>
-      <c r="D92" t="s">
-        <v>952</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="B93" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="C93" t="s">
         <v>801</v>
@@ -5903,13 +5903,13 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="B94" t="s">
         <v>65</v>
       </c>
       <c r="C94" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="D94" t="s">
         <v>803</v>
@@ -5917,13 +5917,13 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="B95" t="s">
         <v>66</v>
       </c>
       <c r="C95" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="D95" t="s">
         <v>32</v>
@@ -6267,27 +6267,27 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
+        <v>933</v>
+      </c>
+      <c r="B117" t="s">
+        <v>934</v>
+      </c>
+      <c r="C117" t="s">
         <v>935</v>
       </c>
-      <c r="B117" t="s">
+      <c r="D117" t="s">
         <v>936</v>
-      </c>
-      <c r="C117" t="s">
-        <v>937</v>
-      </c>
-      <c r="D117" t="s">
-        <v>938</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="B118" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="C118" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="D118" t="s">
         <v>822</v>
@@ -6295,21 +6295,21 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="B119" t="s">
+        <v>939</v>
+      </c>
+      <c r="C119" t="s">
+        <v>940</v>
+      </c>
+      <c r="D119" t="s">
         <v>941</v>
-      </c>
-      <c r="C119" t="s">
-        <v>942</v>
-      </c>
-      <c r="D119" t="s">
-        <v>943</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="B120" t="s">
         <v>65</v>
@@ -6323,13 +6323,13 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="B121" t="s">
         <v>66</v>
       </c>
       <c r="C121" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="D121" t="s">
         <v>32</v>
@@ -6337,7 +6337,7 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="47" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="B122" s="47" t="str">
         <f>"1"</f>
@@ -6353,7 +6353,7 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="47" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="B123" s="47" t="str">
         <f>"2"</f>
@@ -6369,7 +6369,7 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="47" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="B124" s="47" t="str">
         <f>"3"</f>
@@ -6385,7 +6385,7 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="47" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="B125" s="47" t="str">
         <f>"4"</f>
@@ -6401,7 +6401,7 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="47" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="B126" s="47" t="str">
         <f>"5"</f>
@@ -6424,16 +6424,16 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FCD3AC6-97A9-4343-AD51-53B42E3E4B29}">
-  <dimension ref="A1:F258"/>
+  <dimension ref="A1:F260"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A52" sqref="A52:A60"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A245" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A260" sqref="A260"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -6495,7 +6495,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -6506,7 +6506,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -6517,7 +6517,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B8" t="s">
         <v>221</v>
@@ -6814,7 +6814,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B35" t="s">
         <v>103</v>
@@ -6990,7 +6990,7 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="29" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="B52" t="s">
         <v>24</v>
@@ -7001,7 +7001,7 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="29" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="B53" s="47" t="s">
         <v>24</v>
@@ -7012,7 +7012,7 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="29" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="B54" s="47" t="s">
         <v>24</v>
@@ -7023,7 +7023,7 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="29" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="B55" t="s">
         <v>253</v>
@@ -7034,7 +7034,7 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="29" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="B56" s="47" t="s">
         <v>253</v>
@@ -7045,7 +7045,7 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="29" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="B57" s="47" t="s">
         <v>253</v>
@@ -7056,7 +7056,7 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="29" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="B58" s="47" t="s">
         <v>24</v>
@@ -7067,7 +7067,7 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="29" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="B59" s="47" t="s">
         <v>24</v>
@@ -7080,7 +7080,7 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="29" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="B60" t="s">
         <v>24</v>
@@ -8889,7 +8889,7 @@
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B230" t="s">
         <v>24</v>
@@ -8955,7 +8955,7 @@
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B236" s="17" t="s">
         <v>103</v>
@@ -9120,7 +9120,7 @@
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B251" t="s">
         <v>103</v>
@@ -9153,7 +9153,7 @@
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B255" t="s">
         <v>24</v>
@@ -9164,7 +9164,7 @@
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B256" t="s">
         <v>24</v>
@@ -9175,7 +9175,7 @@
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B257" t="s">
         <v>24</v>
@@ -9186,13 +9186,24 @@
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="B258" t="s">
         <v>253</v>
       </c>
       <c r="C258" t="b">
         <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B260" t="s">
+        <v>24</v>
+      </c>
+      <c r="C260" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -9264,7 +9275,7 @@
         <v>122</v>
       </c>
       <c r="C2" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -9274,12 +9285,12 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -9361,10 +9372,10 @@
         <v>173</v>
       </c>
       <c r="G3" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="H3" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -9372,10 +9383,10 @@
         <v>173</v>
       </c>
       <c r="G4" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="H4" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -9383,10 +9394,10 @@
         <v>173</v>
       </c>
       <c r="G5" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="H5" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -9394,10 +9405,10 @@
         <v>173</v>
       </c>
       <c r="G6" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="H6" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -9405,10 +9416,10 @@
         <v>173</v>
       </c>
       <c r="G7" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="H7" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -9416,7 +9427,7 @@
         <v>122</v>
       </c>
       <c r="C8" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -9424,10 +9435,10 @@
         <v>173</v>
       </c>
       <c r="G9" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="H9" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -9440,7 +9451,7 @@
         <v>122</v>
       </c>
       <c r="C11" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -9448,10 +9459,10 @@
         <v>173</v>
       </c>
       <c r="G12" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="H12" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -9464,7 +9475,7 @@
         <v>122</v>
       </c>
       <c r="C14" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -9472,10 +9483,10 @@
         <v>173</v>
       </c>
       <c r="G15" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="H15" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -9488,7 +9499,7 @@
         <v>122</v>
       </c>
       <c r="C17" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -9496,10 +9507,10 @@
         <v>173</v>
       </c>
       <c r="G18" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="H18" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -9512,7 +9523,7 @@
         <v>122</v>
       </c>
       <c r="C20" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -9520,10 +9531,10 @@
         <v>173</v>
       </c>
       <c r="G21" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="H21" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -9536,7 +9547,7 @@
         <v>122</v>
       </c>
       <c r="C23" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -9544,10 +9555,10 @@
         <v>173</v>
       </c>
       <c r="G24" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="H24" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -9560,7 +9571,7 @@
         <v>122</v>
       </c>
       <c r="C26" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -9568,10 +9579,10 @@
         <v>173</v>
       </c>
       <c r="G27" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="H27" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -9584,10 +9595,10 @@
         <v>173</v>
       </c>
       <c r="G29" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="H29" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -9598,13 +9609,13 @@
         <v>346</v>
       </c>
       <c r="F30" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="G30" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="H30" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -9618,7 +9629,7 @@
         <v>122</v>
       </c>
       <c r="C32" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
@@ -9631,7 +9642,7 @@
         <v>103</v>
       </c>
       <c r="F34" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="G34" t="s">
         <v>104</v>
@@ -9651,7 +9662,7 @@
         <v>111</v>
       </c>
       <c r="H35" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
@@ -9742,10 +9753,10 @@
         <v>173</v>
       </c>
       <c r="G43" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="H43" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.25">
@@ -9753,10 +9764,10 @@
         <v>173</v>
       </c>
       <c r="G44" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="H44" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.25">
@@ -9764,10 +9775,10 @@
         <v>173</v>
       </c>
       <c r="G45" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="H45" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.25">
@@ -9775,10 +9786,10 @@
         <v>173</v>
       </c>
       <c r="G46" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="H46" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.25">
@@ -9786,10 +9797,10 @@
         <v>173</v>
       </c>
       <c r="G47" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="H47" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.25">
@@ -9797,7 +9808,7 @@
         <v>122</v>
       </c>
       <c r="C48" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.25">
@@ -9805,10 +9816,10 @@
         <v>173</v>
       </c>
       <c r="G49" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="H49" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.25">
@@ -9821,7 +9832,7 @@
         <v>122</v>
       </c>
       <c r="C51" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.25">
@@ -9829,10 +9840,10 @@
         <v>173</v>
       </c>
       <c r="G52" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="H52" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.25">
@@ -9845,7 +9856,7 @@
         <v>122</v>
       </c>
       <c r="C54" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.25">
@@ -9853,10 +9864,10 @@
         <v>173</v>
       </c>
       <c r="G55" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="H55" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.25">
@@ -9869,7 +9880,7 @@
         <v>122</v>
       </c>
       <c r="C57" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.25">
@@ -9877,10 +9888,10 @@
         <v>173</v>
       </c>
       <c r="G58" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="H58" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.25">
@@ -9893,7 +9904,7 @@
         <v>122</v>
       </c>
       <c r="C60" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.25">
@@ -9901,10 +9912,10 @@
         <v>173</v>
       </c>
       <c r="G61" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="H61" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.25">
@@ -9917,7 +9928,7 @@
         <v>122</v>
       </c>
       <c r="C63" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.25">
@@ -9925,10 +9936,10 @@
         <v>173</v>
       </c>
       <c r="G64" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="H64" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
@@ -9941,7 +9952,7 @@
         <v>122</v>
       </c>
       <c r="C66" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
@@ -9949,10 +9960,10 @@
         <v>173</v>
       </c>
       <c r="G67" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="H67" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
@@ -9965,10 +9976,10 @@
         <v>173</v>
       </c>
       <c r="G69" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="H69" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
@@ -10046,13 +10057,13 @@
         <v>135</v>
       </c>
       <c r="J1" s="5" t="s">
+        <v>960</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>961</v>
+      </c>
+      <c r="L1" s="5" t="s">
         <v>962</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>963</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>964</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -10066,7 +10077,7 @@
         <v>122</v>
       </c>
       <c r="C3" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -10074,10 +10085,10 @@
         <v>129</v>
       </c>
       <c r="F4" t="s">
+        <v>1080</v>
+      </c>
+      <c r="I4" t="s">
         <v>1082</v>
-      </c>
-      <c r="I4" t="s">
-        <v>1084</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -10103,10 +10114,10 @@
         <v>173</v>
       </c>
       <c r="G7" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="H7" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -10114,10 +10125,10 @@
         <v>173</v>
       </c>
       <c r="G8" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="H8" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -10179,7 +10190,7 @@
         <v>103</v>
       </c>
       <c r="F14" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="G14" t="s">
         <v>104</v>
@@ -10226,13 +10237,13 @@
         <v>112</v>
       </c>
       <c r="J18" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="K18" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="L18" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.25">
@@ -10442,7 +10453,7 @@
         <v>122</v>
       </c>
       <c r="C42" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
@@ -10453,7 +10464,7 @@
         <v>186</v>
       </c>
       <c r="I43" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
@@ -10602,13 +10613,13 @@
         <v>29</v>
       </c>
       <c r="F59" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>231</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="60" spans="2:17" x14ac:dyDescent="0.25">
@@ -10616,7 +10627,7 @@
         <v>122</v>
       </c>
       <c r="C60" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
@@ -10626,7 +10637,7 @@
         <v>24</v>
       </c>
       <c r="F61" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>232</v>
@@ -10643,7 +10654,7 @@
         <v>222</v>
       </c>
       <c r="F62" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="63" spans="2:17" x14ac:dyDescent="0.25">
@@ -10651,7 +10662,7 @@
         <v>122</v>
       </c>
       <c r="C63" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
     </row>
     <row r="64" spans="2:17" x14ac:dyDescent="0.25">
@@ -10659,7 +10670,7 @@
         <v>129</v>
       </c>
       <c r="F64" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="I64" s="18">
         <v>99</v>
@@ -11353,7 +11364,7 @@
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
   </sheetData>
@@ -11366,8 +11377,8 @@
   <dimension ref="A1:N146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G63" sqref="G63"/>
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F68" sqref="F68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11418,13 +11429,13 @@
         <v>135</v>
       </c>
       <c r="J1" s="4" t="s">
+        <v>960</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>961</v>
+      </c>
+      <c r="L1" s="4" t="s">
         <v>962</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>963</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>964</v>
       </c>
       <c r="M1" s="27" t="s">
         <v>279</v>
@@ -11447,10 +11458,10 @@
         <v>173</v>
       </c>
       <c r="G3" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="H3" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -11458,7 +11469,7 @@
         <v>122</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="J4"/>
       <c r="K4"/>
@@ -11469,10 +11480,10 @@
         <v>173</v>
       </c>
       <c r="G5" s="29" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="H5" s="29" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="J5"/>
       <c r="K5"/>
@@ -11491,10 +11502,10 @@
         <v>173</v>
       </c>
       <c r="G7" s="29" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="H7" s="29" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="J7"/>
       <c r="K7"/>
@@ -11514,7 +11525,7 @@
         <v>122</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="J9"/>
       <c r="K9"/>
@@ -11526,10 +11537,10 @@
         <v>173</v>
       </c>
       <c r="G10" s="29" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="H10" s="29" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="J10"/>
       <c r="K10"/>
@@ -11550,7 +11561,7 @@
         <v>122</v>
       </c>
       <c r="C12" s="29" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="J12"/>
       <c r="K12"/>
@@ -11562,10 +11573,10 @@
         <v>173</v>
       </c>
       <c r="G13" s="29" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="H13" s="29" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="J13"/>
       <c r="K13"/>
@@ -11586,7 +11597,7 @@
         <v>122</v>
       </c>
       <c r="C15" s="29" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="J15"/>
       <c r="K15"/>
@@ -11598,10 +11609,10 @@
         <v>173</v>
       </c>
       <c r="G16" s="29" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="H16" s="29" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="J16"/>
       <c r="K16"/>
@@ -11622,7 +11633,7 @@
         <v>122</v>
       </c>
       <c r="C18" s="29" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="J18"/>
       <c r="K18"/>
@@ -11634,10 +11645,10 @@
         <v>173</v>
       </c>
       <c r="G19" s="29" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="H19" s="29" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="J19"/>
       <c r="K19"/>
@@ -11658,7 +11669,7 @@
         <v>122</v>
       </c>
       <c r="C21" s="29" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="J21"/>
       <c r="K21"/>
@@ -11670,10 +11681,10 @@
         <v>173</v>
       </c>
       <c r="G22" s="29" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="H22" s="29" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="J22"/>
       <c r="K22"/>
@@ -11694,7 +11705,7 @@
         <v>122</v>
       </c>
       <c r="C24" s="29" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="J24"/>
       <c r="K24"/>
@@ -11705,10 +11716,10 @@
         <v>173</v>
       </c>
       <c r="G25" s="29" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="H25" s="29" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="J25"/>
       <c r="K25"/>
@@ -11767,13 +11778,13 @@
         <v>288</v>
       </c>
       <c r="J29" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="K29" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="L29" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -11784,7 +11795,7 @@
         <v>202</v>
       </c>
       <c r="I30" s="29" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="J30"/>
       <c r="K30"/>
@@ -11839,7 +11850,7 @@
         <v>122</v>
       </c>
       <c r="C35" s="29" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="J35"/>
       <c r="K35"/>
@@ -11911,7 +11922,7 @@
         <v>122</v>
       </c>
       <c r="C42" s="29" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="J42"/>
       <c r="K42"/>
@@ -11945,7 +11956,7 @@
         <v>296</v>
       </c>
       <c r="H45" s="29" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
@@ -12012,13 +12023,13 @@
         <v>307</v>
       </c>
       <c r="J50" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="K50" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="L50" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
@@ -12052,10 +12063,10 @@
         <v>173</v>
       </c>
       <c r="G56" s="29" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="H56" s="29" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
@@ -12103,7 +12114,7 @@
         <v>122</v>
       </c>
       <c r="C60" s="29" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
@@ -12134,7 +12145,7 @@
         <v>315</v>
       </c>
       <c r="H63" s="29" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
@@ -12170,13 +12181,13 @@
         <v>319</v>
       </c>
       <c r="J67" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="K67" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="L67" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
@@ -12184,13 +12195,13 @@
         <v>24</v>
       </c>
       <c r="F68" s="29" t="s">
+        <v>1115</v>
+      </c>
+      <c r="G68" s="29" t="s">
+        <v>1116</v>
+      </c>
+      <c r="H68" s="29" t="s">
         <v>1117</v>
-      </c>
-      <c r="G68" s="29" t="s">
-        <v>1118</v>
-      </c>
-      <c r="H68" s="29" t="s">
-        <v>1119</v>
       </c>
       <c r="J68"/>
       <c r="K68"/>
@@ -12220,13 +12231,13 @@
         <v>320</v>
       </c>
       <c r="F71" s="29" t="s">
+        <v>1118</v>
+      </c>
+      <c r="G71" s="29" t="s">
+        <v>1119</v>
+      </c>
+      <c r="H71" s="29" t="s">
         <v>1120</v>
-      </c>
-      <c r="G71" s="29" t="s">
-        <v>1121</v>
-      </c>
-      <c r="H71" s="29" t="s">
-        <v>1122</v>
       </c>
       <c r="J71"/>
       <c r="K71"/>
@@ -12237,7 +12248,7 @@
         <v>122</v>
       </c>
       <c r="C72" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="J72"/>
       <c r="K72"/>
@@ -12253,13 +12264,13 @@
         <v>320</v>
       </c>
       <c r="F73" s="29" t="s">
+        <v>1122</v>
+      </c>
+      <c r="G73" s="29" t="s">
+        <v>1123</v>
+      </c>
+      <c r="H73" s="29" t="s">
         <v>1124</v>
-      </c>
-      <c r="G73" s="29" t="s">
-        <v>1125</v>
-      </c>
-      <c r="H73" s="29" t="s">
-        <v>1126</v>
       </c>
       <c r="J73"/>
       <c r="K73"/>
@@ -12279,7 +12290,7 @@
         <v>122</v>
       </c>
       <c r="C75" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="J75"/>
       <c r="K75"/>
@@ -12295,13 +12306,13 @@
         <v>320</v>
       </c>
       <c r="F76" s="29" t="s">
+        <v>1126</v>
+      </c>
+      <c r="G76" s="29" t="s">
+        <v>1127</v>
+      </c>
+      <c r="H76" s="29" t="s">
         <v>1128</v>
-      </c>
-      <c r="G76" s="29" t="s">
-        <v>1129</v>
-      </c>
-      <c r="H76" s="29" t="s">
-        <v>1130</v>
       </c>
       <c r="J76"/>
       <c r="K76"/>
@@ -12330,7 +12341,7 @@
         <v>122</v>
       </c>
       <c r="C79" s="29" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="J79"/>
       <c r="K79"/>
@@ -12352,13 +12363,13 @@
         <v>29</v>
       </c>
       <c r="F81" s="29" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="G81" s="29" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="H81" s="29" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="J81"/>
       <c r="K81"/>
@@ -12369,7 +12380,7 @@
         <v>122</v>
       </c>
       <c r="C82" s="29" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="83" spans="2:12" x14ac:dyDescent="0.25">
@@ -12377,7 +12388,7 @@
         <v>253</v>
       </c>
       <c r="F83" s="29" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="G83" s="29" t="s">
         <v>321</v>
@@ -12406,7 +12417,7 @@
         <v>122</v>
       </c>
       <c r="C87" s="29" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="J87"/>
       <c r="K87"/>
@@ -12428,13 +12439,13 @@
         <v>29</v>
       </c>
       <c r="F89" s="29" t="s">
+        <v>1137</v>
+      </c>
+      <c r="G89" s="29" t="s">
         <v>1139</v>
       </c>
-      <c r="G89" s="29" t="s">
-        <v>1141</v>
-      </c>
       <c r="H89" s="29" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="J89"/>
       <c r="K89"/>
@@ -12445,7 +12456,7 @@
         <v>122</v>
       </c>
       <c r="C90" s="29" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="91" spans="2:12" x14ac:dyDescent="0.25">
@@ -12453,7 +12464,7 @@
         <v>253</v>
       </c>
       <c r="F91" s="29" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="G91" s="29" t="s">
         <v>321</v>
@@ -12482,7 +12493,7 @@
         <v>122</v>
       </c>
       <c r="C95" s="29" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="J95"/>
       <c r="K95"/>
@@ -12504,13 +12515,13 @@
         <v>29</v>
       </c>
       <c r="F97" s="29" t="s">
+        <v>1143</v>
+      </c>
+      <c r="G97" s="29" t="s">
         <v>1145</v>
       </c>
-      <c r="G97" s="29" t="s">
-        <v>1147</v>
-      </c>
       <c r="H97" s="29" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="J97"/>
       <c r="K97"/>
@@ -12521,7 +12532,7 @@
         <v>122</v>
       </c>
       <c r="C98" s="29" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
@@ -12529,7 +12540,7 @@
         <v>253</v>
       </c>
       <c r="F99" s="29" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="G99" s="29" t="s">
         <v>321</v>
@@ -12812,7 +12823,7 @@
         <v>348</v>
       </c>
       <c r="H130" s="29" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
@@ -12845,7 +12856,7 @@
         <v>122</v>
       </c>
       <c r="C135" s="29" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
@@ -12883,7 +12894,7 @@
         <v>122</v>
       </c>
       <c r="C141" s="29" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
@@ -12899,7 +12910,7 @@
         <v>350</v>
       </c>
       <c r="H143" s="29" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
@@ -12930,7 +12941,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF620B59-79FA-4646-92DD-ED95E169989F}">
   <dimension ref="A1:M481"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
     </sheetView>
@@ -12985,13 +12996,13 @@
         <v>226</v>
       </c>
       <c r="K1" s="4" t="s">
+        <v>960</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>961</v>
+      </c>
+      <c r="M1" s="4" t="s">
         <v>962</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>963</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>964</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -13002,7 +13013,7 @@
         <v>122</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -13070,7 +13081,7 @@
         <v>362</v>
       </c>
       <c r="H9" s="29" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -13104,13 +13115,13 @@
         <v>368</v>
       </c>
       <c r="K11" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="L11" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="M11" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -13154,10 +13165,10 @@
         <v>371</v>
       </c>
       <c r="G18" s="42" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="H18" s="42" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="J18" s="42"/>
     </row>
@@ -13183,7 +13194,7 @@
         <v>362</v>
       </c>
       <c r="H20" s="29" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -13217,13 +13228,13 @@
         <v>368</v>
       </c>
       <c r="K22" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="L22" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="M22" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -13250,7 +13261,7 @@
         <v>122</v>
       </c>
       <c r="C26" s="29" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
@@ -13318,7 +13329,7 @@
         <v>362</v>
       </c>
       <c r="H33" s="29" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.25">
@@ -13352,13 +13363,13 @@
         <v>368</v>
       </c>
       <c r="K35" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="L35" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="M35" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.25">
@@ -13405,10 +13416,10 @@
         <v>382</v>
       </c>
       <c r="G42" s="42" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="H42" s="42" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.25">
@@ -13433,7 +13444,7 @@
         <v>362</v>
       </c>
       <c r="H44" s="29" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.25">
@@ -13467,13 +13478,13 @@
         <v>368</v>
       </c>
       <c r="K46" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="L46" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="M46" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.25">
@@ -13501,7 +13512,7 @@
         <v>122</v>
       </c>
       <c r="C50" s="29" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
@@ -13569,7 +13580,7 @@
         <v>362</v>
       </c>
       <c r="H57" s="29" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
@@ -13603,13 +13614,13 @@
         <v>368</v>
       </c>
       <c r="K59" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="L59" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="M59" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
@@ -13653,10 +13664,10 @@
         <v>392</v>
       </c>
       <c r="G66" s="42" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="H66" s="42" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
@@ -13681,7 +13692,7 @@
         <v>362</v>
       </c>
       <c r="H68" s="29" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
@@ -13715,13 +13726,13 @@
         <v>368</v>
       </c>
       <c r="K70" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="L70" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="M70" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
@@ -13748,7 +13759,7 @@
         <v>122</v>
       </c>
       <c r="C74" s="29" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
@@ -13817,7 +13828,7 @@
         <v>362</v>
       </c>
       <c r="H81" s="29" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="82" spans="2:13" x14ac:dyDescent="0.25">
@@ -13851,13 +13862,13 @@
         <v>368</v>
       </c>
       <c r="K83" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="L83" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="M83" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
     </row>
     <row r="84" spans="2:13" x14ac:dyDescent="0.25">
@@ -13904,10 +13915,10 @@
         <v>402</v>
       </c>
       <c r="G90" s="42" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="H90" s="42" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="91" spans="2:13" x14ac:dyDescent="0.25">
@@ -13932,7 +13943,7 @@
         <v>362</v>
       </c>
       <c r="H92" s="29" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="93" spans="2:13" x14ac:dyDescent="0.25">
@@ -13966,13 +13977,13 @@
         <v>368</v>
       </c>
       <c r="K94" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="L94" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="M94" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
     </row>
     <row r="95" spans="2:13" x14ac:dyDescent="0.25">
@@ -13999,7 +14010,7 @@
         <v>122</v>
       </c>
       <c r="C98" s="29" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
@@ -14067,7 +14078,7 @@
         <v>362</v>
       </c>
       <c r="H105" s="29" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.25">
@@ -14101,13 +14112,13 @@
         <v>368</v>
       </c>
       <c r="K107" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="L107" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="M107" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.25">
@@ -14152,10 +14163,10 @@
         <v>412</v>
       </c>
       <c r="G114" s="42" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="H114" s="42" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.25">
@@ -14180,7 +14191,7 @@
         <v>362</v>
       </c>
       <c r="H116" s="29" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.25">
@@ -14214,13 +14225,13 @@
         <v>368</v>
       </c>
       <c r="K118" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="L118" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="M118" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.25">
@@ -14247,7 +14258,7 @@
         <v>122</v>
       </c>
       <c r="C122" s="29" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.25">
@@ -14315,7 +14326,7 @@
         <v>362</v>
       </c>
       <c r="H129" s="29" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="130" spans="2:13" x14ac:dyDescent="0.25">
@@ -14349,13 +14360,13 @@
         <v>368</v>
       </c>
       <c r="K131" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="L131" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="M131" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
     </row>
     <row r="132" spans="2:13" x14ac:dyDescent="0.25">
@@ -14402,10 +14413,10 @@
         <v>422</v>
       </c>
       <c r="G138" s="42" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="H138" s="42" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="139" spans="2:13" x14ac:dyDescent="0.25">
@@ -14430,7 +14441,7 @@
         <v>362</v>
       </c>
       <c r="H140" s="29" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="141" spans="2:13" x14ac:dyDescent="0.25">
@@ -14465,13 +14476,13 @@
       </c>
       <c r="J142" s="42"/>
       <c r="K142" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="L142" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="M142" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
     </row>
     <row r="143" spans="2:13" x14ac:dyDescent="0.25">
@@ -14498,7 +14509,7 @@
         <v>122</v>
       </c>
       <c r="C146" s="29" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.25">
@@ -14566,7 +14577,7 @@
         <v>362</v>
       </c>
       <c r="H153" s="29" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.25">
@@ -14600,13 +14611,13 @@
         <v>368</v>
       </c>
       <c r="K155" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="L155" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="M155" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.25">
@@ -14650,10 +14661,10 @@
         <v>432</v>
       </c>
       <c r="G162" s="42" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="H162" s="42" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.25">
@@ -14678,7 +14689,7 @@
         <v>362</v>
       </c>
       <c r="H164" s="29" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.25">
@@ -14712,13 +14723,13 @@
         <v>368</v>
       </c>
       <c r="K166" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="L166" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="M166" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.25">
@@ -14745,7 +14756,7 @@
         <v>122</v>
       </c>
       <c r="C170" s="29" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="171" spans="1:13" x14ac:dyDescent="0.25">
@@ -14814,7 +14825,7 @@
         <v>362</v>
       </c>
       <c r="H177" s="29" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="178" spans="2:13" x14ac:dyDescent="0.25">
@@ -14848,13 +14859,13 @@
         <v>368</v>
       </c>
       <c r="K179" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="L179" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="M179" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
     </row>
     <row r="180" spans="2:13" x14ac:dyDescent="0.25">
@@ -14901,10 +14912,10 @@
         <v>442</v>
       </c>
       <c r="G186" s="42" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="H186" s="42" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="187" spans="2:13" x14ac:dyDescent="0.25">
@@ -14929,7 +14940,7 @@
         <v>362</v>
       </c>
       <c r="H188" s="29" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="189" spans="2:13" x14ac:dyDescent="0.25">
@@ -14963,13 +14974,13 @@
         <v>368</v>
       </c>
       <c r="K190" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="L190" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="M190" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
     </row>
     <row r="191" spans="2:13" x14ac:dyDescent="0.25">
@@ -14996,7 +15007,7 @@
         <v>122</v>
       </c>
       <c r="C194" s="29" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="195" spans="1:13" x14ac:dyDescent="0.25">
@@ -15064,7 +15075,7 @@
         <v>362</v>
       </c>
       <c r="H201" s="29" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="202" spans="1:13" x14ac:dyDescent="0.25">
@@ -15098,13 +15109,13 @@
         <v>368</v>
       </c>
       <c r="K203" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="L203" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="M203" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
     </row>
     <row r="204" spans="1:13" x14ac:dyDescent="0.25">
@@ -15149,10 +15160,10 @@
         <v>452</v>
       </c>
       <c r="G210" s="42" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="H210" s="42" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="211" spans="1:13" x14ac:dyDescent="0.25">
@@ -15177,7 +15188,7 @@
         <v>362</v>
       </c>
       <c r="H212" s="29" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="213" spans="1:13" x14ac:dyDescent="0.25">
@@ -15211,13 +15222,13 @@
         <v>368</v>
       </c>
       <c r="K214" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="L214" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="M214" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
     </row>
     <row r="215" spans="1:13" x14ac:dyDescent="0.25">
@@ -15244,7 +15255,7 @@
         <v>122</v>
       </c>
       <c r="C218" s="29" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="219" spans="1:13" x14ac:dyDescent="0.25">
@@ -15312,7 +15323,7 @@
         <v>362</v>
       </c>
       <c r="H225" s="29" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="226" spans="2:13" x14ac:dyDescent="0.25">
@@ -15346,13 +15357,13 @@
         <v>368</v>
       </c>
       <c r="K227" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="L227" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="M227" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
     </row>
     <row r="228" spans="2:13" x14ac:dyDescent="0.25">
@@ -15399,10 +15410,10 @@
         <v>462</v>
       </c>
       <c r="G234" s="42" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="H234" s="42" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="235" spans="2:13" x14ac:dyDescent="0.25">
@@ -15428,7 +15439,7 @@
         <v>362</v>
       </c>
       <c r="H236" s="29" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="237" spans="2:13" x14ac:dyDescent="0.25">
@@ -15462,13 +15473,13 @@
         <v>368</v>
       </c>
       <c r="K238" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="L238" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="M238" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
     </row>
     <row r="239" spans="2:13" x14ac:dyDescent="0.25">
@@ -15495,7 +15506,7 @@
         <v>122</v>
       </c>
       <c r="C242" s="29" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="243" spans="1:13" x14ac:dyDescent="0.25">
@@ -15563,7 +15574,7 @@
         <v>362</v>
       </c>
       <c r="H249" s="29" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="250" spans="1:13" x14ac:dyDescent="0.25">
@@ -15597,13 +15608,13 @@
         <v>368</v>
       </c>
       <c r="K251" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="L251" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="M251" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
     </row>
     <row r="252" spans="1:13" x14ac:dyDescent="0.25">
@@ -15647,10 +15658,10 @@
         <v>472</v>
       </c>
       <c r="G258" s="42" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="H258" s="42" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="259" spans="1:13" x14ac:dyDescent="0.25">
@@ -15675,7 +15686,7 @@
         <v>362</v>
       </c>
       <c r="H260" s="29" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="261" spans="1:13" x14ac:dyDescent="0.25">
@@ -15709,13 +15720,13 @@
         <v>368</v>
       </c>
       <c r="K262" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="L262" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="M262" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
     </row>
     <row r="263" spans="1:13" x14ac:dyDescent="0.25">
@@ -15742,7 +15753,7 @@
         <v>122</v>
       </c>
       <c r="C266" s="29" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="J266" s="42"/>
     </row>
@@ -15811,7 +15822,7 @@
         <v>362</v>
       </c>
       <c r="H273" s="29" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="274" spans="2:13" x14ac:dyDescent="0.25">
@@ -15845,13 +15856,13 @@
         <v>368</v>
       </c>
       <c r="K275" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="L275" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="M275" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
     </row>
     <row r="276" spans="2:13" x14ac:dyDescent="0.25">
@@ -15898,10 +15909,10 @@
         <v>482</v>
       </c>
       <c r="G282" s="42" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="H282" s="42" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="283" spans="2:13" x14ac:dyDescent="0.25">
@@ -15926,7 +15937,7 @@
         <v>362</v>
       </c>
       <c r="H284" s="29" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="285" spans="2:13" x14ac:dyDescent="0.25">
@@ -15960,13 +15971,13 @@
         <v>368</v>
       </c>
       <c r="K286" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="L286" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="M286" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
     </row>
     <row r="287" spans="2:13" x14ac:dyDescent="0.25">
@@ -15993,7 +16004,7 @@
         <v>122</v>
       </c>
       <c r="C290" s="29" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="291" spans="1:13" x14ac:dyDescent="0.25">
@@ -16061,7 +16072,7 @@
         <v>362</v>
       </c>
       <c r="H297" s="29" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="J297" s="42"/>
     </row>
@@ -16096,13 +16107,13 @@
         <v>368</v>
       </c>
       <c r="K299" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="L299" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="M299" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
     </row>
     <row r="300" spans="1:13" x14ac:dyDescent="0.25">
@@ -16146,10 +16157,10 @@
         <v>492</v>
       </c>
       <c r="G306" s="42" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="H306" s="42" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="307" spans="1:13" x14ac:dyDescent="0.25">
@@ -16174,7 +16185,7 @@
         <v>362</v>
       </c>
       <c r="H308" s="29" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="309" spans="1:13" x14ac:dyDescent="0.25">
@@ -16208,13 +16219,13 @@
         <v>368</v>
       </c>
       <c r="K310" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="L310" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="M310" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
     </row>
     <row r="311" spans="1:13" x14ac:dyDescent="0.25">
@@ -16241,7 +16252,7 @@
         <v>122</v>
       </c>
       <c r="C314" s="29" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="315" spans="1:13" x14ac:dyDescent="0.25">
@@ -16309,7 +16320,7 @@
         <v>362</v>
       </c>
       <c r="H321" s="29" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="322" spans="2:13" x14ac:dyDescent="0.25">
@@ -16343,13 +16354,13 @@
         <v>368</v>
       </c>
       <c r="K323" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="L323" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="M323" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
     </row>
     <row r="324" spans="2:13" x14ac:dyDescent="0.25">
@@ -16397,10 +16408,10 @@
         <v>502</v>
       </c>
       <c r="G330" s="42" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="H330" s="42" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="331" spans="2:13" x14ac:dyDescent="0.25">
@@ -16425,7 +16436,7 @@
         <v>362</v>
       </c>
       <c r="H332" s="29" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="333" spans="2:13" x14ac:dyDescent="0.25">
@@ -16459,13 +16470,13 @@
         <v>368</v>
       </c>
       <c r="K334" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="L334" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="M334" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
     </row>
     <row r="335" spans="2:13" x14ac:dyDescent="0.25">
@@ -16492,7 +16503,7 @@
         <v>122</v>
       </c>
       <c r="C338" s="29" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="339" spans="1:13" x14ac:dyDescent="0.25">
@@ -16560,7 +16571,7 @@
         <v>362</v>
       </c>
       <c r="H345" s="29" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="346" spans="1:13" x14ac:dyDescent="0.25">
@@ -16594,13 +16605,13 @@
         <v>368</v>
       </c>
       <c r="K347" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="L347" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="M347" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
     </row>
     <row r="348" spans="1:13" x14ac:dyDescent="0.25">
@@ -16644,10 +16655,10 @@
         <v>512</v>
       </c>
       <c r="G354" s="42" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="H354" s="42" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="355" spans="1:13" x14ac:dyDescent="0.25">
@@ -16672,7 +16683,7 @@
         <v>362</v>
       </c>
       <c r="H356" s="29" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="357" spans="1:13" x14ac:dyDescent="0.25">
@@ -16706,13 +16717,13 @@
         <v>368</v>
       </c>
       <c r="K358" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="L358" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="M358" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
     </row>
     <row r="359" spans="1:13" x14ac:dyDescent="0.25">
@@ -16740,7 +16751,7 @@
         <v>122</v>
       </c>
       <c r="C362" s="29" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="363" spans="1:13" x14ac:dyDescent="0.25">
@@ -16808,7 +16819,7 @@
         <v>362</v>
       </c>
       <c r="H369" s="29" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="370" spans="2:13" x14ac:dyDescent="0.25">
@@ -16842,13 +16853,13 @@
         <v>368</v>
       </c>
       <c r="K371" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="L371" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="M371" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
     </row>
     <row r="372" spans="2:13" x14ac:dyDescent="0.25">
@@ -16895,10 +16906,10 @@
         <v>522</v>
       </c>
       <c r="G378" s="42" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="H378" s="42" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="379" spans="2:13" x14ac:dyDescent="0.25">
@@ -16923,7 +16934,7 @@
         <v>362</v>
       </c>
       <c r="H380" s="29" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="381" spans="2:13" x14ac:dyDescent="0.25">
@@ -16957,13 +16968,13 @@
         <v>368</v>
       </c>
       <c r="K382" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="L382" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="M382" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
     </row>
     <row r="383" spans="2:13" x14ac:dyDescent="0.25">
@@ -16990,7 +17001,7 @@
         <v>122</v>
       </c>
       <c r="C386" s="29" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="387" spans="1:13" x14ac:dyDescent="0.25">
@@ -17059,7 +17070,7 @@
         <v>362</v>
       </c>
       <c r="H393" s="29" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="394" spans="1:13" x14ac:dyDescent="0.25">
@@ -17093,13 +17104,13 @@
         <v>368</v>
       </c>
       <c r="K395" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="L395" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="M395" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
     </row>
     <row r="396" spans="1:13" x14ac:dyDescent="0.25">
@@ -17143,10 +17154,10 @@
         <v>532</v>
       </c>
       <c r="G402" s="42" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="H402" s="42" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="403" spans="1:13" x14ac:dyDescent="0.25">
@@ -17171,7 +17182,7 @@
         <v>362</v>
       </c>
       <c r="H404" s="29" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="405" spans="1:13" x14ac:dyDescent="0.25">
@@ -17205,13 +17216,13 @@
         <v>368</v>
       </c>
       <c r="K406" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="L406" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="M406" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
     </row>
     <row r="407" spans="1:13" x14ac:dyDescent="0.25">
@@ -17238,7 +17249,7 @@
         <v>122</v>
       </c>
       <c r="C410" s="29" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="411" spans="1:13" x14ac:dyDescent="0.25">
@@ -17306,7 +17317,7 @@
         <v>362</v>
       </c>
       <c r="H417" s="29" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="418" spans="2:13" x14ac:dyDescent="0.25">
@@ -17340,13 +17351,13 @@
         <v>368</v>
       </c>
       <c r="K419" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="L419" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="M419" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
     </row>
     <row r="420" spans="2:13" x14ac:dyDescent="0.25">
@@ -17394,10 +17405,10 @@
         <v>542</v>
       </c>
       <c r="G426" s="42" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="H426" s="42" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="427" spans="2:13" x14ac:dyDescent="0.25">
@@ -17422,7 +17433,7 @@
         <v>362</v>
       </c>
       <c r="H428" s="29" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="429" spans="2:13" x14ac:dyDescent="0.25">
@@ -17456,13 +17467,13 @@
         <v>368</v>
       </c>
       <c r="K430" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="L430" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="M430" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
     </row>
     <row r="431" spans="2:13" x14ac:dyDescent="0.25">
@@ -17489,7 +17500,7 @@
         <v>122</v>
       </c>
       <c r="C434" s="29" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="435" spans="1:13" x14ac:dyDescent="0.25">
@@ -17557,7 +17568,7 @@
         <v>362</v>
       </c>
       <c r="H441" s="29" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="442" spans="1:13" x14ac:dyDescent="0.25">
@@ -17591,13 +17602,13 @@
         <v>368</v>
       </c>
       <c r="K443" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="L443" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="M443" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
     </row>
     <row r="444" spans="1:13" x14ac:dyDescent="0.25">
@@ -17641,10 +17652,10 @@
         <v>552</v>
       </c>
       <c r="G450" s="42" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="H450" s="42" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="451" spans="1:13" x14ac:dyDescent="0.25">
@@ -17669,7 +17680,7 @@
         <v>362</v>
       </c>
       <c r="H452" s="29" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="J452" s="42"/>
     </row>
@@ -17704,13 +17715,13 @@
         <v>368</v>
       </c>
       <c r="K454" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="L454" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="M454" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
     </row>
     <row r="455" spans="1:13" x14ac:dyDescent="0.25">
@@ -17737,7 +17748,7 @@
         <v>122</v>
       </c>
       <c r="C458" s="29" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="459" spans="1:13" x14ac:dyDescent="0.25">
@@ -17805,7 +17816,7 @@
         <v>362</v>
       </c>
       <c r="H465" s="29" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="466" spans="2:13" x14ac:dyDescent="0.25">
@@ -17839,13 +17850,13 @@
         <v>368</v>
       </c>
       <c r="K467" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="L467" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="M467" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
     </row>
     <row r="468" spans="2:13" x14ac:dyDescent="0.25">
@@ -17892,10 +17903,10 @@
         <v>562</v>
       </c>
       <c r="G474" s="42" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="H474" s="42" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="475" spans="2:13" x14ac:dyDescent="0.25">
@@ -17920,7 +17931,7 @@
         <v>362</v>
       </c>
       <c r="H476" s="29" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="477" spans="2:13" x14ac:dyDescent="0.25">
@@ -17954,13 +17965,13 @@
         <v>368</v>
       </c>
       <c r="K478" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="L478" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="M478" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
     </row>
     <row r="479" spans="2:13" x14ac:dyDescent="0.25">
@@ -18053,10 +18064,10 @@
         <v>198</v>
       </c>
       <c r="G3" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="H3" s="29" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -18082,7 +18093,7 @@
         <v>567</v>
       </c>
       <c r="H5" s="29" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -18137,7 +18148,7 @@
         <v>573</v>
       </c>
       <c r="H11" s="29" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -18180,10 +18191,10 @@
         <v>578</v>
       </c>
       <c r="G15" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="H15" s="29" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -18303,7 +18314,7 @@
         <v>573</v>
       </c>
       <c r="H27" s="29" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
@@ -18469,7 +18480,7 @@
         <v>573</v>
       </c>
       <c r="H43" s="29" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.25">
@@ -18624,7 +18635,7 @@
         <v>573</v>
       </c>
       <c r="H58" s="29" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.25">
@@ -18811,13 +18822,13 @@
         <v>135</v>
       </c>
       <c r="J1" s="4" t="s">
+        <v>960</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>961</v>
+      </c>
+      <c r="L1" s="4" t="s">
         <v>962</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>963</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>964</v>
       </c>
       <c r="M1" s="45" t="s">
         <v>279</v>
@@ -18845,13 +18856,13 @@
         <v>622</v>
       </c>
       <c r="J3" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="K3" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="L3" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -18978,7 +18989,7 @@
         <v>113</v>
       </c>
       <c r="E17" s="47" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="F17" s="47" t="s">
         <v>636</v>
@@ -18987,7 +18998,7 @@
         <v>637</v>
       </c>
       <c r="H17" s="47" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -19034,13 +19045,13 @@
         <v>103</v>
       </c>
       <c r="F22" s="47" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="G22" s="47" t="s">
         <v>642</v>
       </c>
       <c r="H22" s="47" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -19104,7 +19115,7 @@
         <v>648</v>
       </c>
       <c r="H30" s="47" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -19131,7 +19142,7 @@
         <v>651</v>
       </c>
       <c r="H33" s="47" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -19177,7 +19188,7 @@
         <v>113</v>
       </c>
       <c r="E39" s="47" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="F39" s="47" t="s">
         <v>656</v>
@@ -19204,7 +19215,7 @@
         <v>113</v>
       </c>
       <c r="E42" s="47" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="F42" s="47" t="s">
         <v>659</v>
@@ -19234,7 +19245,7 @@
         <v>29</v>
       </c>
       <c r="F45" s="47" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="G45" s="47" t="s">
         <v>662</v>
@@ -19275,7 +19286,7 @@
         <v>667</v>
       </c>
       <c r="H49" s="47" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.25">
@@ -19289,7 +19300,7 @@
         <v>669</v>
       </c>
       <c r="H50" s="47" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.25">
@@ -19434,7 +19445,7 @@
         <v>685</v>
       </c>
       <c r="H67" s="47" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.25">
@@ -19455,7 +19466,7 @@
         <v>686</v>
       </c>
       <c r="H70" s="47" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.25">
@@ -19577,7 +19588,7 @@
         <v>703</v>
       </c>
       <c r="H80" s="47" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
     </row>
     <row r="81" spans="2:8" x14ac:dyDescent="0.25">
@@ -19607,7 +19618,7 @@
         <v>706</v>
       </c>
       <c r="H83" s="47" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
     </row>
     <row r="84" spans="2:8" x14ac:dyDescent="0.25">
@@ -19629,7 +19640,7 @@
         <v>709</v>
       </c>
       <c r="H85" s="48" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
     </row>
     <row r="86" spans="2:8" x14ac:dyDescent="0.25">
@@ -19651,7 +19662,7 @@
         <v>711</v>
       </c>
       <c r="H87" s="47" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
     </row>
     <row r="88" spans="2:8" x14ac:dyDescent="0.25">
@@ -19673,7 +19684,7 @@
         <v>714</v>
       </c>
       <c r="H89" s="48" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
     </row>
     <row r="90" spans="2:8" x14ac:dyDescent="0.25">
@@ -19710,7 +19721,7 @@
         <v>716</v>
       </c>
       <c r="H94" s="47" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
     </row>
     <row r="95" spans="2:8" x14ac:dyDescent="0.25">
@@ -19732,7 +19743,7 @@
         <v>719</v>
       </c>
       <c r="H96" s="47" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
     </row>
     <row r="97" spans="2:2" x14ac:dyDescent="0.25">
@@ -19767,7 +19778,7 @@
   <sheetData>
     <row r="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="54" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="B1" s="54" t="s">
         <v>135</v>
@@ -19775,186 +19786,186 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>990</v>
+      </c>
+      <c r="B2" t="s">
         <v>992</v>
-      </c>
-      <c r="B2" t="s">
-        <v>994</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="B3" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="B4" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="B5" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="B6" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="B7" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="B8" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="B9" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="B10" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="B11" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="B12" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="B13" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="B14" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="B15" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="B16" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="B17" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="B18" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="B19" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="B20" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="B21" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="B22" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="B23" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="B24" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
     </row>
   </sheetData>

--- a/app/config/tables/MIF/forms/MIF/MIF.xlsx
+++ b/app/config/tables/MIF/forms/MIF/MIF.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B482749A-CAC6-4693-A915-CE461BC8AC24}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A2B80E8-A7AF-4E26-A8FC-012441089ECA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19320" yWindow="-2100" windowWidth="19440" windowHeight="15000" tabRatio="649" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4066" uniqueCount="1179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4066" uniqueCount="1186">
   <si>
     <t>setting_name</t>
   </si>
@@ -2796,16 +2796,7 @@
     <t>display.constraint_message.text</t>
   </si>
   <si>
-    <t>The age cannot be more than 50 years and cannot be in the future</t>
-  </si>
-  <si>
     <t>The date of signature cannot be in the future</t>
-  </si>
-  <si>
-    <t>Date of latest delivery cannot be before date of birth and cannot be in the future</t>
-  </si>
-  <si>
-    <t>Vaccination date cannot be in the future</t>
   </si>
   <si>
     <t>Name: &lt;b&gt;{{data.NOME}}&lt;b&gt;</t>
@@ -3305,9 +3296,6 @@
     <t>adate.display(data('CONT'))</t>
   </si>
   <si>
-    <t>Exitdate cannot be before before last vist and cannot be in the future</t>
-  </si>
-  <si>
     <t xml:space="preserve">((adate.diffInDays(data('DATAUP'), data('MIFDNASC'))&lt;1 || data('MIFDNASC') == null) &amp;&amp; adate.diffInDays(data('CONT'), data('DATAUP'))&lt;1) || data('ESTADO') !='3' </t>
   </si>
   <si>
@@ -3666,6 +3654,39 @@
   </si>
   <si>
     <t>Data da última visita: &lt;b&gt;{{calculates.displayLastvisitdate}}&lt;b&gt;</t>
+  </si>
+  <si>
+    <t>The woman may not be older than 50 and the date cannot be in the future</t>
+  </si>
+  <si>
+    <t>A mulher não pode ter mais de 50 anos e a data não pode ser no futuro</t>
+  </si>
+  <si>
+    <t>The exit date cannot be before before last visit and cannot be in the future</t>
+  </si>
+  <si>
+    <t>A data de saída não pode ser anterior à última visita e não pode ser no futuro</t>
+  </si>
+  <si>
+    <t>sinatura não pode estar no futuro</t>
+  </si>
+  <si>
+    <t>The date of delivery cannot be before date of birth and cannot be in the future</t>
+  </si>
+  <si>
+    <t>A data de entrega não pode ser anterior à data de nascimento e não pode ser no futuro</t>
+  </si>
+  <si>
+    <t>A data da vacinação não pode ser no futuro</t>
+  </si>
+  <si>
+    <t>The date of vaccination cannot be in the future</t>
+  </si>
+  <si>
+    <t>The date of latest delivery cannot be before date of birth and cannot be in the future</t>
+  </si>
+  <si>
+    <t>A data da última entrega não pode ser anterior à data de nascimento e não pode ser futura</t>
   </si>
 </sst>
 </file>
@@ -4303,7 +4324,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>1060</v>
+        <v>1056</v>
       </c>
       <c r="B9" t="s">
         <v>810</v>
@@ -4381,10 +4402,10 @@
         <v>270</v>
       </c>
       <c r="C2" t="s">
-        <v>1094</v>
+        <v>1090</v>
       </c>
       <c r="D2" t="s">
-        <v>1094</v>
+        <v>1090</v>
       </c>
       <c r="E2" s="16" t="s">
         <v>801</v>
@@ -4393,7 +4414,7 @@
         <v>802</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>1117</v>
+        <v>1113</v>
       </c>
       <c r="H2" s="24" t="s">
         <v>803</v>
@@ -6554,12 +6575,12 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>1096</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1095</v>
+        <v>1091</v>
       </c>
       <c r="B3" t="s">
         <v>113</v>
@@ -6616,7 +6637,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1110</v>
+        <v>1106</v>
       </c>
       <c r="B8" t="s">
         <v>103</v>
@@ -6660,7 +6681,7 @@
         <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>1097</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -6962,7 +6983,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="47" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
       <c r="B40" s="47" t="s">
         <v>103</v>
@@ -7073,7 +7094,7 @@
         <v>0</v>
       </c>
       <c r="D50" t="s">
-        <v>1098</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -7089,7 +7110,7 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="29" t="s">
-        <v>1077</v>
+        <v>1073</v>
       </c>
       <c r="B52" s="29" t="s">
         <v>113</v>
@@ -7100,7 +7121,7 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="29" t="s">
-        <v>1084</v>
+        <v>1080</v>
       </c>
       <c r="B53" s="29" t="s">
         <v>113</v>
@@ -7111,7 +7132,7 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="29" t="s">
-        <v>1090</v>
+        <v>1086</v>
       </c>
       <c r="B54" s="29" t="s">
         <v>113</v>
@@ -7122,7 +7143,7 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="29" t="s">
-        <v>1079</v>
+        <v>1075</v>
       </c>
       <c r="B55" s="29" t="s">
         <v>229</v>
@@ -7133,7 +7154,7 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="29" t="s">
-        <v>1085</v>
+        <v>1081</v>
       </c>
       <c r="B56" s="29" t="s">
         <v>229</v>
@@ -7144,7 +7165,7 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="29" t="s">
-        <v>1091</v>
+        <v>1087</v>
       </c>
       <c r="B57" s="29" t="s">
         <v>229</v>
@@ -7155,7 +7176,7 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="29" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="B58" s="29" t="s">
         <v>113</v>
@@ -7166,7 +7187,7 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="29" t="s">
-        <v>1069</v>
+        <v>1065</v>
       </c>
       <c r="B59" s="29" t="s">
         <v>113</v>
@@ -7177,7 +7198,7 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="29" t="s">
-        <v>1073</v>
+        <v>1069</v>
       </c>
       <c r="B60" s="29" t="s">
         <v>113</v>
@@ -7344,7 +7365,7 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="29" t="s">
-        <v>1062</v>
+        <v>1058</v>
       </c>
       <c r="B75" s="29" t="s">
         <v>24</v>
@@ -7355,7 +7376,7 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="47" t="s">
-        <v>1112</v>
+        <v>1108</v>
       </c>
       <c r="B76" s="47" t="s">
         <v>103</v>
@@ -7422,7 +7443,7 @@
         <v>1</v>
       </c>
       <c r="D82" t="s">
-        <v>1099</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -7636,7 +7657,7 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="47" t="s">
-        <v>1113</v>
+        <v>1109</v>
       </c>
       <c r="B102" s="47" t="s">
         <v>103</v>
@@ -8646,7 +8667,7 @@
         <v>0</v>
       </c>
       <c r="D184" t="s">
-        <v>1100</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
@@ -8962,7 +8983,7 @@
         <v>0</v>
       </c>
       <c r="D212" t="s">
-        <v>1101</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
@@ -9165,7 +9186,7 @@
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" s="47" t="s">
-        <v>1115</v>
+        <v>1111</v>
       </c>
       <c r="B231" s="47" t="s">
         <v>103</v>
@@ -9379,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="D249" t="s">
-        <v>1109</v>
+        <v>1105</v>
       </c>
       <c r="F249" s="29"/>
       <c r="G249" s="47"/>
@@ -9443,7 +9464,7 @@
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="B254" t="s">
         <v>24</v>
@@ -9593,7 +9614,7 @@
   <dimension ref="A1:K73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G41" sqref="G41:H41"/>
     </sheetView>
   </sheetViews>
@@ -9657,10 +9678,10 @@
         <v>155</v>
       </c>
       <c r="G3" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="H3" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -9668,10 +9689,10 @@
         <v>155</v>
       </c>
       <c r="G4" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="H4" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -9679,10 +9700,10 @@
         <v>155</v>
       </c>
       <c r="G5" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="H5" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -9690,10 +9711,10 @@
         <v>155</v>
       </c>
       <c r="G6" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="H6" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -9701,10 +9722,10 @@
         <v>155</v>
       </c>
       <c r="G7" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="H7" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -9720,10 +9741,10 @@
         <v>155</v>
       </c>
       <c r="G9" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="H9" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -9744,10 +9765,10 @@
         <v>155</v>
       </c>
       <c r="G12" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="H12" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -9768,10 +9789,10 @@
         <v>155</v>
       </c>
       <c r="G15" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="H15" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -9792,10 +9813,10 @@
         <v>155</v>
       </c>
       <c r="G18" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="H18" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -9816,10 +9837,10 @@
         <v>155</v>
       </c>
       <c r="G21" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="H21" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -9840,10 +9861,10 @@
         <v>155</v>
       </c>
       <c r="G24" t="s">
+        <v>933</v>
+      </c>
+      <c r="H24" t="s">
         <v>936</v>
-      </c>
-      <c r="H24" t="s">
-        <v>939</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -9864,10 +9885,10 @@
         <v>155</v>
       </c>
       <c r="G27" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="H27" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -9880,10 +9901,10 @@
         <v>155</v>
       </c>
       <c r="G29" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="H29" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -9894,7 +9915,7 @@
         <v>321</v>
       </c>
       <c r="F30" t="s">
-        <v>1095</v>
+        <v>1091</v>
       </c>
       <c r="G30" t="s">
         <v>872</v>
@@ -9914,7 +9935,7 @@
         <v>122</v>
       </c>
       <c r="C32" t="s">
-        <v>1116</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
@@ -10028,13 +10049,13 @@
         <v>103</v>
       </c>
       <c r="F41" t="s">
-        <v>1110</v>
+        <v>1106</v>
       </c>
       <c r="G41" t="s">
-        <v>1132</v>
+        <v>1128</v>
       </c>
       <c r="H41" t="s">
-        <v>1133</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
@@ -10052,10 +10073,10 @@
         <v>155</v>
       </c>
       <c r="G44" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="H44" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.25">
@@ -10063,10 +10084,10 @@
         <v>155</v>
       </c>
       <c r="G45" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="H45" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.25">
@@ -10074,10 +10095,10 @@
         <v>155</v>
       </c>
       <c r="G46" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="H46" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.25">
@@ -10085,10 +10106,10 @@
         <v>155</v>
       </c>
       <c r="G47" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="H47" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.25">
@@ -10096,10 +10117,10 @@
         <v>155</v>
       </c>
       <c r="G48" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="H48" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.25">
@@ -10115,10 +10136,10 @@
         <v>155</v>
       </c>
       <c r="G50" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="H50" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.25">
@@ -10139,10 +10160,10 @@
         <v>155</v>
       </c>
       <c r="G53" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="H53" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.25">
@@ -10163,10 +10184,10 @@
         <v>155</v>
       </c>
       <c r="G56" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="H56" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.25">
@@ -10187,10 +10208,10 @@
         <v>155</v>
       </c>
       <c r="G59" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="H59" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.25">
@@ -10211,10 +10232,10 @@
         <v>155</v>
       </c>
       <c r="G62" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="H62" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.25">
@@ -10235,10 +10256,10 @@
         <v>155</v>
       </c>
       <c r="G65" t="s">
+        <v>933</v>
+      </c>
+      <c r="H65" t="s">
         <v>936</v>
-      </c>
-      <c r="H65" t="s">
-        <v>939</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
@@ -10259,10 +10280,10 @@
         <v>155</v>
       </c>
       <c r="G68" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="H68" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
@@ -10275,10 +10296,10 @@
         <v>155</v>
       </c>
       <c r="G70" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="H70" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
@@ -10306,9 +10327,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F97EDFF-72E2-4781-A226-FCA8C7C63015}">
   <dimension ref="A1:L151"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F146" sqref="F146"/>
+      <selection pane="bottomLeft" activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10376,10 +10397,10 @@
         <v>155</v>
       </c>
       <c r="G3" t="s">
-        <v>1121</v>
+        <v>1117</v>
       </c>
       <c r="H3" t="s">
-        <v>1120</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -10400,10 +10421,10 @@
         <v>155</v>
       </c>
       <c r="G5" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="H5" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -10411,10 +10432,10 @@
         <v>155</v>
       </c>
       <c r="G6" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="H6" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -10476,10 +10497,10 @@
         <v>155</v>
       </c>
       <c r="G12" t="s">
-        <v>1121</v>
+        <v>1117</v>
       </c>
       <c r="H12" t="s">
-        <v>1120</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -10534,13 +10555,13 @@
         <v>112</v>
       </c>
       <c r="J17" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
       <c r="K17" t="s">
-        <v>915</v>
+        <v>1175</v>
       </c>
       <c r="L17" t="s">
-        <v>915</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
@@ -10585,10 +10606,10 @@
         <v>155</v>
       </c>
       <c r="G23" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
       <c r="H23" t="s">
-        <v>1119</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.25">
@@ -10655,10 +10676,10 @@
         <v>155</v>
       </c>
       <c r="G31" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
       <c r="H31" t="s">
-        <v>1119</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.25">
@@ -10672,7 +10693,7 @@
         <v>117</v>
       </c>
       <c r="G32" t="s">
-        <v>1134</v>
+        <v>1130</v>
       </c>
       <c r="H32" t="s">
         <v>118</v>
@@ -10755,10 +10776,10 @@
         <v>155</v>
       </c>
       <c r="G42" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
       <c r="H42" t="s">
-        <v>1119</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
@@ -10831,10 +10852,10 @@
         <v>155</v>
       </c>
       <c r="G50" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
       <c r="H50" t="s">
-        <v>1119</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.25">
@@ -10939,10 +10960,10 @@
         <v>155</v>
       </c>
       <c r="G62" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
       <c r="H62" t="s">
-        <v>1119</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.25">
@@ -10959,7 +10980,7 @@
         <v>208</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>1061</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.25">
@@ -11041,10 +11062,10 @@
         <v>155</v>
       </c>
       <c r="G73" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
       <c r="H73" t="s">
-        <v>1119</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
@@ -11055,7 +11076,7 @@
         <v>132</v>
       </c>
       <c r="I74" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
@@ -11205,10 +11226,10 @@
         <v>155</v>
       </c>
       <c r="G91" t="s">
-        <v>1122</v>
+        <v>1118</v>
       </c>
       <c r="H91" t="s">
-        <v>1123</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="92" spans="2:9" x14ac:dyDescent="0.25">
@@ -11219,10 +11240,10 @@
         <v>137</v>
       </c>
       <c r="G92" t="s">
-        <v>1135</v>
+        <v>1131</v>
       </c>
       <c r="H92" t="s">
-        <v>1136</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="93" spans="2:9" x14ac:dyDescent="0.25">
@@ -11268,10 +11289,10 @@
         <v>138</v>
       </c>
       <c r="G97" t="s">
-        <v>1137</v>
+        <v>1133</v>
       </c>
       <c r="H97" t="s">
-        <v>1138</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="98" spans="2:9" x14ac:dyDescent="0.25">
@@ -11317,10 +11338,10 @@
         <v>139</v>
       </c>
       <c r="G102" t="s">
-        <v>1139</v>
+        <v>1135</v>
       </c>
       <c r="H102" t="s">
-        <v>1140</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="103" spans="2:9" x14ac:dyDescent="0.25">
@@ -11373,10 +11394,10 @@
         <v>155</v>
       </c>
       <c r="G109" t="s">
-        <v>1122</v>
+        <v>1118</v>
       </c>
       <c r="H109" t="s">
-        <v>1123</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="110" spans="2:9" x14ac:dyDescent="0.25">
@@ -11387,10 +11408,10 @@
         <v>140</v>
       </c>
       <c r="G110" t="s">
-        <v>1141</v>
+        <v>1137</v>
       </c>
       <c r="H110" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="111" spans="2:9" x14ac:dyDescent="0.25">
@@ -11436,10 +11457,10 @@
         <v>141</v>
       </c>
       <c r="G115" t="s">
-        <v>1144</v>
+        <v>1140</v>
       </c>
       <c r="H115" t="s">
-        <v>1143</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="116" spans="2:9" x14ac:dyDescent="0.25">
@@ -11492,10 +11513,10 @@
         <v>155</v>
       </c>
       <c r="G122" t="s">
-        <v>1122</v>
+        <v>1118</v>
       </c>
       <c r="H122" t="s">
-        <v>1123</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="123" spans="2:9" x14ac:dyDescent="0.25">
@@ -11509,10 +11530,10 @@
         <v>142</v>
       </c>
       <c r="G123" t="s">
-        <v>1144</v>
+        <v>1140</v>
       </c>
       <c r="H123" t="s">
-        <v>1145</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="124" spans="2:9" x14ac:dyDescent="0.25">
@@ -11557,10 +11578,10 @@
         <v>155</v>
       </c>
       <c r="G129" t="s">
-        <v>1122</v>
+        <v>1118</v>
       </c>
       <c r="H129" t="s">
-        <v>1123</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="130" spans="2:9" x14ac:dyDescent="0.25">
@@ -11574,7 +11595,7 @@
         <v>146</v>
       </c>
       <c r="G130" t="s">
-        <v>1146</v>
+        <v>1142</v>
       </c>
       <c r="H130" t="s">
         <v>195</v>
@@ -11657,10 +11678,10 @@
         <v>155</v>
       </c>
       <c r="G140" t="s">
-        <v>1122</v>
+        <v>1118</v>
       </c>
       <c r="H140" t="s">
-        <v>1123</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="141" spans="2:9" x14ac:dyDescent="0.25">
@@ -11671,7 +11692,7 @@
         <v>150</v>
       </c>
       <c r="G141" t="s">
-        <v>1147</v>
+        <v>1143</v>
       </c>
       <c r="H141" t="s">
         <v>153</v>
@@ -11728,10 +11749,10 @@
         <v>155</v>
       </c>
       <c r="G148" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
       <c r="H148" t="s">
-        <v>1119</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
@@ -11739,13 +11760,13 @@
         <v>103</v>
       </c>
       <c r="F149" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
       <c r="G149" t="s">
-        <v>1148</v>
+        <v>1144</v>
       </c>
       <c r="H149" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
@@ -11767,9 +11788,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{568D4494-839B-4F7A-8E9C-72B7EC0E8A88}">
   <dimension ref="A1:N166"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L74" sqref="L74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11849,10 +11870,10 @@
         <v>155</v>
       </c>
       <c r="G3" t="s">
-        <v>1124</v>
+        <v>1120</v>
       </c>
       <c r="H3" t="s">
-        <v>1125</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="4" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
@@ -11860,10 +11881,10 @@
         <v>155</v>
       </c>
       <c r="G4" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
       <c r="H4" t="s">
-        <v>1176</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -11882,10 +11903,10 @@
         <v>155</v>
       </c>
       <c r="G6" s="29" t="s">
-        <v>1177</v>
+        <v>1173</v>
       </c>
       <c r="H6" s="29" t="s">
-        <v>1178</v>
+        <v>1174</v>
       </c>
       <c r="J6"/>
       <c r="K6"/>
@@ -11905,7 +11926,7 @@
         <v>122</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>1103</v>
+        <v>1099</v>
       </c>
       <c r="J8"/>
       <c r="K8"/>
@@ -11920,7 +11941,7 @@
         <v>815</v>
       </c>
       <c r="H9" s="29" t="s">
-        <v>1150</v>
+        <v>1146</v>
       </c>
       <c r="J9"/>
       <c r="K9"/>
@@ -11941,7 +11962,7 @@
         <v>122</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>1104</v>
+        <v>1100</v>
       </c>
       <c r="J11"/>
       <c r="K11"/>
@@ -11956,7 +11977,7 @@
         <v>816</v>
       </c>
       <c r="H12" s="29" t="s">
-        <v>1151</v>
+        <v>1147</v>
       </c>
       <c r="J12"/>
       <c r="K12"/>
@@ -11977,7 +11998,7 @@
         <v>122</v>
       </c>
       <c r="C14" s="29" t="s">
-        <v>1105</v>
+        <v>1101</v>
       </c>
       <c r="J14"/>
       <c r="K14"/>
@@ -11992,7 +12013,7 @@
         <v>817</v>
       </c>
       <c r="H15" s="29" t="s">
-        <v>1152</v>
+        <v>1148</v>
       </c>
       <c r="J15"/>
       <c r="K15"/>
@@ -12013,7 +12034,7 @@
         <v>122</v>
       </c>
       <c r="C17" s="29" t="s">
-        <v>1106</v>
+        <v>1102</v>
       </c>
       <c r="J17"/>
       <c r="K17"/>
@@ -12028,7 +12049,7 @@
         <v>818</v>
       </c>
       <c r="H18" s="29" t="s">
-        <v>1153</v>
+        <v>1149</v>
       </c>
       <c r="J18"/>
       <c r="K18"/>
@@ -12049,7 +12070,7 @@
         <v>122</v>
       </c>
       <c r="C20" s="29" t="s">
-        <v>1107</v>
+        <v>1103</v>
       </c>
       <c r="J20"/>
       <c r="K20"/>
@@ -12064,7 +12085,7 @@
         <v>819</v>
       </c>
       <c r="H21" s="29" t="s">
-        <v>1154</v>
+        <v>1150</v>
       </c>
       <c r="J21"/>
       <c r="K21"/>
@@ -12085,7 +12106,7 @@
         <v>122</v>
       </c>
       <c r="C23" s="29" t="s">
-        <v>1108</v>
+        <v>1104</v>
       </c>
       <c r="J23"/>
       <c r="K23"/>
@@ -12099,7 +12120,7 @@
         <v>820</v>
       </c>
       <c r="H24" s="29" t="s">
-        <v>1155</v>
+        <v>1151</v>
       </c>
       <c r="J24"/>
       <c r="K24"/>
@@ -12158,13 +12179,13 @@
         <v>264</v>
       </c>
       <c r="J28" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="K28" t="s">
-        <v>1058</v>
+        <v>1177</v>
       </c>
       <c r="L28" t="s">
-        <v>1058</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -12327,10 +12348,10 @@
         <v>155</v>
       </c>
       <c r="G44" t="s">
-        <v>1124</v>
+        <v>1120</v>
       </c>
       <c r="H44" t="s">
-        <v>1125</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
@@ -12414,13 +12435,13 @@
         <v>283</v>
       </c>
       <c r="J50" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="K50" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="L50" t="s">
-        <v>916</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
@@ -12454,10 +12475,10 @@
         <v>155</v>
       </c>
       <c r="G56" t="s">
-        <v>1124</v>
+        <v>1120</v>
       </c>
       <c r="H56" t="s">
-        <v>1125</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="57" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
@@ -12465,7 +12486,7 @@
         <v>122</v>
       </c>
       <c r="C57" t="s">
-        <v>1156</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
@@ -12473,10 +12494,10 @@
         <v>155</v>
       </c>
       <c r="G58" s="29" t="s">
-        <v>1158</v>
+        <v>1154</v>
       </c>
       <c r="H58" s="29" t="s">
-        <v>1159</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
@@ -12489,10 +12510,10 @@
         <v>155</v>
       </c>
       <c r="G60" s="29" t="s">
-        <v>1157</v>
+        <v>1153</v>
       </c>
       <c r="H60" s="29" t="s">
-        <v>1160</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
@@ -12567,10 +12588,10 @@
         <v>155</v>
       </c>
       <c r="G68" t="s">
-        <v>1124</v>
+        <v>1120</v>
       </c>
       <c r="H68" t="s">
-        <v>1125</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
@@ -12614,10 +12635,10 @@
         <v>155</v>
       </c>
       <c r="G73" t="s">
-        <v>1124</v>
+        <v>1120</v>
       </c>
       <c r="H73" t="s">
-        <v>1125</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
@@ -12634,13 +12655,13 @@
         <v>295</v>
       </c>
       <c r="J74" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="K74" t="s">
-        <v>917</v>
+        <v>1180</v>
       </c>
       <c r="L74" t="s">
-        <v>917</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
@@ -12648,13 +12669,13 @@
         <v>24</v>
       </c>
       <c r="F75" s="29" t="s">
-        <v>1062</v>
+        <v>1058</v>
       </c>
       <c r="G75" s="29" t="s">
-        <v>1063</v>
+        <v>1059</v>
       </c>
       <c r="H75" s="29" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="J75"/>
       <c r="K75"/>
@@ -12681,10 +12702,10 @@
         <v>155</v>
       </c>
       <c r="G78" t="s">
-        <v>1124</v>
+        <v>1120</v>
       </c>
       <c r="H78" t="s">
-        <v>1125</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
@@ -12695,13 +12716,13 @@
         <v>296</v>
       </c>
       <c r="F79" s="29" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="G79" s="29" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
       <c r="H79" s="29" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
       <c r="J79"/>
       <c r="K79"/>
@@ -12712,7 +12733,7 @@
         <v>122</v>
       </c>
       <c r="C80" t="s">
-        <v>1068</v>
+        <v>1064</v>
       </c>
       <c r="J80"/>
       <c r="K80"/>
@@ -12728,13 +12749,13 @@
         <v>296</v>
       </c>
       <c r="F81" s="29" t="s">
-        <v>1069</v>
+        <v>1065</v>
       </c>
       <c r="G81" s="29" t="s">
-        <v>1070</v>
+        <v>1066</v>
       </c>
       <c r="H81" s="29" t="s">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="J81"/>
       <c r="K81"/>
@@ -12754,7 +12775,7 @@
         <v>122</v>
       </c>
       <c r="C83" t="s">
-        <v>1072</v>
+        <v>1068</v>
       </c>
       <c r="J83"/>
       <c r="K83"/>
@@ -12770,13 +12791,13 @@
         <v>296</v>
       </c>
       <c r="F84" s="29" t="s">
-        <v>1073</v>
+        <v>1069</v>
       </c>
       <c r="G84" s="29" t="s">
-        <v>1074</v>
+        <v>1070</v>
       </c>
       <c r="H84" s="29" t="s">
-        <v>1075</v>
+        <v>1071</v>
       </c>
       <c r="J84"/>
       <c r="K84"/>
@@ -12805,7 +12826,7 @@
         <v>122</v>
       </c>
       <c r="C87" s="29" t="s">
-        <v>1076</v>
+        <v>1072</v>
       </c>
       <c r="J87"/>
       <c r="K87"/>
@@ -12824,10 +12845,10 @@
         <v>155</v>
       </c>
       <c r="G89" t="s">
-        <v>1124</v>
+        <v>1120</v>
       </c>
       <c r="H89" t="s">
-        <v>1125</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="90" spans="2:12" x14ac:dyDescent="0.25">
@@ -12838,13 +12859,13 @@
         <v>29</v>
       </c>
       <c r="F90" s="29" t="s">
+        <v>1073</v>
+      </c>
+      <c r="G90" s="29" t="s">
+        <v>1076</v>
+      </c>
+      <c r="H90" s="29" t="s">
         <v>1077</v>
-      </c>
-      <c r="G90" s="29" t="s">
-        <v>1080</v>
-      </c>
-      <c r="H90" s="29" t="s">
-        <v>1081</v>
       </c>
       <c r="J90"/>
       <c r="K90"/>
@@ -12855,7 +12876,7 @@
         <v>122</v>
       </c>
       <c r="C91" s="29" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="92" spans="2:12" x14ac:dyDescent="0.25">
@@ -12863,7 +12884,7 @@
         <v>229</v>
       </c>
       <c r="F92" s="29" t="s">
-        <v>1079</v>
+        <v>1075</v>
       </c>
       <c r="G92" s="29" t="s">
         <v>297</v>
@@ -12892,7 +12913,7 @@
         <v>122</v>
       </c>
       <c r="C96" s="29" t="s">
-        <v>1082</v>
+        <v>1078</v>
       </c>
       <c r="J96"/>
       <c r="K96"/>
@@ -12911,10 +12932,10 @@
         <v>155</v>
       </c>
       <c r="G98" t="s">
-        <v>1124</v>
+        <v>1120</v>
       </c>
       <c r="H98" t="s">
-        <v>1125</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="99" spans="2:12" x14ac:dyDescent="0.25">
@@ -12925,13 +12946,13 @@
         <v>29</v>
       </c>
       <c r="F99" s="29" t="s">
-        <v>1084</v>
+        <v>1080</v>
       </c>
       <c r="G99" s="29" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
       <c r="H99" s="29" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="J99"/>
       <c r="K99"/>
@@ -12942,7 +12963,7 @@
         <v>122</v>
       </c>
       <c r="C100" s="29" t="s">
-        <v>1083</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="101" spans="2:12" x14ac:dyDescent="0.25">
@@ -12950,7 +12971,7 @@
         <v>229</v>
       </c>
       <c r="F101" s="29" t="s">
-        <v>1085</v>
+        <v>1081</v>
       </c>
       <c r="G101" s="29" t="s">
         <v>297</v>
@@ -12979,7 +13000,7 @@
         <v>122</v>
       </c>
       <c r="C105" s="29" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
       <c r="J105"/>
       <c r="K105"/>
@@ -12998,10 +13019,10 @@
         <v>155</v>
       </c>
       <c r="G107" t="s">
-        <v>1124</v>
+        <v>1120</v>
       </c>
       <c r="H107" t="s">
-        <v>1125</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="108" spans="2:12" x14ac:dyDescent="0.25">
@@ -13012,13 +13033,13 @@
         <v>29</v>
       </c>
       <c r="F108" s="29" t="s">
-        <v>1090</v>
+        <v>1086</v>
       </c>
       <c r="G108" s="29" t="s">
-        <v>1092</v>
+        <v>1088</v>
       </c>
       <c r="H108" s="29" t="s">
-        <v>1093</v>
+        <v>1089</v>
       </c>
       <c r="J108"/>
       <c r="K108"/>
@@ -13029,7 +13050,7 @@
         <v>122</v>
       </c>
       <c r="C109" s="29" t="s">
-        <v>1089</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="110" spans="2:12" x14ac:dyDescent="0.25">
@@ -13037,7 +13058,7 @@
         <v>229</v>
       </c>
       <c r="F110" s="29" t="s">
-        <v>1091</v>
+        <v>1087</v>
       </c>
       <c r="G110" s="29" t="s">
         <v>297</v>
@@ -13085,10 +13106,10 @@
         <v>155</v>
       </c>
       <c r="G117" t="s">
-        <v>1124</v>
+        <v>1120</v>
       </c>
       <c r="H117" t="s">
-        <v>1125</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
@@ -13102,7 +13123,7 @@
         <v>300</v>
       </c>
       <c r="G118" s="29" t="s">
-        <v>1161</v>
+        <v>1157</v>
       </c>
       <c r="H118" s="29" t="s">
         <v>301</v>
@@ -13158,10 +13179,10 @@
         <v>155</v>
       </c>
       <c r="G125" t="s">
-        <v>1124</v>
+        <v>1120</v>
       </c>
       <c r="H125" t="s">
-        <v>1125</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
@@ -13243,10 +13264,10 @@
         <v>155</v>
       </c>
       <c r="G133" t="s">
-        <v>1124</v>
+        <v>1120</v>
       </c>
       <c r="H133" t="s">
-        <v>1125</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
@@ -13344,10 +13365,10 @@
         <v>155</v>
       </c>
       <c r="G144" t="s">
-        <v>1124</v>
+        <v>1120</v>
       </c>
       <c r="H144" t="s">
-        <v>1125</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
@@ -13448,10 +13469,10 @@
         <v>155</v>
       </c>
       <c r="G158" t="s">
-        <v>1124</v>
+        <v>1120</v>
       </c>
       <c r="H158" t="s">
-        <v>1125</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
@@ -13494,10 +13515,10 @@
         <v>155</v>
       </c>
       <c r="G164" t="s">
-        <v>1124</v>
+        <v>1120</v>
       </c>
       <c r="H164" t="s">
-        <v>1125</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="165" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
@@ -13505,13 +13526,13 @@
         <v>103</v>
       </c>
       <c r="F165" t="s">
-        <v>1112</v>
+        <v>1108</v>
       </c>
       <c r="G165" t="s">
-        <v>1162</v>
+        <v>1158</v>
       </c>
       <c r="H165" t="s">
-        <v>1163</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="166" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
@@ -13528,9 +13549,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF620B59-79FA-4646-92DD-ED95E169989F}">
   <dimension ref="A1:M545"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A533" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G544" sqref="G544:H544"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13613,10 +13634,10 @@
         <v>155</v>
       </c>
       <c r="G4" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
       <c r="H4" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -13659,10 +13680,10 @@
         <v>155</v>
       </c>
       <c r="G9" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
       <c r="H9" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -13724,13 +13745,13 @@
         <v>343</v>
       </c>
       <c r="K13" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="L13" t="s">
-        <v>918</v>
+        <v>1183</v>
       </c>
       <c r="M13" t="s">
-        <v>918</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -13745,7 +13766,7 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B16" s="29" t="s">
-        <v>1114</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -13768,10 +13789,10 @@
         <v>155</v>
       </c>
       <c r="G20" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
       <c r="H20" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -13785,10 +13806,10 @@
         <v>345</v>
       </c>
       <c r="G21" s="42" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="H21" s="42" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="J21" s="42"/>
     </row>
@@ -13848,13 +13869,13 @@
         <v>343</v>
       </c>
       <c r="K25" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="L25" t="s">
-        <v>918</v>
+        <v>1183</v>
       </c>
       <c r="M25" t="s">
-        <v>918</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -13894,10 +13915,10 @@
         <v>155</v>
       </c>
       <c r="G31" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
       <c r="H31" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
@@ -13940,10 +13961,10 @@
         <v>155</v>
       </c>
       <c r="G36" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
       <c r="H36" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.25">
@@ -14005,13 +14026,13 @@
         <v>343</v>
       </c>
       <c r="K40" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="L40" t="s">
-        <v>918</v>
+        <v>1183</v>
       </c>
       <c r="M40" t="s">
-        <v>918</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.25">
@@ -14029,7 +14050,7 @@
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B43" s="29" t="s">
-        <v>1114</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.25">
@@ -14052,10 +14073,10 @@
         <v>155</v>
       </c>
       <c r="G47" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
       <c r="H47" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="48" spans="2:13" ht="45" x14ac:dyDescent="0.25">
@@ -14069,10 +14090,10 @@
         <v>356</v>
       </c>
       <c r="G48" s="42" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="H48" s="42" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
@@ -14131,13 +14152,13 @@
         <v>343</v>
       </c>
       <c r="K52" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="L52" t="s">
-        <v>918</v>
+        <v>1183</v>
       </c>
       <c r="M52" t="s">
-        <v>918</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
@@ -14178,10 +14199,10 @@
         <v>155</v>
       </c>
       <c r="G58" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
       <c r="H58" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
@@ -14224,10 +14245,10 @@
         <v>155</v>
       </c>
       <c r="G63" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
       <c r="H63" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
@@ -14289,13 +14310,13 @@
         <v>343</v>
       </c>
       <c r="K67" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="L67" t="s">
-        <v>918</v>
+        <v>1183</v>
       </c>
       <c r="M67" t="s">
-        <v>918</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="68" spans="2:13" x14ac:dyDescent="0.25">
@@ -14310,7 +14331,7 @@
     </row>
     <row r="70" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B70" s="29" t="s">
-        <v>1114</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="71" spans="2:13" x14ac:dyDescent="0.25">
@@ -14333,10 +14354,10 @@
         <v>155</v>
       </c>
       <c r="G74" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
       <c r="H74" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="75" spans="2:13" ht="45" x14ac:dyDescent="0.25">
@@ -14350,10 +14371,10 @@
         <v>366</v>
       </c>
       <c r="G75" s="42" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="H75" s="42" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
     </row>
     <row r="76" spans="2:13" x14ac:dyDescent="0.25">
@@ -14412,13 +14433,13 @@
         <v>343</v>
       </c>
       <c r="K79" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="L79" t="s">
-        <v>918</v>
+        <v>1183</v>
       </c>
       <c r="M79" t="s">
-        <v>918</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="80" spans="2:13" x14ac:dyDescent="0.25">
@@ -14458,10 +14479,10 @@
         <v>155</v>
       </c>
       <c r="G85" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
       <c r="H85" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
@@ -14504,10 +14525,10 @@
         <v>155</v>
       </c>
       <c r="G90" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
       <c r="H90" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
@@ -14570,13 +14591,13 @@
         <v>343</v>
       </c>
       <c r="K94" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="L94" t="s">
-        <v>918</v>
+        <v>1183</v>
       </c>
       <c r="M94" t="s">
-        <v>918</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
@@ -14594,7 +14615,7 @@
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B97" s="29" t="s">
-        <v>1114</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
@@ -14617,10 +14638,10 @@
         <v>155</v>
       </c>
       <c r="G101" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
       <c r="H101" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="102" spans="1:13" ht="45" x14ac:dyDescent="0.25">
@@ -14634,10 +14655,10 @@
         <v>376</v>
       </c>
       <c r="G102" s="42" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="H102" s="42" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.25">
@@ -14696,13 +14717,13 @@
         <v>343</v>
       </c>
       <c r="K106" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="L106" t="s">
-        <v>918</v>
+        <v>1183</v>
       </c>
       <c r="M106" t="s">
-        <v>918</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.25">
@@ -14742,10 +14763,10 @@
         <v>155</v>
       </c>
       <c r="G112" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
       <c r="H112" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="113" spans="2:13" x14ac:dyDescent="0.25">
@@ -14788,10 +14809,10 @@
         <v>155</v>
       </c>
       <c r="G117" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
       <c r="H117" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="118" spans="2:13" x14ac:dyDescent="0.25">
@@ -14853,13 +14874,13 @@
         <v>343</v>
       </c>
       <c r="K121" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
       <c r="L121" t="s">
-        <v>918</v>
+        <v>1183</v>
       </c>
       <c r="M121" t="s">
-        <v>918</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="122" spans="2:13" x14ac:dyDescent="0.25">
@@ -14874,7 +14895,7 @@
     </row>
     <row r="124" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B124" s="29" t="s">
-        <v>1114</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="125" spans="2:13" x14ac:dyDescent="0.25">
@@ -14898,10 +14919,10 @@
         <v>155</v>
       </c>
       <c r="G128" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
       <c r="H128" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="129" spans="1:13" ht="45" x14ac:dyDescent="0.25">
@@ -14915,10 +14936,10 @@
         <v>386</v>
       </c>
       <c r="G129" s="42" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="H129" s="42" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.25">
@@ -14977,13 +14998,13 @@
         <v>343</v>
       </c>
       <c r="K133" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
       <c r="L133" t="s">
-        <v>918</v>
+        <v>1183</v>
       </c>
       <c r="M133" t="s">
-        <v>918</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.25">
@@ -15023,10 +15044,10 @@
         <v>155</v>
       </c>
       <c r="G139" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
       <c r="H139" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.25">
@@ -15069,10 +15090,10 @@
         <v>155</v>
       </c>
       <c r="G144" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
       <c r="H144" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="145" spans="2:13" x14ac:dyDescent="0.25">
@@ -15134,13 +15155,13 @@
         <v>343</v>
       </c>
       <c r="K148" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="L148" t="s">
-        <v>918</v>
+        <v>1183</v>
       </c>
       <c r="M148" t="s">
-        <v>918</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="149" spans="2:13" x14ac:dyDescent="0.25">
@@ -15158,7 +15179,7 @@
     </row>
     <row r="151" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B151" s="29" t="s">
-        <v>1114</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="152" spans="2:13" x14ac:dyDescent="0.25">
@@ -15181,10 +15202,10 @@
         <v>155</v>
       </c>
       <c r="G155" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
       <c r="H155" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="156" spans="2:13" ht="45" x14ac:dyDescent="0.25">
@@ -15198,10 +15219,10 @@
         <v>396</v>
       </c>
       <c r="G156" s="42" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="H156" s="42" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
     </row>
     <row r="157" spans="2:13" x14ac:dyDescent="0.25">
@@ -15261,13 +15282,13 @@
       </c>
       <c r="J160" s="42"/>
       <c r="K160" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="L160" t="s">
-        <v>918</v>
+        <v>1183</v>
       </c>
       <c r="M160" t="s">
-        <v>918</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.25">
@@ -15307,10 +15328,10 @@
         <v>155</v>
       </c>
       <c r="G166" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
       <c r="H166" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.25">
@@ -15353,10 +15374,10 @@
         <v>155</v>
       </c>
       <c r="G171" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
       <c r="H171" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.25">
@@ -15418,13 +15439,13 @@
         <v>343</v>
       </c>
       <c r="K175" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="L175" t="s">
-        <v>918</v>
+        <v>1183</v>
       </c>
       <c r="M175" t="s">
-        <v>918</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="176" spans="1:13" x14ac:dyDescent="0.25">
@@ -15439,7 +15460,7 @@
     </row>
     <row r="178" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B178" s="29" t="s">
-        <v>1114</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="179" spans="1:13" x14ac:dyDescent="0.25">
@@ -15462,10 +15483,10 @@
         <v>155</v>
       </c>
       <c r="G182" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
       <c r="H182" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="183" spans="1:13" ht="45" x14ac:dyDescent="0.25">
@@ -15479,10 +15500,10 @@
         <v>406</v>
       </c>
       <c r="G183" s="42" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="H183" s="42" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="184" spans="1:13" x14ac:dyDescent="0.25">
@@ -15541,13 +15562,13 @@
         <v>343</v>
       </c>
       <c r="K187" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="L187" t="s">
-        <v>918</v>
+        <v>1183</v>
       </c>
       <c r="M187" t="s">
-        <v>918</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="188" spans="1:13" x14ac:dyDescent="0.25">
@@ -15587,10 +15608,10 @@
         <v>155</v>
       </c>
       <c r="G193" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
       <c r="H193" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="194" spans="2:13" x14ac:dyDescent="0.25">
@@ -15634,10 +15655,10 @@
         <v>155</v>
       </c>
       <c r="G198" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
       <c r="H198" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="199" spans="2:13" x14ac:dyDescent="0.25">
@@ -15699,13 +15720,13 @@
         <v>343</v>
       </c>
       <c r="K202" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="L202" t="s">
-        <v>918</v>
+        <v>1183</v>
       </c>
       <c r="M202" t="s">
-        <v>918</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="203" spans="2:13" x14ac:dyDescent="0.25">
@@ -15723,7 +15744,7 @@
     </row>
     <row r="205" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B205" s="29" t="s">
-        <v>1114</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="206" spans="2:13" x14ac:dyDescent="0.25">
@@ -15746,10 +15767,10 @@
         <v>155</v>
       </c>
       <c r="G209" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
       <c r="H209" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="210" spans="1:13" ht="45" x14ac:dyDescent="0.25">
@@ -15763,10 +15784,10 @@
         <v>416</v>
       </c>
       <c r="G210" s="42" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="H210" s="42" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="211" spans="1:13" x14ac:dyDescent="0.25">
@@ -15825,13 +15846,13 @@
         <v>343</v>
       </c>
       <c r="K214" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="L214" t="s">
-        <v>918</v>
+        <v>1183</v>
       </c>
       <c r="M214" t="s">
-        <v>918</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="215" spans="1:13" x14ac:dyDescent="0.25">
@@ -15871,10 +15892,10 @@
         <v>155</v>
       </c>
       <c r="G220" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
       <c r="H220" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="221" spans="1:13" x14ac:dyDescent="0.25">
@@ -15917,10 +15938,10 @@
         <v>155</v>
       </c>
       <c r="G225" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
       <c r="H225" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="226" spans="2:13" x14ac:dyDescent="0.25">
@@ -15982,13 +16003,13 @@
         <v>343</v>
       </c>
       <c r="K229" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="L229" t="s">
-        <v>918</v>
+        <v>1183</v>
       </c>
       <c r="M229" t="s">
-        <v>918</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="230" spans="2:13" x14ac:dyDescent="0.25">
@@ -16004,7 +16025,7 @@
     </row>
     <row r="232" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B232" s="29" t="s">
-        <v>1114</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="233" spans="2:13" x14ac:dyDescent="0.25">
@@ -16027,10 +16048,10 @@
         <v>155</v>
       </c>
       <c r="G236" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
       <c r="H236" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="237" spans="2:13" ht="45" x14ac:dyDescent="0.25">
@@ -16044,10 +16065,10 @@
         <v>426</v>
       </c>
       <c r="G237" s="42" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="H237" s="42" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="238" spans="2:13" x14ac:dyDescent="0.25">
@@ -16106,13 +16127,13 @@
         <v>343</v>
       </c>
       <c r="K241" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="L241" t="s">
-        <v>918</v>
+        <v>1183</v>
       </c>
       <c r="M241" t="s">
-        <v>918</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="242" spans="1:13" x14ac:dyDescent="0.25">
@@ -16152,10 +16173,10 @@
         <v>155</v>
       </c>
       <c r="G247" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
       <c r="H247" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="248" spans="1:13" x14ac:dyDescent="0.25">
@@ -16198,10 +16219,10 @@
         <v>155</v>
       </c>
       <c r="G252" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
       <c r="H252" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="253" spans="1:13" x14ac:dyDescent="0.25">
@@ -16263,13 +16284,13 @@
         <v>343</v>
       </c>
       <c r="K256" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
       <c r="L256" t="s">
-        <v>918</v>
+        <v>1183</v>
       </c>
       <c r="M256" t="s">
-        <v>918</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="257" spans="1:13" x14ac:dyDescent="0.25">
@@ -16287,7 +16308,7 @@
     </row>
     <row r="259" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B259" s="29" t="s">
-        <v>1114</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="260" spans="1:13" x14ac:dyDescent="0.25">
@@ -16310,10 +16331,10 @@
         <v>155</v>
       </c>
       <c r="G263" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
       <c r="H263" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="264" spans="1:13" ht="45" x14ac:dyDescent="0.25">
@@ -16327,10 +16348,10 @@
         <v>436</v>
       </c>
       <c r="G264" s="42" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="H264" s="42" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="265" spans="1:13" x14ac:dyDescent="0.25">
@@ -16390,13 +16411,13 @@
         <v>343</v>
       </c>
       <c r="K268" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
       <c r="L268" t="s">
-        <v>918</v>
+        <v>1183</v>
       </c>
       <c r="M268" t="s">
-        <v>918</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="269" spans="1:13" x14ac:dyDescent="0.25">
@@ -16436,10 +16457,10 @@
         <v>155</v>
       </c>
       <c r="G274" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
       <c r="H274" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="275" spans="2:13" x14ac:dyDescent="0.25">
@@ -16482,10 +16503,10 @@
         <v>155</v>
       </c>
       <c r="G279" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
       <c r="H279" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="280" spans="2:13" x14ac:dyDescent="0.25">
@@ -16547,13 +16568,13 @@
         <v>343</v>
       </c>
       <c r="K283" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
       <c r="L283" t="s">
-        <v>918</v>
+        <v>1183</v>
       </c>
       <c r="M283" t="s">
-        <v>918</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="284" spans="2:13" x14ac:dyDescent="0.25">
@@ -16568,7 +16589,7 @@
     </row>
     <row r="286" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B286" s="29" t="s">
-        <v>1114</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="287" spans="2:13" x14ac:dyDescent="0.25">
@@ -16591,10 +16612,10 @@
         <v>155</v>
       </c>
       <c r="G290" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
       <c r="H290" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="291" spans="1:13" ht="45" x14ac:dyDescent="0.25">
@@ -16608,10 +16629,10 @@
         <v>446</v>
       </c>
       <c r="G291" s="42" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="H291" s="42" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="292" spans="1:13" x14ac:dyDescent="0.25">
@@ -16670,13 +16691,13 @@
         <v>343</v>
       </c>
       <c r="K295" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
       <c r="L295" t="s">
-        <v>918</v>
+        <v>1183</v>
       </c>
       <c r="M295" t="s">
-        <v>918</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="296" spans="1:13" x14ac:dyDescent="0.25">
@@ -16717,10 +16738,10 @@
         <v>155</v>
       </c>
       <c r="G301" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
       <c r="H301" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="302" spans="1:13" x14ac:dyDescent="0.25">
@@ -16763,10 +16784,10 @@
         <v>155</v>
       </c>
       <c r="G306" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
       <c r="H306" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="307" spans="2:13" x14ac:dyDescent="0.25">
@@ -16828,13 +16849,13 @@
         <v>343</v>
       </c>
       <c r="K310" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="L310" t="s">
-        <v>918</v>
+        <v>1183</v>
       </c>
       <c r="M310" t="s">
-        <v>918</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="311" spans="2:13" x14ac:dyDescent="0.25">
@@ -16852,7 +16873,7 @@
     </row>
     <row r="313" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B313" s="29" t="s">
-        <v>1114</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="314" spans="2:13" x14ac:dyDescent="0.25">
@@ -16875,10 +16896,10 @@
         <v>155</v>
       </c>
       <c r="G317" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
       <c r="H317" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="318" spans="2:13" ht="45" x14ac:dyDescent="0.25">
@@ -16892,10 +16913,10 @@
         <v>456</v>
       </c>
       <c r="G318" s="42" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="H318" s="42" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="319" spans="2:13" x14ac:dyDescent="0.25">
@@ -16954,13 +16975,13 @@
         <v>343</v>
       </c>
       <c r="K322" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="L322" t="s">
-        <v>918</v>
+        <v>1183</v>
       </c>
       <c r="M322" t="s">
-        <v>918</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="323" spans="1:13" x14ac:dyDescent="0.25">
@@ -17000,10 +17021,10 @@
         <v>155</v>
       </c>
       <c r="G328" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
       <c r="H328" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="329" spans="1:13" x14ac:dyDescent="0.25">
@@ -17046,10 +17067,10 @@
         <v>155</v>
       </c>
       <c r="G333" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
       <c r="H333" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="334" spans="1:13" x14ac:dyDescent="0.25">
@@ -17112,13 +17133,13 @@
         <v>343</v>
       </c>
       <c r="K337" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="L337" t="s">
-        <v>918</v>
+        <v>1183</v>
       </c>
       <c r="M337" t="s">
-        <v>918</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="338" spans="1:13" x14ac:dyDescent="0.25">
@@ -17133,7 +17154,7 @@
     </row>
     <row r="340" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B340" s="29" t="s">
-        <v>1114</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="341" spans="1:13" x14ac:dyDescent="0.25">
@@ -17156,10 +17177,10 @@
         <v>155</v>
       </c>
       <c r="G344" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
       <c r="H344" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="345" spans="1:13" ht="45" x14ac:dyDescent="0.25">
@@ -17173,10 +17194,10 @@
         <v>466</v>
       </c>
       <c r="G345" s="42" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="H345" s="42" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="346" spans="1:13" x14ac:dyDescent="0.25">
@@ -17235,13 +17256,13 @@
         <v>343</v>
       </c>
       <c r="K349" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="L349" t="s">
-        <v>918</v>
+        <v>1183</v>
       </c>
       <c r="M349" t="s">
-        <v>918</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="350" spans="1:13" x14ac:dyDescent="0.25">
@@ -17281,10 +17302,10 @@
         <v>155</v>
       </c>
       <c r="G355" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
       <c r="H355" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="356" spans="1:13" x14ac:dyDescent="0.25">
@@ -17327,10 +17348,10 @@
         <v>155</v>
       </c>
       <c r="G360" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
       <c r="H360" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="361" spans="1:13" x14ac:dyDescent="0.25">
@@ -17392,13 +17413,13 @@
         <v>343</v>
       </c>
       <c r="K364" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="L364" t="s">
-        <v>918</v>
+        <v>1183</v>
       </c>
       <c r="M364" t="s">
-        <v>918</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="365" spans="1:13" x14ac:dyDescent="0.25">
@@ -17416,7 +17437,7 @@
     </row>
     <row r="367" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B367" s="29" t="s">
-        <v>1114</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="368" spans="1:13" x14ac:dyDescent="0.25">
@@ -17440,10 +17461,10 @@
         <v>155</v>
       </c>
       <c r="G371" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
       <c r="H371" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="372" spans="1:13" ht="45" x14ac:dyDescent="0.25">
@@ -17457,10 +17478,10 @@
         <v>476</v>
       </c>
       <c r="G372" s="42" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="H372" s="42" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="373" spans="1:13" x14ac:dyDescent="0.25">
@@ -17519,13 +17540,13 @@
         <v>343</v>
       </c>
       <c r="K376" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="L376" t="s">
-        <v>918</v>
+        <v>1183</v>
       </c>
       <c r="M376" t="s">
-        <v>918</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="377" spans="1:13" x14ac:dyDescent="0.25">
@@ -17565,10 +17586,10 @@
         <v>155</v>
       </c>
       <c r="G382" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
       <c r="H382" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="383" spans="1:13" x14ac:dyDescent="0.25">
@@ -17611,10 +17632,10 @@
         <v>155</v>
       </c>
       <c r="G387" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
       <c r="H387" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="388" spans="2:13" x14ac:dyDescent="0.25">
@@ -17676,13 +17697,13 @@
         <v>343</v>
       </c>
       <c r="K391" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="L391" t="s">
-        <v>918</v>
+        <v>1183</v>
       </c>
       <c r="M391" t="s">
-        <v>918</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="392" spans="2:13" x14ac:dyDescent="0.25">
@@ -17697,7 +17718,7 @@
     </row>
     <row r="394" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B394" s="29" t="s">
-        <v>1114</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="395" spans="2:13" x14ac:dyDescent="0.25">
@@ -17720,10 +17741,10 @@
         <v>155</v>
       </c>
       <c r="G398" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
       <c r="H398" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="399" spans="2:13" ht="45" x14ac:dyDescent="0.25">
@@ -17737,10 +17758,10 @@
         <v>486</v>
       </c>
       <c r="G399" s="42" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="H399" s="42" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="400" spans="2:13" x14ac:dyDescent="0.25">
@@ -17799,13 +17820,13 @@
         <v>343</v>
       </c>
       <c r="K403" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="L403" t="s">
-        <v>918</v>
+        <v>1183</v>
       </c>
       <c r="M403" t="s">
-        <v>918</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="404" spans="1:13" x14ac:dyDescent="0.25">
@@ -17846,10 +17867,10 @@
         <v>155</v>
       </c>
       <c r="G409" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
       <c r="H409" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="410" spans="1:13" x14ac:dyDescent="0.25">
@@ -17892,10 +17913,10 @@
         <v>155</v>
       </c>
       <c r="G414" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
       <c r="H414" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="415" spans="1:13" x14ac:dyDescent="0.25">
@@ -17957,13 +17978,13 @@
         <v>343</v>
       </c>
       <c r="K418" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="L418" t="s">
-        <v>918</v>
+        <v>1183</v>
       </c>
       <c r="M418" t="s">
-        <v>918</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="419" spans="2:13" x14ac:dyDescent="0.25">
@@ -17981,7 +18002,7 @@
     </row>
     <row r="421" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B421" s="29" t="s">
-        <v>1114</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="422" spans="2:13" x14ac:dyDescent="0.25">
@@ -18004,10 +18025,10 @@
         <v>155</v>
       </c>
       <c r="G425" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
       <c r="H425" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="426" spans="2:13" ht="45" x14ac:dyDescent="0.25">
@@ -18021,10 +18042,10 @@
         <v>496</v>
       </c>
       <c r="G426" s="42" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="H426" s="42" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="427" spans="2:13" x14ac:dyDescent="0.25">
@@ -18083,13 +18104,13 @@
         <v>343</v>
       </c>
       <c r="K430" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="L430" t="s">
-        <v>918</v>
+        <v>1183</v>
       </c>
       <c r="M430" t="s">
-        <v>918</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="431" spans="2:13" x14ac:dyDescent="0.25">
@@ -18129,10 +18150,10 @@
         <v>155</v>
       </c>
       <c r="G436" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
       <c r="H436" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="437" spans="1:13" x14ac:dyDescent="0.25">
@@ -18176,10 +18197,10 @@
         <v>155</v>
       </c>
       <c r="G441" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
       <c r="H441" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="442" spans="1:13" x14ac:dyDescent="0.25">
@@ -18241,13 +18262,13 @@
         <v>343</v>
       </c>
       <c r="K445" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
       <c r="L445" t="s">
-        <v>918</v>
+        <v>1183</v>
       </c>
       <c r="M445" t="s">
-        <v>918</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="446" spans="1:13" x14ac:dyDescent="0.25">
@@ -18262,7 +18283,7 @@
     </row>
     <row r="448" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B448" s="29" t="s">
-        <v>1114</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="449" spans="1:13" x14ac:dyDescent="0.25">
@@ -18285,10 +18306,10 @@
         <v>155</v>
       </c>
       <c r="G452" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
       <c r="H452" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="453" spans="1:13" ht="45" x14ac:dyDescent="0.25">
@@ -18302,10 +18323,10 @@
         <v>506</v>
       </c>
       <c r="G453" s="42" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="H453" s="42" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="454" spans="1:13" x14ac:dyDescent="0.25">
@@ -18364,13 +18385,13 @@
         <v>343</v>
       </c>
       <c r="K457" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
       <c r="L457" t="s">
-        <v>918</v>
+        <v>1183</v>
       </c>
       <c r="M457" t="s">
-        <v>918</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="458" spans="1:13" x14ac:dyDescent="0.25">
@@ -18410,10 +18431,10 @@
         <v>155</v>
       </c>
       <c r="G463" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
       <c r="H463" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="464" spans="1:13" x14ac:dyDescent="0.25">
@@ -18456,10 +18477,10 @@
         <v>155</v>
       </c>
       <c r="G468" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
       <c r="H468" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="469" spans="2:13" x14ac:dyDescent="0.25">
@@ -18521,13 +18542,13 @@
         <v>343</v>
       </c>
       <c r="K472" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
       <c r="L472" t="s">
-        <v>918</v>
+        <v>1183</v>
       </c>
       <c r="M472" t="s">
-        <v>918</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="473" spans="2:13" x14ac:dyDescent="0.25">
@@ -18546,7 +18567,7 @@
     </row>
     <row r="475" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B475" s="29" t="s">
-        <v>1114</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="476" spans="2:13" x14ac:dyDescent="0.25">
@@ -18569,10 +18590,10 @@
         <v>155</v>
       </c>
       <c r="G479" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
       <c r="H479" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="480" spans="2:13" ht="45" x14ac:dyDescent="0.25">
@@ -18586,10 +18607,10 @@
         <v>516</v>
       </c>
       <c r="G480" s="42" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="H480" s="42" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="481" spans="1:13" x14ac:dyDescent="0.25">
@@ -18648,13 +18669,13 @@
         <v>343</v>
       </c>
       <c r="K484" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
       <c r="L484" t="s">
-        <v>918</v>
+        <v>1183</v>
       </c>
       <c r="M484" t="s">
-        <v>918</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="485" spans="1:13" x14ac:dyDescent="0.25">
@@ -18694,10 +18715,10 @@
         <v>155</v>
       </c>
       <c r="G490" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
       <c r="H490" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="491" spans="1:13" x14ac:dyDescent="0.25">
@@ -18740,10 +18761,10 @@
         <v>155</v>
       </c>
       <c r="G495" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
       <c r="H495" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="496" spans="1:13" x14ac:dyDescent="0.25">
@@ -18805,13 +18826,13 @@
         <v>343</v>
       </c>
       <c r="K499" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="L499" t="s">
-        <v>918</v>
+        <v>1183</v>
       </c>
       <c r="M499" t="s">
-        <v>918</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="500" spans="2:13" x14ac:dyDescent="0.25">
@@ -18826,7 +18847,7 @@
     </row>
     <row r="502" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B502" s="29" t="s">
-        <v>1114</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="503" spans="2:13" x14ac:dyDescent="0.25">
@@ -18849,10 +18870,10 @@
         <v>155</v>
       </c>
       <c r="G506" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
       <c r="H506" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="507" spans="2:13" ht="45" x14ac:dyDescent="0.25">
@@ -18866,10 +18887,10 @@
         <v>526</v>
       </c>
       <c r="G507" s="42" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="H507" s="42" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="508" spans="2:13" x14ac:dyDescent="0.25">
@@ -18929,13 +18950,13 @@
         <v>343</v>
       </c>
       <c r="K511" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="L511" t="s">
-        <v>918</v>
+        <v>1183</v>
       </c>
       <c r="M511" t="s">
-        <v>918</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="512" spans="2:13" x14ac:dyDescent="0.25">
@@ -18975,10 +18996,10 @@
         <v>155</v>
       </c>
       <c r="G517" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
       <c r="H517" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="518" spans="1:13" x14ac:dyDescent="0.25">
@@ -19021,10 +19042,10 @@
         <v>155</v>
       </c>
       <c r="G522" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
       <c r="H522" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="523" spans="1:13" x14ac:dyDescent="0.25">
@@ -19086,13 +19107,13 @@
         <v>343</v>
       </c>
       <c r="K526" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="L526" t="s">
-        <v>918</v>
+        <v>1183</v>
       </c>
       <c r="M526" t="s">
-        <v>918</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="527" spans="1:13" x14ac:dyDescent="0.25">
@@ -19110,7 +19131,7 @@
     </row>
     <row r="529" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B529" s="29" t="s">
-        <v>1114</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="530" spans="1:13" x14ac:dyDescent="0.25">
@@ -19133,10 +19154,10 @@
         <v>155</v>
       </c>
       <c r="G533" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
       <c r="H533" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="534" spans="1:13" ht="45" x14ac:dyDescent="0.25">
@@ -19150,10 +19171,10 @@
         <v>536</v>
       </c>
       <c r="G534" s="42" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="H534" s="42" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="535" spans="1:13" x14ac:dyDescent="0.25">
@@ -19212,13 +19233,13 @@
         <v>343</v>
       </c>
       <c r="K538" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="L538" t="s">
-        <v>918</v>
+        <v>1183</v>
       </c>
       <c r="M538" t="s">
-        <v>918</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="539" spans="1:13" x14ac:dyDescent="0.25">
@@ -19250,10 +19271,10 @@
         <v>155</v>
       </c>
       <c r="G543" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
       <c r="H543" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="544" spans="1:13" customFormat="1" x14ac:dyDescent="0.25">
@@ -19261,13 +19282,13 @@
         <v>103</v>
       </c>
       <c r="F544" t="s">
-        <v>1113</v>
+        <v>1109</v>
       </c>
       <c r="G544" t="s">
-        <v>1164</v>
+        <v>1160</v>
       </c>
       <c r="H544" t="s">
-        <v>1165</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="545" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
@@ -19343,10 +19364,10 @@
         <v>155</v>
       </c>
       <c r="G3" t="s">
-        <v>1128</v>
+        <v>1124</v>
       </c>
       <c r="H3" t="s">
-        <v>1129</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -19357,7 +19378,7 @@
         <v>692</v>
       </c>
       <c r="I4" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -19435,10 +19456,10 @@
         <v>155</v>
       </c>
       <c r="G12" t="s">
-        <v>1128</v>
+        <v>1124</v>
       </c>
       <c r="H12" t="s">
-        <v>1129</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -19532,10 +19553,10 @@
         <v>155</v>
       </c>
       <c r="G21" t="s">
-        <v>1128</v>
+        <v>1124</v>
       </c>
       <c r="H21" t="s">
-        <v>1129</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
@@ -19623,10 +19644,10 @@
         <v>155</v>
       </c>
       <c r="G30" t="s">
-        <v>1128</v>
+        <v>1124</v>
       </c>
       <c r="H30" t="s">
-        <v>1129</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
@@ -19720,10 +19741,10 @@
         <v>155</v>
       </c>
       <c r="G39" t="s">
-        <v>1128</v>
+        <v>1124</v>
       </c>
       <c r="H39" t="s">
-        <v>1129</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.25">
@@ -19811,10 +19832,10 @@
         <v>155</v>
       </c>
       <c r="G48" t="s">
-        <v>1128</v>
+        <v>1124</v>
       </c>
       <c r="H48" t="s">
-        <v>1129</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.25">
@@ -19908,10 +19929,10 @@
         <v>155</v>
       </c>
       <c r="G57" t="s">
-        <v>1128</v>
+        <v>1124</v>
       </c>
       <c r="H57" t="s">
-        <v>1129</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.25">
@@ -19999,10 +20020,10 @@
         <v>155</v>
       </c>
       <c r="G66" t="s">
-        <v>1128</v>
+        <v>1124</v>
       </c>
       <c r="H66" t="s">
-        <v>1129</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
@@ -20085,10 +20106,10 @@
         <v>155</v>
       </c>
       <c r="G74" t="s">
-        <v>1128</v>
+        <v>1124</v>
       </c>
       <c r="H74" t="s">
-        <v>1129</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
@@ -20164,9 +20185,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08D25534-A009-4B32-8A9F-69AC75C4E3ED}">
   <dimension ref="A1:N123"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G122" sqref="G122:H122"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20242,10 +20263,10 @@
         <v>155</v>
       </c>
       <c r="G3" t="s">
-        <v>1130</v>
+        <v>1126</v>
       </c>
       <c r="H3" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -20256,19 +20277,19 @@
         <v>595</v>
       </c>
       <c r="G4" s="47" t="s">
-        <v>1166</v>
+        <v>1162</v>
       </c>
       <c r="H4" s="47" t="s">
-        <v>1167</v>
+        <v>1163</v>
       </c>
       <c r="J4" t="s">
-        <v>1059</v>
+        <v>1055</v>
       </c>
       <c r="K4" t="s">
-        <v>917</v>
+        <v>1184</v>
       </c>
       <c r="L4" t="s">
-        <v>917</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -20286,10 +20307,10 @@
         <v>155</v>
       </c>
       <c r="G7" t="s">
-        <v>1130</v>
+        <v>1126</v>
       </c>
       <c r="H7" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -20303,7 +20324,7 @@
         <v>597</v>
       </c>
       <c r="H8" s="47" t="s">
-        <v>1168</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -20317,7 +20338,7 @@
         <v>599</v>
       </c>
       <c r="H9" s="47" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -20331,7 +20352,7 @@
         <v>601</v>
       </c>
       <c r="H10" s="47" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -20349,10 +20370,10 @@
         <v>155</v>
       </c>
       <c r="G13" t="s">
-        <v>1130</v>
+        <v>1126</v>
       </c>
       <c r="H13" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -20388,10 +20409,10 @@
         <v>155</v>
       </c>
       <c r="G17" t="s">
-        <v>1130</v>
+        <v>1126</v>
       </c>
       <c r="H17" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -20427,10 +20448,10 @@
         <v>155</v>
       </c>
       <c r="G21" t="s">
-        <v>1130</v>
+        <v>1126</v>
       </c>
       <c r="H21" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -20457,7 +20478,7 @@
         <v>122</v>
       </c>
       <c r="C23" s="47" t="s">
-        <v>1172</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -20490,7 +20511,7 @@
         <v>122</v>
       </c>
       <c r="C26" s="47" t="s">
-        <v>1171</v>
+        <v>1167</v>
       </c>
       <c r="E26" s="50"/>
       <c r="I26"/>
@@ -20536,10 +20557,10 @@
         <v>155</v>
       </c>
       <c r="G31" t="s">
-        <v>1130</v>
+        <v>1126</v>
       </c>
       <c r="H31" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -20582,10 +20603,10 @@
         <v>155</v>
       </c>
       <c r="G36" t="s">
-        <v>1130</v>
+        <v>1126</v>
       </c>
       <c r="H36" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -20617,10 +20638,10 @@
         <v>155</v>
       </c>
       <c r="G40" t="s">
-        <v>1130</v>
+        <v>1126</v>
       </c>
       <c r="H40" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -20656,10 +20677,10 @@
         <v>155</v>
       </c>
       <c r="G44" t="s">
-        <v>1130</v>
+        <v>1126</v>
       </c>
       <c r="H44" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -20694,10 +20715,10 @@
         <v>155</v>
       </c>
       <c r="G48" t="s">
-        <v>1130</v>
+        <v>1126</v>
       </c>
       <c r="H48" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.25">
@@ -20732,10 +20753,10 @@
         <v>155</v>
       </c>
       <c r="G52" t="s">
-        <v>1130</v>
+        <v>1126</v>
       </c>
       <c r="H52" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.25">
@@ -20770,10 +20791,10 @@
         <v>155</v>
       </c>
       <c r="G56" t="s">
-        <v>1130</v>
+        <v>1126</v>
       </c>
       <c r="H56" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.25">
@@ -20808,10 +20829,10 @@
         <v>155</v>
       </c>
       <c r="G60" t="s">
-        <v>1130</v>
+        <v>1126</v>
       </c>
       <c r="H60" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.25">
@@ -20873,10 +20894,10 @@
         <v>155</v>
       </c>
       <c r="G67" t="s">
-        <v>1130</v>
+        <v>1126</v>
       </c>
       <c r="H67" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.25">
@@ -20938,10 +20959,10 @@
         <v>155</v>
       </c>
       <c r="G74" t="s">
-        <v>1130</v>
+        <v>1126</v>
       </c>
       <c r="H74" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="75" spans="2:8" x14ac:dyDescent="0.25">
@@ -21011,10 +21032,10 @@
         <v>155</v>
       </c>
       <c r="G82" t="s">
-        <v>1130</v>
+        <v>1126</v>
       </c>
       <c r="H82" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="83" spans="2:8" x14ac:dyDescent="0.25">
@@ -21046,10 +21067,10 @@
         <v>155</v>
       </c>
       <c r="G86" t="s">
-        <v>1130</v>
+        <v>1126</v>
       </c>
       <c r="H86" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="87" spans="2:8" x14ac:dyDescent="0.25">
@@ -21112,10 +21133,10 @@
         <v>155</v>
       </c>
       <c r="G92" t="s">
-        <v>1130</v>
+        <v>1126</v>
       </c>
       <c r="H92" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="93" spans="2:8" x14ac:dyDescent="0.25">
@@ -21167,10 +21188,10 @@
         <v>155</v>
       </c>
       <c r="G97" t="s">
-        <v>1130</v>
+        <v>1126</v>
       </c>
       <c r="H97" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="98" spans="2:8" x14ac:dyDescent="0.25">
@@ -21225,10 +21246,10 @@
         <v>155</v>
       </c>
       <c r="G102" t="s">
-        <v>1130</v>
+        <v>1126</v>
       </c>
       <c r="H102" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="103" spans="2:8" x14ac:dyDescent="0.25">
@@ -21297,7 +21318,7 @@
         <v>122</v>
       </c>
       <c r="C108" s="47" t="s">
-        <v>1173</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="109" spans="2:8" x14ac:dyDescent="0.25">
@@ -21339,10 +21360,10 @@
         <v>155</v>
       </c>
       <c r="G114" t="s">
-        <v>1130</v>
+        <v>1126</v>
       </c>
       <c r="H114" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="115" spans="2:8" x14ac:dyDescent="0.25">
@@ -21404,10 +21425,10 @@
         <v>155</v>
       </c>
       <c r="G121" t="s">
-        <v>1130</v>
+        <v>1126</v>
       </c>
       <c r="H121" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="122" spans="2:8" customFormat="1" x14ac:dyDescent="0.25">
@@ -21415,13 +21436,13 @@
         <v>103</v>
       </c>
       <c r="F122" t="s">
-        <v>1115</v>
+        <v>1111</v>
       </c>
       <c r="G122" t="s">
-        <v>1174</v>
+        <v>1170</v>
       </c>
       <c r="H122" t="s">
-        <v>1175</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="123" spans="2:8" customFormat="1" x14ac:dyDescent="0.25">
@@ -21451,7 +21472,7 @@
   <sheetData>
     <row r="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="54" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="B1" s="54" t="s">
         <v>131</v>
@@ -21459,186 +21480,186 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="B2" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="B3" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="B4" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="B5" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="B6" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="B7" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="B8" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="B9" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="B10" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="B11" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="B12" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="B13" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="B14" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="B15" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="B16" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="B17" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="B18" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="B19" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="B20" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="B21" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="B22" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="B23" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="B24" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
     </row>
   </sheetData>

--- a/app/config/tables/MIF/forms/MIF/MIF.xlsx
+++ b/app/config/tables/MIF/forms/MIF/MIF.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A2B80E8-A7AF-4E26-A8FC-012441089ECA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42118345-36C4-459F-B57C-80C85519BDB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="-2100" windowWidth="19440" windowHeight="15000" tabRatio="649" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="649" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -19,8 +19,9 @@
     <sheet name="calculates" sheetId="14" r:id="rId9"/>
     <sheet name="queries" sheetId="5" r:id="rId10"/>
     <sheet name="prompt_types" sheetId="6" r:id="rId11"/>
-    <sheet name="choices" sheetId="3" r:id="rId12"/>
-    <sheet name="model" sheetId="4" r:id="rId13"/>
+    <sheet name="table_specific_translations" sheetId="15" r:id="rId12"/>
+    <sheet name="choices" sheetId="3" r:id="rId13"/>
+    <sheet name="model" sheetId="4" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4066" uniqueCount="1186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4082" uniqueCount="1201">
   <si>
     <t>setting_name</t>
   </si>
@@ -3215,78 +3216,9 @@
     <t>data('CONT')</t>
   </si>
   <si>
-    <t>adate.diffInDays(data('CONT'), data('CONSENTDAT'))&lt;1 || data('CONSENTDAT') == null</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> adate.diffInDays(data('CONT'), data('ABPARTDATA'))&lt;1 || data('ABPARTDATA') == null</t>
-  </si>
-  <si>
-    <t>adate.diffInDays(data('CONT'), data('VAC1DATA'))&lt;1 || data('VAC1DATA') == null</t>
-  </si>
-  <si>
-    <t>adate.diffInDays(data('CONT'), data('VAC2DATA'))&lt;1 || data('VAC2DATA')  == null</t>
-  </si>
-  <si>
-    <t>adate.diffInDays(data('CONT'), data('VAC3DATA'))&lt;1 || data('VAC3DATA') == null</t>
-  </si>
-  <si>
-    <t>adate.diffInDays(data('CONT'), data('VAC4DATA'))&lt;1 || data('VAC4DATA') == null</t>
-  </si>
-  <si>
-    <t>adate.diffInDays(data('CONT'), data('VAC5DATA'))&lt;1 || data('VAC5DATA') == null</t>
-  </si>
-  <si>
-    <t>adate.diffInDays(data('CONT'), data('VAC6DATA'))&lt;1 || data('VAC6DATA') == null</t>
-  </si>
-  <si>
-    <t>adate.diffInDays(data('CONT'), data('VAC7DATA'))&lt;1 || data('VAC7DATA') == null</t>
-  </si>
-  <si>
-    <t>adate.diffInDays(data('CONT'), data('VAC8DATA'))&lt;1 || data('VAC8DATA') == null</t>
-  </si>
-  <si>
-    <t>adate.diffInDays(data('CONT'), data('VAC9DATA'))&lt;1 || data('VAC9DATA') == null</t>
-  </si>
-  <si>
-    <t>adate.diffInDays(data('CONT'), data('VAC10DATA'))&lt;1 || data('VAC10DATA') == null</t>
-  </si>
-  <si>
-    <t>adate.diffInDays(data('CONT'), data('VAC11DATA'))&lt;1 || data('VAC11DATA') == null</t>
-  </si>
-  <si>
-    <t>adate.diffInDays(data('CONT'), data('VAC12DATA'))&lt;1 || data('VAC12DATA') == null</t>
-  </si>
-  <si>
-    <t>adate.diffInDays(data('CONT'), data('VAC13DATA'))&lt;1 || data('VAC13DATA') == null</t>
-  </si>
-  <si>
-    <t>adate.diffInDays(data('CONT'), data('VAC14DATA'))&lt;1 || data('VAC14DATA') == null</t>
-  </si>
-  <si>
-    <t>adate.diffInDays(data('CONT'), data('VAC15DATA'))&lt;1 || data('VAC15DATA') == null</t>
-  </si>
-  <si>
-    <t>adate.diffInDays(data('CONT'), data('VAC16DATA'))&lt;1 || data('VAC16DATA') == null</t>
-  </si>
-  <si>
-    <t>adate.diffInDays(data('CONT'), data('VAC17DATA'))&lt;1 || data('VAC17DATA') == null</t>
-  </si>
-  <si>
-    <t>adate.diffInDays(data('CONT'), data('VAC18DATA'))&lt;1 || data('VAC18DATA') == null</t>
-  </si>
-  <si>
-    <t>adate.diffInDays(data('CONT'), data('VAC19DATA'))&lt;1 || data('VAC19DATA') == null</t>
-  </si>
-  <si>
-    <t>adate.diffInDays(data('CONT'), data('VAC20DATA'))&lt;1 || data('VAC20DATA') == null</t>
-  </si>
-  <si>
     <t>(adate.ageInYears(data('MIFDNASC'))&lt;50 &amp;&amp;  adate.ageInDays(data('MIFDNASC'))&gt;0) || data('lastvisitdate') != null</t>
   </si>
   <si>
-    <t>(adate.diffInDays(data('CONT'), data('EXITDATA'))&lt;1 &amp;&amp; adate.diffInDays(data('EXITDATA'), data('lastvisitdate'))&lt;1) || (data('ESTADOVIS') != '2' &amp;&amp; data('ESTADOVIS') != '3')</t>
-  </si>
-  <si>
     <t>Today's date: &lt;b&gt;{{calculates.displayCONT}}&lt;/b&gt;</t>
   </si>
   <si>
@@ -3296,9 +3228,6 @@
     <t>adate.display(data('CONT'))</t>
   </si>
   <si>
-    <t xml:space="preserve">((adate.diffInDays(data('DATAUP'), data('MIFDNASC'))&lt;1 || data('MIFDNASC') == null) &amp;&amp; adate.diffInDays(data('CONT'), data('DATAUP'))&lt;1) || data('ESTADO') !='3' </t>
-  </si>
-  <si>
     <t>instance_name</t>
   </si>
   <si>
@@ -3687,6 +3616,127 @@
   </si>
   <si>
     <t>A data da última entrega não pode ser anterior à data de nascimento e não pode ser futura</t>
+  </si>
+  <si>
+    <t>Number of births cannot be bigger than the number of children alive + children dead + stillbirths</t>
+  </si>
+  <si>
+    <t>Any twins?</t>
+  </si>
+  <si>
+    <t>SUM</t>
+  </si>
+  <si>
+    <t>parseInt(data('VIVO'))+parseInt(data('FAL'))+parseInt(data('NM'))</t>
+  </si>
+  <si>
+    <t>O número de nascimentos não pode ser maior que o número de criança vivas + criança mortas + natimortos</t>
+  </si>
+  <si>
+    <t>data('PART')&lt;=calculates.SUM() || data('PART') == '99'</t>
+  </si>
+  <si>
+    <t>(adate.diffInDays(data('CONT'), data('EXITDATA'))&lt;1 &amp;&amp; adate.diffInDays(data('EXITDATA'), data('lastvisitdate'))&lt;1) || (data('ESTADOVIS') != '2' &amp;&amp; data('ESTADOVIS') != '3') || adate.hasUncertainty(data('EXITDATA'))</t>
+  </si>
+  <si>
+    <t>adate.diffInDays(data('CONT'), data('CONSENTDAT'))&lt;1 || data('CONSENTDAT') == null || adate.hasUncertainty(data('CONSENTDAT'))</t>
+  </si>
+  <si>
+    <t>adate.diffInDays(data('CONT'), data('ABPARTDATA'))&lt;1 || data('ABPARTDATA') == null || adate.hasUncertainty(data('ABPARTDATA'))</t>
+  </si>
+  <si>
+    <t>adate.diffInDays(data('CONT'), data('VAC1DATA'))&lt;1 || data('VAC1DATA') == null || adate.hasUncertainty(data('VAC1DATA'))</t>
+  </si>
+  <si>
+    <t>adate.diffInDays(data('CONT'), data('VAC2DATA'))&lt;1 || data('VAC2DATA')  == null || adate.hasUncertainty(data('VAC2DATA'))</t>
+  </si>
+  <si>
+    <t>adate.diffInDays(data('CONT'), data('VAC3DATA'))&lt;1 || data('VAC3DATA') == null || adate.hasUncertainty(data('VAC3DATA'))</t>
+  </si>
+  <si>
+    <t>adate.diffInDays(data('CONT'), data('VAC4DATA'))&lt;1 || data('VAC4DATA') == null || adate.hasUncertainty(data('VAC4DATA'))</t>
+  </si>
+  <si>
+    <t>adate.diffInDays(data('CONT'), data('VAC5DATA'))&lt;1 || data('VAC5DATA') == null || adate.hasUncertainty(data('VAC5DATA'))</t>
+  </si>
+  <si>
+    <t>adate.diffInDays(data('CONT'), data('VAC6DATA'))&lt;1 || data('VAC6DATA') == null || adate.hasUncertainty(data('VAC6DATA'))</t>
+  </si>
+  <si>
+    <t>adate.diffInDays(data('CONT'), data('VAC7DATA'))&lt;1 || data('VAC7DATA') == null || adate.hasUncertainty(data('VAC7DATA'))</t>
+  </si>
+  <si>
+    <t>adate.diffInDays(data('CONT'), data('VAC8DATA'))&lt;1 || data('VAC8DATA') == null || adate.hasUncertainty(data('VAC8DATA'))</t>
+  </si>
+  <si>
+    <t>adate.diffInDays(data('CONT'), data('VAC9DATA'))&lt;1 || data('VAC9DATA') == null || adate.hasUncertainty(data('VAC9DATA'))</t>
+  </si>
+  <si>
+    <t>adate.diffInDays(data('CONT'), data('VAC10DATA'))&lt;1 || data('VAC10DATA') == null || adate.hasUncertainty(data('VAC10DATA'))</t>
+  </si>
+  <si>
+    <t>adate.diffInDays(data('CONT'), data('VAC11DATA'))&lt;1 || data('VAC11DATA') == null || adate.hasUncertainty(data('VAC11DATA'))</t>
+  </si>
+  <si>
+    <t>adate.diffInDays(data('CONT'), data('VAC12DATA'))&lt;1 || data('VAC12DATA') == null || adate.hasUncertainty(data('VAC12DATA'))</t>
+  </si>
+  <si>
+    <t>adate.diffInDays(data('CONT'), data('VAC13DATA'))&lt;1 || data('VAC13DATA') == null || adate.hasUncertainty(data('VAC13DATA'))</t>
+  </si>
+  <si>
+    <t>adate.diffInDays(data('CONT'), data('VAC14DATA'))&lt;1 || data('VAC14DATA') == null || adate.hasUncertainty(data('VAC14DATA'))</t>
+  </si>
+  <si>
+    <t>adate.diffInDays(data('CONT'), data('VAC15DATA'))&lt;1 || data('VAC15DATA') == null || adate.hasUncertainty(data('VAC15DATA'))</t>
+  </si>
+  <si>
+    <t>adate.diffInDays(data('CONT'), data('VAC16DATA'))&lt;1 || data('VAC16DATA') == null || adate.hasUncertainty(data('VAC16DATA'))</t>
+  </si>
+  <si>
+    <t>adate.diffInDays(data('CONT'), data('VAC17DATA'))&lt;1 || data('VAC17DATA') == null || adate.hasUncertainty(data('VAC17DATA'))</t>
+  </si>
+  <si>
+    <t>adate.diffInDays(data('CONT'), data('VAC18DATA'))&lt;1 || data('VAC18DATA') == null || adate.hasUncertainty(data('VAC18DATA'))</t>
+  </si>
+  <si>
+    <t>adate.diffInDays(data('CONT'), data('VAC19DATA'))&lt;1 || data('VAC19DATA') == null || adate.hasUncertainty(data('VAC19DATA'))</t>
+  </si>
+  <si>
+    <t>adate.diffInDays(data('CONT'), data('VAC20DATA'))&lt;1 || data('VAC20DATA') == null || adate.hasUncertainty(data('VAC20DATA'))</t>
+  </si>
+  <si>
+    <t>((adate.diffInDays(data('DATAUP'), data('MIFDNASC'))&lt;1 || data('MIFDNASC') == null) &amp;&amp; adate.diffInDays(data('CONT'), data('DATAUP'))&lt;1) || data('ESTADO') !='3'  || adate.hasUncertainty(data('DATAUP')) || adate.hasUncertainty(data('MIFDNASC'))</t>
+  </si>
+  <si>
+    <t>string_token</t>
+  </si>
+  <si>
+    <t>text.english</t>
+  </si>
+  <si>
+    <t>text.default</t>
+  </si>
+  <si>
+    <t>Create a new pregnancy</t>
+  </si>
+  <si>
+    <t>Crie uma nova gravidez</t>
+  </si>
+  <si>
+    <t>linked_table_new_instance_label</t>
+  </si>
+  <si>
+    <t>1: Pregnancy not terminated &lt;br/&gt;
+2: Pregnancy terminated &lt;br/&gt;
+A pregnancy &lt;b&gt;must&lt;/b&gt; be terminated before creating a new pregnancy</t>
+  </si>
+  <si>
+    <t>1: A gravidez não terminou &lt;br/&gt;
+2: Gravidez terminado &lt;br/&gt;
+Uma gravidez &lt;b&gt; deve &lt;/b&gt; ser terminado antes de criar uma nova gravidez</t>
+  </si>
+  <si>
+    <t>display.hide_delete_button</t>
   </si>
 </sst>
 </file>
@@ -4324,7 +4374,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>1056</v>
+        <v>1032</v>
       </c>
       <c r="B9" t="s">
         <v>810</v>
@@ -4402,10 +4452,10 @@
         <v>270</v>
       </c>
       <c r="C2" t="s">
-        <v>1090</v>
+        <v>1066</v>
       </c>
       <c r="D2" t="s">
-        <v>1090</v>
+        <v>1066</v>
       </c>
       <c r="E2" s="16" t="s">
         <v>801</v>
@@ -4414,7 +4464,7 @@
         <v>802</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>1113</v>
+        <v>1089</v>
       </c>
       <c r="H2" s="24" t="s">
         <v>803</v>
@@ -4541,6 +4591,49 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0778EA3C-DAE2-4980-BE25-A171DDCA8803}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="36" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1193</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1195</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFF3D0A7-17A8-4B35-89BF-E7F3088D1597}">
   <dimension ref="A1:E126"/>
   <sheetViews>
@@ -6533,12 +6626,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FCD3AC6-97A9-4343-AD51-53B42E3E4B29}">
   <dimension ref="A1:J257"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -6575,12 +6668,12 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>1092</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1091</v>
+        <v>1067</v>
       </c>
       <c r="B3" t="s">
         <v>113</v>
@@ -6637,7 +6730,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1106</v>
+        <v>1082</v>
       </c>
       <c r="B8" t="s">
         <v>103</v>
@@ -6681,7 +6774,7 @@
         <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>1093</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -6983,7 +7076,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="47" t="s">
-        <v>1107</v>
+        <v>1083</v>
       </c>
       <c r="B40" s="47" t="s">
         <v>103</v>
@@ -7094,7 +7187,7 @@
         <v>0</v>
       </c>
       <c r="D50" t="s">
-        <v>1094</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -7110,7 +7203,7 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="29" t="s">
-        <v>1073</v>
+        <v>1049</v>
       </c>
       <c r="B52" s="29" t="s">
         <v>113</v>
@@ -7121,7 +7214,7 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="29" t="s">
-        <v>1080</v>
+        <v>1056</v>
       </c>
       <c r="B53" s="29" t="s">
         <v>113</v>
@@ -7132,7 +7225,7 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="29" t="s">
-        <v>1086</v>
+        <v>1062</v>
       </c>
       <c r="B54" s="29" t="s">
         <v>113</v>
@@ -7143,7 +7236,7 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="29" t="s">
-        <v>1075</v>
+        <v>1051</v>
       </c>
       <c r="B55" s="29" t="s">
         <v>229</v>
@@ -7154,7 +7247,7 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="29" t="s">
-        <v>1081</v>
+        <v>1057</v>
       </c>
       <c r="B56" s="29" t="s">
         <v>229</v>
@@ -7165,7 +7258,7 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="29" t="s">
-        <v>1087</v>
+        <v>1063</v>
       </c>
       <c r="B57" s="29" t="s">
         <v>229</v>
@@ -7176,7 +7269,7 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="29" t="s">
-        <v>1061</v>
+        <v>1037</v>
       </c>
       <c r="B58" s="29" t="s">
         <v>113</v>
@@ -7187,7 +7280,7 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="29" t="s">
-        <v>1065</v>
+        <v>1041</v>
       </c>
       <c r="B59" s="29" t="s">
         <v>113</v>
@@ -7198,7 +7291,7 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="29" t="s">
-        <v>1069</v>
+        <v>1045</v>
       </c>
       <c r="B60" s="29" t="s">
         <v>113</v>
@@ -7365,7 +7458,7 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="29" t="s">
-        <v>1058</v>
+        <v>1034</v>
       </c>
       <c r="B75" s="29" t="s">
         <v>24</v>
@@ -7376,7 +7469,7 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="47" t="s">
-        <v>1108</v>
+        <v>1084</v>
       </c>
       <c r="B76" s="47" t="s">
         <v>103</v>
@@ -7443,7 +7536,7 @@
         <v>1</v>
       </c>
       <c r="D82" t="s">
-        <v>1095</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -7657,7 +7750,7 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="47" t="s">
-        <v>1109</v>
+        <v>1085</v>
       </c>
       <c r="B102" s="47" t="s">
         <v>103</v>
@@ -8667,7 +8760,7 @@
         <v>0</v>
       </c>
       <c r="D184" t="s">
-        <v>1096</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
@@ -8983,7 +9076,7 @@
         <v>0</v>
       </c>
       <c r="D212" t="s">
-        <v>1097</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
@@ -9186,7 +9279,7 @@
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" s="47" t="s">
-        <v>1111</v>
+        <v>1087</v>
       </c>
       <c r="B231" s="47" t="s">
         <v>103</v>
@@ -9400,7 +9493,7 @@
         <v>0</v>
       </c>
       <c r="D249" t="s">
-        <v>1105</v>
+        <v>1081</v>
       </c>
       <c r="F249" s="29"/>
       <c r="G249" s="47"/>
@@ -9464,7 +9557,7 @@
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>1098</v>
+        <v>1074</v>
       </c>
       <c r="B254" t="s">
         <v>24</v>
@@ -9915,7 +10008,7 @@
         <v>321</v>
       </c>
       <c r="F30" t="s">
-        <v>1091</v>
+        <v>1067</v>
       </c>
       <c r="G30" t="s">
         <v>872</v>
@@ -9935,7 +10028,7 @@
         <v>122</v>
       </c>
       <c r="C32" t="s">
-        <v>1112</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
@@ -10049,13 +10142,13 @@
         <v>103</v>
       </c>
       <c r="F41" t="s">
-        <v>1106</v>
+        <v>1082</v>
       </c>
       <c r="G41" t="s">
-        <v>1128</v>
+        <v>1104</v>
       </c>
       <c r="H41" t="s">
-        <v>1129</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
@@ -10327,9 +10420,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F97EDFF-72E2-4781-A226-FCA8C7C63015}">
   <dimension ref="A1:L151"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L17" sqref="L17"/>
+    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J110" sqref="J110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10397,10 +10490,10 @@
         <v>155</v>
       </c>
       <c r="G3" t="s">
-        <v>1117</v>
+        <v>1093</v>
       </c>
       <c r="H3" t="s">
-        <v>1116</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -10497,10 +10590,10 @@
         <v>155</v>
       </c>
       <c r="G12" t="s">
-        <v>1117</v>
+        <v>1093</v>
       </c>
       <c r="H12" t="s">
-        <v>1116</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -10555,13 +10648,13 @@
         <v>112</v>
       </c>
       <c r="J17" t="s">
-        <v>1050</v>
+        <v>1028</v>
       </c>
       <c r="K17" t="s">
-        <v>1175</v>
+        <v>1151</v>
       </c>
       <c r="L17" t="s">
-        <v>1176</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
@@ -10606,10 +10699,10 @@
         <v>155</v>
       </c>
       <c r="G23" t="s">
-        <v>1114</v>
+        <v>1090</v>
       </c>
       <c r="H23" t="s">
-        <v>1115</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.25">
@@ -10676,10 +10769,10 @@
         <v>155</v>
       </c>
       <c r="G31" t="s">
-        <v>1114</v>
+        <v>1090</v>
       </c>
       <c r="H31" t="s">
-        <v>1115</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.25">
@@ -10693,7 +10786,7 @@
         <v>117</v>
       </c>
       <c r="G32" t="s">
-        <v>1130</v>
+        <v>1106</v>
       </c>
       <c r="H32" t="s">
         <v>118</v>
@@ -10776,10 +10869,10 @@
         <v>155</v>
       </c>
       <c r="G42" t="s">
-        <v>1114</v>
+        <v>1090</v>
       </c>
       <c r="H42" t="s">
-        <v>1115</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
@@ -10852,10 +10945,10 @@
         <v>155</v>
       </c>
       <c r="G50" t="s">
-        <v>1114</v>
+        <v>1090</v>
       </c>
       <c r="H50" t="s">
-        <v>1115</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.25">
@@ -10960,10 +11053,10 @@
         <v>155</v>
       </c>
       <c r="G62" t="s">
-        <v>1114</v>
+        <v>1090</v>
       </c>
       <c r="H62" t="s">
-        <v>1115</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.25">
@@ -10980,7 +11073,7 @@
         <v>208</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>1057</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.25">
@@ -11062,10 +11155,10 @@
         <v>155</v>
       </c>
       <c r="G73" t="s">
-        <v>1114</v>
+        <v>1090</v>
       </c>
       <c r="H73" t="s">
-        <v>1115</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
@@ -11123,6 +11216,12 @@
       <c r="D79" t="s">
         <v>155</v>
       </c>
+      <c r="G79" t="s">
+        <v>1094</v>
+      </c>
+      <c r="H79" t="s">
+        <v>1095</v>
+      </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D80" t="s">
@@ -11226,10 +11325,10 @@
         <v>155</v>
       </c>
       <c r="G91" t="s">
-        <v>1118</v>
+        <v>1094</v>
       </c>
       <c r="H91" t="s">
-        <v>1119</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="92" spans="2:9" x14ac:dyDescent="0.25">
@@ -11240,10 +11339,10 @@
         <v>137</v>
       </c>
       <c r="G92" t="s">
-        <v>1131</v>
+        <v>1107</v>
       </c>
       <c r="H92" t="s">
-        <v>1132</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="93" spans="2:9" x14ac:dyDescent="0.25">
@@ -11281,7 +11380,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D97" t="s">
         <v>24</v>
       </c>
@@ -11289,13 +11388,13 @@
         <v>138</v>
       </c>
       <c r="G97" t="s">
-        <v>1133</v>
+        <v>1109</v>
       </c>
       <c r="H97" t="s">
-        <v>1134</v>
-      </c>
-    </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="98" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D98" t="s">
         <v>199</v>
       </c>
@@ -11306,7 +11405,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
         <v>122</v>
       </c>
@@ -11314,7 +11413,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D100" t="s">
         <v>126</v>
       </c>
@@ -11325,12 +11424,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D102" t="s">
         <v>24</v>
       </c>
@@ -11338,13 +11437,13 @@
         <v>139</v>
       </c>
       <c r="G102" t="s">
-        <v>1135</v>
+        <v>1111</v>
       </c>
       <c r="H102" t="s">
-        <v>1136</v>
-      </c>
-    </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="103" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D103" t="s">
         <v>199</v>
       </c>
@@ -11355,7 +11454,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
         <v>122</v>
       </c>
@@ -11363,7 +11462,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D105" t="s">
         <v>126</v>
       </c>
@@ -11374,33 +11473,33 @@
         <v>99</v>
       </c>
     </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D109" t="s">
         <v>155</v>
       </c>
       <c r="G109" t="s">
-        <v>1118</v>
+        <v>1094</v>
       </c>
       <c r="H109" t="s">
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="110" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D110" t="s">
         <v>24</v>
       </c>
@@ -11408,13 +11507,22 @@
         <v>140</v>
       </c>
       <c r="G110" t="s">
-        <v>1137</v>
+        <v>1113</v>
       </c>
       <c r="H110" t="s">
-        <v>1138</v>
-      </c>
-    </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1114</v>
+      </c>
+      <c r="J110" t="s">
+        <v>1167</v>
+      </c>
+      <c r="K110" t="s">
+        <v>1162</v>
+      </c>
+      <c r="L110" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="111" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D111" t="s">
         <v>199</v>
       </c>
@@ -11425,7 +11533,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
         <v>122</v>
       </c>
@@ -11457,10 +11565,10 @@
         <v>141</v>
       </c>
       <c r="G115" t="s">
-        <v>1140</v>
+        <v>1116</v>
       </c>
       <c r="H115" t="s">
-        <v>1139</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="116" spans="2:9" x14ac:dyDescent="0.25">
@@ -11513,10 +11621,10 @@
         <v>155</v>
       </c>
       <c r="G122" t="s">
-        <v>1118</v>
+        <v>1094</v>
       </c>
       <c r="H122" t="s">
-        <v>1119</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="123" spans="2:9" x14ac:dyDescent="0.25">
@@ -11530,10 +11638,10 @@
         <v>142</v>
       </c>
       <c r="G123" t="s">
-        <v>1140</v>
+        <v>1163</v>
       </c>
       <c r="H123" t="s">
-        <v>1141</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="124" spans="2:9" x14ac:dyDescent="0.25">
@@ -11578,10 +11686,10 @@
         <v>155</v>
       </c>
       <c r="G129" t="s">
-        <v>1118</v>
+        <v>1094</v>
       </c>
       <c r="H129" t="s">
-        <v>1119</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="130" spans="2:9" x14ac:dyDescent="0.25">
@@ -11595,7 +11703,7 @@
         <v>146</v>
       </c>
       <c r="G130" t="s">
-        <v>1142</v>
+        <v>1118</v>
       </c>
       <c r="H130" t="s">
         <v>195</v>
@@ -11678,10 +11786,10 @@
         <v>155</v>
       </c>
       <c r="G140" t="s">
-        <v>1118</v>
+        <v>1094</v>
       </c>
       <c r="H140" t="s">
-        <v>1119</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="141" spans="2:9" x14ac:dyDescent="0.25">
@@ -11692,7 +11800,7 @@
         <v>150</v>
       </c>
       <c r="G141" t="s">
-        <v>1143</v>
+        <v>1119</v>
       </c>
       <c r="H141" t="s">
         <v>153</v>
@@ -11749,10 +11857,10 @@
         <v>155</v>
       </c>
       <c r="G148" t="s">
-        <v>1114</v>
+        <v>1090</v>
       </c>
       <c r="H148" t="s">
-        <v>1115</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
@@ -11760,13 +11868,13 @@
         <v>103</v>
       </c>
       <c r="F149" t="s">
-        <v>1107</v>
+        <v>1083</v>
       </c>
       <c r="G149" t="s">
-        <v>1144</v>
+        <v>1120</v>
       </c>
       <c r="H149" t="s">
-        <v>1145</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
@@ -11786,11 +11894,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{568D4494-839B-4F7A-8E9C-72B7EC0E8A88}">
-  <dimension ref="A1:N166"/>
+  <dimension ref="A1:O166"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L74" sqref="L74"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O161" sqref="O161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11807,12 +11915,13 @@
     <col min="10" max="10" width="23.5703125" style="29" customWidth="1"/>
     <col min="11" max="11" width="38.85546875" style="29" customWidth="1"/>
     <col min="12" max="12" width="41.42578125" style="29" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="31.85546875" style="29" customWidth="1"/>
-    <col min="14" max="14" width="29.7109375" style="29" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="29"/>
+    <col min="13" max="13" width="43.140625" style="29" customWidth="1"/>
+    <col min="14" max="14" width="42" style="29" customWidth="1"/>
+    <col min="15" max="15" width="26.28515625" style="29" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>136</v>
       </c>
@@ -11855,8 +11964,11 @@
       <c r="N1" s="28" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O1" s="26" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="30"/>
       <c r="B2" s="29" t="s">
         <v>12</v>
@@ -11865,29 +11977,29 @@
       <c r="K2"/>
       <c r="L2"/>
     </row>
-    <row r="3" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
         <v>155</v>
       </c>
       <c r="G3" t="s">
-        <v>1120</v>
+        <v>1096</v>
       </c>
       <c r="H3" t="s">
-        <v>1121</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
         <v>155</v>
       </c>
       <c r="G4" t="s">
-        <v>1052</v>
+        <v>1029</v>
       </c>
       <c r="H4" t="s">
-        <v>1172</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B5" s="29" t="s">
         <v>122</v>
       </c>
@@ -11898,21 +12010,21 @@
       <c r="K5"/>
       <c r="L5"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D6" s="29" t="s">
         <v>155</v>
       </c>
       <c r="G6" s="29" t="s">
-        <v>1173</v>
+        <v>1149</v>
       </c>
       <c r="H6" s="29" t="s">
-        <v>1174</v>
+        <v>1150</v>
       </c>
       <c r="J6"/>
       <c r="K6"/>
       <c r="L6"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B7" s="47" t="s">
         <v>125</v>
       </c>
@@ -11920,19 +12032,19 @@
       <c r="K7"/>
       <c r="L7"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="47"/>
       <c r="B8" s="29" t="s">
         <v>122</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>1099</v>
+        <v>1075</v>
       </c>
       <c r="J8"/>
       <c r="K8"/>
       <c r="L8"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="47"/>
       <c r="D9" s="29" t="s">
         <v>155</v>
@@ -11941,13 +12053,13 @@
         <v>815</v>
       </c>
       <c r="H9" s="29" t="s">
-        <v>1146</v>
+        <v>1122</v>
       </c>
       <c r="J9"/>
       <c r="K9"/>
       <c r="L9"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="47"/>
       <c r="B10" s="29" t="s">
         <v>125</v>
@@ -11956,19 +12068,19 @@
       <c r="K10"/>
       <c r="L10"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="47"/>
       <c r="B11" s="29" t="s">
         <v>122</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>1100</v>
+        <v>1076</v>
       </c>
       <c r="J11"/>
       <c r="K11"/>
       <c r="L11"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="47"/>
       <c r="D12" s="29" t="s">
         <v>155</v>
@@ -11977,13 +12089,13 @@
         <v>816</v>
       </c>
       <c r="H12" s="29" t="s">
-        <v>1147</v>
+        <v>1123</v>
       </c>
       <c r="J12"/>
       <c r="K12"/>
       <c r="L12"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="47"/>
       <c r="B13" s="29" t="s">
         <v>125</v>
@@ -11992,19 +12104,19 @@
       <c r="K13"/>
       <c r="L13"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="47"/>
       <c r="B14" s="29" t="s">
         <v>122</v>
       </c>
       <c r="C14" s="29" t="s">
-        <v>1101</v>
+        <v>1077</v>
       </c>
       <c r="J14"/>
       <c r="K14"/>
       <c r="L14"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="47"/>
       <c r="D15" s="29" t="s">
         <v>155</v>
@@ -12013,13 +12125,13 @@
         <v>817</v>
       </c>
       <c r="H15" s="29" t="s">
-        <v>1148</v>
+        <v>1124</v>
       </c>
       <c r="J15"/>
       <c r="K15"/>
       <c r="L15"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="47"/>
       <c r="B16" s="29" t="s">
         <v>125</v>
@@ -12034,7 +12146,7 @@
         <v>122</v>
       </c>
       <c r="C17" s="29" t="s">
-        <v>1102</v>
+        <v>1078</v>
       </c>
       <c r="J17"/>
       <c r="K17"/>
@@ -12049,7 +12161,7 @@
         <v>818</v>
       </c>
       <c r="H18" s="29" t="s">
-        <v>1149</v>
+        <v>1125</v>
       </c>
       <c r="J18"/>
       <c r="K18"/>
@@ -12070,7 +12182,7 @@
         <v>122</v>
       </c>
       <c r="C20" s="29" t="s">
-        <v>1103</v>
+        <v>1079</v>
       </c>
       <c r="J20"/>
       <c r="K20"/>
@@ -12085,7 +12197,7 @@
         <v>819</v>
       </c>
       <c r="H21" s="29" t="s">
-        <v>1150</v>
+        <v>1126</v>
       </c>
       <c r="J21"/>
       <c r="K21"/>
@@ -12106,7 +12218,7 @@
         <v>122</v>
       </c>
       <c r="C23" s="29" t="s">
-        <v>1104</v>
+        <v>1080</v>
       </c>
       <c r="J23"/>
       <c r="K23"/>
@@ -12120,7 +12232,7 @@
         <v>820</v>
       </c>
       <c r="H24" s="29" t="s">
-        <v>1151</v>
+        <v>1127</v>
       </c>
       <c r="J24"/>
       <c r="K24"/>
@@ -12179,13 +12291,13 @@
         <v>264</v>
       </c>
       <c r="J28" t="s">
-        <v>1051</v>
+        <v>1168</v>
       </c>
       <c r="K28" t="s">
-        <v>1177</v>
+        <v>1153</v>
       </c>
       <c r="L28" t="s">
-        <v>1178</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -12348,10 +12460,10 @@
         <v>155</v>
       </c>
       <c r="G44" t="s">
-        <v>1120</v>
+        <v>1096</v>
       </c>
       <c r="H44" t="s">
-        <v>1121</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
@@ -12435,13 +12547,13 @@
         <v>283</v>
       </c>
       <c r="J50" t="s">
-        <v>1028</v>
+        <v>1169</v>
       </c>
       <c r="K50" t="s">
         <v>915</v>
       </c>
       <c r="L50" t="s">
-        <v>1179</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
@@ -12475,10 +12587,10 @@
         <v>155</v>
       </c>
       <c r="G56" t="s">
-        <v>1120</v>
+        <v>1096</v>
       </c>
       <c r="H56" t="s">
-        <v>1121</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="57" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
@@ -12486,7 +12598,7 @@
         <v>122</v>
       </c>
       <c r="C57" t="s">
-        <v>1152</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
@@ -12494,10 +12606,10 @@
         <v>155</v>
       </c>
       <c r="G58" s="29" t="s">
-        <v>1154</v>
+        <v>1130</v>
       </c>
       <c r="H58" s="29" t="s">
-        <v>1155</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
@@ -12510,10 +12622,10 @@
         <v>155</v>
       </c>
       <c r="G60" s="29" t="s">
-        <v>1153</v>
+        <v>1129</v>
       </c>
       <c r="H60" s="29" t="s">
-        <v>1156</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
@@ -12588,10 +12700,10 @@
         <v>155</v>
       </c>
       <c r="G68" t="s">
-        <v>1120</v>
+        <v>1096</v>
       </c>
       <c r="H68" t="s">
-        <v>1121</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
@@ -12635,10 +12747,10 @@
         <v>155</v>
       </c>
       <c r="G73" t="s">
-        <v>1120</v>
+        <v>1096</v>
       </c>
       <c r="H73" t="s">
-        <v>1121</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
@@ -12655,13 +12767,13 @@
         <v>295</v>
       </c>
       <c r="J74" t="s">
-        <v>1029</v>
+        <v>1170</v>
       </c>
       <c r="K74" t="s">
-        <v>1180</v>
+        <v>1156</v>
       </c>
       <c r="L74" t="s">
-        <v>1181</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
@@ -12669,13 +12781,13 @@
         <v>24</v>
       </c>
       <c r="F75" s="29" t="s">
-        <v>1058</v>
+        <v>1034</v>
       </c>
       <c r="G75" s="29" t="s">
-        <v>1059</v>
+        <v>1035</v>
       </c>
       <c r="H75" s="29" t="s">
-        <v>1060</v>
+        <v>1036</v>
       </c>
       <c r="J75"/>
       <c r="K75"/>
@@ -12702,10 +12814,10 @@
         <v>155</v>
       </c>
       <c r="G78" t="s">
-        <v>1120</v>
+        <v>1096</v>
       </c>
       <c r="H78" t="s">
-        <v>1121</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
@@ -12716,13 +12828,13 @@
         <v>296</v>
       </c>
       <c r="F79" s="29" t="s">
-        <v>1061</v>
+        <v>1037</v>
       </c>
       <c r="G79" s="29" t="s">
-        <v>1062</v>
+        <v>1038</v>
       </c>
       <c r="H79" s="29" t="s">
-        <v>1063</v>
+        <v>1039</v>
       </c>
       <c r="J79"/>
       <c r="K79"/>
@@ -12733,7 +12845,7 @@
         <v>122</v>
       </c>
       <c r="C80" t="s">
-        <v>1064</v>
+        <v>1040</v>
       </c>
       <c r="J80"/>
       <c r="K80"/>
@@ -12749,13 +12861,13 @@
         <v>296</v>
       </c>
       <c r="F81" s="29" t="s">
-        <v>1065</v>
+        <v>1041</v>
       </c>
       <c r="G81" s="29" t="s">
-        <v>1066</v>
+        <v>1042</v>
       </c>
       <c r="H81" s="29" t="s">
-        <v>1067</v>
+        <v>1043</v>
       </c>
       <c r="J81"/>
       <c r="K81"/>
@@ -12775,7 +12887,7 @@
         <v>122</v>
       </c>
       <c r="C83" t="s">
-        <v>1068</v>
+        <v>1044</v>
       </c>
       <c r="J83"/>
       <c r="K83"/>
@@ -12791,13 +12903,13 @@
         <v>296</v>
       </c>
       <c r="F84" s="29" t="s">
-        <v>1069</v>
+        <v>1045</v>
       </c>
       <c r="G84" s="29" t="s">
-        <v>1070</v>
+        <v>1046</v>
       </c>
       <c r="H84" s="29" t="s">
-        <v>1071</v>
+        <v>1047</v>
       </c>
       <c r="J84"/>
       <c r="K84"/>
@@ -12826,7 +12938,7 @@
         <v>122</v>
       </c>
       <c r="C87" s="29" t="s">
-        <v>1072</v>
+        <v>1048</v>
       </c>
       <c r="J87"/>
       <c r="K87"/>
@@ -12845,10 +12957,10 @@
         <v>155</v>
       </c>
       <c r="G89" t="s">
-        <v>1120</v>
+        <v>1096</v>
       </c>
       <c r="H89" t="s">
-        <v>1121</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="90" spans="2:12" x14ac:dyDescent="0.25">
@@ -12859,13 +12971,13 @@
         <v>29</v>
       </c>
       <c r="F90" s="29" t="s">
-        <v>1073</v>
+        <v>1049</v>
       </c>
       <c r="G90" s="29" t="s">
-        <v>1076</v>
+        <v>1052</v>
       </c>
       <c r="H90" s="29" t="s">
-        <v>1077</v>
+        <v>1053</v>
       </c>
       <c r="J90"/>
       <c r="K90"/>
@@ -12876,7 +12988,7 @@
         <v>122</v>
       </c>
       <c r="C91" s="29" t="s">
-        <v>1074</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="92" spans="2:12" x14ac:dyDescent="0.25">
@@ -12884,7 +12996,7 @@
         <v>229</v>
       </c>
       <c r="F92" s="29" t="s">
-        <v>1075</v>
+        <v>1051</v>
       </c>
       <c r="G92" s="29" t="s">
         <v>297</v>
@@ -12913,7 +13025,7 @@
         <v>122</v>
       </c>
       <c r="C96" s="29" t="s">
-        <v>1078</v>
+        <v>1054</v>
       </c>
       <c r="J96"/>
       <c r="K96"/>
@@ -12932,10 +13044,10 @@
         <v>155</v>
       </c>
       <c r="G98" t="s">
-        <v>1120</v>
+        <v>1096</v>
       </c>
       <c r="H98" t="s">
-        <v>1121</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="99" spans="2:12" x14ac:dyDescent="0.25">
@@ -12946,13 +13058,13 @@
         <v>29</v>
       </c>
       <c r="F99" s="29" t="s">
-        <v>1080</v>
+        <v>1056</v>
       </c>
       <c r="G99" s="29" t="s">
-        <v>1082</v>
+        <v>1058</v>
       </c>
       <c r="H99" s="29" t="s">
-        <v>1083</v>
+        <v>1059</v>
       </c>
       <c r="J99"/>
       <c r="K99"/>
@@ -12963,7 +13075,7 @@
         <v>122</v>
       </c>
       <c r="C100" s="29" t="s">
-        <v>1079</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="101" spans="2:12" x14ac:dyDescent="0.25">
@@ -12971,7 +13083,7 @@
         <v>229</v>
       </c>
       <c r="F101" s="29" t="s">
-        <v>1081</v>
+        <v>1057</v>
       </c>
       <c r="G101" s="29" t="s">
         <v>297</v>
@@ -13000,7 +13112,7 @@
         <v>122</v>
       </c>
       <c r="C105" s="29" t="s">
-        <v>1084</v>
+        <v>1060</v>
       </c>
       <c r="J105"/>
       <c r="K105"/>
@@ -13019,10 +13131,10 @@
         <v>155</v>
       </c>
       <c r="G107" t="s">
-        <v>1120</v>
+        <v>1096</v>
       </c>
       <c r="H107" t="s">
-        <v>1121</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="108" spans="2:12" x14ac:dyDescent="0.25">
@@ -13033,13 +13145,13 @@
         <v>29</v>
       </c>
       <c r="F108" s="29" t="s">
-        <v>1086</v>
+        <v>1062</v>
       </c>
       <c r="G108" s="29" t="s">
-        <v>1088</v>
+        <v>1064</v>
       </c>
       <c r="H108" s="29" t="s">
-        <v>1089</v>
+        <v>1065</v>
       </c>
       <c r="J108"/>
       <c r="K108"/>
@@ -13050,7 +13162,7 @@
         <v>122</v>
       </c>
       <c r="C109" s="29" t="s">
-        <v>1085</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="110" spans="2:12" x14ac:dyDescent="0.25">
@@ -13058,7 +13170,7 @@
         <v>229</v>
       </c>
       <c r="F110" s="29" t="s">
-        <v>1087</v>
+        <v>1063</v>
       </c>
       <c r="G110" s="29" t="s">
         <v>297</v>
@@ -13106,10 +13218,10 @@
         <v>155</v>
       </c>
       <c r="G117" t="s">
-        <v>1120</v>
+        <v>1096</v>
       </c>
       <c r="H117" t="s">
-        <v>1121</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
@@ -13123,7 +13235,7 @@
         <v>300</v>
       </c>
       <c r="G118" s="29" t="s">
-        <v>1157</v>
+        <v>1133</v>
       </c>
       <c r="H118" s="29" t="s">
         <v>301</v>
@@ -13179,10 +13291,10 @@
         <v>155</v>
       </c>
       <c r="G125" t="s">
-        <v>1120</v>
+        <v>1096</v>
       </c>
       <c r="H125" t="s">
-        <v>1121</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
@@ -13264,10 +13376,10 @@
         <v>155</v>
       </c>
       <c r="G133" t="s">
-        <v>1120</v>
+        <v>1096</v>
       </c>
       <c r="H133" t="s">
-        <v>1121</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
@@ -13365,13 +13477,13 @@
         <v>155</v>
       </c>
       <c r="G144" t="s">
-        <v>1120</v>
+        <v>1096</v>
       </c>
       <c r="H144" t="s">
-        <v>1121</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D145" s="29" t="s">
         <v>113</v>
       </c>
@@ -13388,12 +13500,12 @@
         <v>845</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B146" s="29" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B147" s="29" t="s">
         <v>122</v>
       </c>
@@ -13401,18 +13513,18 @@
         <v>324</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B148" s="29" t="s">
         <v>793</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A149" s="38"/>
       <c r="B149" s="29" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A150" s="37"/>
       <c r="B150" s="29" t="s">
         <v>122</v>
@@ -13421,36 +13533,36 @@
         <v>905</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B151" s="29" t="s">
         <v>792</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A152" s="37"/>
       <c r="B152" s="29" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A153" s="32"/>
       <c r="B153" s="29" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A154" s="53"/>
       <c r="B154" s="29" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A155" s="40"/>
       <c r="B155" s="47" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A156" s="39"/>
       <c r="B156" s="29" t="s">
         <v>122</v>
@@ -13459,23 +13571,23 @@
         <v>874</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B157" s="29" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="158" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D158" t="s">
         <v>155</v>
       </c>
       <c r="G158" t="s">
-        <v>1120</v>
+        <v>1096</v>
       </c>
       <c r="H158" t="s">
-        <v>1121</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D159" s="29" t="s">
         <v>155</v>
       </c>
@@ -13486,12 +13598,21 @@
         <v>875</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="D160" s="29" t="s">
         <v>270</v>
       </c>
       <c r="E160" s="29" t="s">
         <v>326</v>
+      </c>
+      <c r="M160" s="42" t="s">
+        <v>1198</v>
+      </c>
+      <c r="N160" s="42" t="s">
+        <v>1199</v>
+      </c>
+      <c r="O160" s="29" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
@@ -13515,10 +13636,10 @@
         <v>155</v>
       </c>
       <c r="G164" t="s">
-        <v>1120</v>
+        <v>1096</v>
       </c>
       <c r="H164" t="s">
-        <v>1121</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="165" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
@@ -13526,13 +13647,13 @@
         <v>103</v>
       </c>
       <c r="F165" t="s">
-        <v>1108</v>
+        <v>1084</v>
       </c>
       <c r="G165" t="s">
-        <v>1158</v>
+        <v>1134</v>
       </c>
       <c r="H165" t="s">
-        <v>1159</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="166" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
@@ -13549,9 +13670,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF620B59-79FA-4646-92DD-ED95E169989F}">
   <dimension ref="A1:M545"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L14" sqref="L14"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A522" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H534" sqref="H534"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13634,10 +13755,10 @@
         <v>155</v>
       </c>
       <c r="G4" t="s">
-        <v>1122</v>
+        <v>1098</v>
       </c>
       <c r="H4" t="s">
-        <v>1123</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -13680,10 +13801,10 @@
         <v>155</v>
       </c>
       <c r="G9" t="s">
-        <v>1122</v>
+        <v>1098</v>
       </c>
       <c r="H9" t="s">
-        <v>1123</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -13745,13 +13866,13 @@
         <v>343</v>
       </c>
       <c r="K13" t="s">
-        <v>1030</v>
+        <v>1171</v>
       </c>
       <c r="L13" t="s">
-        <v>1183</v>
+        <v>1159</v>
       </c>
       <c r="M13" t="s">
-        <v>1182</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -13766,7 +13887,7 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B16" s="29" t="s">
-        <v>1110</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -13789,10 +13910,10 @@
         <v>155</v>
       </c>
       <c r="G20" t="s">
-        <v>1122</v>
+        <v>1098</v>
       </c>
       <c r="H20" t="s">
-        <v>1123</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -13869,13 +13990,13 @@
         <v>343</v>
       </c>
       <c r="K25" t="s">
-        <v>1030</v>
+        <v>1171</v>
       </c>
       <c r="L25" t="s">
-        <v>1183</v>
+        <v>1159</v>
       </c>
       <c r="M25" t="s">
-        <v>1182</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -13915,10 +14036,10 @@
         <v>155</v>
       </c>
       <c r="G31" t="s">
-        <v>1122</v>
+        <v>1098</v>
       </c>
       <c r="H31" t="s">
-        <v>1123</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
@@ -13961,10 +14082,10 @@
         <v>155</v>
       </c>
       <c r="G36" t="s">
-        <v>1122</v>
+        <v>1098</v>
       </c>
       <c r="H36" t="s">
-        <v>1123</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.25">
@@ -14026,13 +14147,13 @@
         <v>343</v>
       </c>
       <c r="K40" t="s">
-        <v>1031</v>
+        <v>1172</v>
       </c>
       <c r="L40" t="s">
-        <v>1183</v>
+        <v>1159</v>
       </c>
       <c r="M40" t="s">
-        <v>1182</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.25">
@@ -14050,7 +14171,7 @@
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B43" s="29" t="s">
-        <v>1110</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.25">
@@ -14073,10 +14194,10 @@
         <v>155</v>
       </c>
       <c r="G47" t="s">
-        <v>1122</v>
+        <v>1098</v>
       </c>
       <c r="H47" t="s">
-        <v>1123</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="48" spans="2:13" ht="45" x14ac:dyDescent="0.25">
@@ -14152,13 +14273,13 @@
         <v>343</v>
       </c>
       <c r="K52" t="s">
-        <v>1031</v>
+        <v>1172</v>
       </c>
       <c r="L52" t="s">
-        <v>1183</v>
+        <v>1159</v>
       </c>
       <c r="M52" t="s">
-        <v>1182</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
@@ -14199,10 +14320,10 @@
         <v>155</v>
       </c>
       <c r="G58" t="s">
-        <v>1122</v>
+        <v>1098</v>
       </c>
       <c r="H58" t="s">
-        <v>1123</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
@@ -14245,10 +14366,10 @@
         <v>155</v>
       </c>
       <c r="G63" t="s">
-        <v>1122</v>
+        <v>1098</v>
       </c>
       <c r="H63" t="s">
-        <v>1123</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
@@ -14310,13 +14431,13 @@
         <v>343</v>
       </c>
       <c r="K67" t="s">
-        <v>1032</v>
+        <v>1173</v>
       </c>
       <c r="L67" t="s">
-        <v>1183</v>
+        <v>1159</v>
       </c>
       <c r="M67" t="s">
-        <v>1182</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="68" spans="2:13" x14ac:dyDescent="0.25">
@@ -14331,7 +14452,7 @@
     </row>
     <row r="70" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B70" s="29" t="s">
-        <v>1110</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="71" spans="2:13" x14ac:dyDescent="0.25">
@@ -14354,10 +14475,10 @@
         <v>155</v>
       </c>
       <c r="G74" t="s">
-        <v>1122</v>
+        <v>1098</v>
       </c>
       <c r="H74" t="s">
-        <v>1123</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="75" spans="2:13" ht="45" x14ac:dyDescent="0.25">
@@ -14433,13 +14554,13 @@
         <v>343</v>
       </c>
       <c r="K79" t="s">
-        <v>1032</v>
+        <v>1173</v>
       </c>
       <c r="L79" t="s">
-        <v>1183</v>
+        <v>1159</v>
       </c>
       <c r="M79" t="s">
-        <v>1182</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="80" spans="2:13" x14ac:dyDescent="0.25">
@@ -14479,10 +14600,10 @@
         <v>155</v>
       </c>
       <c r="G85" t="s">
-        <v>1122</v>
+        <v>1098</v>
       </c>
       <c r="H85" t="s">
-        <v>1123</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
@@ -14525,10 +14646,10 @@
         <v>155</v>
       </c>
       <c r="G90" t="s">
-        <v>1122</v>
+        <v>1098</v>
       </c>
       <c r="H90" t="s">
-        <v>1123</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
@@ -14591,13 +14712,13 @@
         <v>343</v>
       </c>
       <c r="K94" t="s">
-        <v>1033</v>
+        <v>1174</v>
       </c>
       <c r="L94" t="s">
-        <v>1183</v>
+        <v>1159</v>
       </c>
       <c r="M94" t="s">
-        <v>1182</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
@@ -14615,7 +14736,7 @@
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B97" s="29" t="s">
-        <v>1110</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
@@ -14638,10 +14759,10 @@
         <v>155</v>
       </c>
       <c r="G101" t="s">
-        <v>1122</v>
+        <v>1098</v>
       </c>
       <c r="H101" t="s">
-        <v>1123</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="102" spans="1:13" ht="45" x14ac:dyDescent="0.25">
@@ -14717,13 +14838,13 @@
         <v>343</v>
       </c>
       <c r="K106" t="s">
-        <v>1033</v>
+        <v>1174</v>
       </c>
       <c r="L106" t="s">
-        <v>1183</v>
+        <v>1159</v>
       </c>
       <c r="M106" t="s">
-        <v>1182</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.25">
@@ -14763,10 +14884,10 @@
         <v>155</v>
       </c>
       <c r="G112" t="s">
-        <v>1122</v>
+        <v>1098</v>
       </c>
       <c r="H112" t="s">
-        <v>1123</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="113" spans="2:13" x14ac:dyDescent="0.25">
@@ -14809,10 +14930,10 @@
         <v>155</v>
       </c>
       <c r="G117" t="s">
-        <v>1122</v>
+        <v>1098</v>
       </c>
       <c r="H117" t="s">
-        <v>1123</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="118" spans="2:13" x14ac:dyDescent="0.25">
@@ -14874,13 +14995,13 @@
         <v>343</v>
       </c>
       <c r="K121" t="s">
-        <v>1034</v>
+        <v>1175</v>
       </c>
       <c r="L121" t="s">
-        <v>1183</v>
+        <v>1159</v>
       </c>
       <c r="M121" t="s">
-        <v>1182</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="122" spans="2:13" x14ac:dyDescent="0.25">
@@ -14895,7 +15016,7 @@
     </row>
     <row r="124" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B124" s="29" t="s">
-        <v>1110</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="125" spans="2:13" x14ac:dyDescent="0.25">
@@ -14919,10 +15040,10 @@
         <v>155</v>
       </c>
       <c r="G128" t="s">
-        <v>1122</v>
+        <v>1098</v>
       </c>
       <c r="H128" t="s">
-        <v>1123</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="129" spans="1:13" ht="45" x14ac:dyDescent="0.25">
@@ -14998,13 +15119,13 @@
         <v>343</v>
       </c>
       <c r="K133" t="s">
-        <v>1034</v>
+        <v>1175</v>
       </c>
       <c r="L133" t="s">
-        <v>1183</v>
+        <v>1159</v>
       </c>
       <c r="M133" t="s">
-        <v>1182</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.25">
@@ -15044,10 +15165,10 @@
         <v>155</v>
       </c>
       <c r="G139" t="s">
-        <v>1122</v>
+        <v>1098</v>
       </c>
       <c r="H139" t="s">
-        <v>1123</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.25">
@@ -15090,10 +15211,10 @@
         <v>155</v>
       </c>
       <c r="G144" t="s">
-        <v>1122</v>
+        <v>1098</v>
       </c>
       <c r="H144" t="s">
-        <v>1123</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="145" spans="2:13" x14ac:dyDescent="0.25">
@@ -15155,13 +15276,13 @@
         <v>343</v>
       </c>
       <c r="K148" t="s">
-        <v>1035</v>
+        <v>1176</v>
       </c>
       <c r="L148" t="s">
-        <v>1183</v>
+        <v>1159</v>
       </c>
       <c r="M148" t="s">
-        <v>1182</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="149" spans="2:13" x14ac:dyDescent="0.25">
@@ -15179,7 +15300,7 @@
     </row>
     <row r="151" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B151" s="29" t="s">
-        <v>1110</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="152" spans="2:13" x14ac:dyDescent="0.25">
@@ -15202,10 +15323,10 @@
         <v>155</v>
       </c>
       <c r="G155" t="s">
-        <v>1122</v>
+        <v>1098</v>
       </c>
       <c r="H155" t="s">
-        <v>1123</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="156" spans="2:13" ht="45" x14ac:dyDescent="0.25">
@@ -15282,13 +15403,13 @@
       </c>
       <c r="J160" s="42"/>
       <c r="K160" t="s">
-        <v>1035</v>
+        <v>1176</v>
       </c>
       <c r="L160" t="s">
-        <v>1183</v>
+        <v>1159</v>
       </c>
       <c r="M160" t="s">
-        <v>1182</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.25">
@@ -15328,10 +15449,10 @@
         <v>155</v>
       </c>
       <c r="G166" t="s">
-        <v>1122</v>
+        <v>1098</v>
       </c>
       <c r="H166" t="s">
-        <v>1123</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.25">
@@ -15374,10 +15495,10 @@
         <v>155</v>
       </c>
       <c r="G171" t="s">
-        <v>1122</v>
+        <v>1098</v>
       </c>
       <c r="H171" t="s">
-        <v>1123</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.25">
@@ -15439,13 +15560,13 @@
         <v>343</v>
       </c>
       <c r="K175" t="s">
-        <v>1036</v>
+        <v>1177</v>
       </c>
       <c r="L175" t="s">
-        <v>1183</v>
+        <v>1159</v>
       </c>
       <c r="M175" t="s">
-        <v>1182</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="176" spans="1:13" x14ac:dyDescent="0.25">
@@ -15460,7 +15581,7 @@
     </row>
     <row r="178" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B178" s="29" t="s">
-        <v>1110</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="179" spans="1:13" x14ac:dyDescent="0.25">
@@ -15483,10 +15604,10 @@
         <v>155</v>
       </c>
       <c r="G182" t="s">
-        <v>1122</v>
+        <v>1098</v>
       </c>
       <c r="H182" t="s">
-        <v>1123</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="183" spans="1:13" ht="45" x14ac:dyDescent="0.25">
@@ -15562,13 +15683,13 @@
         <v>343</v>
       </c>
       <c r="K187" t="s">
-        <v>1036</v>
+        <v>1177</v>
       </c>
       <c r="L187" t="s">
-        <v>1183</v>
+        <v>1159</v>
       </c>
       <c r="M187" t="s">
-        <v>1182</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="188" spans="1:13" x14ac:dyDescent="0.25">
@@ -15608,10 +15729,10 @@
         <v>155</v>
       </c>
       <c r="G193" t="s">
-        <v>1122</v>
+        <v>1098</v>
       </c>
       <c r="H193" t="s">
-        <v>1123</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="194" spans="2:13" x14ac:dyDescent="0.25">
@@ -15655,10 +15776,10 @@
         <v>155</v>
       </c>
       <c r="G198" t="s">
-        <v>1122</v>
+        <v>1098</v>
       </c>
       <c r="H198" t="s">
-        <v>1123</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="199" spans="2:13" x14ac:dyDescent="0.25">
@@ -15720,13 +15841,13 @@
         <v>343</v>
       </c>
       <c r="K202" t="s">
-        <v>1037</v>
+        <v>1178</v>
       </c>
       <c r="L202" t="s">
-        <v>1183</v>
+        <v>1159</v>
       </c>
       <c r="M202" t="s">
-        <v>1182</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="203" spans="2:13" x14ac:dyDescent="0.25">
@@ -15744,7 +15865,7 @@
     </row>
     <row r="205" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B205" s="29" t="s">
-        <v>1110</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="206" spans="2:13" x14ac:dyDescent="0.25">
@@ -15767,10 +15888,10 @@
         <v>155</v>
       </c>
       <c r="G209" t="s">
-        <v>1122</v>
+        <v>1098</v>
       </c>
       <c r="H209" t="s">
-        <v>1123</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="210" spans="1:13" ht="45" x14ac:dyDescent="0.25">
@@ -15846,13 +15967,13 @@
         <v>343</v>
       </c>
       <c r="K214" t="s">
-        <v>1037</v>
+        <v>1178</v>
       </c>
       <c r="L214" t="s">
-        <v>1183</v>
+        <v>1159</v>
       </c>
       <c r="M214" t="s">
-        <v>1182</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="215" spans="1:13" x14ac:dyDescent="0.25">
@@ -15892,10 +16013,10 @@
         <v>155</v>
       </c>
       <c r="G220" t="s">
-        <v>1122</v>
+        <v>1098</v>
       </c>
       <c r="H220" t="s">
-        <v>1123</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="221" spans="1:13" x14ac:dyDescent="0.25">
@@ -15938,10 +16059,10 @@
         <v>155</v>
       </c>
       <c r="G225" t="s">
-        <v>1122</v>
+        <v>1098</v>
       </c>
       <c r="H225" t="s">
-        <v>1123</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="226" spans="2:13" x14ac:dyDescent="0.25">
@@ -16003,13 +16124,13 @@
         <v>343</v>
       </c>
       <c r="K229" t="s">
-        <v>1038</v>
+        <v>1179</v>
       </c>
       <c r="L229" t="s">
-        <v>1183</v>
+        <v>1159</v>
       </c>
       <c r="M229" t="s">
-        <v>1182</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="230" spans="2:13" x14ac:dyDescent="0.25">
@@ -16025,7 +16146,7 @@
     </row>
     <row r="232" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B232" s="29" t="s">
-        <v>1110</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="233" spans="2:13" x14ac:dyDescent="0.25">
@@ -16048,10 +16169,10 @@
         <v>155</v>
       </c>
       <c r="G236" t="s">
-        <v>1122</v>
+        <v>1098</v>
       </c>
       <c r="H236" t="s">
-        <v>1123</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="237" spans="2:13" ht="45" x14ac:dyDescent="0.25">
@@ -16127,13 +16248,13 @@
         <v>343</v>
       </c>
       <c r="K241" t="s">
-        <v>1038</v>
+        <v>1179</v>
       </c>
       <c r="L241" t="s">
-        <v>1183</v>
+        <v>1159</v>
       </c>
       <c r="M241" t="s">
-        <v>1182</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="242" spans="1:13" x14ac:dyDescent="0.25">
@@ -16173,10 +16294,10 @@
         <v>155</v>
       </c>
       <c r="G247" t="s">
-        <v>1122</v>
+        <v>1098</v>
       </c>
       <c r="H247" t="s">
-        <v>1123</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="248" spans="1:13" x14ac:dyDescent="0.25">
@@ -16219,10 +16340,10 @@
         <v>155</v>
       </c>
       <c r="G252" t="s">
-        <v>1122</v>
+        <v>1098</v>
       </c>
       <c r="H252" t="s">
-        <v>1123</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="253" spans="1:13" x14ac:dyDescent="0.25">
@@ -16284,13 +16405,13 @@
         <v>343</v>
       </c>
       <c r="K256" t="s">
-        <v>1039</v>
+        <v>1180</v>
       </c>
       <c r="L256" t="s">
-        <v>1183</v>
+        <v>1159</v>
       </c>
       <c r="M256" t="s">
-        <v>1182</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="257" spans="1:13" x14ac:dyDescent="0.25">
@@ -16308,7 +16429,7 @@
     </row>
     <row r="259" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B259" s="29" t="s">
-        <v>1110</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="260" spans="1:13" x14ac:dyDescent="0.25">
@@ -16331,10 +16452,10 @@
         <v>155</v>
       </c>
       <c r="G263" t="s">
-        <v>1122</v>
+        <v>1098</v>
       </c>
       <c r="H263" t="s">
-        <v>1123</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="264" spans="1:13" ht="45" x14ac:dyDescent="0.25">
@@ -16411,13 +16532,13 @@
         <v>343</v>
       </c>
       <c r="K268" t="s">
-        <v>1039</v>
+        <v>1180</v>
       </c>
       <c r="L268" t="s">
-        <v>1183</v>
+        <v>1159</v>
       </c>
       <c r="M268" t="s">
-        <v>1182</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="269" spans="1:13" x14ac:dyDescent="0.25">
@@ -16457,10 +16578,10 @@
         <v>155</v>
       </c>
       <c r="G274" t="s">
-        <v>1122</v>
+        <v>1098</v>
       </c>
       <c r="H274" t="s">
-        <v>1123</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="275" spans="2:13" x14ac:dyDescent="0.25">
@@ -16503,10 +16624,10 @@
         <v>155</v>
       </c>
       <c r="G279" t="s">
-        <v>1122</v>
+        <v>1098</v>
       </c>
       <c r="H279" t="s">
-        <v>1123</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="280" spans="2:13" x14ac:dyDescent="0.25">
@@ -16568,13 +16689,13 @@
         <v>343</v>
       </c>
       <c r="K283" t="s">
-        <v>1040</v>
+        <v>1181</v>
       </c>
       <c r="L283" t="s">
-        <v>1183</v>
+        <v>1159</v>
       </c>
       <c r="M283" t="s">
-        <v>1182</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="284" spans="2:13" x14ac:dyDescent="0.25">
@@ -16589,7 +16710,7 @@
     </row>
     <row r="286" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B286" s="29" t="s">
-        <v>1110</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="287" spans="2:13" x14ac:dyDescent="0.25">
@@ -16612,10 +16733,10 @@
         <v>155</v>
       </c>
       <c r="G290" t="s">
-        <v>1122</v>
+        <v>1098</v>
       </c>
       <c r="H290" t="s">
-        <v>1123</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="291" spans="1:13" ht="45" x14ac:dyDescent="0.25">
@@ -16691,13 +16812,13 @@
         <v>343</v>
       </c>
       <c r="K295" t="s">
-        <v>1040</v>
+        <v>1181</v>
       </c>
       <c r="L295" t="s">
-        <v>1183</v>
+        <v>1159</v>
       </c>
       <c r="M295" t="s">
-        <v>1182</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="296" spans="1:13" x14ac:dyDescent="0.25">
@@ -16738,10 +16859,10 @@
         <v>155</v>
       </c>
       <c r="G301" t="s">
-        <v>1122</v>
+        <v>1098</v>
       </c>
       <c r="H301" t="s">
-        <v>1123</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="302" spans="1:13" x14ac:dyDescent="0.25">
@@ -16784,10 +16905,10 @@
         <v>155</v>
       </c>
       <c r="G306" t="s">
-        <v>1122</v>
+        <v>1098</v>
       </c>
       <c r="H306" t="s">
-        <v>1123</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="307" spans="2:13" x14ac:dyDescent="0.25">
@@ -16849,13 +16970,13 @@
         <v>343</v>
       </c>
       <c r="K310" t="s">
-        <v>1041</v>
+        <v>1182</v>
       </c>
       <c r="L310" t="s">
-        <v>1183</v>
+        <v>1159</v>
       </c>
       <c r="M310" t="s">
-        <v>1182</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="311" spans="2:13" x14ac:dyDescent="0.25">
@@ -16873,7 +16994,7 @@
     </row>
     <row r="313" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B313" s="29" t="s">
-        <v>1110</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="314" spans="2:13" x14ac:dyDescent="0.25">
@@ -16896,10 +17017,10 @@
         <v>155</v>
       </c>
       <c r="G317" t="s">
-        <v>1122</v>
+        <v>1098</v>
       </c>
       <c r="H317" t="s">
-        <v>1123</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="318" spans="2:13" ht="45" x14ac:dyDescent="0.25">
@@ -16975,13 +17096,13 @@
         <v>343</v>
       </c>
       <c r="K322" t="s">
-        <v>1041</v>
+        <v>1182</v>
       </c>
       <c r="L322" t="s">
-        <v>1183</v>
+        <v>1159</v>
       </c>
       <c r="M322" t="s">
-        <v>1182</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="323" spans="1:13" x14ac:dyDescent="0.25">
@@ -17021,10 +17142,10 @@
         <v>155</v>
       </c>
       <c r="G328" t="s">
-        <v>1122</v>
+        <v>1098</v>
       </c>
       <c r="H328" t="s">
-        <v>1123</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="329" spans="1:13" x14ac:dyDescent="0.25">
@@ -17067,10 +17188,10 @@
         <v>155</v>
       </c>
       <c r="G333" t="s">
-        <v>1122</v>
+        <v>1098</v>
       </c>
       <c r="H333" t="s">
-        <v>1123</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="334" spans="1:13" x14ac:dyDescent="0.25">
@@ -17133,13 +17254,13 @@
         <v>343</v>
       </c>
       <c r="K337" t="s">
-        <v>1042</v>
+        <v>1183</v>
       </c>
       <c r="L337" t="s">
-        <v>1183</v>
+        <v>1159</v>
       </c>
       <c r="M337" t="s">
-        <v>1182</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="338" spans="1:13" x14ac:dyDescent="0.25">
@@ -17154,7 +17275,7 @@
     </row>
     <row r="340" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B340" s="29" t="s">
-        <v>1110</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="341" spans="1:13" x14ac:dyDescent="0.25">
@@ -17177,10 +17298,10 @@
         <v>155</v>
       </c>
       <c r="G344" t="s">
-        <v>1122</v>
+        <v>1098</v>
       </c>
       <c r="H344" t="s">
-        <v>1123</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="345" spans="1:13" ht="45" x14ac:dyDescent="0.25">
@@ -17256,13 +17377,13 @@
         <v>343</v>
       </c>
       <c r="K349" t="s">
-        <v>1042</v>
+        <v>1183</v>
       </c>
       <c r="L349" t="s">
-        <v>1183</v>
+        <v>1159</v>
       </c>
       <c r="M349" t="s">
-        <v>1182</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="350" spans="1:13" x14ac:dyDescent="0.25">
@@ -17302,10 +17423,10 @@
         <v>155</v>
       </c>
       <c r="G355" t="s">
-        <v>1122</v>
+        <v>1098</v>
       </c>
       <c r="H355" t="s">
-        <v>1123</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="356" spans="1:13" x14ac:dyDescent="0.25">
@@ -17348,10 +17469,10 @@
         <v>155</v>
       </c>
       <c r="G360" t="s">
-        <v>1122</v>
+        <v>1098</v>
       </c>
       <c r="H360" t="s">
-        <v>1123</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="361" spans="1:13" x14ac:dyDescent="0.25">
@@ -17413,13 +17534,13 @@
         <v>343</v>
       </c>
       <c r="K364" t="s">
-        <v>1043</v>
+        <v>1184</v>
       </c>
       <c r="L364" t="s">
-        <v>1183</v>
+        <v>1159</v>
       </c>
       <c r="M364" t="s">
-        <v>1182</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="365" spans="1:13" x14ac:dyDescent="0.25">
@@ -17437,7 +17558,7 @@
     </row>
     <row r="367" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B367" s="29" t="s">
-        <v>1110</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="368" spans="1:13" x14ac:dyDescent="0.25">
@@ -17461,10 +17582,10 @@
         <v>155</v>
       </c>
       <c r="G371" t="s">
-        <v>1122</v>
+        <v>1098</v>
       </c>
       <c r="H371" t="s">
-        <v>1123</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="372" spans="1:13" ht="45" x14ac:dyDescent="0.25">
@@ -17540,13 +17661,13 @@
         <v>343</v>
       </c>
       <c r="K376" t="s">
-        <v>1043</v>
+        <v>1184</v>
       </c>
       <c r="L376" t="s">
-        <v>1183</v>
+        <v>1159</v>
       </c>
       <c r="M376" t="s">
-        <v>1182</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="377" spans="1:13" x14ac:dyDescent="0.25">
@@ -17586,10 +17707,10 @@
         <v>155</v>
       </c>
       <c r="G382" t="s">
-        <v>1122</v>
+        <v>1098</v>
       </c>
       <c r="H382" t="s">
-        <v>1123</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="383" spans="1:13" x14ac:dyDescent="0.25">
@@ -17632,10 +17753,10 @@
         <v>155</v>
       </c>
       <c r="G387" t="s">
-        <v>1122</v>
+        <v>1098</v>
       </c>
       <c r="H387" t="s">
-        <v>1123</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="388" spans="2:13" x14ac:dyDescent="0.25">
@@ -17697,13 +17818,13 @@
         <v>343</v>
       </c>
       <c r="K391" t="s">
-        <v>1044</v>
+        <v>1185</v>
       </c>
       <c r="L391" t="s">
-        <v>1183</v>
+        <v>1159</v>
       </c>
       <c r="M391" t="s">
-        <v>1182</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="392" spans="2:13" x14ac:dyDescent="0.25">
@@ -17718,7 +17839,7 @@
     </row>
     <row r="394" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B394" s="29" t="s">
-        <v>1110</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="395" spans="2:13" x14ac:dyDescent="0.25">
@@ -17741,10 +17862,10 @@
         <v>155</v>
       </c>
       <c r="G398" t="s">
-        <v>1122</v>
+        <v>1098</v>
       </c>
       <c r="H398" t="s">
-        <v>1123</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="399" spans="2:13" ht="45" x14ac:dyDescent="0.25">
@@ -17820,13 +17941,13 @@
         <v>343</v>
       </c>
       <c r="K403" t="s">
-        <v>1044</v>
+        <v>1185</v>
       </c>
       <c r="L403" t="s">
-        <v>1183</v>
+        <v>1159</v>
       </c>
       <c r="M403" t="s">
-        <v>1182</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="404" spans="1:13" x14ac:dyDescent="0.25">
@@ -17867,10 +17988,10 @@
         <v>155</v>
       </c>
       <c r="G409" t="s">
-        <v>1122</v>
+        <v>1098</v>
       </c>
       <c r="H409" t="s">
-        <v>1123</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="410" spans="1:13" x14ac:dyDescent="0.25">
@@ -17913,10 +18034,10 @@
         <v>155</v>
       </c>
       <c r="G414" t="s">
-        <v>1122</v>
+        <v>1098</v>
       </c>
       <c r="H414" t="s">
-        <v>1123</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="415" spans="1:13" x14ac:dyDescent="0.25">
@@ -17978,13 +18099,13 @@
         <v>343</v>
       </c>
       <c r="K418" t="s">
-        <v>1045</v>
+        <v>1186</v>
       </c>
       <c r="L418" t="s">
-        <v>1183</v>
+        <v>1159</v>
       </c>
       <c r="M418" t="s">
-        <v>1182</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="419" spans="2:13" x14ac:dyDescent="0.25">
@@ -18002,7 +18123,7 @@
     </row>
     <row r="421" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B421" s="29" t="s">
-        <v>1110</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="422" spans="2:13" x14ac:dyDescent="0.25">
@@ -18025,10 +18146,10 @@
         <v>155</v>
       </c>
       <c r="G425" t="s">
-        <v>1122</v>
+        <v>1098</v>
       </c>
       <c r="H425" t="s">
-        <v>1123</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="426" spans="2:13" ht="45" x14ac:dyDescent="0.25">
@@ -18104,13 +18225,13 @@
         <v>343</v>
       </c>
       <c r="K430" t="s">
-        <v>1045</v>
+        <v>1186</v>
       </c>
       <c r="L430" t="s">
-        <v>1183</v>
+        <v>1159</v>
       </c>
       <c r="M430" t="s">
-        <v>1182</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="431" spans="2:13" x14ac:dyDescent="0.25">
@@ -18150,10 +18271,10 @@
         <v>155</v>
       </c>
       <c r="G436" t="s">
-        <v>1122</v>
+        <v>1098</v>
       </c>
       <c r="H436" t="s">
-        <v>1123</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="437" spans="1:13" x14ac:dyDescent="0.25">
@@ -18197,10 +18318,10 @@
         <v>155</v>
       </c>
       <c r="G441" t="s">
-        <v>1122</v>
+        <v>1098</v>
       </c>
       <c r="H441" t="s">
-        <v>1123</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="442" spans="1:13" x14ac:dyDescent="0.25">
@@ -18262,13 +18383,13 @@
         <v>343</v>
       </c>
       <c r="K445" t="s">
-        <v>1046</v>
+        <v>1187</v>
       </c>
       <c r="L445" t="s">
-        <v>1183</v>
+        <v>1159</v>
       </c>
       <c r="M445" t="s">
-        <v>1182</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="446" spans="1:13" x14ac:dyDescent="0.25">
@@ -18283,7 +18404,7 @@
     </row>
     <row r="448" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B448" s="29" t="s">
-        <v>1110</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="449" spans="1:13" x14ac:dyDescent="0.25">
@@ -18306,10 +18427,10 @@
         <v>155</v>
       </c>
       <c r="G452" t="s">
-        <v>1122</v>
+        <v>1098</v>
       </c>
       <c r="H452" t="s">
-        <v>1123</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="453" spans="1:13" ht="45" x14ac:dyDescent="0.25">
@@ -18385,13 +18506,13 @@
         <v>343</v>
       </c>
       <c r="K457" t="s">
-        <v>1046</v>
+        <v>1187</v>
       </c>
       <c r="L457" t="s">
-        <v>1183</v>
+        <v>1159</v>
       </c>
       <c r="M457" t="s">
-        <v>1182</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="458" spans="1:13" x14ac:dyDescent="0.25">
@@ -18431,10 +18552,10 @@
         <v>155</v>
       </c>
       <c r="G463" t="s">
-        <v>1122</v>
+        <v>1098</v>
       </c>
       <c r="H463" t="s">
-        <v>1123</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="464" spans="1:13" x14ac:dyDescent="0.25">
@@ -18477,10 +18598,10 @@
         <v>155</v>
       </c>
       <c r="G468" t="s">
-        <v>1122</v>
+        <v>1098</v>
       </c>
       <c r="H468" t="s">
-        <v>1123</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="469" spans="2:13" x14ac:dyDescent="0.25">
@@ -18542,13 +18663,13 @@
         <v>343</v>
       </c>
       <c r="K472" t="s">
-        <v>1047</v>
+        <v>1188</v>
       </c>
       <c r="L472" t="s">
-        <v>1183</v>
+        <v>1159</v>
       </c>
       <c r="M472" t="s">
-        <v>1182</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="473" spans="2:13" x14ac:dyDescent="0.25">
@@ -18567,7 +18688,7 @@
     </row>
     <row r="475" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B475" s="29" t="s">
-        <v>1110</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="476" spans="2:13" x14ac:dyDescent="0.25">
@@ -18590,10 +18711,10 @@
         <v>155</v>
       </c>
       <c r="G479" t="s">
-        <v>1122</v>
+        <v>1098</v>
       </c>
       <c r="H479" t="s">
-        <v>1123</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="480" spans="2:13" ht="45" x14ac:dyDescent="0.25">
@@ -18669,13 +18790,13 @@
         <v>343</v>
       </c>
       <c r="K484" t="s">
-        <v>1047</v>
+        <v>1188</v>
       </c>
       <c r="L484" t="s">
-        <v>1183</v>
+        <v>1159</v>
       </c>
       <c r="M484" t="s">
-        <v>1182</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="485" spans="1:13" x14ac:dyDescent="0.25">
@@ -18715,10 +18836,10 @@
         <v>155</v>
       </c>
       <c r="G490" t="s">
-        <v>1122</v>
+        <v>1098</v>
       </c>
       <c r="H490" t="s">
-        <v>1123</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="491" spans="1:13" x14ac:dyDescent="0.25">
@@ -18761,10 +18882,10 @@
         <v>155</v>
       </c>
       <c r="G495" t="s">
-        <v>1122</v>
+        <v>1098</v>
       </c>
       <c r="H495" t="s">
-        <v>1123</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="496" spans="1:13" x14ac:dyDescent="0.25">
@@ -18826,13 +18947,13 @@
         <v>343</v>
       </c>
       <c r="K499" t="s">
-        <v>1048</v>
+        <v>1189</v>
       </c>
       <c r="L499" t="s">
-        <v>1183</v>
+        <v>1159</v>
       </c>
       <c r="M499" t="s">
-        <v>1182</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="500" spans="2:13" x14ac:dyDescent="0.25">
@@ -18847,7 +18968,7 @@
     </row>
     <row r="502" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B502" s="29" t="s">
-        <v>1110</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="503" spans="2:13" x14ac:dyDescent="0.25">
@@ -18870,10 +18991,10 @@
         <v>155</v>
       </c>
       <c r="G506" t="s">
-        <v>1122</v>
+        <v>1098</v>
       </c>
       <c r="H506" t="s">
-        <v>1123</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="507" spans="2:13" ht="45" x14ac:dyDescent="0.25">
@@ -18950,13 +19071,13 @@
         <v>343</v>
       </c>
       <c r="K511" t="s">
-        <v>1048</v>
+        <v>1189</v>
       </c>
       <c r="L511" t="s">
-        <v>1183</v>
+        <v>1159</v>
       </c>
       <c r="M511" t="s">
-        <v>1182</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="512" spans="2:13" x14ac:dyDescent="0.25">
@@ -18996,10 +19117,10 @@
         <v>155</v>
       </c>
       <c r="G517" t="s">
-        <v>1122</v>
+        <v>1098</v>
       </c>
       <c r="H517" t="s">
-        <v>1123</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="518" spans="1:13" x14ac:dyDescent="0.25">
@@ -19042,10 +19163,10 @@
         <v>155</v>
       </c>
       <c r="G522" t="s">
-        <v>1122</v>
+        <v>1098</v>
       </c>
       <c r="H522" t="s">
-        <v>1123</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="523" spans="1:13" x14ac:dyDescent="0.25">
@@ -19107,13 +19228,13 @@
         <v>343</v>
       </c>
       <c r="K526" t="s">
-        <v>1049</v>
+        <v>1190</v>
       </c>
       <c r="L526" t="s">
-        <v>1183</v>
+        <v>1159</v>
       </c>
       <c r="M526" t="s">
-        <v>1182</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="527" spans="1:13" x14ac:dyDescent="0.25">
@@ -19131,7 +19252,7 @@
     </row>
     <row r="529" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B529" s="29" t="s">
-        <v>1110</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="530" spans="1:13" x14ac:dyDescent="0.25">
@@ -19154,10 +19275,10 @@
         <v>155</v>
       </c>
       <c r="G533" t="s">
-        <v>1122</v>
+        <v>1098</v>
       </c>
       <c r="H533" t="s">
-        <v>1123</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="534" spans="1:13" ht="45" x14ac:dyDescent="0.25">
@@ -19233,13 +19354,13 @@
         <v>343</v>
       </c>
       <c r="K538" t="s">
-        <v>1049</v>
+        <v>1190</v>
       </c>
       <c r="L538" t="s">
-        <v>1183</v>
+        <v>1159</v>
       </c>
       <c r="M538" t="s">
-        <v>1182</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="539" spans="1:13" x14ac:dyDescent="0.25">
@@ -19271,10 +19392,10 @@
         <v>155</v>
       </c>
       <c r="G543" t="s">
-        <v>1122</v>
+        <v>1098</v>
       </c>
       <c r="H543" t="s">
-        <v>1123</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="544" spans="1:13" customFormat="1" x14ac:dyDescent="0.25">
@@ -19282,13 +19403,13 @@
         <v>103</v>
       </c>
       <c r="F544" t="s">
-        <v>1109</v>
+        <v>1085</v>
       </c>
       <c r="G544" t="s">
-        <v>1160</v>
+        <v>1136</v>
       </c>
       <c r="H544" t="s">
-        <v>1161</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="545" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
@@ -19306,8 +19427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A598CABF-5033-45AD-98B4-8BD01DC98155}">
   <dimension ref="A1:I80"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
@@ -19364,10 +19485,10 @@
         <v>155</v>
       </c>
       <c r="G3" t="s">
-        <v>1124</v>
+        <v>1100</v>
       </c>
       <c r="H3" t="s">
-        <v>1125</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -19456,10 +19577,10 @@
         <v>155</v>
       </c>
       <c r="G12" t="s">
-        <v>1124</v>
+        <v>1100</v>
       </c>
       <c r="H12" t="s">
-        <v>1125</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -19553,10 +19674,10 @@
         <v>155</v>
       </c>
       <c r="G21" t="s">
-        <v>1124</v>
+        <v>1100</v>
       </c>
       <c r="H21" t="s">
-        <v>1125</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
@@ -19644,10 +19765,10 @@
         <v>155</v>
       </c>
       <c r="G30" t="s">
-        <v>1124</v>
+        <v>1100</v>
       </c>
       <c r="H30" t="s">
-        <v>1125</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
@@ -19741,10 +19862,10 @@
         <v>155</v>
       </c>
       <c r="G39" t="s">
-        <v>1124</v>
+        <v>1100</v>
       </c>
       <c r="H39" t="s">
-        <v>1125</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.25">
@@ -19832,10 +19953,10 @@
         <v>155</v>
       </c>
       <c r="G48" t="s">
-        <v>1124</v>
+        <v>1100</v>
       </c>
       <c r="H48" t="s">
-        <v>1125</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.25">
@@ -19929,10 +20050,10 @@
         <v>155</v>
       </c>
       <c r="G57" t="s">
-        <v>1124</v>
+        <v>1100</v>
       </c>
       <c r="H57" t="s">
-        <v>1125</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.25">
@@ -20020,10 +20141,10 @@
         <v>155</v>
       </c>
       <c r="G66" t="s">
-        <v>1124</v>
+        <v>1100</v>
       </c>
       <c r="H66" t="s">
-        <v>1125</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
@@ -20106,10 +20227,10 @@
         <v>155</v>
       </c>
       <c r="G74" t="s">
-        <v>1124</v>
+        <v>1100</v>
       </c>
       <c r="H74" t="s">
-        <v>1125</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
@@ -20185,9 +20306,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08D25534-A009-4B32-8A9F-69AC75C4E3ED}">
   <dimension ref="A1:N123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K6" sqref="K6"/>
+      <selection pane="bottomLeft" activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20263,10 +20384,10 @@
         <v>155</v>
       </c>
       <c r="G3" t="s">
-        <v>1126</v>
+        <v>1102</v>
       </c>
       <c r="H3" t="s">
-        <v>1127</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -20277,19 +20398,19 @@
         <v>595</v>
       </c>
       <c r="G4" s="47" t="s">
-        <v>1162</v>
+        <v>1138</v>
       </c>
       <c r="H4" s="47" t="s">
-        <v>1163</v>
+        <v>1139</v>
       </c>
       <c r="J4" t="s">
-        <v>1055</v>
+        <v>1191</v>
       </c>
       <c r="K4" t="s">
-        <v>1184</v>
+        <v>1160</v>
       </c>
       <c r="L4" t="s">
-        <v>1185</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -20307,10 +20428,10 @@
         <v>155</v>
       </c>
       <c r="G7" t="s">
-        <v>1126</v>
+        <v>1102</v>
       </c>
       <c r="H7" t="s">
-        <v>1127</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -20324,7 +20445,7 @@
         <v>597</v>
       </c>
       <c r="H8" s="47" t="s">
-        <v>1164</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -20338,7 +20459,7 @@
         <v>599</v>
       </c>
       <c r="H9" s="47" t="s">
-        <v>1165</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -20352,7 +20473,7 @@
         <v>601</v>
       </c>
       <c r="H10" s="47" t="s">
-        <v>1166</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -20370,10 +20491,10 @@
         <v>155</v>
       </c>
       <c r="G13" t="s">
-        <v>1126</v>
+        <v>1102</v>
       </c>
       <c r="H13" t="s">
-        <v>1127</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -20409,10 +20530,10 @@
         <v>155</v>
       </c>
       <c r="G17" t="s">
-        <v>1126</v>
+        <v>1102</v>
       </c>
       <c r="H17" t="s">
-        <v>1127</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -20448,10 +20569,10 @@
         <v>155</v>
       </c>
       <c r="G21" t="s">
-        <v>1126</v>
+        <v>1102</v>
       </c>
       <c r="H21" t="s">
-        <v>1127</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -20478,7 +20599,7 @@
         <v>122</v>
       </c>
       <c r="C23" s="47" t="s">
-        <v>1168</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -20511,7 +20632,7 @@
         <v>122</v>
       </c>
       <c r="C26" s="47" t="s">
-        <v>1167</v>
+        <v>1143</v>
       </c>
       <c r="E26" s="50"/>
       <c r="I26"/>
@@ -20557,10 +20678,10 @@
         <v>155</v>
       </c>
       <c r="G31" t="s">
-        <v>1126</v>
+        <v>1102</v>
       </c>
       <c r="H31" t="s">
-        <v>1127</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -20603,10 +20724,10 @@
         <v>155</v>
       </c>
       <c r="G36" t="s">
-        <v>1126</v>
+        <v>1102</v>
       </c>
       <c r="H36" t="s">
-        <v>1127</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -20638,10 +20759,10 @@
         <v>155</v>
       </c>
       <c r="G40" t="s">
-        <v>1126</v>
+        <v>1102</v>
       </c>
       <c r="H40" t="s">
-        <v>1127</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -20677,10 +20798,10 @@
         <v>155</v>
       </c>
       <c r="G44" t="s">
-        <v>1126</v>
+        <v>1102</v>
       </c>
       <c r="H44" t="s">
-        <v>1127</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -20715,10 +20836,10 @@
         <v>155</v>
       </c>
       <c r="G48" t="s">
-        <v>1126</v>
+        <v>1102</v>
       </c>
       <c r="H48" t="s">
-        <v>1127</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.25">
@@ -20753,10 +20874,10 @@
         <v>155</v>
       </c>
       <c r="G52" t="s">
-        <v>1126</v>
+        <v>1102</v>
       </c>
       <c r="H52" t="s">
-        <v>1127</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.25">
@@ -20791,10 +20912,10 @@
         <v>155</v>
       </c>
       <c r="G56" t="s">
-        <v>1126</v>
+        <v>1102</v>
       </c>
       <c r="H56" t="s">
-        <v>1127</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.25">
@@ -20829,10 +20950,10 @@
         <v>155</v>
       </c>
       <c r="G60" t="s">
-        <v>1126</v>
+        <v>1102</v>
       </c>
       <c r="H60" t="s">
-        <v>1127</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.25">
@@ -20894,10 +21015,10 @@
         <v>155</v>
       </c>
       <c r="G67" t="s">
-        <v>1126</v>
+        <v>1102</v>
       </c>
       <c r="H67" t="s">
-        <v>1127</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.25">
@@ -20959,10 +21080,10 @@
         <v>155</v>
       </c>
       <c r="G74" t="s">
-        <v>1126</v>
+        <v>1102</v>
       </c>
       <c r="H74" t="s">
-        <v>1127</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="75" spans="2:8" x14ac:dyDescent="0.25">
@@ -21032,10 +21153,10 @@
         <v>155</v>
       </c>
       <c r="G82" t="s">
-        <v>1126</v>
+        <v>1102</v>
       </c>
       <c r="H82" t="s">
-        <v>1127</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="83" spans="2:8" x14ac:dyDescent="0.25">
@@ -21067,10 +21188,10 @@
         <v>155</v>
       </c>
       <c r="G86" t="s">
-        <v>1126</v>
+        <v>1102</v>
       </c>
       <c r="H86" t="s">
-        <v>1127</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="87" spans="2:8" x14ac:dyDescent="0.25">
@@ -21133,10 +21254,10 @@
         <v>155</v>
       </c>
       <c r="G92" t="s">
-        <v>1126</v>
+        <v>1102</v>
       </c>
       <c r="H92" t="s">
-        <v>1127</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="93" spans="2:8" x14ac:dyDescent="0.25">
@@ -21188,10 +21309,10 @@
         <v>155</v>
       </c>
       <c r="G97" t="s">
-        <v>1126</v>
+        <v>1102</v>
       </c>
       <c r="H97" t="s">
-        <v>1127</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="98" spans="2:8" x14ac:dyDescent="0.25">
@@ -21246,10 +21367,10 @@
         <v>155</v>
       </c>
       <c r="G102" t="s">
-        <v>1126</v>
+        <v>1102</v>
       </c>
       <c r="H102" t="s">
-        <v>1127</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="103" spans="2:8" x14ac:dyDescent="0.25">
@@ -21318,7 +21439,7 @@
         <v>122</v>
       </c>
       <c r="C108" s="47" t="s">
-        <v>1169</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="109" spans="2:8" x14ac:dyDescent="0.25">
@@ -21360,10 +21481,10 @@
         <v>155</v>
       </c>
       <c r="G114" t="s">
-        <v>1126</v>
+        <v>1102</v>
       </c>
       <c r="H114" t="s">
-        <v>1127</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="115" spans="2:8" x14ac:dyDescent="0.25">
@@ -21425,10 +21546,10 @@
         <v>155</v>
       </c>
       <c r="G121" t="s">
-        <v>1126</v>
+        <v>1102</v>
       </c>
       <c r="H121" t="s">
-        <v>1127</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="122" spans="2:8" customFormat="1" x14ac:dyDescent="0.25">
@@ -21436,13 +21557,13 @@
         <v>103</v>
       </c>
       <c r="F122" t="s">
-        <v>1111</v>
+        <v>1087</v>
       </c>
       <c r="G122" t="s">
-        <v>1170</v>
+        <v>1146</v>
       </c>
       <c r="H122" t="s">
-        <v>1171</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="123" spans="2:8" customFormat="1" x14ac:dyDescent="0.25">
@@ -21457,11 +21578,11 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5E3748E-0C02-4199-BD0F-3C6FE541843C}">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21496,10 +21617,10 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1053</v>
+        <v>1030</v>
       </c>
       <c r="B4" t="s">
-        <v>1054</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -21662,8 +21783,17 @@
         <v>986</v>
       </c>
     </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1165</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/app/config/tables/MIF/forms/MIF/MIF.xlsx
+++ b/app/config/tables/MIF/forms/MIF/MIF.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42118345-36C4-459F-B57C-80C85519BDB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07E01EDB-1895-4722-BF84-702B88CC97A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="649" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="649" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -3633,9 +3633,6 @@
     <t>O número de nascimentos não pode ser maior que o número de criança vivas + criança mortas + natimortos</t>
   </si>
   <si>
-    <t>data('PART')&lt;=calculates.SUM() || data('PART') == '99'</t>
-  </si>
-  <si>
     <t>(adate.diffInDays(data('CONT'), data('EXITDATA'))&lt;1 &amp;&amp; adate.diffInDays(data('EXITDATA'), data('lastvisitdate'))&lt;1) || (data('ESTADOVIS') != '2' &amp;&amp; data('ESTADOVIS') != '3') || adate.hasUncertainty(data('EXITDATA'))</t>
   </si>
   <si>
@@ -3737,6 +3734,9 @@
   </si>
   <si>
     <t>display.hide_delete_button</t>
+  </si>
+  <si>
+    <t>data('PART')&lt;=calculates.SUM() || data('PART') == '99' || data('PART') == null</t>
   </si>
 </sst>
 </file>
@@ -4608,24 +4608,24 @@
   <sheetData>
     <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>1192</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>1193</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>1194</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="B2" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C2" t="s">
         <v>1195</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1196</v>
       </c>
     </row>
   </sheetData>
@@ -10420,9 +10420,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F97EDFF-72E2-4781-A226-FCA8C7C63015}">
   <dimension ref="A1:L151"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J110" sqref="J110"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J111" sqref="J111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11513,7 +11513,7 @@
         <v>1114</v>
       </c>
       <c r="J110" t="s">
-        <v>1167</v>
+        <v>1200</v>
       </c>
       <c r="K110" t="s">
         <v>1162</v>
@@ -11896,9 +11896,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{568D4494-839B-4F7A-8E9C-72B7EC0E8A88}">
   <dimension ref="A1:O166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O161" sqref="O161"/>
+      <selection pane="bottomLeft" activeCell="D160" sqref="D160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11965,7 +11965,7 @@
         <v>256</v>
       </c>
       <c r="O1" s="26" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -12291,7 +12291,7 @@
         <v>264</v>
       </c>
       <c r="J28" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="K28" t="s">
         <v>1153</v>
@@ -12547,7 +12547,7 @@
         <v>283</v>
       </c>
       <c r="J50" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="K50" t="s">
         <v>915</v>
@@ -12767,7 +12767,7 @@
         <v>295</v>
       </c>
       <c r="J74" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="K74" t="s">
         <v>1156</v>
@@ -13606,10 +13606,10 @@
         <v>326</v>
       </c>
       <c r="M160" s="42" t="s">
+        <v>1197</v>
+      </c>
+      <c r="N160" s="42" t="s">
         <v>1198</v>
-      </c>
-      <c r="N160" s="42" t="s">
-        <v>1199</v>
       </c>
       <c r="O160" s="29" t="b">
         <v>1</v>
@@ -13866,7 +13866,7 @@
         <v>343</v>
       </c>
       <c r="K13" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="L13" t="s">
         <v>1159</v>
@@ -13990,7 +13990,7 @@
         <v>343</v>
       </c>
       <c r="K25" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="L25" t="s">
         <v>1159</v>
@@ -14147,7 +14147,7 @@
         <v>343</v>
       </c>
       <c r="K40" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="L40" t="s">
         <v>1159</v>
@@ -14273,7 +14273,7 @@
         <v>343</v>
       </c>
       <c r="K52" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="L52" t="s">
         <v>1159</v>
@@ -14431,7 +14431,7 @@
         <v>343</v>
       </c>
       <c r="K67" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="L67" t="s">
         <v>1159</v>
@@ -14554,7 +14554,7 @@
         <v>343</v>
       </c>
       <c r="K79" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="L79" t="s">
         <v>1159</v>
@@ -14712,7 +14712,7 @@
         <v>343</v>
       </c>
       <c r="K94" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="L94" t="s">
         <v>1159</v>
@@ -14838,7 +14838,7 @@
         <v>343</v>
       </c>
       <c r="K106" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="L106" t="s">
         <v>1159</v>
@@ -14995,7 +14995,7 @@
         <v>343</v>
       </c>
       <c r="K121" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="L121" t="s">
         <v>1159</v>
@@ -15119,7 +15119,7 @@
         <v>343</v>
       </c>
       <c r="K133" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="L133" t="s">
         <v>1159</v>
@@ -15276,7 +15276,7 @@
         <v>343</v>
       </c>
       <c r="K148" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="L148" t="s">
         <v>1159</v>
@@ -15403,7 +15403,7 @@
       </c>
       <c r="J160" s="42"/>
       <c r="K160" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="L160" t="s">
         <v>1159</v>
@@ -15560,7 +15560,7 @@
         <v>343</v>
       </c>
       <c r="K175" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="L175" t="s">
         <v>1159</v>
@@ -15683,7 +15683,7 @@
         <v>343</v>
       </c>
       <c r="K187" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="L187" t="s">
         <v>1159</v>
@@ -15841,7 +15841,7 @@
         <v>343</v>
       </c>
       <c r="K202" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="L202" t="s">
         <v>1159</v>
@@ -15967,7 +15967,7 @@
         <v>343</v>
       </c>
       <c r="K214" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="L214" t="s">
         <v>1159</v>
@@ -16124,7 +16124,7 @@
         <v>343</v>
       </c>
       <c r="K229" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="L229" t="s">
         <v>1159</v>
@@ -16248,7 +16248,7 @@
         <v>343</v>
       </c>
       <c r="K241" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="L241" t="s">
         <v>1159</v>
@@ -16405,7 +16405,7 @@
         <v>343</v>
       </c>
       <c r="K256" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="L256" t="s">
         <v>1159</v>
@@ -16532,7 +16532,7 @@
         <v>343</v>
       </c>
       <c r="K268" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="L268" t="s">
         <v>1159</v>
@@ -16689,7 +16689,7 @@
         <v>343</v>
       </c>
       <c r="K283" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="L283" t="s">
         <v>1159</v>
@@ -16812,7 +16812,7 @@
         <v>343</v>
       </c>
       <c r="K295" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="L295" t="s">
         <v>1159</v>
@@ -16970,7 +16970,7 @@
         <v>343</v>
       </c>
       <c r="K310" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="L310" t="s">
         <v>1159</v>
@@ -17096,7 +17096,7 @@
         <v>343</v>
       </c>
       <c r="K322" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="L322" t="s">
         <v>1159</v>
@@ -17254,7 +17254,7 @@
         <v>343</v>
       </c>
       <c r="K337" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="L337" t="s">
         <v>1159</v>
@@ -17377,7 +17377,7 @@
         <v>343</v>
       </c>
       <c r="K349" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="L349" t="s">
         <v>1159</v>
@@ -17534,7 +17534,7 @@
         <v>343</v>
       </c>
       <c r="K364" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="L364" t="s">
         <v>1159</v>
@@ -17661,7 +17661,7 @@
         <v>343</v>
       </c>
       <c r="K376" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="L376" t="s">
         <v>1159</v>
@@ -17818,7 +17818,7 @@
         <v>343</v>
       </c>
       <c r="K391" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="L391" t="s">
         <v>1159</v>
@@ -17941,7 +17941,7 @@
         <v>343</v>
       </c>
       <c r="K403" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="L403" t="s">
         <v>1159</v>
@@ -18099,7 +18099,7 @@
         <v>343</v>
       </c>
       <c r="K418" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="L418" t="s">
         <v>1159</v>
@@ -18225,7 +18225,7 @@
         <v>343</v>
       </c>
       <c r="K430" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="L430" t="s">
         <v>1159</v>
@@ -18383,7 +18383,7 @@
         <v>343</v>
       </c>
       <c r="K445" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="L445" t="s">
         <v>1159</v>
@@ -18506,7 +18506,7 @@
         <v>343</v>
       </c>
       <c r="K457" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="L457" t="s">
         <v>1159</v>
@@ -18663,7 +18663,7 @@
         <v>343</v>
       </c>
       <c r="K472" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="L472" t="s">
         <v>1159</v>
@@ -18790,7 +18790,7 @@
         <v>343</v>
       </c>
       <c r="K484" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="L484" t="s">
         <v>1159</v>
@@ -18947,7 +18947,7 @@
         <v>343</v>
       </c>
       <c r="K499" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="L499" t="s">
         <v>1159</v>
@@ -19071,7 +19071,7 @@
         <v>343</v>
       </c>
       <c r="K511" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="L511" t="s">
         <v>1159</v>
@@ -19228,7 +19228,7 @@
         <v>343</v>
       </c>
       <c r="K526" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="L526" t="s">
         <v>1159</v>
@@ -19354,7 +19354,7 @@
         <v>343</v>
       </c>
       <c r="K538" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="L538" t="s">
         <v>1159</v>
@@ -20404,7 +20404,7 @@
         <v>1139</v>
       </c>
       <c r="J4" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="K4" t="s">
         <v>1160</v>

--- a/app/config/tables/MIF/forms/MIF/MIF.xlsx
+++ b/app/config/tables/MIF/forms/MIF/MIF.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0B73B31-F45F-4FEA-A078-533FC7494800}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0450F2C-2A39-4108-B29E-D27520C16C40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="649" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="649" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -9709,7 +9709,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{373816BB-105F-4FD4-99CF-DB87DCC19FA9}">
   <dimension ref="A1:K74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
     </sheetView>
@@ -13728,15 +13728,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF620B59-79FA-4646-92DD-ED95E169989F}">
   <dimension ref="A1:M545"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A522" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H534" sqref="H534"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A15" sqref="A15:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.42578125" style="29" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" style="29" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" style="29" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.5703125" style="29" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.5703125" style="29" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.42578125" style="29" bestFit="1" customWidth="1"/>

--- a/app/config/tables/MIF/forms/MIF/MIF.xlsx
+++ b/app/config/tables/MIF/forms/MIF/MIF.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C724487-A9E8-4E56-B4D5-0BC6B3DD7164}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{486101EE-55C2-47A8-9E65-537F6B566699}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="-2100" windowWidth="19440" windowHeight="15000" tabRatio="649" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="649" firstSheet="10" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -4713,9 +4713,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFF3D0A7-17A8-4B35-89BF-E7F3088D1597}">
   <dimension ref="A1:E132"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B78" sqref="B78"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12264,7 +12264,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{568D4494-839B-4F7A-8E9C-72B7EC0E8A88}">
   <dimension ref="A1:O175"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A137" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A164" sqref="A164"/>
     </sheetView>
